--- a/wbs_format.xlsx
+++ b/wbs_format.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia.m.mabruk\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\skype_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10992"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <definedName name="v_summary_start_period">IF(v_summary_start_period_label&lt;&gt;"",LEFT(v_summary_start_period_label,2)+0,v_rpl_adep_period_start)</definedName>
     <definedName name="wbs_range" localSheetId="0">Output!$C$9:$K$1002</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>myTE Period</t>
   </si>
@@ -93,9 +93,6 @@
     <t>WBS</t>
   </si>
   <si>
-    <t>nishant.e.sinha</t>
-  </si>
-  <si>
     <t>Framework</t>
   </si>
   <si>
@@ -111,511 +108,7 @@
     <t>A1D2V004</t>
   </si>
   <si>
-    <t>mamta.a.rajnayak</t>
-  </si>
-  <si>
-    <t>Australia - MC Analytics - Run</t>
-  </si>
-  <si>
-    <t>AORW900A</t>
-  </si>
-  <si>
-    <t>mandovi.ray</t>
-  </si>
-  <si>
-    <t>CRM CTA &amp; CM</t>
-  </si>
-  <si>
-    <t>AOVZ9002</t>
-  </si>
-  <si>
-    <t>harshila.srivastav</t>
-  </si>
-  <si>
-    <t>A2TLU004</t>
-  </si>
-  <si>
-    <t>moumita.a.ghosh</t>
-  </si>
-  <si>
-    <t>Australia - MC LIM Run</t>
-  </si>
-  <si>
-    <t>Onshore</t>
-  </si>
-  <si>
-    <t>A0CQI004</t>
-  </si>
-  <si>
-    <t>nadya.chernysheva</t>
-  </si>
-  <si>
-    <t>CM - LCA</t>
-  </si>
-  <si>
-    <t>ARO4K001</t>
-  </si>
-  <si>
-    <t>gokul.murugappan</t>
-  </si>
-  <si>
-    <t>Campaigns</t>
-  </si>
-  <si>
-    <t>krunal.jobanputra</t>
-  </si>
-  <si>
-    <t>AOVZ9004</t>
-  </si>
-  <si>
-    <t>soumyadeep.maiti</t>
-  </si>
-  <si>
-    <t>abhay.a.joshi</t>
-  </si>
-  <si>
-    <t>AOVZ9003</t>
-  </si>
-  <si>
-    <t>vivek.u.sharma</t>
-  </si>
-  <si>
-    <t>CTA - AO</t>
-  </si>
-  <si>
-    <t>ARKME00F</t>
-  </si>
-  <si>
-    <t>prachi.x.singh</t>
-  </si>
-  <si>
-    <t>suchit.malhotra</t>
-  </si>
-  <si>
-    <t>s.juneja</t>
-  </si>
-  <si>
-    <t>ARKME008</t>
-  </si>
-  <si>
-    <t>debashis.chatterjee</t>
-  </si>
-  <si>
-    <t>ashu.jindal</t>
-  </si>
-  <si>
-    <t>rajat.jatana</t>
-  </si>
-  <si>
-    <t>CTA - BPO</t>
-  </si>
-  <si>
-    <t>sanjeev.kumar.tiwari</t>
-  </si>
-  <si>
-    <t>lipy.kundan</t>
-  </si>
-  <si>
-    <t>a.p.verma</t>
-  </si>
-  <si>
-    <t>kanika.c.agarwal</t>
-  </si>
-  <si>
-    <t>rahul.bhasin</t>
-  </si>
-  <si>
-    <t>r.c.agarwal</t>
-  </si>
-  <si>
-    <t>CTA - MC</t>
-  </si>
-  <si>
-    <t>n.e.garg</t>
-  </si>
-  <si>
-    <t>charu.nahata</t>
-  </si>
-  <si>
-    <t>t.munoz.nunez</t>
-  </si>
-  <si>
-    <t>AORW9009</t>
-  </si>
-  <si>
-    <t>shyama.k.u</t>
-  </si>
-  <si>
-    <t>osnat.zaretsky</t>
-  </si>
-  <si>
-    <t>AORW9002</t>
-  </si>
-  <si>
-    <t>daniel.sizer</t>
-  </si>
-  <si>
-    <t>marek.seralis</t>
-  </si>
-  <si>
-    <t>A0FP8002</t>
-  </si>
-  <si>
-    <t>a.aguilar.torres</t>
-  </si>
-  <si>
-    <t>guillaume.leorat</t>
-  </si>
-  <si>
-    <t>govindarajan.jk</t>
-  </si>
-  <si>
-    <t>wojciech.osuch</t>
-  </si>
-  <si>
-    <t>maximilian.kurth</t>
-  </si>
-  <si>
-    <t>AORW900C</t>
-  </si>
-  <si>
-    <t>julia.behrens</t>
-  </si>
-  <si>
-    <t>nifemi.m.salami</t>
-  </si>
-  <si>
-    <t>karan.d.singh</t>
-  </si>
-  <si>
-    <t>CTA - SI</t>
-  </si>
-  <si>
-    <t>AORV700U</t>
-  </si>
-  <si>
-    <t>hira.aqeel</t>
-  </si>
-  <si>
-    <t>barkha.neota</t>
-  </si>
-  <si>
-    <t>Change</t>
-  </si>
-  <si>
-    <t>CRM Switzerland</t>
-  </si>
-  <si>
-    <t>Switzerland - MC</t>
-  </si>
-  <si>
-    <t>sanjay.h.kumar</t>
-  </si>
-  <si>
-    <t>Switzerland - AO</t>
-  </si>
-  <si>
-    <t>AUQJP005</t>
-  </si>
-  <si>
-    <t>ajit.kumar.jain</t>
-  </si>
-  <si>
-    <t>tarun.shukla</t>
-  </si>
-  <si>
-    <t>PCO038 - CM Enhancement BPO</t>
-  </si>
-  <si>
-    <t>PCO038 - Convenience Retail</t>
-  </si>
-  <si>
-    <t>AVTPK007</t>
-  </si>
-  <si>
-    <t>mandeep.dhensa</t>
-  </si>
-  <si>
-    <t>AVTPK002</t>
-  </si>
-  <si>
-    <t>deniz.kog</t>
-  </si>
-  <si>
-    <t>petros.mandalis</t>
-  </si>
-  <si>
-    <t>ugur.kemal.solak</t>
-  </si>
-  <si>
-    <t>PCO053- CRM Turkey LIM</t>
-  </si>
-  <si>
-    <t>PCO053 - Turkey LIM</t>
-  </si>
-  <si>
-    <t>AYB3X004</t>
-  </si>
-  <si>
-    <t>simran.haathiramani</t>
-  </si>
-  <si>
-    <t>PCO054-Competitor Pricing Feed</t>
-  </si>
-  <si>
-    <t>PCO054 - Competitor Pricing Feed</t>
-  </si>
-  <si>
-    <t>AYB3U003</t>
-  </si>
-  <si>
-    <t>oliver.harrison</t>
-  </si>
-  <si>
-    <t>PCO056 - UK LIM Team Change</t>
-  </si>
-  <si>
-    <t>PCO066 - Analytics Team Adjustment</t>
-  </si>
-  <si>
-    <t>karthik.k.veldandi</t>
-  </si>
-  <si>
-    <t>PCO067 - AO Support</t>
-  </si>
-  <si>
-    <t>farah.saleem</t>
-  </si>
-  <si>
-    <t>sumit.a.kaushik</t>
-  </si>
-  <si>
-    <t>monika.kashyap</t>
-  </si>
-  <si>
-    <t>Sanjay.h.kumar</t>
-  </si>
-  <si>
-    <t>Ankur.n.jain</t>
-  </si>
-  <si>
-    <t>pragati.c.sharma</t>
-  </si>
-  <si>
-    <t>rohan.d.kapoor</t>
-  </si>
-  <si>
-    <t>a.figueroa.domecq</t>
-  </si>
-  <si>
-    <t>PCO081</t>
-  </si>
-  <si>
-    <t>PCO081-Spain LIM Team Changes</t>
-  </si>
-  <si>
-    <t>anya.libova</t>
-  </si>
-  <si>
-    <t>PCO083 - UK LIM Support</t>
-  </si>
-  <si>
-    <t>georgios.passalis</t>
-  </si>
-  <si>
-    <t>PCO091 - New Segmentation Delivery</t>
-  </si>
-  <si>
-    <t>AORW9003</t>
-  </si>
-  <si>
-    <t>siddarth.goja</t>
-  </si>
-  <si>
-    <t>philipp.traeder</t>
-  </si>
-  <si>
-    <t>PCO095 LIM Extension</t>
-  </si>
-  <si>
-    <t>AORW9007</t>
-  </si>
-  <si>
-    <t>christine.connor</t>
-  </si>
-  <si>
-    <t>AORW900X</t>
-  </si>
-  <si>
-    <t>saranya.rajaratnam</t>
-  </si>
-  <si>
-    <t>PCO104 Adobe Camp Mgmt</t>
-  </si>
-  <si>
-    <t>PCO104 - Adobe Campaigns- Build</t>
-  </si>
-  <si>
-    <t>A4S7Y002</t>
-  </si>
-  <si>
-    <t>luke.g.herlihy</t>
-  </si>
-  <si>
-    <t>reshma.x.ramachandra</t>
-  </si>
-  <si>
-    <t>A4SOD003</t>
-  </si>
-  <si>
-    <t>aditya.rajurkar</t>
-  </si>
-  <si>
-    <t>raman.b.gupta</t>
-  </si>
-  <si>
-    <t>A4SOE005</t>
-  </si>
-  <si>
-    <t>vinaykumar.midde</t>
-  </si>
-  <si>
-    <t>A4SOE004</t>
-  </si>
-  <si>
-    <t>ben.j.terry</t>
-  </si>
-  <si>
-    <t>kani.manoharan</t>
-  </si>
-  <si>
-    <t>pramod.sudhindra</t>
-  </si>
-  <si>
-    <t>kushal.kumar.arya</t>
-  </si>
-  <si>
-    <t>PCO104 - Adobe Campaigns- Run</t>
-  </si>
-  <si>
-    <t>mithil.taneja</t>
-  </si>
-  <si>
-    <t>A4SOD004</t>
-  </si>
-  <si>
-    <t>gayatri.mutakekar</t>
-  </si>
-  <si>
-    <t>hasan.tahsin.ersen</t>
-  </si>
-  <si>
-    <t>CRM Turkey LCA</t>
-  </si>
-  <si>
-    <t>PCO106 Turkish LIM Extension</t>
-  </si>
-  <si>
-    <t>A6NQW002</t>
-  </si>
-  <si>
-    <t>n.renda</t>
-  </si>
-  <si>
-    <t>BP CRM Turkey</t>
-  </si>
-  <si>
-    <t>A3PW1003</t>
-  </si>
-  <si>
-    <t>evangelos.vassiliou</t>
-  </si>
-  <si>
-    <t>A3PW1005</t>
-  </si>
-  <si>
-    <t>eleni.stathakou</t>
-  </si>
-  <si>
-    <t>paraskevi.sakka</t>
-  </si>
-  <si>
-    <t>justyna.kubicka</t>
-  </si>
-  <si>
-    <t>PCO109</t>
-  </si>
-  <si>
-    <t>PCO109-ESA Insights (Extension)</t>
-  </si>
-  <si>
-    <t>celine.sochala</t>
-  </si>
-  <si>
-    <t>PCO 116 - Celine Ext. 2017</t>
-  </si>
-  <si>
-    <t>ARO4K003</t>
-  </si>
-  <si>
-    <t>tobias.voege</t>
-  </si>
-  <si>
-    <t>CRM Austria Danube</t>
-  </si>
-  <si>
-    <t>PCO127 - Danube Austria</t>
-  </si>
-  <si>
-    <t>A5GQZ003</t>
-  </si>
-  <si>
-    <t>PCO133</t>
-  </si>
-  <si>
-    <t>PCO133 - UK LIM Services</t>
-  </si>
-  <si>
-    <t>AORW900Y</t>
-  </si>
-  <si>
-    <t>PCO 139</t>
-  </si>
-  <si>
-    <t>AORW9001</t>
-  </si>
-  <si>
-    <t>caoilfhionn.buckley</t>
-  </si>
-  <si>
-    <t>kapil.kochar</t>
-  </si>
-  <si>
-    <t>PCO 148</t>
-  </si>
-  <si>
-    <t>joshita.agrawal</t>
-  </si>
-  <si>
-    <t>SI Holding WBS</t>
-  </si>
-  <si>
-    <t>kanika.ailawadhi</t>
-  </si>
-  <si>
-    <t>meenu.rana</t>
-  </si>
-  <si>
-    <t>mukul.malik</t>
-  </si>
-  <si>
-    <t>pinky.shahi</t>
-  </si>
-  <si>
-    <t>ruchi.nanakchand</t>
-  </si>
-  <si>
-    <t>n.bharti</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -774,15 +267,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>53340</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1822450</xdr:colOff>
+          <xdr:colOff>1821180</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>146050</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -814,14 +307,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -866,6 +359,7 @@
       <sheetName val="Email"/>
       <sheetName val="Cost Collector Update"/>
       <sheetName val="PM Emails"/>
+      <sheetName val="NEW BP CRM Resource Profile 121"/>
     </sheetNames>
     <definedNames>
       <definedName name="Get_Projects"/>
@@ -60001,6 +59495,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -60306,25 +59801,25 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:P385"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" customWidth="1"/>
-    <col min="6" max="6" width="31.54296875" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" customWidth="1"/>
-    <col min="9" max="13" width="15.54296875" customWidth="1"/>
-    <col min="14" max="14" width="7.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="13" width="15.5546875" customWidth="1"/>
+    <col min="14" max="14" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="str">
         <f>v_estimate_name&amp;" Estimation Tool // Email Generation Check"</f>
         <v>BP CRM Estimation Tool // Email Generation Check</v>
@@ -60332,12 +59827,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C2">
         <v>43069</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I3" s="3">
         <f>IF(DAY($C$4)=15,IF(AND(DAY(I$4)&lt;=DAY($C$4),MONTH($I$4)=MONTH(I$4)),1,""),IF(DAY(I$4)+4&gt;15,1,""))</f>
         <v>1</v>
@@ -60359,7 +59854,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -60389,7 +59884,7 @@
         <v>43094</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
@@ -60402,7 +59897,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
@@ -60414,7 +59909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>4</v>
       </c>
@@ -60449,7656 +59944,2310 @@
         <v>43080</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
-        <v>12</v>
+      <c r="I9" s="13" t="e">
+        <f>IF(AND($C9&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D9,'[1]Data Output'!$C:$C,$E9,'[1]Data Output'!$D:$D,$F9,'[1]Data Output'!$G:$G,$C9,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D9,'[1]Data Output'!$C:$C,$E9,'[1]Data Output'!$G:$G,$C9,'[1]Data Output'!$D:$D,$F9,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
+        <v>#VALUE!</v>
       </c>
-      <c r="I9" s="13">
-        <f>IF(AND($C9&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D9,'[1]Data Output'!$C:$C,$E9,'[1]Data Output'!$D:$D,$F9,'[1]Data Output'!$G:$G,$C9,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D9,'[1]Data Output'!$C:$C,$E9,'[1]Data Output'!$G:$G,$C9,'[1]Data Output'!$D:$D,$F9,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.7841000000000005</v>
+      <c r="J9" s="13" t="e">
+        <f>IF(AND($C9&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D9,'[1]Data Output'!$C:$C,$E9,'[1]Data Output'!$D:$D,$F9,'[1]Data Output'!$G:$G,$C9,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D9,'[1]Data Output'!$C:$C,$E9,'[1]Data Output'!$G:$G,$C9,'[1]Data Output'!$D:$D,$F9,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
+        <v>#VALUE!</v>
       </c>
-      <c r="J9" s="13">
-        <f>IF(AND($C9&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D9,'[1]Data Output'!$C:$C,$E9,'[1]Data Output'!$D:$D,$F9,'[1]Data Output'!$G:$G,$C9,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D9,'[1]Data Output'!$C:$C,$E9,'[1]Data Output'!$G:$G,$C9,'[1]Data Output'!$D:$D,$F9,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>38.920499999999997</v>
-      </c>
-      <c r="K9" s="13">
+      <c r="K9" s="13" t="e">
         <f>IF(AND($C9&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D9,'[1]Data Output'!$C:$C,$E9,'[1]Data Output'!$D:$D,$F9,'[1]Data Output'!$G:$G,$C9,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D9,'[1]Data Output'!$C:$C,$E9,'[1]Data Output'!$G:$G,$C9,'[1]Data Output'!$D:$D,$F9,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>38.920499999999997</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="13">
-        <f>IF(AND($C10&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D10,'[1]Data Output'!$C:$C,$E10,'[1]Data Output'!$D:$D,$F10,'[1]Data Output'!$G:$G,$C10,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D10,'[1]Data Output'!$C:$C,$E10,'[1]Data Output'!$G:$G,$C10,'[1]Data Output'!$D:$D,$F10,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>0.45</v>
-      </c>
-      <c r="J10" s="13">
-        <f>IF(AND($C10&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D10,'[1]Data Output'!$C:$C,$E10,'[1]Data Output'!$D:$D,$F10,'[1]Data Output'!$G:$G,$C10,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D10,'[1]Data Output'!$C:$C,$E10,'[1]Data Output'!$G:$G,$C10,'[1]Data Output'!$D:$D,$F10,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>2.25</v>
-      </c>
-      <c r="K10" s="13">
-        <f>IF(AND($C10&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D10,'[1]Data Output'!$C:$C,$E10,'[1]Data Output'!$D:$D,$F10,'[1]Data Output'!$G:$G,$C10,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D10,'[1]Data Output'!$C:$C,$E10,'[1]Data Output'!$G:$G,$C10,'[1]Data Output'!$D:$D,$F10,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>2.25</v>
-      </c>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="13">
-        <f>IF(AND($C11&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D11,'[1]Data Output'!$C:$C,$E11,'[1]Data Output'!$D:$D,$F11,'[1]Data Output'!$G:$G,$C11,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D11,'[1]Data Output'!$C:$C,$E11,'[1]Data Output'!$G:$G,$C11,'[1]Data Output'!$D:$D,$F11,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>1.7037</v>
-      </c>
-      <c r="J11" s="13">
-        <f>IF(AND($C11&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D11,'[1]Data Output'!$C:$C,$E11,'[1]Data Output'!$D:$D,$F11,'[1]Data Output'!$G:$G,$C11,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D11,'[1]Data Output'!$C:$C,$E11,'[1]Data Output'!$G:$G,$C11,'[1]Data Output'!$D:$D,$F11,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>8.5184999999999995</v>
-      </c>
-      <c r="K11" s="13">
-        <f>IF(AND($C11&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D11,'[1]Data Output'!$C:$C,$E11,'[1]Data Output'!$D:$D,$F11,'[1]Data Output'!$G:$G,$C11,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D11,'[1]Data Output'!$C:$C,$E11,'[1]Data Output'!$G:$G,$C11,'[1]Data Output'!$D:$D,$F11,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>8.5184999999999995</v>
-      </c>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="13">
-        <f>IF(AND($C12&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D12,'[1]Data Output'!$C:$C,$E12,'[1]Data Output'!$D:$D,$F12,'[1]Data Output'!$G:$G,$C12,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D12,'[1]Data Output'!$C:$C,$E12,'[1]Data Output'!$G:$G,$C12,'[1]Data Output'!$D:$D,$F12,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.6499999999999995</v>
-      </c>
-      <c r="J12" s="13">
-        <f>IF(AND($C12&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D12,'[1]Data Output'!$C:$C,$E12,'[1]Data Output'!$D:$D,$F12,'[1]Data Output'!$G:$G,$C12,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D12,'[1]Data Output'!$C:$C,$E12,'[1]Data Output'!$G:$G,$C12,'[1]Data Output'!$D:$D,$F12,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>38.25</v>
-      </c>
-      <c r="K12" s="13">
-        <f>IF(AND($C12&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D12,'[1]Data Output'!$C:$C,$E12,'[1]Data Output'!$D:$D,$F12,'[1]Data Output'!$G:$G,$C12,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D12,'[1]Data Output'!$C:$C,$E12,'[1]Data Output'!$G:$G,$C12,'[1]Data Output'!$D:$D,$F12,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>38.25</v>
-      </c>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="13">
-        <f>IF(AND($C13&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D13,'[1]Data Output'!$C:$C,$E13,'[1]Data Output'!$D:$D,$F13,'[1]Data Output'!$G:$G,$C13,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D13,'[1]Data Output'!$C:$C,$E13,'[1]Data Output'!$G:$G,$C13,'[1]Data Output'!$D:$D,$F13,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>8</v>
-      </c>
-      <c r="J13" s="13">
-        <f>IF(AND($C13&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D13,'[1]Data Output'!$C:$C,$E13,'[1]Data Output'!$D:$D,$F13,'[1]Data Output'!$G:$G,$C13,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D13,'[1]Data Output'!$C:$C,$E13,'[1]Data Output'!$G:$G,$C13,'[1]Data Output'!$D:$D,$F13,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>36</v>
-      </c>
-      <c r="K13" s="13">
-        <f>IF(AND($C13&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D13,'[1]Data Output'!$C:$C,$E13,'[1]Data Output'!$D:$D,$F13,'[1]Data Output'!$G:$G,$C13,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D13,'[1]Data Output'!$C:$C,$E13,'[1]Data Output'!$G:$G,$C13,'[1]Data Output'!$D:$D,$F13,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>32</v>
-      </c>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="13">
-        <f>IF(AND($C14&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D14,'[1]Data Output'!$C:$C,$E14,'[1]Data Output'!$D:$D,$F14,'[1]Data Output'!$G:$G,$C14,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D14,'[1]Data Output'!$C:$C,$E14,'[1]Data Output'!$G:$G,$C14,'[1]Data Output'!$D:$D,$F14,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="13">
-        <f>IF(AND($C14&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D14,'[1]Data Output'!$C:$C,$E14,'[1]Data Output'!$D:$D,$F14,'[1]Data Output'!$G:$G,$C14,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D14,'[1]Data Output'!$C:$C,$E14,'[1]Data Output'!$G:$G,$C14,'[1]Data Output'!$D:$D,$F14,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
-      <c r="K14" s="13">
-        <f>IF(AND($C14&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D14,'[1]Data Output'!$C:$C,$E14,'[1]Data Output'!$D:$D,$F14,'[1]Data Output'!$G:$G,$C14,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D14,'[1]Data Output'!$C:$C,$E14,'[1]Data Output'!$G:$G,$C14,'[1]Data Output'!$D:$D,$F14,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="13">
-        <f>IF(AND($C15&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D15,'[1]Data Output'!$C:$C,$E15,'[1]Data Output'!$D:$D,$F15,'[1]Data Output'!$G:$G,$C15,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D15,'[1]Data Output'!$C:$C,$E15,'[1]Data Output'!$G:$G,$C15,'[1]Data Output'!$D:$D,$F15,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J15" s="13">
-        <f>IF(AND($C15&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D15,'[1]Data Output'!$C:$C,$E15,'[1]Data Output'!$D:$D,$F15,'[1]Data Output'!$G:$G,$C15,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D15,'[1]Data Output'!$C:$C,$E15,'[1]Data Output'!$G:$G,$C15,'[1]Data Output'!$D:$D,$F15,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K15" s="13">
-        <f>IF(AND($C15&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D15,'[1]Data Output'!$C:$C,$E15,'[1]Data Output'!$D:$D,$F15,'[1]Data Output'!$G:$G,$C15,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D15,'[1]Data Output'!$C:$C,$E15,'[1]Data Output'!$G:$G,$C15,'[1]Data Output'!$D:$D,$F15,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="13">
-        <f>IF(AND($C16&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D16,'[1]Data Output'!$C:$C,$E16,'[1]Data Output'!$D:$D,$F16,'[1]Data Output'!$G:$G,$C16,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D16,'[1]Data Output'!$C:$C,$E16,'[1]Data Output'!$G:$G,$C16,'[1]Data Output'!$D:$D,$F16,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J16" s="13">
-        <f>IF(AND($C16&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D16,'[1]Data Output'!$C:$C,$E16,'[1]Data Output'!$D:$D,$F16,'[1]Data Output'!$G:$G,$C16,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D16,'[1]Data Output'!$C:$C,$E16,'[1]Data Output'!$G:$G,$C16,'[1]Data Output'!$D:$D,$F16,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K16" s="13">
-        <f>IF(AND($C16&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D16,'[1]Data Output'!$C:$C,$E16,'[1]Data Output'!$D:$D,$F16,'[1]Data Output'!$G:$G,$C16,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D16,'[1]Data Output'!$C:$C,$E16,'[1]Data Output'!$G:$G,$C16,'[1]Data Output'!$D:$D,$F16,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="13">
-        <f>IF(AND($C17&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D17,'[1]Data Output'!$C:$C,$E17,'[1]Data Output'!$D:$D,$F17,'[1]Data Output'!$G:$G,$C17,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D17,'[1]Data Output'!$C:$C,$E17,'[1]Data Output'!$G:$G,$C17,'[1]Data Output'!$D:$D,$F17,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J17" s="13">
-        <f>IF(AND($C17&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D17,'[1]Data Output'!$C:$C,$E17,'[1]Data Output'!$D:$D,$F17,'[1]Data Output'!$G:$G,$C17,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D17,'[1]Data Output'!$C:$C,$E17,'[1]Data Output'!$G:$G,$C17,'[1]Data Output'!$D:$D,$F17,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K17" s="13">
-        <f>IF(AND($C17&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D17,'[1]Data Output'!$C:$C,$E17,'[1]Data Output'!$D:$D,$F17,'[1]Data Output'!$G:$G,$C17,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D17,'[1]Data Output'!$C:$C,$E17,'[1]Data Output'!$G:$G,$C17,'[1]Data Output'!$D:$D,$F17,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="13">
-        <f>IF(AND($C18&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D18,'[1]Data Output'!$C:$C,$E18,'[1]Data Output'!$D:$D,$F18,'[1]Data Output'!$G:$G,$C18,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D18,'[1]Data Output'!$C:$C,$E18,'[1]Data Output'!$G:$G,$C18,'[1]Data Output'!$D:$D,$F18,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J18" s="13">
-        <f>IF(AND($C18&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D18,'[1]Data Output'!$C:$C,$E18,'[1]Data Output'!$D:$D,$F18,'[1]Data Output'!$G:$G,$C18,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D18,'[1]Data Output'!$C:$C,$E18,'[1]Data Output'!$G:$G,$C18,'[1]Data Output'!$D:$D,$F18,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K18" s="13">
-        <f>IF(AND($C18&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D18,'[1]Data Output'!$C:$C,$E18,'[1]Data Output'!$D:$D,$F18,'[1]Data Output'!$G:$G,$C18,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D18,'[1]Data Output'!$C:$C,$E18,'[1]Data Output'!$G:$G,$C18,'[1]Data Output'!$D:$D,$F18,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="13">
-        <f>IF(AND($C19&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D19,'[1]Data Output'!$C:$C,$E19,'[1]Data Output'!$D:$D,$F19,'[1]Data Output'!$G:$G,$C19,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D19,'[1]Data Output'!$C:$C,$E19,'[1]Data Output'!$G:$G,$C19,'[1]Data Output'!$D:$D,$F19,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J19" s="13">
-        <f>IF(AND($C19&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D19,'[1]Data Output'!$C:$C,$E19,'[1]Data Output'!$D:$D,$F19,'[1]Data Output'!$G:$G,$C19,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D19,'[1]Data Output'!$C:$C,$E19,'[1]Data Output'!$G:$G,$C19,'[1]Data Output'!$D:$D,$F19,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K19" s="13">
-        <f>IF(AND($C19&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D19,'[1]Data Output'!$C:$C,$E19,'[1]Data Output'!$D:$D,$F19,'[1]Data Output'!$G:$G,$C19,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D19,'[1]Data Output'!$C:$C,$E19,'[1]Data Output'!$G:$G,$C19,'[1]Data Output'!$D:$D,$F19,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="19" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="13">
-        <f>IF(AND($C20&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D20,'[1]Data Output'!$C:$C,$E20,'[1]Data Output'!$D:$D,$F20,'[1]Data Output'!$G:$G,$C20,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D20,'[1]Data Output'!$C:$C,$E20,'[1]Data Output'!$G:$G,$C20,'[1]Data Output'!$D:$D,$F20,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>4.5</v>
-      </c>
-      <c r="J20" s="13">
-        <f>IF(AND($C20&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D20,'[1]Data Output'!$C:$C,$E20,'[1]Data Output'!$D:$D,$F20,'[1]Data Output'!$G:$G,$C20,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D20,'[1]Data Output'!$C:$C,$E20,'[1]Data Output'!$G:$G,$C20,'[1]Data Output'!$D:$D,$F20,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
-      <c r="K20" s="13">
-        <f>IF(AND($C20&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D20,'[1]Data Output'!$C:$C,$E20,'[1]Data Output'!$D:$D,$F20,'[1]Data Output'!$G:$G,$C20,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D20,'[1]Data Output'!$C:$C,$E20,'[1]Data Output'!$G:$G,$C20,'[1]Data Output'!$D:$D,$F20,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
+    <row r="20" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="13">
-        <f>IF(AND($C21&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D21,'[1]Data Output'!$C:$C,$E21,'[1]Data Output'!$D:$D,$F21,'[1]Data Output'!$G:$G,$C21,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D21,'[1]Data Output'!$C:$C,$E21,'[1]Data Output'!$G:$G,$C21,'[1]Data Output'!$D:$D,$F21,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>0.80999999999999994</v>
-      </c>
-      <c r="J21" s="13">
-        <f>IF(AND($C21&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D21,'[1]Data Output'!$C:$C,$E21,'[1]Data Output'!$D:$D,$F21,'[1]Data Output'!$G:$G,$C21,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D21,'[1]Data Output'!$C:$C,$E21,'[1]Data Output'!$G:$G,$C21,'[1]Data Output'!$D:$D,$F21,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>4.05</v>
-      </c>
-      <c r="K21" s="13">
-        <f>IF(AND($C21&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D21,'[1]Data Output'!$C:$C,$E21,'[1]Data Output'!$D:$D,$F21,'[1]Data Output'!$G:$G,$C21,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D21,'[1]Data Output'!$C:$C,$E21,'[1]Data Output'!$G:$G,$C21,'[1]Data Output'!$D:$D,$F21,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>4.05</v>
-      </c>
+    <row r="21" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="13">
-        <f>IF(AND($C22&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D22,'[1]Data Output'!$C:$C,$E22,'[1]Data Output'!$D:$D,$F22,'[1]Data Output'!$G:$G,$C22,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D22,'[1]Data Output'!$C:$C,$E22,'[1]Data Output'!$G:$G,$C22,'[1]Data Output'!$D:$D,$F22,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>0.375</v>
-      </c>
-      <c r="J22" s="13">
-        <f>IF(AND($C22&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D22,'[1]Data Output'!$C:$C,$E22,'[1]Data Output'!$D:$D,$F22,'[1]Data Output'!$G:$G,$C22,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D22,'[1]Data Output'!$C:$C,$E22,'[1]Data Output'!$G:$G,$C22,'[1]Data Output'!$D:$D,$F22,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>1.875</v>
-      </c>
-      <c r="K22" s="13">
-        <f>IF(AND($C22&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D22,'[1]Data Output'!$C:$C,$E22,'[1]Data Output'!$D:$D,$F22,'[1]Data Output'!$G:$G,$C22,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D22,'[1]Data Output'!$C:$C,$E22,'[1]Data Output'!$G:$G,$C22,'[1]Data Output'!$D:$D,$F22,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>1.875</v>
-      </c>
+    <row r="22" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="13">
-        <f>IF(AND($C23&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D23,'[1]Data Output'!$C:$C,$E23,'[1]Data Output'!$D:$D,$F23,'[1]Data Output'!$G:$G,$C23,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D23,'[1]Data Output'!$C:$C,$E23,'[1]Data Output'!$G:$G,$C23,'[1]Data Output'!$D:$D,$F23,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>2.25</v>
-      </c>
-      <c r="J23" s="13">
-        <f>IF(AND($C23&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D23,'[1]Data Output'!$C:$C,$E23,'[1]Data Output'!$D:$D,$F23,'[1]Data Output'!$G:$G,$C23,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D23,'[1]Data Output'!$C:$C,$E23,'[1]Data Output'!$G:$G,$C23,'[1]Data Output'!$D:$D,$F23,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>11.25</v>
-      </c>
-      <c r="K23" s="13">
-        <f>IF(AND($C23&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D23,'[1]Data Output'!$C:$C,$E23,'[1]Data Output'!$D:$D,$F23,'[1]Data Output'!$G:$G,$C23,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D23,'[1]Data Output'!$C:$C,$E23,'[1]Data Output'!$G:$G,$C23,'[1]Data Output'!$D:$D,$F23,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>11.25</v>
-      </c>
+    <row r="23" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="13">
-        <f>IF(AND($C24&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D24,'[1]Data Output'!$C:$C,$E24,'[1]Data Output'!$D:$D,$F24,'[1]Data Output'!$G:$G,$C24,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D24,'[1]Data Output'!$C:$C,$E24,'[1]Data Output'!$G:$G,$C24,'[1]Data Output'!$D:$D,$F24,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J24" s="13">
-        <f>IF(AND($C24&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D24,'[1]Data Output'!$C:$C,$E24,'[1]Data Output'!$D:$D,$F24,'[1]Data Output'!$G:$G,$C24,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D24,'[1]Data Output'!$C:$C,$E24,'[1]Data Output'!$G:$G,$C24,'[1]Data Output'!$D:$D,$F24,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K24" s="13">
-        <f>IF(AND($C24&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D24,'[1]Data Output'!$C:$C,$E24,'[1]Data Output'!$D:$D,$F24,'[1]Data Output'!$G:$G,$C24,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D24,'[1]Data Output'!$C:$C,$E24,'[1]Data Output'!$G:$G,$C24,'[1]Data Output'!$D:$D,$F24,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="24" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="13">
-        <f>IF(AND($C25&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D25,'[1]Data Output'!$C:$C,$E25,'[1]Data Output'!$D:$D,$F25,'[1]Data Output'!$G:$G,$C25,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D25,'[1]Data Output'!$C:$C,$E25,'[1]Data Output'!$G:$G,$C25,'[1]Data Output'!$D:$D,$F25,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.2</v>
-      </c>
-      <c r="J25" s="13">
-        <f>IF(AND($C25&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D25,'[1]Data Output'!$C:$C,$E25,'[1]Data Output'!$D:$D,$F25,'[1]Data Output'!$G:$G,$C25,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D25,'[1]Data Output'!$C:$C,$E25,'[1]Data Output'!$G:$G,$C25,'[1]Data Output'!$D:$D,$F25,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>36</v>
-      </c>
-      <c r="K25" s="13">
-        <f>IF(AND($C25&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D25,'[1]Data Output'!$C:$C,$E25,'[1]Data Output'!$D:$D,$F25,'[1]Data Output'!$G:$G,$C25,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D25,'[1]Data Output'!$C:$C,$E25,'[1]Data Output'!$G:$G,$C25,'[1]Data Output'!$D:$D,$F25,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>36</v>
-      </c>
+    <row r="25" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="13">
-        <f>IF(AND($C26&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D26,'[1]Data Output'!$C:$C,$E26,'[1]Data Output'!$D:$D,$F26,'[1]Data Output'!$G:$G,$C26,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D26,'[1]Data Output'!$C:$C,$E26,'[1]Data Output'!$G:$G,$C26,'[1]Data Output'!$D:$D,$F26,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.2</v>
-      </c>
-      <c r="J26" s="13">
-        <f>IF(AND($C26&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D26,'[1]Data Output'!$C:$C,$E26,'[1]Data Output'!$D:$D,$F26,'[1]Data Output'!$G:$G,$C26,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D26,'[1]Data Output'!$C:$C,$E26,'[1]Data Output'!$G:$G,$C26,'[1]Data Output'!$D:$D,$F26,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>36</v>
-      </c>
-      <c r="K26" s="13">
-        <f>IF(AND($C26&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D26,'[1]Data Output'!$C:$C,$E26,'[1]Data Output'!$D:$D,$F26,'[1]Data Output'!$G:$G,$C26,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D26,'[1]Data Output'!$C:$C,$E26,'[1]Data Output'!$G:$G,$C26,'[1]Data Output'!$D:$D,$F26,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>36</v>
-      </c>
+    <row r="26" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="13">
-        <f>IF(AND($C27&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D27,'[1]Data Output'!$C:$C,$E27,'[1]Data Output'!$D:$D,$F27,'[1]Data Output'!$G:$G,$C27,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D27,'[1]Data Output'!$C:$C,$E27,'[1]Data Output'!$G:$G,$C27,'[1]Data Output'!$D:$D,$F27,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.2</v>
-      </c>
-      <c r="J27" s="13">
-        <f>IF(AND($C27&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D27,'[1]Data Output'!$C:$C,$E27,'[1]Data Output'!$D:$D,$F27,'[1]Data Output'!$G:$G,$C27,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D27,'[1]Data Output'!$C:$C,$E27,'[1]Data Output'!$G:$G,$C27,'[1]Data Output'!$D:$D,$F27,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>36</v>
-      </c>
-      <c r="K27" s="13">
-        <f>IF(AND($C27&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D27,'[1]Data Output'!$C:$C,$E27,'[1]Data Output'!$D:$D,$F27,'[1]Data Output'!$G:$G,$C27,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D27,'[1]Data Output'!$C:$C,$E27,'[1]Data Output'!$G:$G,$C27,'[1]Data Output'!$D:$D,$F27,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>36</v>
-      </c>
+    <row r="27" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="13">
-        <f>IF(AND($C28&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D28,'[1]Data Output'!$C:$C,$E28,'[1]Data Output'!$D:$D,$F28,'[1]Data Output'!$G:$G,$C28,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D28,'[1]Data Output'!$C:$C,$E28,'[1]Data Output'!$G:$G,$C28,'[1]Data Output'!$D:$D,$F28,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.2</v>
-      </c>
-      <c r="J28" s="13">
-        <f>IF(AND($C28&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D28,'[1]Data Output'!$C:$C,$E28,'[1]Data Output'!$D:$D,$F28,'[1]Data Output'!$G:$G,$C28,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D28,'[1]Data Output'!$C:$C,$E28,'[1]Data Output'!$G:$G,$C28,'[1]Data Output'!$D:$D,$F28,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>36</v>
-      </c>
-      <c r="K28" s="13">
-        <f>IF(AND($C28&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D28,'[1]Data Output'!$C:$C,$E28,'[1]Data Output'!$D:$D,$F28,'[1]Data Output'!$G:$G,$C28,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D28,'[1]Data Output'!$C:$C,$E28,'[1]Data Output'!$G:$G,$C28,'[1]Data Output'!$D:$D,$F28,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>36</v>
-      </c>
+    <row r="28" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="13">
-        <f>IF(AND($C29&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D29,'[1]Data Output'!$C:$C,$E29,'[1]Data Output'!$D:$D,$F29,'[1]Data Output'!$G:$G,$C29,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D29,'[1]Data Output'!$C:$C,$E29,'[1]Data Output'!$G:$G,$C29,'[1]Data Output'!$D:$D,$F29,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.2</v>
-      </c>
-      <c r="J29" s="13">
-        <f>IF(AND($C29&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D29,'[1]Data Output'!$C:$C,$E29,'[1]Data Output'!$D:$D,$F29,'[1]Data Output'!$G:$G,$C29,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D29,'[1]Data Output'!$C:$C,$E29,'[1]Data Output'!$G:$G,$C29,'[1]Data Output'!$D:$D,$F29,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>36</v>
-      </c>
-      <c r="K29" s="13">
-        <f>IF(AND($C29&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D29,'[1]Data Output'!$C:$C,$E29,'[1]Data Output'!$D:$D,$F29,'[1]Data Output'!$G:$G,$C29,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D29,'[1]Data Output'!$C:$C,$E29,'[1]Data Output'!$G:$G,$C29,'[1]Data Output'!$D:$D,$F29,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>36</v>
-      </c>
+    <row r="29" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" s="13">
-        <f>IF(AND($C30&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D30,'[1]Data Output'!$C:$C,$E30,'[1]Data Output'!$D:$D,$F30,'[1]Data Output'!$G:$G,$C30,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D30,'[1]Data Output'!$C:$C,$E30,'[1]Data Output'!$G:$G,$C30,'[1]Data Output'!$D:$D,$F30,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.2</v>
-      </c>
-      <c r="J30" s="13">
-        <f>IF(AND($C30&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D30,'[1]Data Output'!$C:$C,$E30,'[1]Data Output'!$D:$D,$F30,'[1]Data Output'!$G:$G,$C30,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D30,'[1]Data Output'!$C:$C,$E30,'[1]Data Output'!$G:$G,$C30,'[1]Data Output'!$D:$D,$F30,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>36</v>
-      </c>
-      <c r="K30" s="13">
-        <f>IF(AND($C30&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D30,'[1]Data Output'!$C:$C,$E30,'[1]Data Output'!$D:$D,$F30,'[1]Data Output'!$G:$G,$C30,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D30,'[1]Data Output'!$C:$C,$E30,'[1]Data Output'!$G:$G,$C30,'[1]Data Output'!$D:$D,$F30,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>36</v>
-      </c>
+    <row r="30" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="13">
-        <f>IF(AND($C31&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D31,'[1]Data Output'!$C:$C,$E31,'[1]Data Output'!$D:$D,$F31,'[1]Data Output'!$G:$G,$C31,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D31,'[1]Data Output'!$C:$C,$E31,'[1]Data Output'!$G:$G,$C31,'[1]Data Output'!$D:$D,$F31,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J31" s="13">
-        <f>IF(AND($C31&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D31,'[1]Data Output'!$C:$C,$E31,'[1]Data Output'!$D:$D,$F31,'[1]Data Output'!$G:$G,$C31,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D31,'[1]Data Output'!$C:$C,$E31,'[1]Data Output'!$G:$G,$C31,'[1]Data Output'!$D:$D,$F31,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K31" s="13">
-        <f>IF(AND($C31&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D31,'[1]Data Output'!$C:$C,$E31,'[1]Data Output'!$D:$D,$F31,'[1]Data Output'!$G:$G,$C31,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D31,'[1]Data Output'!$C:$C,$E31,'[1]Data Output'!$G:$G,$C31,'[1]Data Output'!$D:$D,$F31,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="31" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32" s="13">
-        <f>IF(AND($C32&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D32,'[1]Data Output'!$C:$C,$E32,'[1]Data Output'!$D:$D,$F32,'[1]Data Output'!$G:$G,$C32,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D32,'[1]Data Output'!$C:$C,$E32,'[1]Data Output'!$G:$G,$C32,'[1]Data Output'!$D:$D,$F32,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>6.3</v>
-      </c>
-      <c r="J32" s="13">
-        <f>IF(AND($C32&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D32,'[1]Data Output'!$C:$C,$E32,'[1]Data Output'!$D:$D,$F32,'[1]Data Output'!$G:$G,$C32,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D32,'[1]Data Output'!$C:$C,$E32,'[1]Data Output'!$G:$G,$C32,'[1]Data Output'!$D:$D,$F32,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>31.5</v>
-      </c>
-      <c r="K32" s="13">
-        <f>IF(AND($C32&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D32,'[1]Data Output'!$C:$C,$E32,'[1]Data Output'!$D:$D,$F32,'[1]Data Output'!$G:$G,$C32,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D32,'[1]Data Output'!$C:$C,$E32,'[1]Data Output'!$G:$G,$C32,'[1]Data Output'!$D:$D,$F32,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>31.5</v>
-      </c>
+    <row r="32" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="13">
-        <f>IF(AND($C33&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D33,'[1]Data Output'!$C:$C,$E33,'[1]Data Output'!$D:$D,$F33,'[1]Data Output'!$G:$G,$C33,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D33,'[1]Data Output'!$C:$C,$E33,'[1]Data Output'!$G:$G,$C33,'[1]Data Output'!$D:$D,$F33,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J33" s="13">
-        <f>IF(AND($C33&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D33,'[1]Data Output'!$C:$C,$E33,'[1]Data Output'!$D:$D,$F33,'[1]Data Output'!$G:$G,$C33,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D33,'[1]Data Output'!$C:$C,$E33,'[1]Data Output'!$G:$G,$C33,'[1]Data Output'!$D:$D,$F33,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K33" s="13">
-        <f>IF(AND($C33&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D33,'[1]Data Output'!$C:$C,$E33,'[1]Data Output'!$D:$D,$F33,'[1]Data Output'!$G:$G,$C33,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D33,'[1]Data Output'!$C:$C,$E33,'[1]Data Output'!$G:$G,$C33,'[1]Data Output'!$D:$D,$F33,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="13">
-        <f>IF(AND($C34&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D34,'[1]Data Output'!$C:$C,$E34,'[1]Data Output'!$D:$D,$F34,'[1]Data Output'!$G:$G,$C34,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D34,'[1]Data Output'!$C:$C,$E34,'[1]Data Output'!$G:$G,$C34,'[1]Data Output'!$D:$D,$F34,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>1.125</v>
-      </c>
-      <c r="J34" s="13">
-        <f>IF(AND($C34&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D34,'[1]Data Output'!$C:$C,$E34,'[1]Data Output'!$D:$D,$F34,'[1]Data Output'!$G:$G,$C34,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D34,'[1]Data Output'!$C:$C,$E34,'[1]Data Output'!$G:$G,$C34,'[1]Data Output'!$D:$D,$F34,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>5.625</v>
-      </c>
-      <c r="K34" s="13">
-        <f>IF(AND($C34&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D34,'[1]Data Output'!$C:$C,$E34,'[1]Data Output'!$D:$D,$F34,'[1]Data Output'!$G:$G,$C34,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D34,'[1]Data Output'!$C:$C,$E34,'[1]Data Output'!$G:$G,$C34,'[1]Data Output'!$D:$D,$F34,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>5.625</v>
-      </c>
+    <row r="34" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" s="13">
-        <f>IF(AND($C35&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D35,'[1]Data Output'!$C:$C,$E35,'[1]Data Output'!$D:$D,$F35,'[1]Data Output'!$G:$G,$C35,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D35,'[1]Data Output'!$C:$C,$E35,'[1]Data Output'!$G:$G,$C35,'[1]Data Output'!$D:$D,$F35,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.5</v>
-      </c>
-      <c r="J35" s="13">
-        <f>IF(AND($C35&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D35,'[1]Data Output'!$C:$C,$E35,'[1]Data Output'!$D:$D,$F35,'[1]Data Output'!$G:$G,$C35,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D35,'[1]Data Output'!$C:$C,$E35,'[1]Data Output'!$G:$G,$C35,'[1]Data Output'!$D:$D,$F35,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
-      <c r="K35" s="13">
-        <f>IF(AND($C35&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D35,'[1]Data Output'!$C:$C,$E35,'[1]Data Output'!$D:$D,$F35,'[1]Data Output'!$G:$G,$C35,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D35,'[1]Data Output'!$C:$C,$E35,'[1]Data Output'!$G:$G,$C35,'[1]Data Output'!$D:$D,$F35,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="13">
-        <f>IF(AND($C36&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D36,'[1]Data Output'!$C:$C,$E36,'[1]Data Output'!$D:$D,$F36,'[1]Data Output'!$G:$G,$C36,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D36,'[1]Data Output'!$C:$C,$E36,'[1]Data Output'!$G:$G,$C36,'[1]Data Output'!$D:$D,$F36,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J36" s="13">
-        <f>IF(AND($C36&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D36,'[1]Data Output'!$C:$C,$E36,'[1]Data Output'!$D:$D,$F36,'[1]Data Output'!$G:$G,$C36,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D36,'[1]Data Output'!$C:$C,$E36,'[1]Data Output'!$G:$G,$C36,'[1]Data Output'!$D:$D,$F36,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K36" s="13">
-        <f>IF(AND($C36&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D36,'[1]Data Output'!$C:$C,$E36,'[1]Data Output'!$D:$D,$F36,'[1]Data Output'!$G:$G,$C36,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D36,'[1]Data Output'!$C:$C,$E36,'[1]Data Output'!$G:$G,$C36,'[1]Data Output'!$D:$D,$F36,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="36" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" t="s">
-        <v>59</v>
-      </c>
-      <c r="I37" s="13">
-        <f>IF(AND($C37&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D37,'[1]Data Output'!$C:$C,$E37,'[1]Data Output'!$D:$D,$F37,'[1]Data Output'!$G:$G,$C37,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D37,'[1]Data Output'!$C:$C,$E37,'[1]Data Output'!$G:$G,$C37,'[1]Data Output'!$D:$D,$F37,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>3.1928786343679949</v>
-      </c>
-      <c r="J37" s="13">
-        <f>IF(AND($C37&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D37,'[1]Data Output'!$C:$C,$E37,'[1]Data Output'!$D:$D,$F37,'[1]Data Output'!$G:$G,$C37,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D37,'[1]Data Output'!$C:$C,$E37,'[1]Data Output'!$G:$G,$C37,'[1]Data Output'!$D:$D,$F37,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>15.964393171839976</v>
-      </c>
-      <c r="K37" s="13">
-        <f>IF(AND($C37&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D37,'[1]Data Output'!$C:$C,$E37,'[1]Data Output'!$D:$D,$F37,'[1]Data Output'!$G:$G,$C37,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D37,'[1]Data Output'!$C:$C,$E37,'[1]Data Output'!$G:$G,$C37,'[1]Data Output'!$D:$D,$F37,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>15.964393171839976</v>
-      </c>
+    <row r="37" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" t="s">
-        <v>59</v>
-      </c>
-      <c r="I38" s="13">
-        <f>IF(AND($C38&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D38,'[1]Data Output'!$C:$C,$E38,'[1]Data Output'!$D:$D,$F38,'[1]Data Output'!$G:$G,$C38,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D38,'[1]Data Output'!$C:$C,$E38,'[1]Data Output'!$G:$G,$C38,'[1]Data Output'!$D:$D,$F38,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>3.3074999999999997</v>
-      </c>
-      <c r="J38" s="13">
-        <f>IF(AND($C38&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D38,'[1]Data Output'!$C:$C,$E38,'[1]Data Output'!$D:$D,$F38,'[1]Data Output'!$G:$G,$C38,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D38,'[1]Data Output'!$C:$C,$E38,'[1]Data Output'!$G:$G,$C38,'[1]Data Output'!$D:$D,$F38,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>16.537499999999998</v>
-      </c>
-      <c r="K38" s="13">
-        <f>IF(AND($C38&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D38,'[1]Data Output'!$C:$C,$E38,'[1]Data Output'!$D:$D,$F38,'[1]Data Output'!$G:$G,$C38,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D38,'[1]Data Output'!$C:$C,$E38,'[1]Data Output'!$G:$G,$C38,'[1]Data Output'!$D:$D,$F38,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>16.537499999999998</v>
-      </c>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" t="s">
-        <v>62</v>
-      </c>
-      <c r="I39" s="13">
-        <f>IF(AND($C39&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D39,'[1]Data Output'!$C:$C,$E39,'[1]Data Output'!$D:$D,$F39,'[1]Data Output'!$G:$G,$C39,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D39,'[1]Data Output'!$C:$C,$E39,'[1]Data Output'!$G:$G,$C39,'[1]Data Output'!$D:$D,$F39,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>8</v>
-      </c>
-      <c r="J39" s="13">
-        <f>IF(AND($C39&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D39,'[1]Data Output'!$C:$C,$E39,'[1]Data Output'!$D:$D,$F39,'[1]Data Output'!$G:$G,$C39,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D39,'[1]Data Output'!$C:$C,$E39,'[1]Data Output'!$G:$G,$C39,'[1]Data Output'!$D:$D,$F39,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>20</v>
-      </c>
-      <c r="K39" s="13">
-        <f>IF(AND($C39&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D39,'[1]Data Output'!$C:$C,$E39,'[1]Data Output'!$D:$D,$F39,'[1]Data Output'!$G:$G,$C39,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D39,'[1]Data Output'!$C:$C,$E39,'[1]Data Output'!$G:$G,$C39,'[1]Data Output'!$D:$D,$F39,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>16</v>
-      </c>
+    <row r="39" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
       <c r="M39" s="14"/>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" s="13">
-        <f>IF(AND($C40&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D40,'[1]Data Output'!$C:$C,$E40,'[1]Data Output'!$D:$D,$F40,'[1]Data Output'!$G:$G,$C40,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D40,'[1]Data Output'!$C:$C,$E40,'[1]Data Output'!$G:$G,$C40,'[1]Data Output'!$D:$D,$F40,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.5</v>
-      </c>
-      <c r="J40" s="13">
-        <f>IF(AND($C40&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D40,'[1]Data Output'!$C:$C,$E40,'[1]Data Output'!$D:$D,$F40,'[1]Data Output'!$G:$G,$C40,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D40,'[1]Data Output'!$C:$C,$E40,'[1]Data Output'!$G:$G,$C40,'[1]Data Output'!$D:$D,$F40,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>52.5</v>
-      </c>
-      <c r="K40" s="13">
-        <f>IF(AND($C40&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D40,'[1]Data Output'!$C:$C,$E40,'[1]Data Output'!$D:$D,$F40,'[1]Data Output'!$G:$G,$C40,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D40,'[1]Data Output'!$C:$C,$E40,'[1]Data Output'!$G:$G,$C40,'[1]Data Output'!$D:$D,$F40,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="40" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-      <c r="I41" s="13">
-        <f>IF(AND($C41&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D41,'[1]Data Output'!$C:$C,$E41,'[1]Data Output'!$D:$D,$F41,'[1]Data Output'!$G:$G,$C41,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D41,'[1]Data Output'!$C:$C,$E41,'[1]Data Output'!$G:$G,$C41,'[1]Data Output'!$D:$D,$F41,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>3</v>
-      </c>
-      <c r="J41" s="13">
-        <f>IF(AND($C41&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D41,'[1]Data Output'!$C:$C,$E41,'[1]Data Output'!$D:$D,$F41,'[1]Data Output'!$G:$G,$C41,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D41,'[1]Data Output'!$C:$C,$E41,'[1]Data Output'!$G:$G,$C41,'[1]Data Output'!$D:$D,$F41,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>15</v>
-      </c>
-      <c r="K41" s="13">
-        <f>IF(AND($C41&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D41,'[1]Data Output'!$C:$C,$E41,'[1]Data Output'!$D:$D,$F41,'[1]Data Output'!$G:$G,$C41,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D41,'[1]Data Output'!$C:$C,$E41,'[1]Data Output'!$G:$G,$C41,'[1]Data Output'!$D:$D,$F41,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>15</v>
-      </c>
+    <row r="41" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C42" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="13">
-        <f>IF(AND($C42&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D42,'[1]Data Output'!$C:$C,$E42,'[1]Data Output'!$D:$D,$F42,'[1]Data Output'!$G:$G,$C42,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D42,'[1]Data Output'!$C:$C,$E42,'[1]Data Output'!$G:$G,$C42,'[1]Data Output'!$D:$D,$F42,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>6.75</v>
-      </c>
-      <c r="J42" s="13">
-        <f>IF(AND($C42&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D42,'[1]Data Output'!$C:$C,$E42,'[1]Data Output'!$D:$D,$F42,'[1]Data Output'!$G:$G,$C42,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D42,'[1]Data Output'!$C:$C,$E42,'[1]Data Output'!$G:$G,$C42,'[1]Data Output'!$D:$D,$F42,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>33.75</v>
-      </c>
-      <c r="K42" s="13">
-        <f>IF(AND($C42&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D42,'[1]Data Output'!$C:$C,$E42,'[1]Data Output'!$D:$D,$F42,'[1]Data Output'!$G:$G,$C42,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D42,'[1]Data Output'!$C:$C,$E42,'[1]Data Output'!$G:$G,$C42,'[1]Data Output'!$D:$D,$F42,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>33.75</v>
-      </c>
+    <row r="42" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" t="s">
-        <v>62</v>
-      </c>
-      <c r="I43" s="13">
-        <f>IF(AND($C43&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D43,'[1]Data Output'!$C:$C,$E43,'[1]Data Output'!$D:$D,$F43,'[1]Data Output'!$G:$G,$C43,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D43,'[1]Data Output'!$C:$C,$E43,'[1]Data Output'!$G:$G,$C43,'[1]Data Output'!$D:$D,$F43,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>8</v>
-      </c>
-      <c r="J43" s="13">
-        <f>IF(AND($C43&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D43,'[1]Data Output'!$C:$C,$E43,'[1]Data Output'!$D:$D,$F43,'[1]Data Output'!$G:$G,$C43,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D43,'[1]Data Output'!$C:$C,$E43,'[1]Data Output'!$G:$G,$C43,'[1]Data Output'!$D:$D,$F43,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>56</v>
-      </c>
-      <c r="K43" s="13">
-        <f>IF(AND($C43&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D43,'[1]Data Output'!$C:$C,$E43,'[1]Data Output'!$D:$D,$F43,'[1]Data Output'!$G:$G,$C43,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D43,'[1]Data Output'!$C:$C,$E43,'[1]Data Output'!$G:$G,$C43,'[1]Data Output'!$D:$D,$F43,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>48</v>
-      </c>
+    <row r="43" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C44" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" t="s">
-        <v>68</v>
-      </c>
-      <c r="I44" s="13">
-        <f>IF(AND($C44&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D44,'[1]Data Output'!$C:$C,$E44,'[1]Data Output'!$D:$D,$F44,'[1]Data Output'!$G:$G,$C44,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D44,'[1]Data Output'!$C:$C,$E44,'[1]Data Output'!$G:$G,$C44,'[1]Data Output'!$D:$D,$F44,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.5</v>
-      </c>
-      <c r="J44" s="13">
-        <f>IF(AND($C44&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D44,'[1]Data Output'!$C:$C,$E44,'[1]Data Output'!$D:$D,$F44,'[1]Data Output'!$G:$G,$C44,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D44,'[1]Data Output'!$C:$C,$E44,'[1]Data Output'!$G:$G,$C44,'[1]Data Output'!$D:$D,$F44,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
-      <c r="K44" s="13">
-        <f>IF(AND($C44&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D44,'[1]Data Output'!$C:$C,$E44,'[1]Data Output'!$D:$D,$F44,'[1]Data Output'!$G:$G,$C44,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D44,'[1]Data Output'!$C:$C,$E44,'[1]Data Output'!$G:$G,$C44,'[1]Data Output'!$D:$D,$F44,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
+    <row r="44" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" t="s">
-        <v>68</v>
-      </c>
-      <c r="I45" s="13">
-        <f>IF(AND($C45&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D45,'[1]Data Output'!$C:$C,$E45,'[1]Data Output'!$D:$D,$F45,'[1]Data Output'!$G:$G,$C45,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D45,'[1]Data Output'!$C:$C,$E45,'[1]Data Output'!$G:$G,$C45,'[1]Data Output'!$D:$D,$F45,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.3274999999999997</v>
-      </c>
-      <c r="J45" s="13">
-        <f>IF(AND($C45&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D45,'[1]Data Output'!$C:$C,$E45,'[1]Data Output'!$D:$D,$F45,'[1]Data Output'!$G:$G,$C45,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D45,'[1]Data Output'!$C:$C,$E45,'[1]Data Output'!$G:$G,$C45,'[1]Data Output'!$D:$D,$F45,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>36.637500000000003</v>
-      </c>
-      <c r="K45" s="13">
-        <f>IF(AND($C45&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D45,'[1]Data Output'!$C:$C,$E45,'[1]Data Output'!$D:$D,$F45,'[1]Data Output'!$G:$G,$C45,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D45,'[1]Data Output'!$C:$C,$E45,'[1]Data Output'!$G:$G,$C45,'[1]Data Output'!$D:$D,$F45,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>36.637500000000003</v>
-      </c>
+    <row r="45" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C46" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" t="s">
-        <v>68</v>
-      </c>
-      <c r="I46" s="13">
-        <f>IF(AND($C46&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D46,'[1]Data Output'!$C:$C,$E46,'[1]Data Output'!$D:$D,$F46,'[1]Data Output'!$G:$G,$C46,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D46,'[1]Data Output'!$C:$C,$E46,'[1]Data Output'!$G:$G,$C46,'[1]Data Output'!$D:$D,$F46,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.5</v>
-      </c>
-      <c r="J46" s="13">
-        <f>IF(AND($C46&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D46,'[1]Data Output'!$C:$C,$E46,'[1]Data Output'!$D:$D,$F46,'[1]Data Output'!$G:$G,$C46,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D46,'[1]Data Output'!$C:$C,$E46,'[1]Data Output'!$G:$G,$C46,'[1]Data Output'!$D:$D,$F46,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
-      <c r="K46" s="13">
-        <f>IF(AND($C46&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D46,'[1]Data Output'!$C:$C,$E46,'[1]Data Output'!$D:$D,$F46,'[1]Data Output'!$G:$G,$C46,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D46,'[1]Data Output'!$C:$C,$E46,'[1]Data Output'!$G:$G,$C46,'[1]Data Output'!$D:$D,$F46,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
+    <row r="46" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" t="s">
-        <v>73</v>
-      </c>
-      <c r="I47" s="13">
-        <f>IF(AND($C47&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D47,'[1]Data Output'!$C:$C,$E47,'[1]Data Output'!$D:$D,$F47,'[1]Data Output'!$G:$G,$C47,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D47,'[1]Data Output'!$C:$C,$E47,'[1]Data Output'!$G:$G,$C47,'[1]Data Output'!$D:$D,$F47,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J47" s="13">
-        <f>IF(AND($C47&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D47,'[1]Data Output'!$C:$C,$E47,'[1]Data Output'!$D:$D,$F47,'[1]Data Output'!$G:$G,$C47,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D47,'[1]Data Output'!$C:$C,$E47,'[1]Data Output'!$G:$G,$C47,'[1]Data Output'!$D:$D,$F47,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K47" s="13">
-        <f>IF(AND($C47&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D47,'[1]Data Output'!$C:$C,$E47,'[1]Data Output'!$D:$D,$F47,'[1]Data Output'!$G:$G,$C47,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D47,'[1]Data Output'!$C:$C,$E47,'[1]Data Output'!$G:$G,$C47,'[1]Data Output'!$D:$D,$F47,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="47" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I48" s="13">
-        <f>IF(AND($C48&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D48,'[1]Data Output'!$C:$C,$E48,'[1]Data Output'!$D:$D,$F48,'[1]Data Output'!$G:$G,$C48,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D48,'[1]Data Output'!$C:$C,$E48,'[1]Data Output'!$G:$G,$C48,'[1]Data Output'!$D:$D,$F48,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J48" s="13">
-        <f>IF(AND($C48&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D48,'[1]Data Output'!$C:$C,$E48,'[1]Data Output'!$D:$D,$F48,'[1]Data Output'!$G:$G,$C48,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D48,'[1]Data Output'!$C:$C,$E48,'[1]Data Output'!$G:$G,$C48,'[1]Data Output'!$D:$D,$F48,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K48" s="13">
-        <f>IF(AND($C48&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D48,'[1]Data Output'!$C:$C,$E48,'[1]Data Output'!$D:$D,$F48,'[1]Data Output'!$G:$G,$C48,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D48,'[1]Data Output'!$C:$C,$E48,'[1]Data Output'!$G:$G,$C48,'[1]Data Output'!$D:$D,$F48,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="48" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
       <c r="M48" s="14"/>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" t="s">
-        <v>73</v>
-      </c>
-      <c r="I49" s="13">
-        <f>IF(AND($C49&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D49,'[1]Data Output'!$C:$C,$E49,'[1]Data Output'!$D:$D,$F49,'[1]Data Output'!$G:$G,$C49,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D49,'[1]Data Output'!$C:$C,$E49,'[1]Data Output'!$G:$G,$C49,'[1]Data Output'!$D:$D,$F49,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>6.75</v>
-      </c>
-      <c r="J49" s="13">
-        <f>IF(AND($C49&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D49,'[1]Data Output'!$C:$C,$E49,'[1]Data Output'!$D:$D,$F49,'[1]Data Output'!$G:$G,$C49,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D49,'[1]Data Output'!$C:$C,$E49,'[1]Data Output'!$G:$G,$C49,'[1]Data Output'!$D:$D,$F49,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>33.75</v>
-      </c>
-      <c r="K49" s="13">
-        <f>IF(AND($C49&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D49,'[1]Data Output'!$C:$C,$E49,'[1]Data Output'!$D:$D,$F49,'[1]Data Output'!$G:$G,$C49,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D49,'[1]Data Output'!$C:$C,$E49,'[1]Data Output'!$G:$G,$C49,'[1]Data Output'!$D:$D,$F49,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>33.75</v>
-      </c>
+    <row r="49" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
       <c r="M49" s="14"/>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C50" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" t="s">
-        <v>77</v>
-      </c>
-      <c r="F50" t="s">
-        <v>78</v>
-      </c>
-      <c r="G50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" t="s">
-        <v>34</v>
-      </c>
-      <c r="I50" s="13">
-        <f>IF(AND($C50&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D50,'[1]Data Output'!$C:$C,$E50,'[1]Data Output'!$D:$D,$F50,'[1]Data Output'!$G:$G,$C50,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D50,'[1]Data Output'!$C:$C,$E50,'[1]Data Output'!$G:$G,$C50,'[1]Data Output'!$D:$D,$F50,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J50" s="13">
-        <f>IF(AND($C50&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D50,'[1]Data Output'!$C:$C,$E50,'[1]Data Output'!$D:$D,$F50,'[1]Data Output'!$G:$G,$C50,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D50,'[1]Data Output'!$C:$C,$E50,'[1]Data Output'!$G:$G,$C50,'[1]Data Output'!$D:$D,$F50,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K50" s="13">
-        <f>IF(AND($C50&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D50,'[1]Data Output'!$C:$C,$E50,'[1]Data Output'!$D:$D,$F50,'[1]Data Output'!$G:$G,$C50,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D50,'[1]Data Output'!$C:$C,$E50,'[1]Data Output'!$G:$G,$C50,'[1]Data Output'!$D:$D,$F50,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="50" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
       <c r="M50" s="14"/>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" t="s">
-        <v>76</v>
-      </c>
-      <c r="E51" t="s">
-        <v>77</v>
-      </c>
-      <c r="F51" t="s">
-        <v>80</v>
-      </c>
-      <c r="G51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" t="s">
-        <v>81</v>
-      </c>
-      <c r="I51" s="13">
-        <f>IF(AND($C51&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D51,'[1]Data Output'!$C:$C,$E51,'[1]Data Output'!$D:$D,$F51,'[1]Data Output'!$G:$G,$C51,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D51,'[1]Data Output'!$C:$C,$E51,'[1]Data Output'!$G:$G,$C51,'[1]Data Output'!$D:$D,$F51,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>4.5</v>
-      </c>
-      <c r="J51" s="13">
-        <f>IF(AND($C51&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D51,'[1]Data Output'!$C:$C,$E51,'[1]Data Output'!$D:$D,$F51,'[1]Data Output'!$G:$G,$C51,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D51,'[1]Data Output'!$C:$C,$E51,'[1]Data Output'!$G:$G,$C51,'[1]Data Output'!$D:$D,$F51,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
-      <c r="K51" s="13">
-        <f>IF(AND($C51&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D51,'[1]Data Output'!$C:$C,$E51,'[1]Data Output'!$D:$D,$F51,'[1]Data Output'!$G:$G,$C51,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D51,'[1]Data Output'!$C:$C,$E51,'[1]Data Output'!$G:$G,$C51,'[1]Data Output'!$D:$D,$F51,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
+    <row r="51" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C52" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" t="s">
-        <v>81</v>
-      </c>
-      <c r="I52" s="13">
-        <f>IF(AND($C52&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D52,'[1]Data Output'!$C:$C,$E52,'[1]Data Output'!$D:$D,$F52,'[1]Data Output'!$G:$G,$C52,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D52,'[1]Data Output'!$C:$C,$E52,'[1]Data Output'!$G:$G,$C52,'[1]Data Output'!$D:$D,$F52,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>4.5</v>
-      </c>
-      <c r="J52" s="13">
-        <f>IF(AND($C52&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D52,'[1]Data Output'!$C:$C,$E52,'[1]Data Output'!$D:$D,$F52,'[1]Data Output'!$G:$G,$C52,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D52,'[1]Data Output'!$C:$C,$E52,'[1]Data Output'!$G:$G,$C52,'[1]Data Output'!$D:$D,$F52,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
-      <c r="K52" s="13">
-        <f>IF(AND($C52&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D52,'[1]Data Output'!$C:$C,$E52,'[1]Data Output'!$D:$D,$F52,'[1]Data Output'!$G:$G,$C52,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D52,'[1]Data Output'!$C:$C,$E52,'[1]Data Output'!$G:$G,$C52,'[1]Data Output'!$D:$D,$F52,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
+    <row r="52" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
       <c r="M52" s="14"/>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" t="s">
-        <v>84</v>
-      </c>
-      <c r="F53" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" t="s">
-        <v>86</v>
-      </c>
-      <c r="I53" s="13">
-        <f>IF(AND($C53&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D53,'[1]Data Output'!$C:$C,$E53,'[1]Data Output'!$D:$D,$F53,'[1]Data Output'!$G:$G,$C53,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D53,'[1]Data Output'!$C:$C,$E53,'[1]Data Output'!$G:$G,$C53,'[1]Data Output'!$D:$D,$F53,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J53" s="13">
-        <f>IF(AND($C53&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D53,'[1]Data Output'!$C:$C,$E53,'[1]Data Output'!$D:$D,$F53,'[1]Data Output'!$G:$G,$C53,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D53,'[1]Data Output'!$C:$C,$E53,'[1]Data Output'!$G:$G,$C53,'[1]Data Output'!$D:$D,$F53,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K53" s="13">
-        <f>IF(AND($C53&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D53,'[1]Data Output'!$C:$C,$E53,'[1]Data Output'!$D:$D,$F53,'[1]Data Output'!$G:$G,$C53,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D53,'[1]Data Output'!$C:$C,$E53,'[1]Data Output'!$G:$G,$C53,'[1]Data Output'!$D:$D,$F53,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="53" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" t="s">
-        <v>85</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" t="s">
-        <v>88</v>
-      </c>
-      <c r="I54" s="13">
-        <f>IF(AND($C54&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D54,'[1]Data Output'!$C:$C,$E54,'[1]Data Output'!$D:$D,$F54,'[1]Data Output'!$G:$G,$C54,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D54,'[1]Data Output'!$C:$C,$E54,'[1]Data Output'!$G:$G,$C54,'[1]Data Output'!$D:$D,$F54,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>2.25</v>
-      </c>
-      <c r="J54" s="13">
-        <f>IF(AND($C54&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D54,'[1]Data Output'!$C:$C,$E54,'[1]Data Output'!$D:$D,$F54,'[1]Data Output'!$G:$G,$C54,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D54,'[1]Data Output'!$C:$C,$E54,'[1]Data Output'!$G:$G,$C54,'[1]Data Output'!$D:$D,$F54,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>11.25</v>
-      </c>
-      <c r="K54" s="13">
-        <f>IF(AND($C54&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D54,'[1]Data Output'!$C:$C,$E54,'[1]Data Output'!$D:$D,$F54,'[1]Data Output'!$G:$G,$C54,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D54,'[1]Data Output'!$C:$C,$E54,'[1]Data Output'!$G:$G,$C54,'[1]Data Output'!$D:$D,$F54,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>11.25</v>
-      </c>
+    <row r="54" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" t="s">
-        <v>84</v>
-      </c>
-      <c r="F55" t="s">
-        <v>85</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" t="s">
-        <v>88</v>
-      </c>
-      <c r="I55" s="13">
-        <f>IF(AND($C55&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D55,'[1]Data Output'!$C:$C,$E55,'[1]Data Output'!$D:$D,$F55,'[1]Data Output'!$G:$G,$C55,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D55,'[1]Data Output'!$C:$C,$E55,'[1]Data Output'!$G:$G,$C55,'[1]Data Output'!$D:$D,$F55,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.5</v>
-      </c>
-      <c r="J55" s="13">
-        <f>IF(AND($C55&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D55,'[1]Data Output'!$C:$C,$E55,'[1]Data Output'!$D:$D,$F55,'[1]Data Output'!$G:$G,$C55,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D55,'[1]Data Output'!$C:$C,$E55,'[1]Data Output'!$G:$G,$C55,'[1]Data Output'!$D:$D,$F55,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>40.3125</v>
-      </c>
-      <c r="K55" s="13">
-        <f>IF(AND($C55&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D55,'[1]Data Output'!$C:$C,$E55,'[1]Data Output'!$D:$D,$F55,'[1]Data Output'!$G:$G,$C55,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D55,'[1]Data Output'!$C:$C,$E55,'[1]Data Output'!$G:$G,$C55,'[1]Data Output'!$D:$D,$F55,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
+    <row r="55" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F56" t="s">
-        <v>85</v>
-      </c>
-      <c r="G56" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" t="s">
-        <v>88</v>
-      </c>
-      <c r="I56" s="13">
-        <f>IF(AND($C56&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D56,'[1]Data Output'!$C:$C,$E56,'[1]Data Output'!$D:$D,$F56,'[1]Data Output'!$G:$G,$C56,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D56,'[1]Data Output'!$C:$C,$E56,'[1]Data Output'!$G:$G,$C56,'[1]Data Output'!$D:$D,$F56,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>8</v>
-      </c>
-      <c r="J56" s="13">
-        <f>IF(AND($C56&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D56,'[1]Data Output'!$C:$C,$E56,'[1]Data Output'!$D:$D,$F56,'[1]Data Output'!$G:$G,$C56,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D56,'[1]Data Output'!$C:$C,$E56,'[1]Data Output'!$G:$G,$C56,'[1]Data Output'!$D:$D,$F56,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>43</v>
-      </c>
-      <c r="K56" s="13">
-        <f>IF(AND($C56&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D56,'[1]Data Output'!$C:$C,$E56,'[1]Data Output'!$D:$D,$F56,'[1]Data Output'!$G:$G,$C56,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D56,'[1]Data Output'!$C:$C,$E56,'[1]Data Output'!$G:$G,$C56,'[1]Data Output'!$D:$D,$F56,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>40</v>
-      </c>
+    <row r="56" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" t="s">
-        <v>92</v>
-      </c>
-      <c r="F57" t="s">
-        <v>93</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" t="s">
-        <v>94</v>
-      </c>
-      <c r="I57" s="13">
-        <f>IF(AND($C57&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D57,'[1]Data Output'!$C:$C,$E57,'[1]Data Output'!$D:$D,$F57,'[1]Data Output'!$G:$G,$C57,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D57,'[1]Data Output'!$C:$C,$E57,'[1]Data Output'!$G:$G,$C57,'[1]Data Output'!$D:$D,$F57,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.5</v>
-      </c>
-      <c r="J57" s="13">
-        <f>IF(AND($C57&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D57,'[1]Data Output'!$C:$C,$E57,'[1]Data Output'!$D:$D,$F57,'[1]Data Output'!$G:$G,$C57,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D57,'[1]Data Output'!$C:$C,$E57,'[1]Data Output'!$G:$G,$C57,'[1]Data Output'!$D:$D,$F57,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
-      <c r="K57" s="13">
-        <f>IF(AND($C57&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D57,'[1]Data Output'!$C:$C,$E57,'[1]Data Output'!$D:$D,$F57,'[1]Data Output'!$G:$G,$C57,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D57,'[1]Data Output'!$C:$C,$E57,'[1]Data Output'!$G:$G,$C57,'[1]Data Output'!$D:$D,$F57,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
+    <row r="57" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C58" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" t="s">
-        <v>96</v>
-      </c>
-      <c r="F58" t="s">
-        <v>97</v>
-      </c>
-      <c r="G58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" t="s">
-        <v>98</v>
-      </c>
-      <c r="I58" s="13">
-        <f>IF(AND($C58&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D58,'[1]Data Output'!$C:$C,$E58,'[1]Data Output'!$D:$D,$F58,'[1]Data Output'!$G:$G,$C58,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D58,'[1]Data Output'!$C:$C,$E58,'[1]Data Output'!$G:$G,$C58,'[1]Data Output'!$D:$D,$F58,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J58" s="13">
-        <f>IF(AND($C58&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D58,'[1]Data Output'!$C:$C,$E58,'[1]Data Output'!$D:$D,$F58,'[1]Data Output'!$G:$G,$C58,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D58,'[1]Data Output'!$C:$C,$E58,'[1]Data Output'!$G:$G,$C58,'[1]Data Output'!$D:$D,$F58,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K58" s="13">
-        <f>IF(AND($C58&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D58,'[1]Data Output'!$C:$C,$E58,'[1]Data Output'!$D:$D,$F58,'[1]Data Output'!$G:$G,$C58,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D58,'[1]Data Output'!$C:$C,$E58,'[1]Data Output'!$G:$G,$C58,'[1]Data Output'!$D:$D,$F58,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="58" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C59" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" t="s">
-        <v>100</v>
-      </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" t="s">
-        <v>59</v>
-      </c>
-      <c r="I59" s="13">
-        <f>IF(AND($C59&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D59,'[1]Data Output'!$C:$C,$E59,'[1]Data Output'!$D:$D,$F59,'[1]Data Output'!$G:$G,$C59,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D59,'[1]Data Output'!$C:$C,$E59,'[1]Data Output'!$G:$G,$C59,'[1]Data Output'!$D:$D,$F59,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="13">
-        <f>IF(AND($C59&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D59,'[1]Data Output'!$C:$C,$E59,'[1]Data Output'!$D:$D,$F59,'[1]Data Output'!$G:$G,$C59,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D59,'[1]Data Output'!$C:$C,$E59,'[1]Data Output'!$G:$G,$C59,'[1]Data Output'!$D:$D,$F59,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>15</v>
-      </c>
-      <c r="K59" s="13">
-        <f>IF(AND($C59&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D59,'[1]Data Output'!$C:$C,$E59,'[1]Data Output'!$D:$D,$F59,'[1]Data Output'!$G:$G,$C59,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D59,'[1]Data Output'!$C:$C,$E59,'[1]Data Output'!$G:$G,$C59,'[1]Data Output'!$D:$D,$F59,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>15</v>
-      </c>
+    <row r="59" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C60" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" t="s">
-        <v>101</v>
-      </c>
-      <c r="G60" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" s="13">
-        <f>IF(AND($C60&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D60,'[1]Data Output'!$C:$C,$E60,'[1]Data Output'!$D:$D,$F60,'[1]Data Output'!$G:$G,$C60,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D60,'[1]Data Output'!$C:$C,$E60,'[1]Data Output'!$G:$G,$C60,'[1]Data Output'!$D:$D,$F60,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>2.25</v>
-      </c>
-      <c r="J60" s="13">
-        <f>IF(AND($C60&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D60,'[1]Data Output'!$C:$C,$E60,'[1]Data Output'!$D:$D,$F60,'[1]Data Output'!$G:$G,$C60,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D60,'[1]Data Output'!$C:$C,$E60,'[1]Data Output'!$G:$G,$C60,'[1]Data Output'!$D:$D,$F60,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>11.25</v>
-      </c>
-      <c r="K60" s="13">
-        <f>IF(AND($C60&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D60,'[1]Data Output'!$C:$C,$E60,'[1]Data Output'!$D:$D,$F60,'[1]Data Output'!$G:$G,$C60,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D60,'[1]Data Output'!$C:$C,$E60,'[1]Data Output'!$G:$G,$C60,'[1]Data Output'!$D:$D,$F60,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>11.25</v>
-      </c>
+    <row r="60" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" t="s">
-        <v>101</v>
-      </c>
-      <c r="G61" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="13">
-        <f>IF(AND($C61&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D61,'[1]Data Output'!$C:$C,$E61,'[1]Data Output'!$D:$D,$F61,'[1]Data Output'!$G:$G,$C61,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D61,'[1]Data Output'!$C:$C,$E61,'[1]Data Output'!$G:$G,$C61,'[1]Data Output'!$D:$D,$F61,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>6.0581700000000005</v>
-      </c>
-      <c r="J61" s="13">
-        <f>IF(AND($C61&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D61,'[1]Data Output'!$C:$C,$E61,'[1]Data Output'!$D:$D,$F61,'[1]Data Output'!$G:$G,$C61,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D61,'[1]Data Output'!$C:$C,$E61,'[1]Data Output'!$G:$G,$C61,'[1]Data Output'!$D:$D,$F61,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>30.290849999999999</v>
-      </c>
-      <c r="K61" s="13">
-        <f>IF(AND($C61&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D61,'[1]Data Output'!$C:$C,$E61,'[1]Data Output'!$D:$D,$F61,'[1]Data Output'!$G:$G,$C61,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D61,'[1]Data Output'!$C:$C,$E61,'[1]Data Output'!$G:$G,$C61,'[1]Data Output'!$D:$D,$F61,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>30.290849999999999</v>
-      </c>
+    <row r="61" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C62" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" t="s">
-        <v>76</v>
-      </c>
-      <c r="E62" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" t="s">
-        <v>101</v>
-      </c>
-      <c r="G62" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" t="s">
-        <v>34</v>
-      </c>
-      <c r="I62" s="13">
-        <f>IF(AND($C62&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D62,'[1]Data Output'!$C:$C,$E62,'[1]Data Output'!$D:$D,$F62,'[1]Data Output'!$G:$G,$C62,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D62,'[1]Data Output'!$C:$C,$E62,'[1]Data Output'!$G:$G,$C62,'[1]Data Output'!$D:$D,$F62,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>4.4595000000000002</v>
-      </c>
-      <c r="J62" s="13">
-        <f>IF(AND($C62&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D62,'[1]Data Output'!$C:$C,$E62,'[1]Data Output'!$D:$D,$F62,'[1]Data Output'!$G:$G,$C62,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D62,'[1]Data Output'!$C:$C,$E62,'[1]Data Output'!$G:$G,$C62,'[1]Data Output'!$D:$D,$F62,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>22.297499999999999</v>
-      </c>
-      <c r="K62" s="13">
-        <f>IF(AND($C62&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D62,'[1]Data Output'!$C:$C,$E62,'[1]Data Output'!$D:$D,$F62,'[1]Data Output'!$G:$G,$C62,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D62,'[1]Data Output'!$C:$C,$E62,'[1]Data Output'!$G:$G,$C62,'[1]Data Output'!$D:$D,$F62,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>22.297499999999999</v>
-      </c>
+    <row r="62" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
       <c r="M62" s="14"/>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C63" t="s">
-        <v>102</v>
-      </c>
-      <c r="D63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" t="s">
-        <v>101</v>
-      </c>
-      <c r="G63" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" t="s">
-        <v>31</v>
-      </c>
-      <c r="I63" s="13">
-        <f>IF(AND($C63&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D63,'[1]Data Output'!$C:$C,$E63,'[1]Data Output'!$D:$D,$F63,'[1]Data Output'!$G:$G,$C63,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D63,'[1]Data Output'!$C:$C,$E63,'[1]Data Output'!$G:$G,$C63,'[1]Data Output'!$D:$D,$F63,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J63" s="13">
-        <f>IF(AND($C63&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D63,'[1]Data Output'!$C:$C,$E63,'[1]Data Output'!$D:$D,$F63,'[1]Data Output'!$G:$G,$C63,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D63,'[1]Data Output'!$C:$C,$E63,'[1]Data Output'!$G:$G,$C63,'[1]Data Output'!$D:$D,$F63,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K63" s="13">
-        <f>IF(AND($C63&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D63,'[1]Data Output'!$C:$C,$E63,'[1]Data Output'!$D:$D,$F63,'[1]Data Output'!$G:$G,$C63,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D63,'[1]Data Output'!$C:$C,$E63,'[1]Data Output'!$G:$G,$C63,'[1]Data Output'!$D:$D,$F63,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="63" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
       <c r="M63" s="14"/>
     </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C64" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" t="s">
-        <v>101</v>
-      </c>
-      <c r="G64" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="13">
-        <f>IF(AND($C64&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D64,'[1]Data Output'!$C:$C,$E64,'[1]Data Output'!$D:$D,$F64,'[1]Data Output'!$G:$G,$C64,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D64,'[1]Data Output'!$C:$C,$E64,'[1]Data Output'!$G:$G,$C64,'[1]Data Output'!$D:$D,$F64,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="13">
-        <f>IF(AND($C64&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D64,'[1]Data Output'!$C:$C,$E64,'[1]Data Output'!$D:$D,$F64,'[1]Data Output'!$G:$G,$C64,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D64,'[1]Data Output'!$C:$C,$E64,'[1]Data Output'!$G:$G,$C64,'[1]Data Output'!$D:$D,$F64,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K64" s="13">
-        <f>IF(AND($C64&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D64,'[1]Data Output'!$C:$C,$E64,'[1]Data Output'!$D:$D,$F64,'[1]Data Output'!$G:$G,$C64,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D64,'[1]Data Output'!$C:$C,$E64,'[1]Data Output'!$G:$G,$C64,'[1]Data Output'!$D:$D,$F64,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>0</v>
-      </c>
+    <row r="64" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C65" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" t="s">
-        <v>76</v>
-      </c>
-      <c r="E65" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" t="s">
-        <v>101</v>
-      </c>
-      <c r="G65" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="13">
-        <f>IF(AND($C65&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D65,'[1]Data Output'!$C:$C,$E65,'[1]Data Output'!$D:$D,$F65,'[1]Data Output'!$G:$G,$C65,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D65,'[1]Data Output'!$C:$C,$E65,'[1]Data Output'!$G:$G,$C65,'[1]Data Output'!$D:$D,$F65,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="13">
-        <f>IF(AND($C65&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D65,'[1]Data Output'!$C:$C,$E65,'[1]Data Output'!$D:$D,$F65,'[1]Data Output'!$G:$G,$C65,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D65,'[1]Data Output'!$C:$C,$E65,'[1]Data Output'!$G:$G,$C65,'[1]Data Output'!$D:$D,$F65,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>3.75</v>
-      </c>
-      <c r="K65" s="13">
-        <f>IF(AND($C65&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D65,'[1]Data Output'!$C:$C,$E65,'[1]Data Output'!$D:$D,$F65,'[1]Data Output'!$G:$G,$C65,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D65,'[1]Data Output'!$C:$C,$E65,'[1]Data Output'!$G:$G,$C65,'[1]Data Output'!$D:$D,$F65,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>3.75</v>
-      </c>
+    <row r="65" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C66" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" t="s">
-        <v>76</v>
-      </c>
-      <c r="E66" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" t="s">
-        <v>103</v>
-      </c>
-      <c r="G66" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" t="s">
-        <v>37</v>
-      </c>
-      <c r="I66" s="13">
-        <f>IF(AND($C66&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D66,'[1]Data Output'!$C:$C,$E66,'[1]Data Output'!$D:$D,$F66,'[1]Data Output'!$G:$G,$C66,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D66,'[1]Data Output'!$C:$C,$E66,'[1]Data Output'!$G:$G,$C66,'[1]Data Output'!$D:$D,$F66,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>4.5</v>
-      </c>
-      <c r="J66" s="13">
-        <f>IF(AND($C66&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D66,'[1]Data Output'!$C:$C,$E66,'[1]Data Output'!$D:$D,$F66,'[1]Data Output'!$G:$G,$C66,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D66,'[1]Data Output'!$C:$C,$E66,'[1]Data Output'!$G:$G,$C66,'[1]Data Output'!$D:$D,$F66,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
-      <c r="K66" s="13">
-        <f>IF(AND($C66&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D66,'[1]Data Output'!$C:$C,$E66,'[1]Data Output'!$D:$D,$F66,'[1]Data Output'!$G:$G,$C66,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D66,'[1]Data Output'!$C:$C,$E66,'[1]Data Output'!$G:$G,$C66,'[1]Data Output'!$D:$D,$F66,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
+    <row r="66" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
       <c r="M66" s="14"/>
     </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C67" t="s">
-        <v>104</v>
-      </c>
-      <c r="D67" t="s">
-        <v>76</v>
-      </c>
-      <c r="E67" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" t="s">
-        <v>103</v>
-      </c>
-      <c r="G67" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" t="s">
-        <v>37</v>
-      </c>
-      <c r="I67" s="13">
-        <f>IF(AND($C67&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D67,'[1]Data Output'!$C:$C,$E67,'[1]Data Output'!$D:$D,$F67,'[1]Data Output'!$G:$G,$C67,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D67,'[1]Data Output'!$C:$C,$E67,'[1]Data Output'!$G:$G,$C67,'[1]Data Output'!$D:$D,$F67,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>4.5</v>
-      </c>
-      <c r="J67" s="13">
-        <f>IF(AND($C67&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D67,'[1]Data Output'!$C:$C,$E67,'[1]Data Output'!$D:$D,$F67,'[1]Data Output'!$G:$G,$C67,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D67,'[1]Data Output'!$C:$C,$E67,'[1]Data Output'!$G:$G,$C67,'[1]Data Output'!$D:$D,$F67,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
-      <c r="K67" s="13">
-        <f>IF(AND($C67&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D67,'[1]Data Output'!$C:$C,$E67,'[1]Data Output'!$D:$D,$F67,'[1]Data Output'!$G:$G,$C67,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D67,'[1]Data Output'!$C:$C,$E67,'[1]Data Output'!$G:$G,$C67,'[1]Data Output'!$D:$D,$F67,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
+    <row r="67" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
       <c r="M67" s="14"/>
     </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C68" t="s">
-        <v>105</v>
-      </c>
-      <c r="D68" t="s">
-        <v>76</v>
-      </c>
-      <c r="E68" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" t="s">
-        <v>103</v>
-      </c>
-      <c r="G68" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68" t="s">
-        <v>37</v>
-      </c>
-      <c r="I68" s="13">
-        <f>IF(AND($C68&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D68,'[1]Data Output'!$C:$C,$E68,'[1]Data Output'!$D:$D,$F68,'[1]Data Output'!$G:$G,$C68,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D68,'[1]Data Output'!$C:$C,$E68,'[1]Data Output'!$G:$G,$C68,'[1]Data Output'!$D:$D,$F68,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J68" s="13">
-        <f>IF(AND($C68&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D68,'[1]Data Output'!$C:$C,$E68,'[1]Data Output'!$D:$D,$F68,'[1]Data Output'!$G:$G,$C68,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D68,'[1]Data Output'!$C:$C,$E68,'[1]Data Output'!$G:$G,$C68,'[1]Data Output'!$D:$D,$F68,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K68" s="13">
-        <f>IF(AND($C68&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D68,'[1]Data Output'!$C:$C,$E68,'[1]Data Output'!$D:$D,$F68,'[1]Data Output'!$G:$G,$C68,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D68,'[1]Data Output'!$C:$C,$E68,'[1]Data Output'!$G:$G,$C68,'[1]Data Output'!$D:$D,$F68,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="68" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
       <c r="M68" s="14"/>
     </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C69" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" t="s">
-        <v>76</v>
-      </c>
-      <c r="E69" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" t="s">
-        <v>103</v>
-      </c>
-      <c r="G69" t="s">
-        <v>11</v>
-      </c>
-      <c r="H69" t="s">
-        <v>37</v>
-      </c>
-      <c r="I69" s="13">
-        <f>IF(AND($C69&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D69,'[1]Data Output'!$C:$C,$E69,'[1]Data Output'!$D:$D,$F69,'[1]Data Output'!$G:$G,$C69,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D69,'[1]Data Output'!$C:$C,$E69,'[1]Data Output'!$G:$G,$C69,'[1]Data Output'!$D:$D,$F69,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J69" s="13">
-        <f>IF(AND($C69&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D69,'[1]Data Output'!$C:$C,$E69,'[1]Data Output'!$D:$D,$F69,'[1]Data Output'!$G:$G,$C69,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D69,'[1]Data Output'!$C:$C,$E69,'[1]Data Output'!$G:$G,$C69,'[1]Data Output'!$D:$D,$F69,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K69" s="13">
-        <f>IF(AND($C69&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D69,'[1]Data Output'!$C:$C,$E69,'[1]Data Output'!$D:$D,$F69,'[1]Data Output'!$G:$G,$C69,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D69,'[1]Data Output'!$C:$C,$E69,'[1]Data Output'!$G:$G,$C69,'[1]Data Output'!$D:$D,$F69,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="69" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C70" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" t="s">
-        <v>76</v>
-      </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" t="s">
-        <v>103</v>
-      </c>
-      <c r="G70" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" t="s">
-        <v>37</v>
-      </c>
-      <c r="I70" s="13">
-        <f>IF(AND($C70&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D70,'[1]Data Output'!$C:$C,$E70,'[1]Data Output'!$D:$D,$F70,'[1]Data Output'!$G:$G,$C70,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D70,'[1]Data Output'!$C:$C,$E70,'[1]Data Output'!$G:$G,$C70,'[1]Data Output'!$D:$D,$F70,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>4.5</v>
-      </c>
-      <c r="J70" s="13">
-        <f>IF(AND($C70&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D70,'[1]Data Output'!$C:$C,$E70,'[1]Data Output'!$D:$D,$F70,'[1]Data Output'!$G:$G,$C70,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D70,'[1]Data Output'!$C:$C,$E70,'[1]Data Output'!$G:$G,$C70,'[1]Data Output'!$D:$D,$F70,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
-      <c r="K70" s="13">
-        <f>IF(AND($C70&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D70,'[1]Data Output'!$C:$C,$E70,'[1]Data Output'!$D:$D,$F70,'[1]Data Output'!$G:$G,$C70,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D70,'[1]Data Output'!$C:$C,$E70,'[1]Data Output'!$G:$G,$C70,'[1]Data Output'!$D:$D,$F70,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
+    <row r="70" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
       <c r="M70" s="14"/>
     </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C71" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" t="s">
-        <v>76</v>
-      </c>
-      <c r="E71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" t="s">
-        <v>103</v>
-      </c>
-      <c r="G71" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" t="s">
-        <v>37</v>
-      </c>
-      <c r="I71" s="13">
-        <f>IF(AND($C71&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D71,'[1]Data Output'!$C:$C,$E71,'[1]Data Output'!$D:$D,$F71,'[1]Data Output'!$G:$G,$C71,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D71,'[1]Data Output'!$C:$C,$E71,'[1]Data Output'!$G:$G,$C71,'[1]Data Output'!$D:$D,$F71,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>4.5</v>
-      </c>
-      <c r="J71" s="13">
-        <f>IF(AND($C71&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D71,'[1]Data Output'!$C:$C,$E71,'[1]Data Output'!$D:$D,$F71,'[1]Data Output'!$G:$G,$C71,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D71,'[1]Data Output'!$C:$C,$E71,'[1]Data Output'!$G:$G,$C71,'[1]Data Output'!$D:$D,$F71,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
-      <c r="K71" s="13">
-        <f>IF(AND($C71&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D71,'[1]Data Output'!$C:$C,$E71,'[1]Data Output'!$D:$D,$F71,'[1]Data Output'!$G:$G,$C71,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D71,'[1]Data Output'!$C:$C,$E71,'[1]Data Output'!$G:$G,$C71,'[1]Data Output'!$D:$D,$F71,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
+    <row r="71" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C72" t="s">
-        <v>109</v>
-      </c>
-      <c r="D72" t="s">
-        <v>76</v>
-      </c>
-      <c r="E72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" t="s">
-        <v>103</v>
-      </c>
-      <c r="G72" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" t="s">
-        <v>37</v>
-      </c>
-      <c r="I72" s="13">
-        <f>IF(AND($C72&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D72,'[1]Data Output'!$C:$C,$E72,'[1]Data Output'!$D:$D,$F72,'[1]Data Output'!$G:$G,$C72,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D72,'[1]Data Output'!$C:$C,$E72,'[1]Data Output'!$G:$G,$C72,'[1]Data Output'!$D:$D,$F72,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J72" s="13">
-        <f>IF(AND($C72&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D72,'[1]Data Output'!$C:$C,$E72,'[1]Data Output'!$D:$D,$F72,'[1]Data Output'!$G:$G,$C72,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D72,'[1]Data Output'!$C:$C,$E72,'[1]Data Output'!$G:$G,$C72,'[1]Data Output'!$D:$D,$F72,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K72" s="13">
-        <f>IF(AND($C72&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D72,'[1]Data Output'!$C:$C,$E72,'[1]Data Output'!$D:$D,$F72,'[1]Data Output'!$G:$G,$C72,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D72,'[1]Data Output'!$C:$C,$E72,'[1]Data Output'!$G:$G,$C72,'[1]Data Output'!$D:$D,$F72,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="72" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C73" t="s">
-        <v>110</v>
-      </c>
-      <c r="D73" t="s">
-        <v>76</v>
-      </c>
-      <c r="E73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" t="s">
-        <v>103</v>
-      </c>
-      <c r="G73" t="s">
-        <v>11</v>
-      </c>
-      <c r="H73" t="s">
-        <v>37</v>
-      </c>
-      <c r="I73" s="13">
-        <f>IF(AND($C73&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D73,'[1]Data Output'!$C:$C,$E73,'[1]Data Output'!$D:$D,$F73,'[1]Data Output'!$G:$G,$C73,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D73,'[1]Data Output'!$C:$C,$E73,'[1]Data Output'!$G:$G,$C73,'[1]Data Output'!$D:$D,$F73,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J73" s="13">
-        <f>IF(AND($C73&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D73,'[1]Data Output'!$C:$C,$E73,'[1]Data Output'!$D:$D,$F73,'[1]Data Output'!$G:$G,$C73,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D73,'[1]Data Output'!$C:$C,$E73,'[1]Data Output'!$G:$G,$C73,'[1]Data Output'!$D:$D,$F73,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K73" s="13">
-        <f>IF(AND($C73&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D73,'[1]Data Output'!$C:$C,$E73,'[1]Data Output'!$D:$D,$F73,'[1]Data Output'!$G:$G,$C73,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D73,'[1]Data Output'!$C:$C,$E73,'[1]Data Output'!$G:$G,$C73,'[1]Data Output'!$D:$D,$F73,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="73" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
       <c r="M73" s="14"/>
     </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C74" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" t="s">
-        <v>76</v>
-      </c>
-      <c r="E74" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" t="s">
-        <v>103</v>
-      </c>
-      <c r="G74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" t="s">
-        <v>37</v>
-      </c>
-      <c r="I74" s="13">
-        <f>IF(AND($C74&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D74,'[1]Data Output'!$C:$C,$E74,'[1]Data Output'!$D:$D,$F74,'[1]Data Output'!$G:$G,$C74,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D74,'[1]Data Output'!$C:$C,$E74,'[1]Data Output'!$G:$G,$C74,'[1]Data Output'!$D:$D,$F74,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>4.5</v>
-      </c>
-      <c r="J74" s="13">
-        <f>IF(AND($C74&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D74,'[1]Data Output'!$C:$C,$E74,'[1]Data Output'!$D:$D,$F74,'[1]Data Output'!$G:$G,$C74,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D74,'[1]Data Output'!$C:$C,$E74,'[1]Data Output'!$G:$G,$C74,'[1]Data Output'!$D:$D,$F74,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
-      <c r="K74" s="13">
-        <f>IF(AND($C74&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D74,'[1]Data Output'!$C:$C,$E74,'[1]Data Output'!$D:$D,$F74,'[1]Data Output'!$G:$G,$C74,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D74,'[1]Data Output'!$C:$C,$E74,'[1]Data Output'!$G:$G,$C74,'[1]Data Output'!$D:$D,$F74,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
+    <row r="74" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
       <c r="M74" s="14"/>
     </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C75" t="s">
-        <v>111</v>
-      </c>
-      <c r="D75" t="s">
-        <v>76</v>
-      </c>
-      <c r="E75" t="s">
-        <v>112</v>
-      </c>
-      <c r="F75" t="s">
-        <v>113</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" t="s">
-        <v>56</v>
-      </c>
-      <c r="I75" s="13">
-        <f>IF(AND($C75&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D75,'[1]Data Output'!$C:$C,$E75,'[1]Data Output'!$D:$D,$F75,'[1]Data Output'!$G:$G,$C75,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D75,'[1]Data Output'!$C:$C,$E75,'[1]Data Output'!$G:$G,$C75,'[1]Data Output'!$D:$D,$F75,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>5.25</v>
-      </c>
-      <c r="J75" s="13">
-        <f>IF(AND($C75&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D75,'[1]Data Output'!$C:$C,$E75,'[1]Data Output'!$D:$D,$F75,'[1]Data Output'!$G:$G,$C75,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D75,'[1]Data Output'!$C:$C,$E75,'[1]Data Output'!$G:$G,$C75,'[1]Data Output'!$D:$D,$F75,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
-      <c r="K75" s="13">
-        <f>IF(AND($C75&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D75,'[1]Data Output'!$C:$C,$E75,'[1]Data Output'!$D:$D,$F75,'[1]Data Output'!$G:$G,$C75,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D75,'[1]Data Output'!$C:$C,$E75,'[1]Data Output'!$G:$G,$C75,'[1]Data Output'!$D:$D,$F75,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>7.5</v>
-      </c>
+    <row r="75" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
       <c r="M75" s="14"/>
     </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C76" t="s">
-        <v>114</v>
-      </c>
-      <c r="D76" t="s">
-        <v>76</v>
-      </c>
-      <c r="E76" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" t="s">
-        <v>115</v>
-      </c>
-      <c r="G76" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76" t="s">
-        <v>59</v>
-      </c>
-      <c r="I76" s="13">
-        <f>IF(AND($C76&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D76,'[1]Data Output'!$C:$C,$E76,'[1]Data Output'!$D:$D,$F76,'[1]Data Output'!$G:$G,$C76,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D76,'[1]Data Output'!$C:$C,$E76,'[1]Data Output'!$G:$G,$C76,'[1]Data Output'!$D:$D,$F76,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.5</v>
-      </c>
-      <c r="J76" s="13">
-        <f>IF(AND($C76&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D76,'[1]Data Output'!$C:$C,$E76,'[1]Data Output'!$D:$D,$F76,'[1]Data Output'!$G:$G,$C76,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D76,'[1]Data Output'!$C:$C,$E76,'[1]Data Output'!$G:$G,$C76,'[1]Data Output'!$D:$D,$F76,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>15</v>
-      </c>
-      <c r="K76" s="13">
-        <f>IF(AND($C76&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D76,'[1]Data Output'!$C:$C,$E76,'[1]Data Output'!$D:$D,$F76,'[1]Data Output'!$G:$G,$C76,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D76,'[1]Data Output'!$C:$C,$E76,'[1]Data Output'!$G:$G,$C76,'[1]Data Output'!$D:$D,$F76,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>7.5</v>
-      </c>
+    <row r="76" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
       <c r="M76" s="14"/>
     </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C77" t="s">
-        <v>116</v>
-      </c>
-      <c r="D77" t="s">
-        <v>76</v>
-      </c>
-      <c r="E77" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" t="s">
-        <v>117</v>
-      </c>
-      <c r="G77" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" t="s">
-        <v>118</v>
-      </c>
-      <c r="I77" s="13">
-        <f>IF(AND($C77&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D77,'[1]Data Output'!$C:$C,$E77,'[1]Data Output'!$D:$D,$F77,'[1]Data Output'!$G:$G,$C77,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D77,'[1]Data Output'!$C:$C,$E77,'[1]Data Output'!$G:$G,$C77,'[1]Data Output'!$D:$D,$F77,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>3.2</v>
-      </c>
-      <c r="J77" s="13">
-        <f>IF(AND($C77&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D77,'[1]Data Output'!$C:$C,$E77,'[1]Data Output'!$D:$D,$F77,'[1]Data Output'!$G:$G,$C77,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D77,'[1]Data Output'!$C:$C,$E77,'[1]Data Output'!$G:$G,$C77,'[1]Data Output'!$D:$D,$F77,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>16</v>
-      </c>
-      <c r="K77" s="13">
-        <f>IF(AND($C77&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D77,'[1]Data Output'!$C:$C,$E77,'[1]Data Output'!$D:$D,$F77,'[1]Data Output'!$G:$G,$C77,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D77,'[1]Data Output'!$C:$C,$E77,'[1]Data Output'!$G:$G,$C77,'[1]Data Output'!$D:$D,$F77,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>16</v>
-      </c>
+    <row r="77" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
       <c r="M77" s="14"/>
     </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C78" t="s">
-        <v>87</v>
-      </c>
-      <c r="D78" t="s">
-        <v>76</v>
-      </c>
-      <c r="E78" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78" t="s">
-        <v>117</v>
-      </c>
-      <c r="G78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H78" t="s">
-        <v>59</v>
-      </c>
-      <c r="I78" s="13">
-        <f>IF(AND($C78&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D78,'[1]Data Output'!$C:$C,$E78,'[1]Data Output'!$D:$D,$F78,'[1]Data Output'!$G:$G,$C78,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D78,'[1]Data Output'!$C:$C,$E78,'[1]Data Output'!$G:$G,$C78,'[1]Data Output'!$D:$D,$F78,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>0.75</v>
-      </c>
-      <c r="J78" s="13">
-        <f>IF(AND($C78&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D78,'[1]Data Output'!$C:$C,$E78,'[1]Data Output'!$D:$D,$F78,'[1]Data Output'!$G:$G,$C78,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D78,'[1]Data Output'!$C:$C,$E78,'[1]Data Output'!$G:$G,$C78,'[1]Data Output'!$D:$D,$F78,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>3.75</v>
-      </c>
-      <c r="K78" s="13">
-        <f>IF(AND($C78&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D78,'[1]Data Output'!$C:$C,$E78,'[1]Data Output'!$D:$D,$F78,'[1]Data Output'!$G:$G,$C78,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D78,'[1]Data Output'!$C:$C,$E78,'[1]Data Output'!$G:$G,$C78,'[1]Data Output'!$D:$D,$F78,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>3.75</v>
-      </c>
+    <row r="78" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
       <c r="M78" s="14"/>
     </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C79" t="s">
-        <v>119</v>
-      </c>
-      <c r="D79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" t="s">
-        <v>117</v>
-      </c>
-      <c r="G79" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" t="s">
-        <v>34</v>
-      </c>
-      <c r="I79" s="13">
-        <f>IF(AND($C79&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D79,'[1]Data Output'!$C:$C,$E79,'[1]Data Output'!$D:$D,$F79,'[1]Data Output'!$G:$G,$C79,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D79,'[1]Data Output'!$C:$C,$E79,'[1]Data Output'!$G:$G,$C79,'[1]Data Output'!$D:$D,$F79,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J79" s="13">
-        <f>IF(AND($C79&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D79,'[1]Data Output'!$C:$C,$E79,'[1]Data Output'!$D:$D,$F79,'[1]Data Output'!$G:$G,$C79,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D79,'[1]Data Output'!$C:$C,$E79,'[1]Data Output'!$G:$G,$C79,'[1]Data Output'!$D:$D,$F79,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K79" s="13">
-        <f>IF(AND($C79&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D79,'[1]Data Output'!$C:$C,$E79,'[1]Data Output'!$D:$D,$F79,'[1]Data Output'!$G:$G,$C79,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D79,'[1]Data Output'!$C:$C,$E79,'[1]Data Output'!$G:$G,$C79,'[1]Data Output'!$D:$D,$F79,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="79" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
       <c r="M79" s="14"/>
     </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C80" t="s">
-        <v>120</v>
-      </c>
-      <c r="D80" t="s">
-        <v>76</v>
-      </c>
-      <c r="E80" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" t="s">
-        <v>121</v>
-      </c>
-      <c r="G80" t="s">
-        <v>23</v>
-      </c>
-      <c r="H80" t="s">
-        <v>122</v>
-      </c>
-      <c r="I80" s="13">
-        <f>IF(AND($C80&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D80,'[1]Data Output'!$C:$C,$E80,'[1]Data Output'!$D:$D,$F80,'[1]Data Output'!$G:$G,$C80,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D80,'[1]Data Output'!$C:$C,$E80,'[1]Data Output'!$G:$G,$C80,'[1]Data Output'!$D:$D,$F80,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>2.1</v>
-      </c>
-      <c r="J80" s="13">
-        <f>IF(AND($C80&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D80,'[1]Data Output'!$C:$C,$E80,'[1]Data Output'!$D:$D,$F80,'[1]Data Output'!$G:$G,$C80,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D80,'[1]Data Output'!$C:$C,$E80,'[1]Data Output'!$G:$G,$C80,'[1]Data Output'!$D:$D,$F80,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>10.5</v>
-      </c>
-      <c r="K80" s="13">
-        <f>IF(AND($C80&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D80,'[1]Data Output'!$C:$C,$E80,'[1]Data Output'!$D:$D,$F80,'[1]Data Output'!$G:$G,$C80,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D80,'[1]Data Output'!$C:$C,$E80,'[1]Data Output'!$G:$G,$C80,'[1]Data Output'!$D:$D,$F80,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>10.5</v>
-      </c>
+    <row r="80" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
       <c r="M80" s="14"/>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C81" t="s">
-        <v>123</v>
-      </c>
-      <c r="D81" t="s">
-        <v>76</v>
-      </c>
-      <c r="E81" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81" t="s">
-        <v>121</v>
-      </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
-      <c r="H81" t="s">
-        <v>124</v>
-      </c>
-      <c r="I81" s="13">
-        <f>IF(AND($C81&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D81,'[1]Data Output'!$C:$C,$E81,'[1]Data Output'!$D:$D,$F81,'[1]Data Output'!$G:$G,$C81,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D81,'[1]Data Output'!$C:$C,$E81,'[1]Data Output'!$G:$G,$C81,'[1]Data Output'!$D:$D,$F81,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="J81" s="13">
-        <f>IF(AND($C81&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D81,'[1]Data Output'!$C:$C,$E81,'[1]Data Output'!$D:$D,$F81,'[1]Data Output'!$G:$G,$C81,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D81,'[1]Data Output'!$C:$C,$E81,'[1]Data Output'!$G:$G,$C81,'[1]Data Output'!$D:$D,$F81,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>4.125</v>
-      </c>
-      <c r="K81" s="13">
-        <f>IF(AND($C81&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D81,'[1]Data Output'!$C:$C,$E81,'[1]Data Output'!$D:$D,$F81,'[1]Data Output'!$G:$G,$C81,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D81,'[1]Data Output'!$C:$C,$E81,'[1]Data Output'!$G:$G,$C81,'[1]Data Output'!$D:$D,$F81,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>4.125</v>
-      </c>
+    <row r="81" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
       <c r="M81" s="14"/>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C82" t="s">
-        <v>125</v>
-      </c>
-      <c r="D82" t="s">
-        <v>76</v>
-      </c>
-      <c r="E82" t="s">
-        <v>126</v>
-      </c>
-      <c r="F82" t="s">
-        <v>127</v>
-      </c>
-      <c r="G82" t="s">
-        <v>23</v>
-      </c>
-      <c r="H82" t="s">
-        <v>128</v>
-      </c>
-      <c r="I82" s="13">
-        <f>IF(AND($C82&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D82,'[1]Data Output'!$C:$C,$E82,'[1]Data Output'!$D:$D,$F82,'[1]Data Output'!$G:$G,$C82,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D82,'[1]Data Output'!$C:$C,$E82,'[1]Data Output'!$G:$G,$C82,'[1]Data Output'!$D:$D,$F82,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.5</v>
-      </c>
-      <c r="J82" s="13">
-        <f>IF(AND($C82&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D82,'[1]Data Output'!$C:$C,$E82,'[1]Data Output'!$D:$D,$F82,'[1]Data Output'!$G:$G,$C82,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D82,'[1]Data Output'!$C:$C,$E82,'[1]Data Output'!$G:$G,$C82,'[1]Data Output'!$D:$D,$F82,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
-      <c r="K82" s="13">
-        <f>IF(AND($C82&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D82,'[1]Data Output'!$C:$C,$E82,'[1]Data Output'!$D:$D,$F82,'[1]Data Output'!$G:$G,$C82,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D82,'[1]Data Output'!$C:$C,$E82,'[1]Data Output'!$G:$G,$C82,'[1]Data Output'!$D:$D,$F82,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>0</v>
-      </c>
+    <row r="82" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
       <c r="M82" s="14"/>
     </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C83" t="s">
-        <v>129</v>
-      </c>
-      <c r="D83" t="s">
-        <v>76</v>
-      </c>
-      <c r="E83" t="s">
-        <v>126</v>
-      </c>
-      <c r="F83" t="s">
-        <v>127</v>
-      </c>
-      <c r="G83" t="s">
-        <v>23</v>
-      </c>
-      <c r="H83" t="s">
-        <v>128</v>
-      </c>
-      <c r="I83" s="13">
-        <f>IF(AND($C83&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D83,'[1]Data Output'!$C:$C,$E83,'[1]Data Output'!$D:$D,$F83,'[1]Data Output'!$G:$G,$C83,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D83,'[1]Data Output'!$C:$C,$E83,'[1]Data Output'!$G:$G,$C83,'[1]Data Output'!$D:$D,$F83,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.5</v>
-      </c>
-      <c r="J83" s="13">
-        <f>IF(AND($C83&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D83,'[1]Data Output'!$C:$C,$E83,'[1]Data Output'!$D:$D,$F83,'[1]Data Output'!$G:$G,$C83,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D83,'[1]Data Output'!$C:$C,$E83,'[1]Data Output'!$G:$G,$C83,'[1]Data Output'!$D:$D,$F83,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
-      <c r="K83" s="13">
-        <f>IF(AND($C83&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D83,'[1]Data Output'!$C:$C,$E83,'[1]Data Output'!$D:$D,$F83,'[1]Data Output'!$G:$G,$C83,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D83,'[1]Data Output'!$C:$C,$E83,'[1]Data Output'!$G:$G,$C83,'[1]Data Output'!$D:$D,$F83,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
+    <row r="83" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
       <c r="M83" s="14"/>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C84" t="s">
-        <v>130</v>
-      </c>
-      <c r="D84" t="s">
-        <v>76</v>
-      </c>
-      <c r="E84" t="s">
-        <v>126</v>
-      </c>
-      <c r="F84" t="s">
-        <v>127</v>
-      </c>
-      <c r="G84" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" t="s">
-        <v>131</v>
-      </c>
-      <c r="I84" s="13">
-        <f>IF(AND($C84&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D84,'[1]Data Output'!$C:$C,$E84,'[1]Data Output'!$D:$D,$F84,'[1]Data Output'!$G:$G,$C84,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D84,'[1]Data Output'!$C:$C,$E84,'[1]Data Output'!$G:$G,$C84,'[1]Data Output'!$D:$D,$F84,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J84" s="13">
-        <f>IF(AND($C84&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D84,'[1]Data Output'!$C:$C,$E84,'[1]Data Output'!$D:$D,$F84,'[1]Data Output'!$G:$G,$C84,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D84,'[1]Data Output'!$C:$C,$E84,'[1]Data Output'!$G:$G,$C84,'[1]Data Output'!$D:$D,$F84,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K84" s="13">
-        <f>IF(AND($C84&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D84,'[1]Data Output'!$C:$C,$E84,'[1]Data Output'!$D:$D,$F84,'[1]Data Output'!$G:$G,$C84,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D84,'[1]Data Output'!$C:$C,$E84,'[1]Data Output'!$G:$G,$C84,'[1]Data Output'!$D:$D,$F84,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="84" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
       <c r="M84" s="14"/>
     </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C85" t="s">
-        <v>132</v>
-      </c>
-      <c r="D85" t="s">
-        <v>76</v>
-      </c>
-      <c r="E85" t="s">
-        <v>126</v>
-      </c>
-      <c r="F85" t="s">
-        <v>127</v>
-      </c>
-      <c r="G85" t="s">
-        <v>11</v>
-      </c>
-      <c r="H85" t="s">
-        <v>131</v>
-      </c>
-      <c r="I85" s="13">
-        <f>IF(AND($C85&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D85,'[1]Data Output'!$C:$C,$E85,'[1]Data Output'!$D:$D,$F85,'[1]Data Output'!$G:$G,$C85,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D85,'[1]Data Output'!$C:$C,$E85,'[1]Data Output'!$G:$G,$C85,'[1]Data Output'!$D:$D,$F85,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J85" s="13">
-        <f>IF(AND($C85&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D85,'[1]Data Output'!$C:$C,$E85,'[1]Data Output'!$D:$D,$F85,'[1]Data Output'!$G:$G,$C85,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D85,'[1]Data Output'!$C:$C,$E85,'[1]Data Output'!$G:$G,$C85,'[1]Data Output'!$D:$D,$F85,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K85" s="13">
-        <f>IF(AND($C85&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D85,'[1]Data Output'!$C:$C,$E85,'[1]Data Output'!$D:$D,$F85,'[1]Data Output'!$G:$G,$C85,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D85,'[1]Data Output'!$C:$C,$E85,'[1]Data Output'!$G:$G,$C85,'[1]Data Output'!$D:$D,$F85,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="85" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
       <c r="M85" s="14"/>
     </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C86" t="s">
-        <v>133</v>
-      </c>
-      <c r="D86" t="s">
-        <v>76</v>
-      </c>
-      <c r="E86" t="s">
-        <v>126</v>
-      </c>
-      <c r="F86" t="s">
-        <v>127</v>
-      </c>
-      <c r="G86" t="s">
-        <v>11</v>
-      </c>
-      <c r="H86" t="s">
-        <v>134</v>
-      </c>
-      <c r="I86" s="13">
-        <f>IF(AND($C86&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D86,'[1]Data Output'!$C:$C,$E86,'[1]Data Output'!$D:$D,$F86,'[1]Data Output'!$G:$G,$C86,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D86,'[1]Data Output'!$C:$C,$E86,'[1]Data Output'!$G:$G,$C86,'[1]Data Output'!$D:$D,$F86,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J86" s="13">
-        <f>IF(AND($C86&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D86,'[1]Data Output'!$C:$C,$E86,'[1]Data Output'!$D:$D,$F86,'[1]Data Output'!$G:$G,$C86,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D86,'[1]Data Output'!$C:$C,$E86,'[1]Data Output'!$G:$G,$C86,'[1]Data Output'!$D:$D,$F86,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K86" s="13">
-        <f>IF(AND($C86&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D86,'[1]Data Output'!$C:$C,$E86,'[1]Data Output'!$D:$D,$F86,'[1]Data Output'!$G:$G,$C86,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D86,'[1]Data Output'!$C:$C,$E86,'[1]Data Output'!$G:$G,$C86,'[1]Data Output'!$D:$D,$F86,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="86" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
       <c r="M86" s="14"/>
     </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C87" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" t="s">
-        <v>76</v>
-      </c>
-      <c r="E87" t="s">
-        <v>126</v>
-      </c>
-      <c r="F87" t="s">
-        <v>127</v>
-      </c>
-      <c r="G87" t="s">
-        <v>11</v>
-      </c>
-      <c r="H87" t="s">
-        <v>136</v>
-      </c>
-      <c r="I87" s="13">
-        <f>IF(AND($C87&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D87,'[1]Data Output'!$C:$C,$E87,'[1]Data Output'!$D:$D,$F87,'[1]Data Output'!$G:$G,$C87,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D87,'[1]Data Output'!$C:$C,$E87,'[1]Data Output'!$G:$G,$C87,'[1]Data Output'!$D:$D,$F87,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J87" s="13">
-        <f>IF(AND($C87&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D87,'[1]Data Output'!$C:$C,$E87,'[1]Data Output'!$D:$D,$F87,'[1]Data Output'!$G:$G,$C87,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D87,'[1]Data Output'!$C:$C,$E87,'[1]Data Output'!$G:$G,$C87,'[1]Data Output'!$D:$D,$F87,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K87" s="13">
-        <f>IF(AND($C87&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D87,'[1]Data Output'!$C:$C,$E87,'[1]Data Output'!$D:$D,$F87,'[1]Data Output'!$G:$G,$C87,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D87,'[1]Data Output'!$C:$C,$E87,'[1]Data Output'!$G:$G,$C87,'[1]Data Output'!$D:$D,$F87,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="87" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
       <c r="M87" s="14"/>
     </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C88" t="s">
-        <v>123</v>
-      </c>
-      <c r="D88" t="s">
-        <v>76</v>
-      </c>
-      <c r="E88" t="s">
-        <v>126</v>
-      </c>
-      <c r="F88" t="s">
-        <v>127</v>
-      </c>
-      <c r="G88" t="s">
-        <v>23</v>
-      </c>
-      <c r="H88" t="s">
-        <v>128</v>
-      </c>
-      <c r="I88" s="13">
-        <f>IF(AND($C88&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D88,'[1]Data Output'!$C:$C,$E88,'[1]Data Output'!$D:$D,$F88,'[1]Data Output'!$G:$G,$C88,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D88,'[1]Data Output'!$C:$C,$E88,'[1]Data Output'!$G:$G,$C88,'[1]Data Output'!$D:$D,$F88,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J88" s="13">
-        <f>IF(AND($C88&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D88,'[1]Data Output'!$C:$C,$E88,'[1]Data Output'!$D:$D,$F88,'[1]Data Output'!$G:$G,$C88,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D88,'[1]Data Output'!$C:$C,$E88,'[1]Data Output'!$G:$G,$C88,'[1]Data Output'!$D:$D,$F88,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
-      <c r="K88" s="13">
-        <f>IF(AND($C88&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D88,'[1]Data Output'!$C:$C,$E88,'[1]Data Output'!$D:$D,$F88,'[1]Data Output'!$G:$G,$C88,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D88,'[1]Data Output'!$C:$C,$E88,'[1]Data Output'!$G:$G,$C88,'[1]Data Output'!$D:$D,$F88,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>7.5</v>
-      </c>
+    <row r="88" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
       <c r="M88" s="14"/>
     </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C89" t="s">
-        <v>137</v>
-      </c>
-      <c r="D89" t="s">
-        <v>76</v>
-      </c>
-      <c r="E89" t="s">
-        <v>126</v>
-      </c>
-      <c r="F89" t="s">
-        <v>127</v>
-      </c>
-      <c r="G89" t="s">
-        <v>23</v>
-      </c>
-      <c r="H89" t="s">
-        <v>128</v>
-      </c>
-      <c r="I89" s="13">
-        <f>IF(AND($C89&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D89,'[1]Data Output'!$C:$C,$E89,'[1]Data Output'!$D:$D,$F89,'[1]Data Output'!$G:$G,$C89,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D89,'[1]Data Output'!$C:$C,$E89,'[1]Data Output'!$G:$G,$C89,'[1]Data Output'!$D:$D,$F89,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.5</v>
-      </c>
-      <c r="J89" s="13">
-        <f>IF(AND($C89&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D89,'[1]Data Output'!$C:$C,$E89,'[1]Data Output'!$D:$D,$F89,'[1]Data Output'!$G:$G,$C89,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D89,'[1]Data Output'!$C:$C,$E89,'[1]Data Output'!$G:$G,$C89,'[1]Data Output'!$D:$D,$F89,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
-      <c r="K89" s="13">
-        <f>IF(AND($C89&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D89,'[1]Data Output'!$C:$C,$E89,'[1]Data Output'!$D:$D,$F89,'[1]Data Output'!$G:$G,$C89,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D89,'[1]Data Output'!$C:$C,$E89,'[1]Data Output'!$G:$G,$C89,'[1]Data Output'!$D:$D,$F89,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
+    <row r="89" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
       <c r="M89" s="14"/>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C90" t="s">
-        <v>138</v>
-      </c>
-      <c r="D90" t="s">
-        <v>76</v>
-      </c>
-      <c r="E90" t="s">
-        <v>126</v>
-      </c>
-      <c r="F90" t="s">
-        <v>127</v>
-      </c>
-      <c r="G90" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" t="s">
-        <v>134</v>
-      </c>
-      <c r="I90" s="13">
-        <f>IF(AND($C90&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D90,'[1]Data Output'!$C:$C,$E90,'[1]Data Output'!$D:$D,$F90,'[1]Data Output'!$G:$G,$C90,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D90,'[1]Data Output'!$C:$C,$E90,'[1]Data Output'!$G:$G,$C90,'[1]Data Output'!$D:$D,$F90,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>4.05</v>
-      </c>
-      <c r="J90" s="13">
-        <f>IF(AND($C90&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D90,'[1]Data Output'!$C:$C,$E90,'[1]Data Output'!$D:$D,$F90,'[1]Data Output'!$G:$G,$C90,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D90,'[1]Data Output'!$C:$C,$E90,'[1]Data Output'!$G:$G,$C90,'[1]Data Output'!$D:$D,$F90,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>36</v>
-      </c>
-      <c r="K90" s="13">
-        <f>IF(AND($C90&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D90,'[1]Data Output'!$C:$C,$E90,'[1]Data Output'!$D:$D,$F90,'[1]Data Output'!$G:$G,$C90,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D90,'[1]Data Output'!$C:$C,$E90,'[1]Data Output'!$G:$G,$C90,'[1]Data Output'!$D:$D,$F90,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>0</v>
-      </c>
+    <row r="90" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
       <c r="M90" s="14"/>
     </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C91" t="s">
-        <v>139</v>
-      </c>
-      <c r="D91" t="s">
-        <v>76</v>
-      </c>
-      <c r="E91" t="s">
-        <v>126</v>
-      </c>
-      <c r="F91" t="s">
-        <v>127</v>
-      </c>
-      <c r="G91" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" t="s">
-        <v>136</v>
-      </c>
-      <c r="I91" s="13">
-        <f>IF(AND($C91&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D91,'[1]Data Output'!$C:$C,$E91,'[1]Data Output'!$D:$D,$F91,'[1]Data Output'!$G:$G,$C91,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D91,'[1]Data Output'!$C:$C,$E91,'[1]Data Output'!$G:$G,$C91,'[1]Data Output'!$D:$D,$F91,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>3.75</v>
-      </c>
-      <c r="J91" s="13">
-        <f>IF(AND($C91&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D91,'[1]Data Output'!$C:$C,$E91,'[1]Data Output'!$D:$D,$F91,'[1]Data Output'!$G:$G,$C91,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D91,'[1]Data Output'!$C:$C,$E91,'[1]Data Output'!$G:$G,$C91,'[1]Data Output'!$D:$D,$F91,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="K91" s="13">
-        <f>IF(AND($C91&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D91,'[1]Data Output'!$C:$C,$E91,'[1]Data Output'!$D:$D,$F91,'[1]Data Output'!$G:$G,$C91,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D91,'[1]Data Output'!$C:$C,$E91,'[1]Data Output'!$G:$G,$C91,'[1]Data Output'!$D:$D,$F91,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>0</v>
-      </c>
+    <row r="91" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
       <c r="M91" s="14"/>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C92" t="s">
-        <v>140</v>
-      </c>
-      <c r="D92" t="s">
-        <v>76</v>
-      </c>
-      <c r="E92" t="s">
-        <v>126</v>
-      </c>
-      <c r="F92" t="s">
-        <v>141</v>
-      </c>
-      <c r="G92" t="s">
-        <v>11</v>
-      </c>
-      <c r="H92" t="s">
-        <v>136</v>
-      </c>
-      <c r="I92" s="13">
-        <f>IF(AND($C92&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D92,'[1]Data Output'!$C:$C,$E92,'[1]Data Output'!$D:$D,$F92,'[1]Data Output'!$G:$G,$C92,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D92,'[1]Data Output'!$C:$C,$E92,'[1]Data Output'!$G:$G,$C92,'[1]Data Output'!$D:$D,$F92,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J92" s="13">
-        <f>IF(AND($C92&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D92,'[1]Data Output'!$C:$C,$E92,'[1]Data Output'!$D:$D,$F92,'[1]Data Output'!$G:$G,$C92,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D92,'[1]Data Output'!$C:$C,$E92,'[1]Data Output'!$G:$G,$C92,'[1]Data Output'!$D:$D,$F92,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K92" s="13">
-        <f>IF(AND($C92&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D92,'[1]Data Output'!$C:$C,$E92,'[1]Data Output'!$D:$D,$F92,'[1]Data Output'!$G:$G,$C92,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D92,'[1]Data Output'!$C:$C,$E92,'[1]Data Output'!$G:$G,$C92,'[1]Data Output'!$D:$D,$F92,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="92" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
       <c r="M92" s="14"/>
     </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C93" t="s">
-        <v>142</v>
-      </c>
-      <c r="D93" t="s">
-        <v>76</v>
-      </c>
-      <c r="E93" t="s">
-        <v>126</v>
-      </c>
-      <c r="F93" t="s">
-        <v>141</v>
-      </c>
-      <c r="G93" t="s">
-        <v>11</v>
-      </c>
-      <c r="H93" t="s">
-        <v>136</v>
-      </c>
-      <c r="I93" s="13">
-        <f>IF(AND($C93&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D93,'[1]Data Output'!$C:$C,$E93,'[1]Data Output'!$D:$D,$F93,'[1]Data Output'!$G:$G,$C93,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D93,'[1]Data Output'!$C:$C,$E93,'[1]Data Output'!$G:$G,$C93,'[1]Data Output'!$D:$D,$F93,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J93" s="13">
-        <f>IF(AND($C93&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D93,'[1]Data Output'!$C:$C,$E93,'[1]Data Output'!$D:$D,$F93,'[1]Data Output'!$G:$G,$C93,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D93,'[1]Data Output'!$C:$C,$E93,'[1]Data Output'!$G:$G,$C93,'[1]Data Output'!$D:$D,$F93,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K93" s="13">
-        <f>IF(AND($C93&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D93,'[1]Data Output'!$C:$C,$E93,'[1]Data Output'!$D:$D,$F93,'[1]Data Output'!$G:$G,$C93,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D93,'[1]Data Output'!$C:$C,$E93,'[1]Data Output'!$G:$G,$C93,'[1]Data Output'!$D:$D,$F93,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="93" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
       <c r="M93" s="14"/>
     </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C94" t="s">
-        <v>139</v>
-      </c>
-      <c r="D94" t="s">
-        <v>76</v>
-      </c>
-      <c r="E94" t="s">
-        <v>126</v>
-      </c>
-      <c r="F94" t="s">
-        <v>141</v>
-      </c>
-      <c r="G94" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" t="s">
-        <v>136</v>
-      </c>
-      <c r="I94" s="13">
-        <f>IF(AND($C94&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D94,'[1]Data Output'!$C:$C,$E94,'[1]Data Output'!$D:$D,$F94,'[1]Data Output'!$G:$G,$C94,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D94,'[1]Data Output'!$C:$C,$E94,'[1]Data Output'!$G:$G,$C94,'[1]Data Output'!$D:$D,$F94,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.5</v>
-      </c>
-      <c r="J94" s="13">
-        <f>IF(AND($C94&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D94,'[1]Data Output'!$C:$C,$E94,'[1]Data Output'!$D:$D,$F94,'[1]Data Output'!$G:$G,$C94,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D94,'[1]Data Output'!$C:$C,$E94,'[1]Data Output'!$G:$G,$C94,'[1]Data Output'!$D:$D,$F94,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="K94" s="13">
-        <f>IF(AND($C94&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D94,'[1]Data Output'!$C:$C,$E94,'[1]Data Output'!$D:$D,$F94,'[1]Data Output'!$G:$G,$C94,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D94,'[1]Data Output'!$C:$C,$E94,'[1]Data Output'!$G:$G,$C94,'[1]Data Output'!$D:$D,$F94,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>0</v>
-      </c>
+    <row r="94" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C95" t="s">
-        <v>138</v>
-      </c>
-      <c r="D95" t="s">
-        <v>76</v>
-      </c>
-      <c r="E95" t="s">
-        <v>126</v>
-      </c>
-      <c r="F95" t="s">
-        <v>141</v>
-      </c>
-      <c r="G95" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" t="s">
-        <v>143</v>
-      </c>
-      <c r="I95" s="13">
-        <f>IF(AND($C95&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D95,'[1]Data Output'!$C:$C,$E95,'[1]Data Output'!$D:$D,$F95,'[1]Data Output'!$G:$G,$C95,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D95,'[1]Data Output'!$C:$C,$E95,'[1]Data Output'!$G:$G,$C95,'[1]Data Output'!$D:$D,$F95,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J95" s="13">
-        <f>IF(AND($C95&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D95,'[1]Data Output'!$C:$C,$E95,'[1]Data Output'!$D:$D,$F95,'[1]Data Output'!$G:$G,$C95,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D95,'[1]Data Output'!$C:$C,$E95,'[1]Data Output'!$G:$G,$C95,'[1]Data Output'!$D:$D,$F95,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="K95" s="13">
-        <f>IF(AND($C95&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D95,'[1]Data Output'!$C:$C,$E95,'[1]Data Output'!$D:$D,$F95,'[1]Data Output'!$G:$G,$C95,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D95,'[1]Data Output'!$C:$C,$E95,'[1]Data Output'!$G:$G,$C95,'[1]Data Output'!$D:$D,$F95,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>0</v>
-      </c>
+    <row r="95" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
       <c r="M95" s="14"/>
     </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C96" t="s">
-        <v>144</v>
-      </c>
-      <c r="D96" t="s">
-        <v>76</v>
-      </c>
-      <c r="E96" t="s">
-        <v>126</v>
-      </c>
-      <c r="F96" t="s">
-        <v>141</v>
-      </c>
-      <c r="G96" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96" t="s">
-        <v>136</v>
-      </c>
-      <c r="I96" s="13">
-        <f>IF(AND($C96&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D96,'[1]Data Output'!$C:$C,$E96,'[1]Data Output'!$D:$D,$F96,'[1]Data Output'!$G:$G,$C96,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D96,'[1]Data Output'!$C:$C,$E96,'[1]Data Output'!$G:$G,$C96,'[1]Data Output'!$D:$D,$F96,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J96" s="13">
-        <f>IF(AND($C96&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D96,'[1]Data Output'!$C:$C,$E96,'[1]Data Output'!$D:$D,$F96,'[1]Data Output'!$G:$G,$C96,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D96,'[1]Data Output'!$C:$C,$E96,'[1]Data Output'!$G:$G,$C96,'[1]Data Output'!$D:$D,$F96,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K96" s="13">
-        <f>IF(AND($C96&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D96,'[1]Data Output'!$C:$C,$E96,'[1]Data Output'!$D:$D,$F96,'[1]Data Output'!$G:$G,$C96,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D96,'[1]Data Output'!$C:$C,$E96,'[1]Data Output'!$G:$G,$C96,'[1]Data Output'!$D:$D,$F96,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="96" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
       <c r="M96" s="14"/>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C97" t="s">
-        <v>145</v>
-      </c>
-      <c r="D97" t="s">
-        <v>76</v>
-      </c>
-      <c r="E97" t="s">
-        <v>146</v>
-      </c>
-      <c r="F97" t="s">
-        <v>147</v>
-      </c>
-      <c r="G97" t="s">
-        <v>23</v>
-      </c>
-      <c r="H97" t="s">
-        <v>148</v>
-      </c>
-      <c r="I97" s="13">
-        <f>IF(AND($C97&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D97,'[1]Data Output'!$C:$C,$E97,'[1]Data Output'!$D:$D,$F97,'[1]Data Output'!$G:$G,$C97,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D97,'[1]Data Output'!$C:$C,$E97,'[1]Data Output'!$G:$G,$C97,'[1]Data Output'!$D:$D,$F97,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>3.75</v>
-      </c>
-      <c r="J97" s="13">
-        <f>IF(AND($C97&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D97,'[1]Data Output'!$C:$C,$E97,'[1]Data Output'!$D:$D,$F97,'[1]Data Output'!$G:$G,$C97,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D97,'[1]Data Output'!$C:$C,$E97,'[1]Data Output'!$G:$G,$C97,'[1]Data Output'!$D:$D,$F97,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>18.75</v>
-      </c>
-      <c r="K97" s="13">
-        <f>IF(AND($C97&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D97,'[1]Data Output'!$C:$C,$E97,'[1]Data Output'!$D:$D,$F97,'[1]Data Output'!$G:$G,$C97,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D97,'[1]Data Output'!$C:$C,$E97,'[1]Data Output'!$G:$G,$C97,'[1]Data Output'!$D:$D,$F97,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>18.75</v>
-      </c>
+    <row r="97" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
       <c r="M97" s="14"/>
     </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C98" t="s">
-        <v>149</v>
-      </c>
-      <c r="D98" t="s">
-        <v>76</v>
-      </c>
-      <c r="E98" t="s">
-        <v>146</v>
-      </c>
-      <c r="F98" t="s">
-        <v>147</v>
-      </c>
-      <c r="G98" t="s">
-        <v>23</v>
-      </c>
-      <c r="H98" t="s">
-        <v>148</v>
-      </c>
-      <c r="I98" s="13">
-        <f>IF(AND($C98&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D98,'[1]Data Output'!$C:$C,$E98,'[1]Data Output'!$D:$D,$F98,'[1]Data Output'!$G:$G,$C98,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D98,'[1]Data Output'!$C:$C,$E98,'[1]Data Output'!$G:$G,$C98,'[1]Data Output'!$D:$D,$F98,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.5</v>
-      </c>
-      <c r="J98" s="13">
-        <f>IF(AND($C98&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D98,'[1]Data Output'!$C:$C,$E98,'[1]Data Output'!$D:$D,$F98,'[1]Data Output'!$G:$G,$C98,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D98,'[1]Data Output'!$C:$C,$E98,'[1]Data Output'!$G:$G,$C98,'[1]Data Output'!$D:$D,$F98,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
-      <c r="K98" s="13">
-        <f>IF(AND($C98&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D98,'[1]Data Output'!$C:$C,$E98,'[1]Data Output'!$D:$D,$F98,'[1]Data Output'!$G:$G,$C98,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D98,'[1]Data Output'!$C:$C,$E98,'[1]Data Output'!$G:$G,$C98,'[1]Data Output'!$D:$D,$F98,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
+    <row r="98" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
       <c r="M98" s="14"/>
     </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C99" t="s">
-        <v>145</v>
-      </c>
-      <c r="D99" t="s">
-        <v>76</v>
-      </c>
-      <c r="E99" t="s">
-        <v>17</v>
-      </c>
-      <c r="F99" t="s">
-        <v>150</v>
-      </c>
-      <c r="G99" t="s">
-        <v>23</v>
-      </c>
-      <c r="H99" t="s">
-        <v>151</v>
-      </c>
-      <c r="I99" s="13">
-        <f>IF(AND($C99&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D99,'[1]Data Output'!$C:$C,$E99,'[1]Data Output'!$D:$D,$F99,'[1]Data Output'!$G:$G,$C99,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D99,'[1]Data Output'!$C:$C,$E99,'[1]Data Output'!$G:$G,$C99,'[1]Data Output'!$D:$D,$F99,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>3.75</v>
-      </c>
-      <c r="J99" s="13">
-        <f>IF(AND($C99&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D99,'[1]Data Output'!$C:$C,$E99,'[1]Data Output'!$D:$D,$F99,'[1]Data Output'!$G:$G,$C99,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D99,'[1]Data Output'!$C:$C,$E99,'[1]Data Output'!$G:$G,$C99,'[1]Data Output'!$D:$D,$F99,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>18.75</v>
-      </c>
-      <c r="K99" s="13">
-        <f>IF(AND($C99&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D99,'[1]Data Output'!$C:$C,$E99,'[1]Data Output'!$D:$D,$F99,'[1]Data Output'!$G:$G,$C99,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D99,'[1]Data Output'!$C:$C,$E99,'[1]Data Output'!$G:$G,$C99,'[1]Data Output'!$D:$D,$F99,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>18.75</v>
-      </c>
+    <row r="99" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
       <c r="M99" s="14"/>
     </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C100" t="s">
-        <v>152</v>
-      </c>
-      <c r="D100" t="s">
-        <v>76</v>
-      </c>
-      <c r="E100" t="s">
-        <v>17</v>
-      </c>
-      <c r="F100" t="s">
-        <v>150</v>
-      </c>
-      <c r="G100" t="s">
-        <v>23</v>
-      </c>
-      <c r="H100" t="s">
-        <v>153</v>
-      </c>
-      <c r="I100" s="13">
-        <f>IF(AND($C100&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D100,'[1]Data Output'!$C:$C,$E100,'[1]Data Output'!$D:$D,$F100,'[1]Data Output'!$G:$G,$C100,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D100,'[1]Data Output'!$C:$C,$E100,'[1]Data Output'!$G:$G,$C100,'[1]Data Output'!$D:$D,$F100,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>2.4</v>
-      </c>
-      <c r="J100" s="13">
-        <f>IF(AND($C100&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D100,'[1]Data Output'!$C:$C,$E100,'[1]Data Output'!$D:$D,$F100,'[1]Data Output'!$G:$G,$C100,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D100,'[1]Data Output'!$C:$C,$E100,'[1]Data Output'!$G:$G,$C100,'[1]Data Output'!$D:$D,$F100,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>12</v>
-      </c>
-      <c r="K100" s="13">
-        <f>IF(AND($C100&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D100,'[1]Data Output'!$C:$C,$E100,'[1]Data Output'!$D:$D,$F100,'[1]Data Output'!$G:$G,$C100,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D100,'[1]Data Output'!$C:$C,$E100,'[1]Data Output'!$G:$G,$C100,'[1]Data Output'!$D:$D,$F100,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>12</v>
-      </c>
+    <row r="100" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
       <c r="M100" s="14"/>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C101" t="s">
-        <v>154</v>
-      </c>
-      <c r="D101" t="s">
-        <v>76</v>
-      </c>
-      <c r="E101" t="s">
-        <v>17</v>
-      </c>
-      <c r="F101" t="s">
-        <v>150</v>
-      </c>
-      <c r="G101" t="s">
-        <v>23</v>
-      </c>
-      <c r="H101" t="s">
-        <v>153</v>
-      </c>
-      <c r="I101" s="13">
-        <f>IF(AND($C101&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D101,'[1]Data Output'!$C:$C,$E101,'[1]Data Output'!$D:$D,$F101,'[1]Data Output'!$G:$G,$C101,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D101,'[1]Data Output'!$C:$C,$E101,'[1]Data Output'!$G:$G,$C101,'[1]Data Output'!$D:$D,$F101,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>8</v>
-      </c>
-      <c r="J101" s="13">
-        <f>IF(AND($C101&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D101,'[1]Data Output'!$C:$C,$E101,'[1]Data Output'!$D:$D,$F101,'[1]Data Output'!$G:$G,$C101,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D101,'[1]Data Output'!$C:$C,$E101,'[1]Data Output'!$G:$G,$C101,'[1]Data Output'!$D:$D,$F101,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>40</v>
-      </c>
-      <c r="K101" s="13">
-        <f>IF(AND($C101&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D101,'[1]Data Output'!$C:$C,$E101,'[1]Data Output'!$D:$D,$F101,'[1]Data Output'!$G:$G,$C101,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D101,'[1]Data Output'!$C:$C,$E101,'[1]Data Output'!$G:$G,$C101,'[1]Data Output'!$D:$D,$F101,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>40</v>
-      </c>
+    <row r="101" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C102" t="s">
-        <v>155</v>
-      </c>
-      <c r="D102" t="s">
-        <v>76</v>
-      </c>
-      <c r="E102" t="s">
-        <v>17</v>
-      </c>
-      <c r="F102" t="s">
-        <v>150</v>
-      </c>
-      <c r="G102" t="s">
-        <v>23</v>
-      </c>
-      <c r="H102" t="s">
-        <v>153</v>
-      </c>
-      <c r="I102" s="13">
-        <f>IF(AND($C102&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D102,'[1]Data Output'!$C:$C,$E102,'[1]Data Output'!$D:$D,$F102,'[1]Data Output'!$G:$G,$C102,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D102,'[1]Data Output'!$C:$C,$E102,'[1]Data Output'!$G:$G,$C102,'[1]Data Output'!$D:$D,$F102,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>8</v>
-      </c>
-      <c r="J102" s="13">
-        <f>IF(AND($C102&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D102,'[1]Data Output'!$C:$C,$E102,'[1]Data Output'!$D:$D,$F102,'[1]Data Output'!$G:$G,$C102,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D102,'[1]Data Output'!$C:$C,$E102,'[1]Data Output'!$G:$G,$C102,'[1]Data Output'!$D:$D,$F102,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>40</v>
-      </c>
-      <c r="K102" s="13">
-        <f>IF(AND($C102&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D102,'[1]Data Output'!$C:$C,$E102,'[1]Data Output'!$D:$D,$F102,'[1]Data Output'!$G:$G,$C102,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D102,'[1]Data Output'!$C:$C,$E102,'[1]Data Output'!$G:$G,$C102,'[1]Data Output'!$D:$D,$F102,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>40</v>
-      </c>
+    <row r="102" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
       <c r="M102" s="14"/>
     </row>
-    <row r="103" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C103" t="s">
-        <v>156</v>
-      </c>
-      <c r="D103" t="s">
-        <v>76</v>
-      </c>
-      <c r="E103" t="s">
-        <v>157</v>
-      </c>
-      <c r="F103" t="s">
-        <v>158</v>
-      </c>
-      <c r="G103" t="s">
-        <v>23</v>
-      </c>
-      <c r="H103" t="s">
-        <v>62</v>
-      </c>
-      <c r="I103" s="13">
-        <f>IF(AND($C103&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D103,'[1]Data Output'!$C:$C,$E103,'[1]Data Output'!$D:$D,$F103,'[1]Data Output'!$G:$G,$C103,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D103,'[1]Data Output'!$C:$C,$E103,'[1]Data Output'!$G:$G,$C103,'[1]Data Output'!$D:$D,$F103,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>8</v>
-      </c>
-      <c r="J103" s="13">
-        <f>IF(AND($C103&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D103,'[1]Data Output'!$C:$C,$E103,'[1]Data Output'!$D:$D,$F103,'[1]Data Output'!$G:$G,$C103,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D103,'[1]Data Output'!$C:$C,$E103,'[1]Data Output'!$G:$G,$C103,'[1]Data Output'!$D:$D,$F103,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>40</v>
-      </c>
-      <c r="K103" s="13">
-        <f>IF(AND($C103&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D103,'[1]Data Output'!$C:$C,$E103,'[1]Data Output'!$D:$D,$F103,'[1]Data Output'!$G:$G,$C103,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D103,'[1]Data Output'!$C:$C,$E103,'[1]Data Output'!$G:$G,$C103,'[1]Data Output'!$D:$D,$F103,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>40</v>
-      </c>
+    <row r="103" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
       <c r="M103" s="14"/>
     </row>
-    <row r="104" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C104" t="s">
-        <v>159</v>
-      </c>
-      <c r="D104" t="s">
-        <v>76</v>
-      </c>
-      <c r="E104" t="s">
-        <v>17</v>
-      </c>
-      <c r="F104" t="s">
-        <v>160</v>
-      </c>
-      <c r="G104" t="s">
-        <v>23</v>
-      </c>
-      <c r="H104" t="s">
-        <v>161</v>
-      </c>
-      <c r="I104" s="13">
-        <f>IF(AND($C104&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D104,'[1]Data Output'!$C:$C,$E104,'[1]Data Output'!$D:$D,$F104,'[1]Data Output'!$G:$G,$C104,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D104,'[1]Data Output'!$C:$C,$E104,'[1]Data Output'!$G:$G,$C104,'[1]Data Output'!$D:$D,$F104,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>15</v>
-      </c>
-      <c r="J104" s="13">
-        <f>IF(AND($C104&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D104,'[1]Data Output'!$C:$C,$E104,'[1]Data Output'!$D:$D,$F104,'[1]Data Output'!$G:$G,$C104,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D104,'[1]Data Output'!$C:$C,$E104,'[1]Data Output'!$G:$G,$C104,'[1]Data Output'!$D:$D,$F104,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>18.75</v>
-      </c>
-      <c r="K104" s="13">
-        <f>IF(AND($C104&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D104,'[1]Data Output'!$C:$C,$E104,'[1]Data Output'!$D:$D,$F104,'[1]Data Output'!$G:$G,$C104,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D104,'[1]Data Output'!$C:$C,$E104,'[1]Data Output'!$G:$G,$C104,'[1]Data Output'!$D:$D,$F104,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>0</v>
-      </c>
+    <row r="104" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
+      <c r="K104" s="13"/>
       <c r="M104" s="14"/>
     </row>
-    <row r="105" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C105" t="s">
-        <v>162</v>
-      </c>
-      <c r="D105" t="s">
-        <v>76</v>
-      </c>
-      <c r="E105" t="s">
-        <v>163</v>
-      </c>
-      <c r="F105" t="s">
-        <v>164</v>
-      </c>
-      <c r="G105" t="s">
-        <v>23</v>
-      </c>
-      <c r="H105" t="s">
-        <v>165</v>
-      </c>
-      <c r="I105" s="13">
-        <f>IF(AND($C105&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D105,'[1]Data Output'!$C:$C,$E105,'[1]Data Output'!$D:$D,$F105,'[1]Data Output'!$G:$G,$C105,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D105,'[1]Data Output'!$C:$C,$E105,'[1]Data Output'!$G:$G,$C105,'[1]Data Output'!$D:$D,$F105,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>6.75</v>
-      </c>
-      <c r="J105" s="13">
-        <f>IF(AND($C105&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D105,'[1]Data Output'!$C:$C,$E105,'[1]Data Output'!$D:$D,$F105,'[1]Data Output'!$G:$G,$C105,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D105,'[1]Data Output'!$C:$C,$E105,'[1]Data Output'!$G:$G,$C105,'[1]Data Output'!$D:$D,$F105,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
-      <c r="K105" s="13">
-        <f>IF(AND($C105&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D105,'[1]Data Output'!$C:$C,$E105,'[1]Data Output'!$D:$D,$F105,'[1]Data Output'!$G:$G,$C105,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D105,'[1]Data Output'!$C:$C,$E105,'[1]Data Output'!$G:$G,$C105,'[1]Data Output'!$D:$D,$F105,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>22.5</v>
-      </c>
+    <row r="105" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
       <c r="M105" s="14"/>
     </row>
-    <row r="106" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C106" t="s">
-        <v>120</v>
-      </c>
-      <c r="D106" t="s">
-        <v>76</v>
-      </c>
-      <c r="E106" t="s">
-        <v>163</v>
-      </c>
-      <c r="F106" t="s">
-        <v>164</v>
-      </c>
-      <c r="G106" t="s">
-        <v>23</v>
-      </c>
-      <c r="H106" t="s">
-        <v>165</v>
-      </c>
-      <c r="I106" s="13">
-        <f>IF(AND($C106&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D106,'[1]Data Output'!$C:$C,$E106,'[1]Data Output'!$D:$D,$F106,'[1]Data Output'!$G:$G,$C106,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D106,'[1]Data Output'!$C:$C,$E106,'[1]Data Output'!$G:$G,$C106,'[1]Data Output'!$D:$D,$F106,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>3</v>
-      </c>
-      <c r="J106" s="13">
-        <f>IF(AND($C106&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D106,'[1]Data Output'!$C:$C,$E106,'[1]Data Output'!$D:$D,$F106,'[1]Data Output'!$G:$G,$C106,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D106,'[1]Data Output'!$C:$C,$E106,'[1]Data Output'!$G:$G,$C106,'[1]Data Output'!$D:$D,$F106,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="K106" s="13">
-        <f>IF(AND($C106&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D106,'[1]Data Output'!$C:$C,$E106,'[1]Data Output'!$D:$D,$F106,'[1]Data Output'!$G:$G,$C106,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D106,'[1]Data Output'!$C:$C,$E106,'[1]Data Output'!$G:$G,$C106,'[1]Data Output'!$D:$D,$F106,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>0</v>
-      </c>
+    <row r="106" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
       <c r="M106" s="14"/>
     </row>
-    <row r="107" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C107" t="s">
-        <v>60</v>
-      </c>
-      <c r="D107" t="s">
-        <v>76</v>
-      </c>
-      <c r="E107" t="s">
-        <v>166</v>
-      </c>
-      <c r="F107" t="s">
-        <v>167</v>
-      </c>
-      <c r="G107" t="s">
-        <v>23</v>
-      </c>
-      <c r="H107" t="s">
-        <v>168</v>
-      </c>
-      <c r="I107" s="13">
-        <f>IF(AND($C107&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D107,'[1]Data Output'!$C:$C,$E107,'[1]Data Output'!$D:$D,$F107,'[1]Data Output'!$G:$G,$C107,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D107,'[1]Data Output'!$C:$C,$E107,'[1]Data Output'!$G:$G,$C107,'[1]Data Output'!$D:$D,$F107,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>3.75</v>
-      </c>
-      <c r="J107" s="13">
-        <f>IF(AND($C107&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D107,'[1]Data Output'!$C:$C,$E107,'[1]Data Output'!$D:$D,$F107,'[1]Data Output'!$G:$G,$C107,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D107,'[1]Data Output'!$C:$C,$E107,'[1]Data Output'!$G:$G,$C107,'[1]Data Output'!$D:$D,$F107,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>18.75</v>
-      </c>
-      <c r="K107" s="13">
-        <f>IF(AND($C107&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D107,'[1]Data Output'!$C:$C,$E107,'[1]Data Output'!$D:$D,$F107,'[1]Data Output'!$G:$G,$C107,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D107,'[1]Data Output'!$C:$C,$E107,'[1]Data Output'!$G:$G,$C107,'[1]Data Output'!$D:$D,$F107,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>18.75</v>
-      </c>
+    <row r="107" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
       <c r="M107" s="14"/>
     </row>
-    <row r="108" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C108" t="s">
-        <v>123</v>
-      </c>
-      <c r="D108" t="s">
-        <v>76</v>
-      </c>
-      <c r="E108" t="s">
-        <v>166</v>
-      </c>
-      <c r="F108" t="s">
-        <v>167</v>
-      </c>
-      <c r="G108" t="s">
-        <v>23</v>
-      </c>
-      <c r="H108" t="s">
-        <v>168</v>
-      </c>
-      <c r="I108" s="13">
-        <f>IF(AND($C108&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D108,'[1]Data Output'!$C:$C,$E108,'[1]Data Output'!$D:$D,$F108,'[1]Data Output'!$G:$G,$C108,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D108,'[1]Data Output'!$C:$C,$E108,'[1]Data Output'!$G:$G,$C108,'[1]Data Output'!$D:$D,$F108,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>0.375</v>
-      </c>
-      <c r="J108" s="13">
-        <f>IF(AND($C108&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D108,'[1]Data Output'!$C:$C,$E108,'[1]Data Output'!$D:$D,$F108,'[1]Data Output'!$G:$G,$C108,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D108,'[1]Data Output'!$C:$C,$E108,'[1]Data Output'!$G:$G,$C108,'[1]Data Output'!$D:$D,$F108,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>1.875</v>
-      </c>
-      <c r="K108" s="13">
-        <f>IF(AND($C108&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D108,'[1]Data Output'!$C:$C,$E108,'[1]Data Output'!$D:$D,$F108,'[1]Data Output'!$G:$G,$C108,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D108,'[1]Data Output'!$C:$C,$E108,'[1]Data Output'!$G:$G,$C108,'[1]Data Output'!$D:$D,$F108,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>1.875</v>
-      </c>
+    <row r="108" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
       <c r="M108" s="14"/>
     </row>
-    <row r="109" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C109" t="s">
-        <v>123</v>
-      </c>
-      <c r="D109" t="s">
-        <v>76</v>
-      </c>
-      <c r="E109" t="s">
-        <v>169</v>
-      </c>
-      <c r="F109" t="s">
-        <v>169</v>
-      </c>
-      <c r="G109" t="s">
-        <v>23</v>
-      </c>
-      <c r="H109" t="s">
-        <v>170</v>
-      </c>
-      <c r="I109" s="13">
-        <f>IF(AND($C109&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D109,'[1]Data Output'!$C:$C,$E109,'[1]Data Output'!$D:$D,$F109,'[1]Data Output'!$G:$G,$C109,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D109,'[1]Data Output'!$C:$C,$E109,'[1]Data Output'!$G:$G,$C109,'[1]Data Output'!$D:$D,$F109,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J109" s="13">
-        <f>IF(AND($C109&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D109,'[1]Data Output'!$C:$C,$E109,'[1]Data Output'!$D:$D,$F109,'[1]Data Output'!$G:$G,$C109,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D109,'[1]Data Output'!$C:$C,$E109,'[1]Data Output'!$G:$G,$C109,'[1]Data Output'!$D:$D,$F109,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>15</v>
-      </c>
-      <c r="K109" s="13">
-        <f>IF(AND($C109&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D109,'[1]Data Output'!$C:$C,$E109,'[1]Data Output'!$D:$D,$F109,'[1]Data Output'!$G:$G,$C109,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D109,'[1]Data Output'!$C:$C,$E109,'[1]Data Output'!$G:$G,$C109,'[1]Data Output'!$D:$D,$F109,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>0</v>
-      </c>
+    <row r="109" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="13"/>
       <c r="M109" s="14"/>
     </row>
-    <row r="110" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C110" t="s">
-        <v>171</v>
-      </c>
-      <c r="D110" t="s">
-        <v>76</v>
-      </c>
-      <c r="E110" t="s">
-        <v>169</v>
-      </c>
-      <c r="F110" t="s">
-        <v>169</v>
-      </c>
-      <c r="G110" t="s">
-        <v>23</v>
-      </c>
-      <c r="H110" t="s">
-        <v>170</v>
-      </c>
-      <c r="I110" s="13">
-        <f>IF(AND($C110&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D110,'[1]Data Output'!$C:$C,$E110,'[1]Data Output'!$D:$D,$F110,'[1]Data Output'!$G:$G,$C110,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D110,'[1]Data Output'!$C:$C,$E110,'[1]Data Output'!$G:$G,$C110,'[1]Data Output'!$D:$D,$F110,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>7.5</v>
-      </c>
-      <c r="J110" s="13">
-        <f>IF(AND($C110&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D110,'[1]Data Output'!$C:$C,$E110,'[1]Data Output'!$D:$D,$F110,'[1]Data Output'!$G:$G,$C110,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D110,'[1]Data Output'!$C:$C,$E110,'[1]Data Output'!$G:$G,$C110,'[1]Data Output'!$D:$D,$F110,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
-      <c r="K110" s="13">
-        <f>IF(AND($C110&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D110,'[1]Data Output'!$C:$C,$E110,'[1]Data Output'!$D:$D,$F110,'[1]Data Output'!$G:$G,$C110,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D110,'[1]Data Output'!$C:$C,$E110,'[1]Data Output'!$G:$G,$C110,'[1]Data Output'!$D:$D,$F110,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>37.5</v>
-      </c>
+    <row r="110" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
       <c r="M110" s="14"/>
     </row>
-    <row r="111" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C111" t="s">
-        <v>172</v>
-      </c>
-      <c r="D111" t="s">
-        <v>76</v>
-      </c>
-      <c r="E111" t="s">
-        <v>173</v>
-      </c>
-      <c r="F111" t="s">
-        <v>173</v>
-      </c>
-      <c r="G111" t="s">
-        <v>11</v>
-      </c>
-      <c r="H111" t="s">
-        <v>143</v>
-      </c>
-      <c r="I111" s="13">
-        <f>IF(AND($C111&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D111,'[1]Data Output'!$C:$C,$E111,'[1]Data Output'!$D:$D,$F111,'[1]Data Output'!$G:$G,$C111,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D111,'[1]Data Output'!$C:$C,$E111,'[1]Data Output'!$G:$G,$C111,'[1]Data Output'!$D:$D,$F111,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J111" s="13">
-        <f>IF(AND($C111&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D111,'[1]Data Output'!$C:$C,$E111,'[1]Data Output'!$D:$D,$F111,'[1]Data Output'!$G:$G,$C111,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D111,'[1]Data Output'!$C:$C,$E111,'[1]Data Output'!$G:$G,$C111,'[1]Data Output'!$D:$D,$F111,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K111" s="13">
-        <f>IF(AND($C111&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D111,'[1]Data Output'!$C:$C,$E111,'[1]Data Output'!$D:$D,$F111,'[1]Data Output'!$G:$G,$C111,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D111,'[1]Data Output'!$C:$C,$E111,'[1]Data Output'!$G:$G,$C111,'[1]Data Output'!$D:$D,$F111,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="111" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
       <c r="M111" s="14"/>
     </row>
-    <row r="112" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C112" t="s">
-        <v>174</v>
-      </c>
-      <c r="D112" t="s">
-        <v>76</v>
-      </c>
-      <c r="E112" t="s">
-        <v>175</v>
-      </c>
-      <c r="F112" t="s">
-        <v>175</v>
-      </c>
-      <c r="G112" t="s">
-        <v>11</v>
-      </c>
-      <c r="H112" t="s">
-        <v>73</v>
-      </c>
-      <c r="I112" s="13">
-        <f>IF(AND($C112&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D112,'[1]Data Output'!$C:$C,$E112,'[1]Data Output'!$D:$D,$F112,'[1]Data Output'!$G:$G,$C112,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D112,'[1]Data Output'!$C:$C,$E112,'[1]Data Output'!$G:$G,$C112,'[1]Data Output'!$D:$D,$F112,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J112" s="13">
-        <f>IF(AND($C112&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D112,'[1]Data Output'!$C:$C,$E112,'[1]Data Output'!$D:$D,$F112,'[1]Data Output'!$G:$G,$C112,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D112,'[1]Data Output'!$C:$C,$E112,'[1]Data Output'!$G:$G,$C112,'[1]Data Output'!$D:$D,$F112,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K112" s="13">
-        <f>IF(AND($C112&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D112,'[1]Data Output'!$C:$C,$E112,'[1]Data Output'!$D:$D,$F112,'[1]Data Output'!$G:$G,$C112,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D112,'[1]Data Output'!$C:$C,$E112,'[1]Data Output'!$G:$G,$C112,'[1]Data Output'!$D:$D,$F112,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="112" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="13"/>
       <c r="M112" s="14"/>
     </row>
-    <row r="113" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C113" t="s">
-        <v>176</v>
-      </c>
-      <c r="D113" t="s">
-        <v>76</v>
-      </c>
-      <c r="E113" t="s">
-        <v>175</v>
-      </c>
-      <c r="F113" t="s">
-        <v>175</v>
-      </c>
-      <c r="G113" t="s">
-        <v>11</v>
-      </c>
-      <c r="H113" t="s">
-        <v>73</v>
-      </c>
-      <c r="I113" s="13">
-        <f>IF(AND($C113&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D113,'[1]Data Output'!$C:$C,$E113,'[1]Data Output'!$D:$D,$F113,'[1]Data Output'!$G:$G,$C113,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D113,'[1]Data Output'!$C:$C,$E113,'[1]Data Output'!$G:$G,$C113,'[1]Data Output'!$D:$D,$F113,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J113" s="13">
-        <f>IF(AND($C113&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D113,'[1]Data Output'!$C:$C,$E113,'[1]Data Output'!$D:$D,$F113,'[1]Data Output'!$G:$G,$C113,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D113,'[1]Data Output'!$C:$C,$E113,'[1]Data Output'!$G:$G,$C113,'[1]Data Output'!$D:$D,$F113,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K113" s="13">
-        <f>IF(AND($C113&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D113,'[1]Data Output'!$C:$C,$E113,'[1]Data Output'!$D:$D,$F113,'[1]Data Output'!$G:$G,$C113,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D113,'[1]Data Output'!$C:$C,$E113,'[1]Data Output'!$G:$G,$C113,'[1]Data Output'!$D:$D,$F113,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="113" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I113" s="13"/>
+      <c r="J113" s="13"/>
+      <c r="K113" s="13"/>
       <c r="M113" s="14"/>
     </row>
-    <row r="114" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C114" t="s">
-        <v>177</v>
-      </c>
-      <c r="D114" t="s">
-        <v>76</v>
-      </c>
-      <c r="E114" t="s">
-        <v>175</v>
-      </c>
-      <c r="F114" t="s">
-        <v>175</v>
-      </c>
-      <c r="G114" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" t="s">
-        <v>73</v>
-      </c>
-      <c r="I114" s="13">
-        <f>IF(AND($C114&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D114,'[1]Data Output'!$C:$C,$E114,'[1]Data Output'!$D:$D,$F114,'[1]Data Output'!$G:$G,$C114,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D114,'[1]Data Output'!$C:$C,$E114,'[1]Data Output'!$G:$G,$C114,'[1]Data Output'!$D:$D,$F114,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J114" s="13">
-        <f>IF(AND($C114&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D114,'[1]Data Output'!$C:$C,$E114,'[1]Data Output'!$D:$D,$F114,'[1]Data Output'!$G:$G,$C114,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D114,'[1]Data Output'!$C:$C,$E114,'[1]Data Output'!$G:$G,$C114,'[1]Data Output'!$D:$D,$F114,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K114" s="13">
-        <f>IF(AND($C114&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D114,'[1]Data Output'!$C:$C,$E114,'[1]Data Output'!$D:$D,$F114,'[1]Data Output'!$G:$G,$C114,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D114,'[1]Data Output'!$C:$C,$E114,'[1]Data Output'!$G:$G,$C114,'[1]Data Output'!$D:$D,$F114,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="114" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="13"/>
       <c r="M114" s="14"/>
     </row>
-    <row r="115" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C115" t="s">
-        <v>178</v>
-      </c>
-      <c r="D115" t="s">
-        <v>76</v>
-      </c>
-      <c r="E115" t="s">
-        <v>175</v>
-      </c>
-      <c r="F115" t="s">
-        <v>175</v>
-      </c>
-      <c r="G115" t="s">
-        <v>11</v>
-      </c>
-      <c r="H115" t="s">
-        <v>73</v>
-      </c>
-      <c r="I115" s="13">
-        <f>IF(AND($C115&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D115,'[1]Data Output'!$C:$C,$E115,'[1]Data Output'!$D:$D,$F115,'[1]Data Output'!$G:$G,$C115,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D115,'[1]Data Output'!$C:$C,$E115,'[1]Data Output'!$G:$G,$C115,'[1]Data Output'!$D:$D,$F115,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J115" s="13">
-        <f>IF(AND($C115&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D115,'[1]Data Output'!$C:$C,$E115,'[1]Data Output'!$D:$D,$F115,'[1]Data Output'!$G:$G,$C115,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D115,'[1]Data Output'!$C:$C,$E115,'[1]Data Output'!$G:$G,$C115,'[1]Data Output'!$D:$D,$F115,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K115" s="13">
-        <f>IF(AND($C115&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D115,'[1]Data Output'!$C:$C,$E115,'[1]Data Output'!$D:$D,$F115,'[1]Data Output'!$G:$G,$C115,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D115,'[1]Data Output'!$C:$C,$E115,'[1]Data Output'!$G:$G,$C115,'[1]Data Output'!$D:$D,$F115,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="115" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I115" s="13"/>
+      <c r="J115" s="13"/>
+      <c r="K115" s="13"/>
       <c r="M115" s="14"/>
     </row>
-    <row r="116" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C116" t="s">
-        <v>179</v>
-      </c>
-      <c r="D116" t="s">
-        <v>76</v>
-      </c>
-      <c r="E116" t="s">
-        <v>175</v>
-      </c>
-      <c r="F116" t="s">
-        <v>175</v>
-      </c>
-      <c r="G116" t="s">
-        <v>11</v>
-      </c>
-      <c r="H116" t="s">
-        <v>73</v>
-      </c>
-      <c r="I116" s="13">
-        <f>IF(AND($C116&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D116,'[1]Data Output'!$C:$C,$E116,'[1]Data Output'!$D:$D,$F116,'[1]Data Output'!$G:$G,$C116,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D116,'[1]Data Output'!$C:$C,$E116,'[1]Data Output'!$G:$G,$C116,'[1]Data Output'!$D:$D,$F116,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J116" s="13">
-        <f>IF(AND($C116&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D116,'[1]Data Output'!$C:$C,$E116,'[1]Data Output'!$D:$D,$F116,'[1]Data Output'!$G:$G,$C116,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D116,'[1]Data Output'!$C:$C,$E116,'[1]Data Output'!$G:$G,$C116,'[1]Data Output'!$D:$D,$F116,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K116" s="13">
-        <f>IF(AND($C116&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D116,'[1]Data Output'!$C:$C,$E116,'[1]Data Output'!$D:$D,$F116,'[1]Data Output'!$G:$G,$C116,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D116,'[1]Data Output'!$C:$C,$E116,'[1]Data Output'!$G:$G,$C116,'[1]Data Output'!$D:$D,$F116,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="116" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
       <c r="M116" s="14"/>
     </row>
-    <row r="117" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C117" t="s">
-        <v>180</v>
-      </c>
-      <c r="D117" t="s">
-        <v>76</v>
-      </c>
-      <c r="E117" t="s">
-        <v>175</v>
-      </c>
-      <c r="F117" t="s">
-        <v>175</v>
-      </c>
-      <c r="G117" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" t="s">
-        <v>73</v>
-      </c>
-      <c r="I117" s="13">
-        <f>IF(AND($C117&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D117,'[1]Data Output'!$C:$C,$E117,'[1]Data Output'!$D:$D,$F117,'[1]Data Output'!$G:$G,$C117,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D117,'[1]Data Output'!$C:$C,$E117,'[1]Data Output'!$G:$G,$C117,'[1]Data Output'!$D:$D,$F117,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J117" s="13">
-        <f>IF(AND($C117&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D117,'[1]Data Output'!$C:$C,$E117,'[1]Data Output'!$D:$D,$F117,'[1]Data Output'!$G:$G,$C117,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D117,'[1]Data Output'!$C:$C,$E117,'[1]Data Output'!$G:$G,$C117,'[1]Data Output'!$D:$D,$F117,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K117" s="13">
-        <f>IF(AND($C117&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D117,'[1]Data Output'!$C:$C,$E117,'[1]Data Output'!$D:$D,$F117,'[1]Data Output'!$G:$G,$C117,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D117,'[1]Data Output'!$C:$C,$E117,'[1]Data Output'!$G:$G,$C117,'[1]Data Output'!$D:$D,$F117,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="117" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
       <c r="M117" s="14"/>
     </row>
-    <row r="118" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C118" t="s">
-        <v>181</v>
-      </c>
-      <c r="D118" t="s">
-        <v>76</v>
-      </c>
-      <c r="E118" t="s">
-        <v>175</v>
-      </c>
-      <c r="F118" t="s">
-        <v>175</v>
-      </c>
-      <c r="G118" t="s">
-        <v>11</v>
-      </c>
-      <c r="H118" t="s">
-        <v>73</v>
-      </c>
-      <c r="I118" s="13">
-        <f>IF(AND($C118&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D118,'[1]Data Output'!$C:$C,$E118,'[1]Data Output'!$D:$D,$F118,'[1]Data Output'!$G:$G,$C118,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D118,'[1]Data Output'!$C:$C,$E118,'[1]Data Output'!$G:$G,$C118,'[1]Data Output'!$D:$D,$F118,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J118" s="13">
-        <f>IF(AND($C118&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D118,'[1]Data Output'!$C:$C,$E118,'[1]Data Output'!$D:$D,$F118,'[1]Data Output'!$G:$G,$C118,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D118,'[1]Data Output'!$C:$C,$E118,'[1]Data Output'!$G:$G,$C118,'[1]Data Output'!$D:$D,$F118,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v>45</v>
-      </c>
-      <c r="K118" s="13">
-        <f>IF(AND($C118&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D118,'[1]Data Output'!$C:$C,$E118,'[1]Data Output'!$D:$D,$F118,'[1]Data Output'!$G:$G,$C118,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D118,'[1]Data Output'!$C:$C,$E118,'[1]Data Output'!$G:$G,$C118,'[1]Data Output'!$D:$D,$F118,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v>45</v>
-      </c>
+    <row r="118" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
       <c r="M118" s="14"/>
     </row>
-    <row r="119" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I119" s="13" t="str">
-        <f>IF(AND($C119&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D119,'[1]Data Output'!$C:$C,$E119,'[1]Data Output'!$D:$D,$F119,'[1]Data Output'!$G:$G,$C119,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D119,'[1]Data Output'!$C:$C,$E119,'[1]Data Output'!$G:$G,$C119,'[1]Data Output'!$D:$D,$F119,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J119" s="13" t="str">
-        <f>IF(AND($C119&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D119,'[1]Data Output'!$C:$C,$E119,'[1]Data Output'!$D:$D,$F119,'[1]Data Output'!$G:$G,$C119,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D119,'[1]Data Output'!$C:$C,$E119,'[1]Data Output'!$G:$G,$C119,'[1]Data Output'!$D:$D,$F119,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K119" s="13" t="str">
-        <f>IF(AND($C119&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D119,'[1]Data Output'!$C:$C,$E119,'[1]Data Output'!$D:$D,$F119,'[1]Data Output'!$G:$G,$C119,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D119,'[1]Data Output'!$C:$C,$E119,'[1]Data Output'!$G:$G,$C119,'[1]Data Output'!$D:$D,$F119,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="119" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
       <c r="M119" s="14"/>
     </row>
-    <row r="120" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I120" s="13" t="str">
-        <f>IF(AND($C120&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D120,'[1]Data Output'!$C:$C,$E120,'[1]Data Output'!$D:$D,$F120,'[1]Data Output'!$G:$G,$C120,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D120,'[1]Data Output'!$C:$C,$E120,'[1]Data Output'!$G:$G,$C120,'[1]Data Output'!$D:$D,$F120,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J120" s="13" t="str">
-        <f>IF(AND($C120&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D120,'[1]Data Output'!$C:$C,$E120,'[1]Data Output'!$D:$D,$F120,'[1]Data Output'!$G:$G,$C120,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D120,'[1]Data Output'!$C:$C,$E120,'[1]Data Output'!$G:$G,$C120,'[1]Data Output'!$D:$D,$F120,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K120" s="13" t="str">
-        <f>IF(AND($C120&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D120,'[1]Data Output'!$C:$C,$E120,'[1]Data Output'!$D:$D,$F120,'[1]Data Output'!$G:$G,$C120,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D120,'[1]Data Output'!$C:$C,$E120,'[1]Data Output'!$G:$G,$C120,'[1]Data Output'!$D:$D,$F120,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="120" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
       <c r="M120" s="14"/>
     </row>
-    <row r="121" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I121" s="13" t="str">
-        <f>IF(AND($C121&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D121,'[1]Data Output'!$C:$C,$E121,'[1]Data Output'!$D:$D,$F121,'[1]Data Output'!$G:$G,$C121,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D121,'[1]Data Output'!$C:$C,$E121,'[1]Data Output'!$G:$G,$C121,'[1]Data Output'!$D:$D,$F121,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J121" s="13" t="str">
-        <f>IF(AND($C121&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D121,'[1]Data Output'!$C:$C,$E121,'[1]Data Output'!$D:$D,$F121,'[1]Data Output'!$G:$G,$C121,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D121,'[1]Data Output'!$C:$C,$E121,'[1]Data Output'!$G:$G,$C121,'[1]Data Output'!$D:$D,$F121,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K121" s="13" t="str">
-        <f>IF(AND($C121&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D121,'[1]Data Output'!$C:$C,$E121,'[1]Data Output'!$D:$D,$F121,'[1]Data Output'!$G:$G,$C121,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D121,'[1]Data Output'!$C:$C,$E121,'[1]Data Output'!$G:$G,$C121,'[1]Data Output'!$D:$D,$F121,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="121" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
       <c r="M121" s="14"/>
     </row>
-    <row r="122" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I122" s="13" t="str">
-        <f>IF(AND($C122&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D122,'[1]Data Output'!$C:$C,$E122,'[1]Data Output'!$D:$D,$F122,'[1]Data Output'!$G:$G,$C122,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D122,'[1]Data Output'!$C:$C,$E122,'[1]Data Output'!$G:$G,$C122,'[1]Data Output'!$D:$D,$F122,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J122" s="13" t="str">
-        <f>IF(AND($C122&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D122,'[1]Data Output'!$C:$C,$E122,'[1]Data Output'!$D:$D,$F122,'[1]Data Output'!$G:$G,$C122,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D122,'[1]Data Output'!$C:$C,$E122,'[1]Data Output'!$G:$G,$C122,'[1]Data Output'!$D:$D,$F122,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K122" s="13" t="str">
-        <f>IF(AND($C122&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D122,'[1]Data Output'!$C:$C,$E122,'[1]Data Output'!$D:$D,$F122,'[1]Data Output'!$G:$G,$C122,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D122,'[1]Data Output'!$C:$C,$E122,'[1]Data Output'!$G:$G,$C122,'[1]Data Output'!$D:$D,$F122,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="122" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I122" s="13"/>
+      <c r="J122" s="13"/>
+      <c r="K122" s="13"/>
       <c r="M122" s="14"/>
     </row>
-    <row r="123" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I123" s="13" t="str">
-        <f>IF(AND($C123&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D123,'[1]Data Output'!$C:$C,$E123,'[1]Data Output'!$D:$D,$F123,'[1]Data Output'!$G:$G,$C123,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D123,'[1]Data Output'!$C:$C,$E123,'[1]Data Output'!$G:$G,$C123,'[1]Data Output'!$D:$D,$F123,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J123" s="13" t="str">
-        <f>IF(AND($C123&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D123,'[1]Data Output'!$C:$C,$E123,'[1]Data Output'!$D:$D,$F123,'[1]Data Output'!$G:$G,$C123,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D123,'[1]Data Output'!$C:$C,$E123,'[1]Data Output'!$G:$G,$C123,'[1]Data Output'!$D:$D,$F123,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K123" s="13" t="str">
-        <f>IF(AND($C123&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D123,'[1]Data Output'!$C:$C,$E123,'[1]Data Output'!$D:$D,$F123,'[1]Data Output'!$G:$G,$C123,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D123,'[1]Data Output'!$C:$C,$E123,'[1]Data Output'!$G:$G,$C123,'[1]Data Output'!$D:$D,$F123,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="123" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I123" s="13"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13"/>
       <c r="M123" s="14"/>
     </row>
-    <row r="124" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I124" s="13" t="str">
-        <f>IF(AND($C124&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D124,'[1]Data Output'!$C:$C,$E124,'[1]Data Output'!$D:$D,$F124,'[1]Data Output'!$G:$G,$C124,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D124,'[1]Data Output'!$C:$C,$E124,'[1]Data Output'!$G:$G,$C124,'[1]Data Output'!$D:$D,$F124,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J124" s="13" t="str">
-        <f>IF(AND($C124&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D124,'[1]Data Output'!$C:$C,$E124,'[1]Data Output'!$D:$D,$F124,'[1]Data Output'!$G:$G,$C124,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D124,'[1]Data Output'!$C:$C,$E124,'[1]Data Output'!$G:$G,$C124,'[1]Data Output'!$D:$D,$F124,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K124" s="13" t="str">
-        <f>IF(AND($C124&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D124,'[1]Data Output'!$C:$C,$E124,'[1]Data Output'!$D:$D,$F124,'[1]Data Output'!$G:$G,$C124,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D124,'[1]Data Output'!$C:$C,$E124,'[1]Data Output'!$G:$G,$C124,'[1]Data Output'!$D:$D,$F124,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="124" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I124" s="13"/>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
       <c r="M124" s="14"/>
     </row>
-    <row r="125" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I125" s="13" t="str">
-        <f>IF(AND($C125&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D125,'[1]Data Output'!$C:$C,$E125,'[1]Data Output'!$D:$D,$F125,'[1]Data Output'!$G:$G,$C125,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D125,'[1]Data Output'!$C:$C,$E125,'[1]Data Output'!$G:$G,$C125,'[1]Data Output'!$D:$D,$F125,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J125" s="13" t="str">
-        <f>IF(AND($C125&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D125,'[1]Data Output'!$C:$C,$E125,'[1]Data Output'!$D:$D,$F125,'[1]Data Output'!$G:$G,$C125,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D125,'[1]Data Output'!$C:$C,$E125,'[1]Data Output'!$G:$G,$C125,'[1]Data Output'!$D:$D,$F125,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K125" s="13" t="str">
-        <f>IF(AND($C125&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D125,'[1]Data Output'!$C:$C,$E125,'[1]Data Output'!$D:$D,$F125,'[1]Data Output'!$G:$G,$C125,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D125,'[1]Data Output'!$C:$C,$E125,'[1]Data Output'!$G:$G,$C125,'[1]Data Output'!$D:$D,$F125,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="125" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I125" s="13"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="13"/>
       <c r="M125" s="14"/>
     </row>
-    <row r="126" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I126" s="13" t="str">
-        <f>IF(AND($C126&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D126,'[1]Data Output'!$C:$C,$E126,'[1]Data Output'!$D:$D,$F126,'[1]Data Output'!$G:$G,$C126,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D126,'[1]Data Output'!$C:$C,$E126,'[1]Data Output'!$G:$G,$C126,'[1]Data Output'!$D:$D,$F126,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J126" s="13" t="str">
-        <f>IF(AND($C126&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D126,'[1]Data Output'!$C:$C,$E126,'[1]Data Output'!$D:$D,$F126,'[1]Data Output'!$G:$G,$C126,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D126,'[1]Data Output'!$C:$C,$E126,'[1]Data Output'!$G:$G,$C126,'[1]Data Output'!$D:$D,$F126,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K126" s="13" t="str">
-        <f>IF(AND($C126&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D126,'[1]Data Output'!$C:$C,$E126,'[1]Data Output'!$D:$D,$F126,'[1]Data Output'!$G:$G,$C126,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D126,'[1]Data Output'!$C:$C,$E126,'[1]Data Output'!$G:$G,$C126,'[1]Data Output'!$D:$D,$F126,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="126" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
       <c r="M126" s="14"/>
     </row>
-    <row r="127" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I127" s="13" t="str">
-        <f>IF(AND($C127&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D127,'[1]Data Output'!$C:$C,$E127,'[1]Data Output'!$D:$D,$F127,'[1]Data Output'!$G:$G,$C127,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D127,'[1]Data Output'!$C:$C,$E127,'[1]Data Output'!$G:$G,$C127,'[1]Data Output'!$D:$D,$F127,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J127" s="13" t="str">
-        <f>IF(AND($C127&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D127,'[1]Data Output'!$C:$C,$E127,'[1]Data Output'!$D:$D,$F127,'[1]Data Output'!$G:$G,$C127,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D127,'[1]Data Output'!$C:$C,$E127,'[1]Data Output'!$G:$G,$C127,'[1]Data Output'!$D:$D,$F127,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K127" s="13" t="str">
-        <f>IF(AND($C127&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D127,'[1]Data Output'!$C:$C,$E127,'[1]Data Output'!$D:$D,$F127,'[1]Data Output'!$G:$G,$C127,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D127,'[1]Data Output'!$C:$C,$E127,'[1]Data Output'!$G:$G,$C127,'[1]Data Output'!$D:$D,$F127,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="127" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I127" s="13"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
       <c r="M127" s="14"/>
     </row>
-    <row r="128" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I128" s="13" t="str">
-        <f>IF(AND($C128&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D128,'[1]Data Output'!$C:$C,$E128,'[1]Data Output'!$D:$D,$F128,'[1]Data Output'!$G:$G,$C128,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D128,'[1]Data Output'!$C:$C,$E128,'[1]Data Output'!$G:$G,$C128,'[1]Data Output'!$D:$D,$F128,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J128" s="13" t="str">
-        <f>IF(AND($C128&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D128,'[1]Data Output'!$C:$C,$E128,'[1]Data Output'!$D:$D,$F128,'[1]Data Output'!$G:$G,$C128,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D128,'[1]Data Output'!$C:$C,$E128,'[1]Data Output'!$G:$G,$C128,'[1]Data Output'!$D:$D,$F128,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K128" s="13" t="str">
-        <f>IF(AND($C128&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D128,'[1]Data Output'!$C:$C,$E128,'[1]Data Output'!$D:$D,$F128,'[1]Data Output'!$G:$G,$C128,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D128,'[1]Data Output'!$C:$C,$E128,'[1]Data Output'!$G:$G,$C128,'[1]Data Output'!$D:$D,$F128,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="128" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I128" s="13"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
       <c r="M128" s="14"/>
     </row>
-    <row r="129" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I129" s="13" t="str">
-        <f>IF(AND($C129&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D129,'[1]Data Output'!$C:$C,$E129,'[1]Data Output'!$D:$D,$F129,'[1]Data Output'!$G:$G,$C129,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D129,'[1]Data Output'!$C:$C,$E129,'[1]Data Output'!$G:$G,$C129,'[1]Data Output'!$D:$D,$F129,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J129" s="13" t="str">
-        <f>IF(AND($C129&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D129,'[1]Data Output'!$C:$C,$E129,'[1]Data Output'!$D:$D,$F129,'[1]Data Output'!$G:$G,$C129,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D129,'[1]Data Output'!$C:$C,$E129,'[1]Data Output'!$G:$G,$C129,'[1]Data Output'!$D:$D,$F129,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K129" s="13" t="str">
-        <f>IF(AND($C129&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D129,'[1]Data Output'!$C:$C,$E129,'[1]Data Output'!$D:$D,$F129,'[1]Data Output'!$G:$G,$C129,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D129,'[1]Data Output'!$C:$C,$E129,'[1]Data Output'!$G:$G,$C129,'[1]Data Output'!$D:$D,$F129,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="129" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I129" s="13"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="13"/>
       <c r="M129" s="14"/>
     </row>
-    <row r="130" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I130" s="13" t="str">
-        <f>IF(AND($C130&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D130,'[1]Data Output'!$C:$C,$E130,'[1]Data Output'!$D:$D,$F130,'[1]Data Output'!$G:$G,$C130,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D130,'[1]Data Output'!$C:$C,$E130,'[1]Data Output'!$G:$G,$C130,'[1]Data Output'!$D:$D,$F130,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J130" s="13" t="str">
-        <f>IF(AND($C130&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D130,'[1]Data Output'!$C:$C,$E130,'[1]Data Output'!$D:$D,$F130,'[1]Data Output'!$G:$G,$C130,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D130,'[1]Data Output'!$C:$C,$E130,'[1]Data Output'!$G:$G,$C130,'[1]Data Output'!$D:$D,$F130,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K130" s="13" t="str">
-        <f>IF(AND($C130&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D130,'[1]Data Output'!$C:$C,$E130,'[1]Data Output'!$D:$D,$F130,'[1]Data Output'!$G:$G,$C130,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D130,'[1]Data Output'!$C:$C,$E130,'[1]Data Output'!$G:$G,$C130,'[1]Data Output'!$D:$D,$F130,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="130" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I130" s="13"/>
+      <c r="J130" s="13"/>
+      <c r="K130" s="13"/>
       <c r="M130" s="14"/>
     </row>
-    <row r="131" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I131" s="13" t="str">
-        <f>IF(AND($C131&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D131,'[1]Data Output'!$C:$C,$E131,'[1]Data Output'!$D:$D,$F131,'[1]Data Output'!$G:$G,$C131,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D131,'[1]Data Output'!$C:$C,$E131,'[1]Data Output'!$G:$G,$C131,'[1]Data Output'!$D:$D,$F131,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J131" s="13" t="str">
-        <f>IF(AND($C131&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D131,'[1]Data Output'!$C:$C,$E131,'[1]Data Output'!$D:$D,$F131,'[1]Data Output'!$G:$G,$C131,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D131,'[1]Data Output'!$C:$C,$E131,'[1]Data Output'!$G:$G,$C131,'[1]Data Output'!$D:$D,$F131,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K131" s="13" t="str">
-        <f>IF(AND($C131&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D131,'[1]Data Output'!$C:$C,$E131,'[1]Data Output'!$D:$D,$F131,'[1]Data Output'!$G:$G,$C131,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D131,'[1]Data Output'!$C:$C,$E131,'[1]Data Output'!$G:$G,$C131,'[1]Data Output'!$D:$D,$F131,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="131" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I131" s="13"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
       <c r="M131" s="14"/>
     </row>
-    <row r="132" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I132" s="13" t="str">
-        <f>IF(AND($C132&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D132,'[1]Data Output'!$C:$C,$E132,'[1]Data Output'!$D:$D,$F132,'[1]Data Output'!$G:$G,$C132,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D132,'[1]Data Output'!$C:$C,$E132,'[1]Data Output'!$G:$G,$C132,'[1]Data Output'!$D:$D,$F132,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J132" s="13" t="str">
-        <f>IF(AND($C132&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D132,'[1]Data Output'!$C:$C,$E132,'[1]Data Output'!$D:$D,$F132,'[1]Data Output'!$G:$G,$C132,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D132,'[1]Data Output'!$C:$C,$E132,'[1]Data Output'!$G:$G,$C132,'[1]Data Output'!$D:$D,$F132,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K132" s="13" t="str">
-        <f>IF(AND($C132&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D132,'[1]Data Output'!$C:$C,$E132,'[1]Data Output'!$D:$D,$F132,'[1]Data Output'!$G:$G,$C132,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D132,'[1]Data Output'!$C:$C,$E132,'[1]Data Output'!$G:$G,$C132,'[1]Data Output'!$D:$D,$F132,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="132" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I132" s="13"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
       <c r="M132" s="14"/>
     </row>
-    <row r="133" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I133" s="13" t="str">
-        <f>IF(AND($C133&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D133,'[1]Data Output'!$C:$C,$E133,'[1]Data Output'!$D:$D,$F133,'[1]Data Output'!$G:$G,$C133,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D133,'[1]Data Output'!$C:$C,$E133,'[1]Data Output'!$G:$G,$C133,'[1]Data Output'!$D:$D,$F133,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J133" s="13" t="str">
-        <f>IF(AND($C133&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D133,'[1]Data Output'!$C:$C,$E133,'[1]Data Output'!$D:$D,$F133,'[1]Data Output'!$G:$G,$C133,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D133,'[1]Data Output'!$C:$C,$E133,'[1]Data Output'!$G:$G,$C133,'[1]Data Output'!$D:$D,$F133,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K133" s="13" t="str">
-        <f>IF(AND($C133&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D133,'[1]Data Output'!$C:$C,$E133,'[1]Data Output'!$D:$D,$F133,'[1]Data Output'!$G:$G,$C133,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D133,'[1]Data Output'!$C:$C,$E133,'[1]Data Output'!$G:$G,$C133,'[1]Data Output'!$D:$D,$F133,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="133" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I133" s="13"/>
+      <c r="J133" s="13"/>
+      <c r="K133" s="13"/>
       <c r="M133" s="14"/>
     </row>
-    <row r="134" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I134" s="13" t="str">
-        <f>IF(AND($C134&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D134,'[1]Data Output'!$C:$C,$E134,'[1]Data Output'!$D:$D,$F134,'[1]Data Output'!$G:$G,$C134,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D134,'[1]Data Output'!$C:$C,$E134,'[1]Data Output'!$G:$G,$C134,'[1]Data Output'!$D:$D,$F134,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J134" s="13" t="str">
-        <f>IF(AND($C134&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D134,'[1]Data Output'!$C:$C,$E134,'[1]Data Output'!$D:$D,$F134,'[1]Data Output'!$G:$G,$C134,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D134,'[1]Data Output'!$C:$C,$E134,'[1]Data Output'!$G:$G,$C134,'[1]Data Output'!$D:$D,$F134,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K134" s="13" t="str">
-        <f>IF(AND($C134&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D134,'[1]Data Output'!$C:$C,$E134,'[1]Data Output'!$D:$D,$F134,'[1]Data Output'!$G:$G,$C134,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D134,'[1]Data Output'!$C:$C,$E134,'[1]Data Output'!$G:$G,$C134,'[1]Data Output'!$D:$D,$F134,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="134" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
       <c r="M134" s="14"/>
     </row>
-    <row r="135" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I135" s="13" t="str">
-        <f>IF(AND($C135&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D135,'[1]Data Output'!$C:$C,$E135,'[1]Data Output'!$D:$D,$F135,'[1]Data Output'!$G:$G,$C135,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D135,'[1]Data Output'!$C:$C,$E135,'[1]Data Output'!$G:$G,$C135,'[1]Data Output'!$D:$D,$F135,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J135" s="13" t="str">
-        <f>IF(AND($C135&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D135,'[1]Data Output'!$C:$C,$E135,'[1]Data Output'!$D:$D,$F135,'[1]Data Output'!$G:$G,$C135,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D135,'[1]Data Output'!$C:$C,$E135,'[1]Data Output'!$G:$G,$C135,'[1]Data Output'!$D:$D,$F135,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K135" s="13" t="str">
-        <f>IF(AND($C135&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D135,'[1]Data Output'!$C:$C,$E135,'[1]Data Output'!$D:$D,$F135,'[1]Data Output'!$G:$G,$C135,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D135,'[1]Data Output'!$C:$C,$E135,'[1]Data Output'!$G:$G,$C135,'[1]Data Output'!$D:$D,$F135,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="135" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I135" s="13"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="13"/>
       <c r="M135" s="14"/>
     </row>
-    <row r="136" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I136" s="13" t="str">
-        <f>IF(AND($C136&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D136,'[1]Data Output'!$C:$C,$E136,'[1]Data Output'!$D:$D,$F136,'[1]Data Output'!$G:$G,$C136,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D136,'[1]Data Output'!$C:$C,$E136,'[1]Data Output'!$G:$G,$C136,'[1]Data Output'!$D:$D,$F136,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J136" s="13" t="str">
-        <f>IF(AND($C136&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D136,'[1]Data Output'!$C:$C,$E136,'[1]Data Output'!$D:$D,$F136,'[1]Data Output'!$G:$G,$C136,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D136,'[1]Data Output'!$C:$C,$E136,'[1]Data Output'!$G:$G,$C136,'[1]Data Output'!$D:$D,$F136,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K136" s="13" t="str">
-        <f>IF(AND($C136&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D136,'[1]Data Output'!$C:$C,$E136,'[1]Data Output'!$D:$D,$F136,'[1]Data Output'!$G:$G,$C136,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D136,'[1]Data Output'!$C:$C,$E136,'[1]Data Output'!$G:$G,$C136,'[1]Data Output'!$D:$D,$F136,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="136" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I136" s="13"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="13"/>
       <c r="M136" s="14"/>
     </row>
-    <row r="137" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I137" s="13" t="str">
-        <f>IF(AND($C137&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D137,'[1]Data Output'!$C:$C,$E137,'[1]Data Output'!$D:$D,$F137,'[1]Data Output'!$G:$G,$C137,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D137,'[1]Data Output'!$C:$C,$E137,'[1]Data Output'!$G:$G,$C137,'[1]Data Output'!$D:$D,$F137,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J137" s="13" t="str">
-        <f>IF(AND($C137&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D137,'[1]Data Output'!$C:$C,$E137,'[1]Data Output'!$D:$D,$F137,'[1]Data Output'!$G:$G,$C137,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D137,'[1]Data Output'!$C:$C,$E137,'[1]Data Output'!$G:$G,$C137,'[1]Data Output'!$D:$D,$F137,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K137" s="13" t="str">
-        <f>IF(AND($C137&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D137,'[1]Data Output'!$C:$C,$E137,'[1]Data Output'!$D:$D,$F137,'[1]Data Output'!$G:$G,$C137,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D137,'[1]Data Output'!$C:$C,$E137,'[1]Data Output'!$G:$G,$C137,'[1]Data Output'!$D:$D,$F137,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="137" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I137" s="13"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="13"/>
       <c r="M137" s="14"/>
     </row>
-    <row r="138" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I138" s="13" t="str">
-        <f>IF(AND($C138&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D138,'[1]Data Output'!$C:$C,$E138,'[1]Data Output'!$D:$D,$F138,'[1]Data Output'!$G:$G,$C138,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D138,'[1]Data Output'!$C:$C,$E138,'[1]Data Output'!$G:$G,$C138,'[1]Data Output'!$D:$D,$F138,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J138" s="13" t="str">
-        <f>IF(AND($C138&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D138,'[1]Data Output'!$C:$C,$E138,'[1]Data Output'!$D:$D,$F138,'[1]Data Output'!$G:$G,$C138,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D138,'[1]Data Output'!$C:$C,$E138,'[1]Data Output'!$G:$G,$C138,'[1]Data Output'!$D:$D,$F138,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K138" s="13" t="str">
-        <f>IF(AND($C138&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D138,'[1]Data Output'!$C:$C,$E138,'[1]Data Output'!$D:$D,$F138,'[1]Data Output'!$G:$G,$C138,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D138,'[1]Data Output'!$C:$C,$E138,'[1]Data Output'!$G:$G,$C138,'[1]Data Output'!$D:$D,$F138,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="138" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
       <c r="M138" s="14"/>
     </row>
-    <row r="139" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I139" s="13" t="str">
-        <f>IF(AND($C139&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D139,'[1]Data Output'!$C:$C,$E139,'[1]Data Output'!$D:$D,$F139,'[1]Data Output'!$G:$G,$C139,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D139,'[1]Data Output'!$C:$C,$E139,'[1]Data Output'!$G:$G,$C139,'[1]Data Output'!$D:$D,$F139,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J139" s="13" t="str">
-        <f>IF(AND($C139&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D139,'[1]Data Output'!$C:$C,$E139,'[1]Data Output'!$D:$D,$F139,'[1]Data Output'!$G:$G,$C139,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D139,'[1]Data Output'!$C:$C,$E139,'[1]Data Output'!$G:$G,$C139,'[1]Data Output'!$D:$D,$F139,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K139" s="13" t="str">
-        <f>IF(AND($C139&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D139,'[1]Data Output'!$C:$C,$E139,'[1]Data Output'!$D:$D,$F139,'[1]Data Output'!$G:$G,$C139,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D139,'[1]Data Output'!$C:$C,$E139,'[1]Data Output'!$G:$G,$C139,'[1]Data Output'!$D:$D,$F139,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="139" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I139" s="13"/>
+      <c r="J139" s="13"/>
+      <c r="K139" s="13"/>
       <c r="M139" s="14"/>
     </row>
-    <row r="140" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I140" s="13" t="str">
-        <f>IF(AND($C140&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D140,'[1]Data Output'!$C:$C,$E140,'[1]Data Output'!$D:$D,$F140,'[1]Data Output'!$G:$G,$C140,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D140,'[1]Data Output'!$C:$C,$E140,'[1]Data Output'!$G:$G,$C140,'[1]Data Output'!$D:$D,$F140,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J140" s="13" t="str">
-        <f>IF(AND($C140&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D140,'[1]Data Output'!$C:$C,$E140,'[1]Data Output'!$D:$D,$F140,'[1]Data Output'!$G:$G,$C140,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D140,'[1]Data Output'!$C:$C,$E140,'[1]Data Output'!$G:$G,$C140,'[1]Data Output'!$D:$D,$F140,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K140" s="13" t="str">
-        <f>IF(AND($C140&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D140,'[1]Data Output'!$C:$C,$E140,'[1]Data Output'!$D:$D,$F140,'[1]Data Output'!$G:$G,$C140,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D140,'[1]Data Output'!$C:$C,$E140,'[1]Data Output'!$G:$G,$C140,'[1]Data Output'!$D:$D,$F140,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="140" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I140" s="13"/>
+      <c r="J140" s="13"/>
+      <c r="K140" s="13"/>
       <c r="M140" s="14"/>
     </row>
-    <row r="141" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I141" s="13" t="str">
-        <f>IF(AND($C141&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D141,'[1]Data Output'!$C:$C,$E141,'[1]Data Output'!$D:$D,$F141,'[1]Data Output'!$G:$G,$C141,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D141,'[1]Data Output'!$C:$C,$E141,'[1]Data Output'!$G:$G,$C141,'[1]Data Output'!$D:$D,$F141,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J141" s="13" t="str">
-        <f>IF(AND($C141&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D141,'[1]Data Output'!$C:$C,$E141,'[1]Data Output'!$D:$D,$F141,'[1]Data Output'!$G:$G,$C141,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D141,'[1]Data Output'!$C:$C,$E141,'[1]Data Output'!$G:$G,$C141,'[1]Data Output'!$D:$D,$F141,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K141" s="13" t="str">
-        <f>IF(AND($C141&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D141,'[1]Data Output'!$C:$C,$E141,'[1]Data Output'!$D:$D,$F141,'[1]Data Output'!$G:$G,$C141,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D141,'[1]Data Output'!$C:$C,$E141,'[1]Data Output'!$G:$G,$C141,'[1]Data Output'!$D:$D,$F141,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="141" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="13"/>
       <c r="M141" s="14"/>
     </row>
-    <row r="142" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I142" s="13" t="str">
-        <f>IF(AND($C142&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D142,'[1]Data Output'!$C:$C,$E142,'[1]Data Output'!$D:$D,$F142,'[1]Data Output'!$G:$G,$C142,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D142,'[1]Data Output'!$C:$C,$E142,'[1]Data Output'!$G:$G,$C142,'[1]Data Output'!$D:$D,$F142,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J142" s="13" t="str">
-        <f>IF(AND($C142&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D142,'[1]Data Output'!$C:$C,$E142,'[1]Data Output'!$D:$D,$F142,'[1]Data Output'!$G:$G,$C142,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D142,'[1]Data Output'!$C:$C,$E142,'[1]Data Output'!$G:$G,$C142,'[1]Data Output'!$D:$D,$F142,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K142" s="13" t="str">
-        <f>IF(AND($C142&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D142,'[1]Data Output'!$C:$C,$E142,'[1]Data Output'!$D:$D,$F142,'[1]Data Output'!$G:$G,$C142,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D142,'[1]Data Output'!$C:$C,$E142,'[1]Data Output'!$G:$G,$C142,'[1]Data Output'!$D:$D,$F142,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="142" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I142" s="13"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="13"/>
       <c r="M142" s="14"/>
     </row>
-    <row r="143" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I143" s="13" t="str">
-        <f>IF(AND($C143&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D143,'[1]Data Output'!$C:$C,$E143,'[1]Data Output'!$D:$D,$F143,'[1]Data Output'!$G:$G,$C143,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D143,'[1]Data Output'!$C:$C,$E143,'[1]Data Output'!$G:$G,$C143,'[1]Data Output'!$D:$D,$F143,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J143" s="13" t="str">
-        <f>IF(AND($C143&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D143,'[1]Data Output'!$C:$C,$E143,'[1]Data Output'!$D:$D,$F143,'[1]Data Output'!$G:$G,$C143,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D143,'[1]Data Output'!$C:$C,$E143,'[1]Data Output'!$G:$G,$C143,'[1]Data Output'!$D:$D,$F143,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K143" s="13" t="str">
-        <f>IF(AND($C143&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D143,'[1]Data Output'!$C:$C,$E143,'[1]Data Output'!$D:$D,$F143,'[1]Data Output'!$G:$G,$C143,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D143,'[1]Data Output'!$C:$C,$E143,'[1]Data Output'!$G:$G,$C143,'[1]Data Output'!$D:$D,$F143,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="143" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I143" s="13"/>
+      <c r="J143" s="13"/>
+      <c r="K143" s="13"/>
       <c r="M143" s="14"/>
     </row>
-    <row r="144" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I144" s="13" t="str">
-        <f>IF(AND($C144&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D144,'[1]Data Output'!$C:$C,$E144,'[1]Data Output'!$D:$D,$F144,'[1]Data Output'!$G:$G,$C144,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D144,'[1]Data Output'!$C:$C,$E144,'[1]Data Output'!$G:$G,$C144,'[1]Data Output'!$D:$D,$F144,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J144" s="13" t="str">
-        <f>IF(AND($C144&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D144,'[1]Data Output'!$C:$C,$E144,'[1]Data Output'!$D:$D,$F144,'[1]Data Output'!$G:$G,$C144,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D144,'[1]Data Output'!$C:$C,$E144,'[1]Data Output'!$G:$G,$C144,'[1]Data Output'!$D:$D,$F144,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K144" s="13" t="str">
-        <f>IF(AND($C144&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D144,'[1]Data Output'!$C:$C,$E144,'[1]Data Output'!$D:$D,$F144,'[1]Data Output'!$G:$G,$C144,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D144,'[1]Data Output'!$C:$C,$E144,'[1]Data Output'!$G:$G,$C144,'[1]Data Output'!$D:$D,$F144,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="144" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I144" s="13"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="13"/>
       <c r="M144" s="14"/>
     </row>
-    <row r="145" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I145" s="13" t="str">
-        <f>IF(AND($C145&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D145,'[1]Data Output'!$C:$C,$E145,'[1]Data Output'!$D:$D,$F145,'[1]Data Output'!$G:$G,$C145,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D145,'[1]Data Output'!$C:$C,$E145,'[1]Data Output'!$G:$G,$C145,'[1]Data Output'!$D:$D,$F145,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J145" s="13" t="str">
-        <f>IF(AND($C145&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D145,'[1]Data Output'!$C:$C,$E145,'[1]Data Output'!$D:$D,$F145,'[1]Data Output'!$G:$G,$C145,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D145,'[1]Data Output'!$C:$C,$E145,'[1]Data Output'!$G:$G,$C145,'[1]Data Output'!$D:$D,$F145,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K145" s="13" t="str">
-        <f>IF(AND($C145&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D145,'[1]Data Output'!$C:$C,$E145,'[1]Data Output'!$D:$D,$F145,'[1]Data Output'!$G:$G,$C145,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D145,'[1]Data Output'!$C:$C,$E145,'[1]Data Output'!$G:$G,$C145,'[1]Data Output'!$D:$D,$F145,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="145" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I145" s="13"/>
+      <c r="J145" s="13"/>
+      <c r="K145" s="13"/>
       <c r="M145" s="14"/>
     </row>
-    <row r="146" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I146" s="13" t="str">
-        <f>IF(AND($C146&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D146,'[1]Data Output'!$C:$C,$E146,'[1]Data Output'!$D:$D,$F146,'[1]Data Output'!$G:$G,$C146,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D146,'[1]Data Output'!$C:$C,$E146,'[1]Data Output'!$G:$G,$C146,'[1]Data Output'!$D:$D,$F146,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J146" s="13" t="str">
-        <f>IF(AND($C146&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D146,'[1]Data Output'!$C:$C,$E146,'[1]Data Output'!$D:$D,$F146,'[1]Data Output'!$G:$G,$C146,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D146,'[1]Data Output'!$C:$C,$E146,'[1]Data Output'!$G:$G,$C146,'[1]Data Output'!$D:$D,$F146,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K146" s="13" t="str">
-        <f>IF(AND($C146&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D146,'[1]Data Output'!$C:$C,$E146,'[1]Data Output'!$D:$D,$F146,'[1]Data Output'!$G:$G,$C146,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D146,'[1]Data Output'!$C:$C,$E146,'[1]Data Output'!$G:$G,$C146,'[1]Data Output'!$D:$D,$F146,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="146" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I146" s="13"/>
+      <c r="J146" s="13"/>
+      <c r="K146" s="13"/>
       <c r="M146" s="14"/>
     </row>
-    <row r="147" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I147" s="13" t="str">
-        <f>IF(AND($C147&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D147,'[1]Data Output'!$C:$C,$E147,'[1]Data Output'!$D:$D,$F147,'[1]Data Output'!$G:$G,$C147,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D147,'[1]Data Output'!$C:$C,$E147,'[1]Data Output'!$G:$G,$C147,'[1]Data Output'!$D:$D,$F147,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J147" s="13" t="str">
-        <f>IF(AND($C147&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D147,'[1]Data Output'!$C:$C,$E147,'[1]Data Output'!$D:$D,$F147,'[1]Data Output'!$G:$G,$C147,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D147,'[1]Data Output'!$C:$C,$E147,'[1]Data Output'!$G:$G,$C147,'[1]Data Output'!$D:$D,$F147,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K147" s="13" t="str">
-        <f>IF(AND($C147&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D147,'[1]Data Output'!$C:$C,$E147,'[1]Data Output'!$D:$D,$F147,'[1]Data Output'!$G:$G,$C147,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D147,'[1]Data Output'!$C:$C,$E147,'[1]Data Output'!$G:$G,$C147,'[1]Data Output'!$D:$D,$F147,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="147" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I147" s="13"/>
+      <c r="J147" s="13"/>
+      <c r="K147" s="13"/>
       <c r="M147" s="14"/>
     </row>
-    <row r="148" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I148" s="13" t="str">
-        <f>IF(AND($C148&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D148,'[1]Data Output'!$C:$C,$E148,'[1]Data Output'!$D:$D,$F148,'[1]Data Output'!$G:$G,$C148,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D148,'[1]Data Output'!$C:$C,$E148,'[1]Data Output'!$G:$G,$C148,'[1]Data Output'!$D:$D,$F148,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J148" s="13" t="str">
-        <f>IF(AND($C148&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D148,'[1]Data Output'!$C:$C,$E148,'[1]Data Output'!$D:$D,$F148,'[1]Data Output'!$G:$G,$C148,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D148,'[1]Data Output'!$C:$C,$E148,'[1]Data Output'!$G:$G,$C148,'[1]Data Output'!$D:$D,$F148,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K148" s="13" t="str">
-        <f>IF(AND($C148&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D148,'[1]Data Output'!$C:$C,$E148,'[1]Data Output'!$D:$D,$F148,'[1]Data Output'!$G:$G,$C148,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D148,'[1]Data Output'!$C:$C,$E148,'[1]Data Output'!$G:$G,$C148,'[1]Data Output'!$D:$D,$F148,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="148" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I148" s="13"/>
+      <c r="J148" s="13"/>
+      <c r="K148" s="13"/>
       <c r="M148" s="14"/>
     </row>
-    <row r="149" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I149" s="13" t="str">
-        <f>IF(AND($C149&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D149,'[1]Data Output'!$C:$C,$E149,'[1]Data Output'!$D:$D,$F149,'[1]Data Output'!$G:$G,$C149,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D149,'[1]Data Output'!$C:$C,$E149,'[1]Data Output'!$G:$G,$C149,'[1]Data Output'!$D:$D,$F149,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J149" s="13" t="str">
-        <f>IF(AND($C149&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D149,'[1]Data Output'!$C:$C,$E149,'[1]Data Output'!$D:$D,$F149,'[1]Data Output'!$G:$G,$C149,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D149,'[1]Data Output'!$C:$C,$E149,'[1]Data Output'!$G:$G,$C149,'[1]Data Output'!$D:$D,$F149,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K149" s="13" t="str">
-        <f>IF(AND($C149&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D149,'[1]Data Output'!$C:$C,$E149,'[1]Data Output'!$D:$D,$F149,'[1]Data Output'!$G:$G,$C149,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D149,'[1]Data Output'!$C:$C,$E149,'[1]Data Output'!$G:$G,$C149,'[1]Data Output'!$D:$D,$F149,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="149" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I149" s="13"/>
+      <c r="J149" s="13"/>
+      <c r="K149" s="13"/>
       <c r="M149" s="14"/>
     </row>
-    <row r="150" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I150" s="13" t="str">
-        <f>IF(AND($C150&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D150,'[1]Data Output'!$C:$C,$E150,'[1]Data Output'!$D:$D,$F150,'[1]Data Output'!$G:$G,$C150,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D150,'[1]Data Output'!$C:$C,$E150,'[1]Data Output'!$G:$G,$C150,'[1]Data Output'!$D:$D,$F150,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J150" s="13" t="str">
-        <f>IF(AND($C150&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D150,'[1]Data Output'!$C:$C,$E150,'[1]Data Output'!$D:$D,$F150,'[1]Data Output'!$G:$G,$C150,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D150,'[1]Data Output'!$C:$C,$E150,'[1]Data Output'!$G:$G,$C150,'[1]Data Output'!$D:$D,$F150,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K150" s="13" t="str">
-        <f>IF(AND($C150&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D150,'[1]Data Output'!$C:$C,$E150,'[1]Data Output'!$D:$D,$F150,'[1]Data Output'!$G:$G,$C150,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D150,'[1]Data Output'!$C:$C,$E150,'[1]Data Output'!$G:$G,$C150,'[1]Data Output'!$D:$D,$F150,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="150" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I150" s="13"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="13"/>
       <c r="M150" s="14"/>
     </row>
-    <row r="151" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I151" s="13" t="str">
-        <f>IF(AND($C151&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D151,'[1]Data Output'!$C:$C,$E151,'[1]Data Output'!$D:$D,$F151,'[1]Data Output'!$G:$G,$C151,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D151,'[1]Data Output'!$C:$C,$E151,'[1]Data Output'!$G:$G,$C151,'[1]Data Output'!$D:$D,$F151,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J151" s="13" t="str">
-        <f>IF(AND($C151&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D151,'[1]Data Output'!$C:$C,$E151,'[1]Data Output'!$D:$D,$F151,'[1]Data Output'!$G:$G,$C151,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D151,'[1]Data Output'!$C:$C,$E151,'[1]Data Output'!$G:$G,$C151,'[1]Data Output'!$D:$D,$F151,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K151" s="13" t="str">
-        <f>IF(AND($C151&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D151,'[1]Data Output'!$C:$C,$E151,'[1]Data Output'!$D:$D,$F151,'[1]Data Output'!$G:$G,$C151,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D151,'[1]Data Output'!$C:$C,$E151,'[1]Data Output'!$G:$G,$C151,'[1]Data Output'!$D:$D,$F151,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="151" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I151" s="13"/>
+      <c r="J151" s="13"/>
+      <c r="K151" s="13"/>
       <c r="M151" s="14"/>
     </row>
-    <row r="152" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I152" s="13" t="str">
-        <f>IF(AND($C152&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D152,'[1]Data Output'!$C:$C,$E152,'[1]Data Output'!$D:$D,$F152,'[1]Data Output'!$G:$G,$C152,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D152,'[1]Data Output'!$C:$C,$E152,'[1]Data Output'!$G:$G,$C152,'[1]Data Output'!$D:$D,$F152,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J152" s="13" t="str">
-        <f>IF(AND($C152&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D152,'[1]Data Output'!$C:$C,$E152,'[1]Data Output'!$D:$D,$F152,'[1]Data Output'!$G:$G,$C152,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D152,'[1]Data Output'!$C:$C,$E152,'[1]Data Output'!$G:$G,$C152,'[1]Data Output'!$D:$D,$F152,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K152" s="13" t="str">
-        <f>IF(AND($C152&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D152,'[1]Data Output'!$C:$C,$E152,'[1]Data Output'!$D:$D,$F152,'[1]Data Output'!$G:$G,$C152,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D152,'[1]Data Output'!$C:$C,$E152,'[1]Data Output'!$G:$G,$C152,'[1]Data Output'!$D:$D,$F152,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="152" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I152" s="13"/>
+      <c r="J152" s="13"/>
+      <c r="K152" s="13"/>
       <c r="M152" s="14"/>
     </row>
-    <row r="153" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I153" s="13" t="str">
-        <f>IF(AND($C153&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D153,'[1]Data Output'!$C:$C,$E153,'[1]Data Output'!$D:$D,$F153,'[1]Data Output'!$G:$G,$C153,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D153,'[1]Data Output'!$C:$C,$E153,'[1]Data Output'!$G:$G,$C153,'[1]Data Output'!$D:$D,$F153,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J153" s="13" t="str">
-        <f>IF(AND($C153&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D153,'[1]Data Output'!$C:$C,$E153,'[1]Data Output'!$D:$D,$F153,'[1]Data Output'!$G:$G,$C153,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D153,'[1]Data Output'!$C:$C,$E153,'[1]Data Output'!$G:$G,$C153,'[1]Data Output'!$D:$D,$F153,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K153" s="13" t="str">
-        <f>IF(AND($C153&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D153,'[1]Data Output'!$C:$C,$E153,'[1]Data Output'!$D:$D,$F153,'[1]Data Output'!$G:$G,$C153,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D153,'[1]Data Output'!$C:$C,$E153,'[1]Data Output'!$G:$G,$C153,'[1]Data Output'!$D:$D,$F153,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="153" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I153" s="13"/>
+      <c r="J153" s="13"/>
+      <c r="K153" s="13"/>
       <c r="M153" s="14"/>
     </row>
-    <row r="154" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I154" s="13" t="str">
-        <f>IF(AND($C154&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D154,'[1]Data Output'!$C:$C,$E154,'[1]Data Output'!$D:$D,$F154,'[1]Data Output'!$G:$G,$C154,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D154,'[1]Data Output'!$C:$C,$E154,'[1]Data Output'!$G:$G,$C154,'[1]Data Output'!$D:$D,$F154,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J154" s="13" t="str">
-        <f>IF(AND($C154&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D154,'[1]Data Output'!$C:$C,$E154,'[1]Data Output'!$D:$D,$F154,'[1]Data Output'!$G:$G,$C154,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D154,'[1]Data Output'!$C:$C,$E154,'[1]Data Output'!$G:$G,$C154,'[1]Data Output'!$D:$D,$F154,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K154" s="13" t="str">
-        <f>IF(AND($C154&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D154,'[1]Data Output'!$C:$C,$E154,'[1]Data Output'!$D:$D,$F154,'[1]Data Output'!$G:$G,$C154,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D154,'[1]Data Output'!$C:$C,$E154,'[1]Data Output'!$G:$G,$C154,'[1]Data Output'!$D:$D,$F154,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="154" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I154" s="13"/>
+      <c r="J154" s="13"/>
+      <c r="K154" s="13"/>
       <c r="M154" s="14"/>
     </row>
-    <row r="155" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I155" s="13" t="str">
-        <f>IF(AND($C155&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D155,'[1]Data Output'!$C:$C,$E155,'[1]Data Output'!$D:$D,$F155,'[1]Data Output'!$G:$G,$C155,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D155,'[1]Data Output'!$C:$C,$E155,'[1]Data Output'!$G:$G,$C155,'[1]Data Output'!$D:$D,$F155,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J155" s="13" t="str">
-        <f>IF(AND($C155&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D155,'[1]Data Output'!$C:$C,$E155,'[1]Data Output'!$D:$D,$F155,'[1]Data Output'!$G:$G,$C155,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D155,'[1]Data Output'!$C:$C,$E155,'[1]Data Output'!$G:$G,$C155,'[1]Data Output'!$D:$D,$F155,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K155" s="13" t="str">
-        <f>IF(AND($C155&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D155,'[1]Data Output'!$C:$C,$E155,'[1]Data Output'!$D:$D,$F155,'[1]Data Output'!$G:$G,$C155,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D155,'[1]Data Output'!$C:$C,$E155,'[1]Data Output'!$G:$G,$C155,'[1]Data Output'!$D:$D,$F155,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="155" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I155" s="13"/>
+      <c r="J155" s="13"/>
+      <c r="K155" s="13"/>
       <c r="M155" s="14"/>
     </row>
-    <row r="156" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I156" s="13" t="str">
-        <f>IF(AND($C156&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D156,'[1]Data Output'!$C:$C,$E156,'[1]Data Output'!$D:$D,$F156,'[1]Data Output'!$G:$G,$C156,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D156,'[1]Data Output'!$C:$C,$E156,'[1]Data Output'!$G:$G,$C156,'[1]Data Output'!$D:$D,$F156,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J156" s="13" t="str">
-        <f>IF(AND($C156&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D156,'[1]Data Output'!$C:$C,$E156,'[1]Data Output'!$D:$D,$F156,'[1]Data Output'!$G:$G,$C156,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D156,'[1]Data Output'!$C:$C,$E156,'[1]Data Output'!$G:$G,$C156,'[1]Data Output'!$D:$D,$F156,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K156" s="13" t="str">
-        <f>IF(AND($C156&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D156,'[1]Data Output'!$C:$C,$E156,'[1]Data Output'!$D:$D,$F156,'[1]Data Output'!$G:$G,$C156,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D156,'[1]Data Output'!$C:$C,$E156,'[1]Data Output'!$G:$G,$C156,'[1]Data Output'!$D:$D,$F156,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="156" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I156" s="13"/>
+      <c r="J156" s="13"/>
+      <c r="K156" s="13"/>
       <c r="M156" s="14"/>
     </row>
-    <row r="157" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I157" s="13" t="str">
-        <f>IF(AND($C157&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D157,'[1]Data Output'!$C:$C,$E157,'[1]Data Output'!$D:$D,$F157,'[1]Data Output'!$G:$G,$C157,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D157,'[1]Data Output'!$C:$C,$E157,'[1]Data Output'!$G:$G,$C157,'[1]Data Output'!$D:$D,$F157,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J157" s="13" t="str">
-        <f>IF(AND($C157&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D157,'[1]Data Output'!$C:$C,$E157,'[1]Data Output'!$D:$D,$F157,'[1]Data Output'!$G:$G,$C157,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D157,'[1]Data Output'!$C:$C,$E157,'[1]Data Output'!$G:$G,$C157,'[1]Data Output'!$D:$D,$F157,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K157" s="13" t="str">
-        <f>IF(AND($C157&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D157,'[1]Data Output'!$C:$C,$E157,'[1]Data Output'!$D:$D,$F157,'[1]Data Output'!$G:$G,$C157,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D157,'[1]Data Output'!$C:$C,$E157,'[1]Data Output'!$G:$G,$C157,'[1]Data Output'!$D:$D,$F157,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="157" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I157" s="13"/>
+      <c r="J157" s="13"/>
+      <c r="K157" s="13"/>
       <c r="M157" s="14"/>
     </row>
-    <row r="158" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I158" s="13" t="str">
-        <f>IF(AND($C158&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D158,'[1]Data Output'!$C:$C,$E158,'[1]Data Output'!$D:$D,$F158,'[1]Data Output'!$G:$G,$C158,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D158,'[1]Data Output'!$C:$C,$E158,'[1]Data Output'!$G:$G,$C158,'[1]Data Output'!$D:$D,$F158,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J158" s="13" t="str">
-        <f>IF(AND($C158&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D158,'[1]Data Output'!$C:$C,$E158,'[1]Data Output'!$D:$D,$F158,'[1]Data Output'!$G:$G,$C158,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D158,'[1]Data Output'!$C:$C,$E158,'[1]Data Output'!$G:$G,$C158,'[1]Data Output'!$D:$D,$F158,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K158" s="13" t="str">
-        <f>IF(AND($C158&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D158,'[1]Data Output'!$C:$C,$E158,'[1]Data Output'!$D:$D,$F158,'[1]Data Output'!$G:$G,$C158,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D158,'[1]Data Output'!$C:$C,$E158,'[1]Data Output'!$G:$G,$C158,'[1]Data Output'!$D:$D,$F158,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="158" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I158" s="13"/>
+      <c r="J158" s="13"/>
+      <c r="K158" s="13"/>
       <c r="M158" s="14"/>
     </row>
-    <row r="159" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I159" s="13" t="str">
-        <f>IF(AND($C159&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D159,'[1]Data Output'!$C:$C,$E159,'[1]Data Output'!$D:$D,$F159,'[1]Data Output'!$G:$G,$C159,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D159,'[1]Data Output'!$C:$C,$E159,'[1]Data Output'!$G:$G,$C159,'[1]Data Output'!$D:$D,$F159,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J159" s="13" t="str">
-        <f>IF(AND($C159&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D159,'[1]Data Output'!$C:$C,$E159,'[1]Data Output'!$D:$D,$F159,'[1]Data Output'!$G:$G,$C159,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D159,'[1]Data Output'!$C:$C,$E159,'[1]Data Output'!$G:$G,$C159,'[1]Data Output'!$D:$D,$F159,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K159" s="13" t="str">
-        <f>IF(AND($C159&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D159,'[1]Data Output'!$C:$C,$E159,'[1]Data Output'!$D:$D,$F159,'[1]Data Output'!$G:$G,$C159,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D159,'[1]Data Output'!$C:$C,$E159,'[1]Data Output'!$G:$G,$C159,'[1]Data Output'!$D:$D,$F159,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="159" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I159" s="13"/>
+      <c r="J159" s="13"/>
+      <c r="K159" s="13"/>
       <c r="M159" s="14"/>
     </row>
-    <row r="160" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I160" s="13" t="str">
-        <f>IF(AND($C160&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D160,'[1]Data Output'!$C:$C,$E160,'[1]Data Output'!$D:$D,$F160,'[1]Data Output'!$G:$G,$C160,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D160,'[1]Data Output'!$C:$C,$E160,'[1]Data Output'!$G:$G,$C160,'[1]Data Output'!$D:$D,$F160,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J160" s="13" t="str">
-        <f>IF(AND($C160&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D160,'[1]Data Output'!$C:$C,$E160,'[1]Data Output'!$D:$D,$F160,'[1]Data Output'!$G:$G,$C160,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D160,'[1]Data Output'!$C:$C,$E160,'[1]Data Output'!$G:$G,$C160,'[1]Data Output'!$D:$D,$F160,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K160" s="13" t="str">
-        <f>IF(AND($C160&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D160,'[1]Data Output'!$C:$C,$E160,'[1]Data Output'!$D:$D,$F160,'[1]Data Output'!$G:$G,$C160,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D160,'[1]Data Output'!$C:$C,$E160,'[1]Data Output'!$G:$G,$C160,'[1]Data Output'!$D:$D,$F160,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="160" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I160" s="13"/>
+      <c r="J160" s="13"/>
+      <c r="K160" s="13"/>
       <c r="M160" s="14"/>
     </row>
-    <row r="161" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I161" s="13" t="str">
-        <f>IF(AND($C161&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D161,'[1]Data Output'!$C:$C,$E161,'[1]Data Output'!$D:$D,$F161,'[1]Data Output'!$G:$G,$C161,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D161,'[1]Data Output'!$C:$C,$E161,'[1]Data Output'!$G:$G,$C161,'[1]Data Output'!$D:$D,$F161,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J161" s="13" t="str">
-        <f>IF(AND($C161&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D161,'[1]Data Output'!$C:$C,$E161,'[1]Data Output'!$D:$D,$F161,'[1]Data Output'!$G:$G,$C161,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D161,'[1]Data Output'!$C:$C,$E161,'[1]Data Output'!$G:$G,$C161,'[1]Data Output'!$D:$D,$F161,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K161" s="13" t="str">
-        <f>IF(AND($C161&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D161,'[1]Data Output'!$C:$C,$E161,'[1]Data Output'!$D:$D,$F161,'[1]Data Output'!$G:$G,$C161,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D161,'[1]Data Output'!$C:$C,$E161,'[1]Data Output'!$G:$G,$C161,'[1]Data Output'!$D:$D,$F161,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="161" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I161" s="13"/>
+      <c r="J161" s="13"/>
+      <c r="K161" s="13"/>
       <c r="M161" s="14"/>
     </row>
-    <row r="162" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I162" s="13" t="str">
-        <f>IF(AND($C162&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D162,'[1]Data Output'!$C:$C,$E162,'[1]Data Output'!$D:$D,$F162,'[1]Data Output'!$G:$G,$C162,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D162,'[1]Data Output'!$C:$C,$E162,'[1]Data Output'!$G:$G,$C162,'[1]Data Output'!$D:$D,$F162,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J162" s="13" t="str">
-        <f>IF(AND($C162&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D162,'[1]Data Output'!$C:$C,$E162,'[1]Data Output'!$D:$D,$F162,'[1]Data Output'!$G:$G,$C162,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D162,'[1]Data Output'!$C:$C,$E162,'[1]Data Output'!$G:$G,$C162,'[1]Data Output'!$D:$D,$F162,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K162" s="13" t="str">
-        <f>IF(AND($C162&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D162,'[1]Data Output'!$C:$C,$E162,'[1]Data Output'!$D:$D,$F162,'[1]Data Output'!$G:$G,$C162,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D162,'[1]Data Output'!$C:$C,$E162,'[1]Data Output'!$G:$G,$C162,'[1]Data Output'!$D:$D,$F162,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="162" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I162" s="13"/>
+      <c r="J162" s="13"/>
+      <c r="K162" s="13"/>
       <c r="M162" s="14"/>
     </row>
-    <row r="163" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I163" s="13" t="str">
-        <f>IF(AND($C163&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D163,'[1]Data Output'!$C:$C,$E163,'[1]Data Output'!$D:$D,$F163,'[1]Data Output'!$G:$G,$C163,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D163,'[1]Data Output'!$C:$C,$E163,'[1]Data Output'!$G:$G,$C163,'[1]Data Output'!$D:$D,$F163,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J163" s="13" t="str">
-        <f>IF(AND($C163&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D163,'[1]Data Output'!$C:$C,$E163,'[1]Data Output'!$D:$D,$F163,'[1]Data Output'!$G:$G,$C163,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D163,'[1]Data Output'!$C:$C,$E163,'[1]Data Output'!$G:$G,$C163,'[1]Data Output'!$D:$D,$F163,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K163" s="13" t="str">
-        <f>IF(AND($C163&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D163,'[1]Data Output'!$C:$C,$E163,'[1]Data Output'!$D:$D,$F163,'[1]Data Output'!$G:$G,$C163,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D163,'[1]Data Output'!$C:$C,$E163,'[1]Data Output'!$G:$G,$C163,'[1]Data Output'!$D:$D,$F163,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="163" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I163" s="13"/>
+      <c r="J163" s="13"/>
+      <c r="K163" s="13"/>
       <c r="M163" s="14"/>
     </row>
-    <row r="164" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I164" s="13" t="str">
-        <f>IF(AND($C164&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D164,'[1]Data Output'!$C:$C,$E164,'[1]Data Output'!$D:$D,$F164,'[1]Data Output'!$G:$G,$C164,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D164,'[1]Data Output'!$C:$C,$E164,'[1]Data Output'!$G:$G,$C164,'[1]Data Output'!$D:$D,$F164,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J164" s="13" t="str">
-        <f>IF(AND($C164&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D164,'[1]Data Output'!$C:$C,$E164,'[1]Data Output'!$D:$D,$F164,'[1]Data Output'!$G:$G,$C164,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D164,'[1]Data Output'!$C:$C,$E164,'[1]Data Output'!$G:$G,$C164,'[1]Data Output'!$D:$D,$F164,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K164" s="13" t="str">
-        <f>IF(AND($C164&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D164,'[1]Data Output'!$C:$C,$E164,'[1]Data Output'!$D:$D,$F164,'[1]Data Output'!$G:$G,$C164,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D164,'[1]Data Output'!$C:$C,$E164,'[1]Data Output'!$G:$G,$C164,'[1]Data Output'!$D:$D,$F164,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="164" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I164" s="13"/>
+      <c r="J164" s="13"/>
+      <c r="K164" s="13"/>
       <c r="M164" s="14"/>
     </row>
-    <row r="165" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I165" s="13" t="str">
-        <f>IF(AND($C165&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D165,'[1]Data Output'!$C:$C,$E165,'[1]Data Output'!$D:$D,$F165,'[1]Data Output'!$G:$G,$C165,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D165,'[1]Data Output'!$C:$C,$E165,'[1]Data Output'!$G:$G,$C165,'[1]Data Output'!$D:$D,$F165,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J165" s="13" t="str">
-        <f>IF(AND($C165&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D165,'[1]Data Output'!$C:$C,$E165,'[1]Data Output'!$D:$D,$F165,'[1]Data Output'!$G:$G,$C165,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D165,'[1]Data Output'!$C:$C,$E165,'[1]Data Output'!$G:$G,$C165,'[1]Data Output'!$D:$D,$F165,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K165" s="13" t="str">
-        <f>IF(AND($C165&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D165,'[1]Data Output'!$C:$C,$E165,'[1]Data Output'!$D:$D,$F165,'[1]Data Output'!$G:$G,$C165,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D165,'[1]Data Output'!$C:$C,$E165,'[1]Data Output'!$G:$G,$C165,'[1]Data Output'!$D:$D,$F165,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="165" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I165" s="13"/>
+      <c r="J165" s="13"/>
+      <c r="K165" s="13"/>
       <c r="M165" s="14"/>
     </row>
-    <row r="166" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I166" s="13" t="str">
-        <f>IF(AND($C166&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D166,'[1]Data Output'!$C:$C,$E166,'[1]Data Output'!$D:$D,$F166,'[1]Data Output'!$G:$G,$C166,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D166,'[1]Data Output'!$C:$C,$E166,'[1]Data Output'!$G:$G,$C166,'[1]Data Output'!$D:$D,$F166,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J166" s="13" t="str">
-        <f>IF(AND($C166&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D166,'[1]Data Output'!$C:$C,$E166,'[1]Data Output'!$D:$D,$F166,'[1]Data Output'!$G:$G,$C166,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D166,'[1]Data Output'!$C:$C,$E166,'[1]Data Output'!$G:$G,$C166,'[1]Data Output'!$D:$D,$F166,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K166" s="13" t="str">
-        <f>IF(AND($C166&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D166,'[1]Data Output'!$C:$C,$E166,'[1]Data Output'!$D:$D,$F166,'[1]Data Output'!$G:$G,$C166,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D166,'[1]Data Output'!$C:$C,$E166,'[1]Data Output'!$G:$G,$C166,'[1]Data Output'!$D:$D,$F166,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="166" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I166" s="13"/>
+      <c r="J166" s="13"/>
+      <c r="K166" s="13"/>
       <c r="M166" s="14"/>
     </row>
-    <row r="167" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I167" s="13" t="str">
-        <f>IF(AND($C167&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D167,'[1]Data Output'!$C:$C,$E167,'[1]Data Output'!$D:$D,$F167,'[1]Data Output'!$G:$G,$C167,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D167,'[1]Data Output'!$C:$C,$E167,'[1]Data Output'!$G:$G,$C167,'[1]Data Output'!$D:$D,$F167,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J167" s="13" t="str">
-        <f>IF(AND($C167&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D167,'[1]Data Output'!$C:$C,$E167,'[1]Data Output'!$D:$D,$F167,'[1]Data Output'!$G:$G,$C167,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D167,'[1]Data Output'!$C:$C,$E167,'[1]Data Output'!$G:$G,$C167,'[1]Data Output'!$D:$D,$F167,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K167" s="13" t="str">
-        <f>IF(AND($C167&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D167,'[1]Data Output'!$C:$C,$E167,'[1]Data Output'!$D:$D,$F167,'[1]Data Output'!$G:$G,$C167,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D167,'[1]Data Output'!$C:$C,$E167,'[1]Data Output'!$G:$G,$C167,'[1]Data Output'!$D:$D,$F167,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="167" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I167" s="13"/>
+      <c r="J167" s="13"/>
+      <c r="K167" s="13"/>
       <c r="M167" s="14"/>
     </row>
-    <row r="168" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I168" s="13" t="str">
-        <f>IF(AND($C168&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D168,'[1]Data Output'!$C:$C,$E168,'[1]Data Output'!$D:$D,$F168,'[1]Data Output'!$G:$G,$C168,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D168,'[1]Data Output'!$C:$C,$E168,'[1]Data Output'!$G:$G,$C168,'[1]Data Output'!$D:$D,$F168,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J168" s="13" t="str">
-        <f>IF(AND($C168&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D168,'[1]Data Output'!$C:$C,$E168,'[1]Data Output'!$D:$D,$F168,'[1]Data Output'!$G:$G,$C168,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D168,'[1]Data Output'!$C:$C,$E168,'[1]Data Output'!$G:$G,$C168,'[1]Data Output'!$D:$D,$F168,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K168" s="13" t="str">
-        <f>IF(AND($C168&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D168,'[1]Data Output'!$C:$C,$E168,'[1]Data Output'!$D:$D,$F168,'[1]Data Output'!$G:$G,$C168,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D168,'[1]Data Output'!$C:$C,$E168,'[1]Data Output'!$G:$G,$C168,'[1]Data Output'!$D:$D,$F168,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="168" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I168" s="13"/>
+      <c r="J168" s="13"/>
+      <c r="K168" s="13"/>
       <c r="M168" s="14"/>
     </row>
-    <row r="169" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I169" s="13" t="str">
-        <f>IF(AND($C169&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D169,'[1]Data Output'!$C:$C,$E169,'[1]Data Output'!$D:$D,$F169,'[1]Data Output'!$G:$G,$C169,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D169,'[1]Data Output'!$C:$C,$E169,'[1]Data Output'!$G:$G,$C169,'[1]Data Output'!$D:$D,$F169,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J169" s="13" t="str">
-        <f>IF(AND($C169&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D169,'[1]Data Output'!$C:$C,$E169,'[1]Data Output'!$D:$D,$F169,'[1]Data Output'!$G:$G,$C169,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D169,'[1]Data Output'!$C:$C,$E169,'[1]Data Output'!$G:$G,$C169,'[1]Data Output'!$D:$D,$F169,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K169" s="13" t="str">
-        <f>IF(AND($C169&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D169,'[1]Data Output'!$C:$C,$E169,'[1]Data Output'!$D:$D,$F169,'[1]Data Output'!$G:$G,$C169,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D169,'[1]Data Output'!$C:$C,$E169,'[1]Data Output'!$G:$G,$C169,'[1]Data Output'!$D:$D,$F169,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="169" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I169" s="13"/>
+      <c r="J169" s="13"/>
+      <c r="K169" s="13"/>
       <c r="M169" s="14"/>
     </row>
-    <row r="170" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I170" s="13" t="str">
-        <f>IF(AND($C170&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D170,'[1]Data Output'!$C:$C,$E170,'[1]Data Output'!$D:$D,$F170,'[1]Data Output'!$G:$G,$C170,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D170,'[1]Data Output'!$C:$C,$E170,'[1]Data Output'!$G:$G,$C170,'[1]Data Output'!$D:$D,$F170,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J170" s="13" t="str">
-        <f>IF(AND($C170&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D170,'[1]Data Output'!$C:$C,$E170,'[1]Data Output'!$D:$D,$F170,'[1]Data Output'!$G:$G,$C170,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D170,'[1]Data Output'!$C:$C,$E170,'[1]Data Output'!$G:$G,$C170,'[1]Data Output'!$D:$D,$F170,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K170" s="13" t="str">
-        <f>IF(AND($C170&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D170,'[1]Data Output'!$C:$C,$E170,'[1]Data Output'!$D:$D,$F170,'[1]Data Output'!$G:$G,$C170,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D170,'[1]Data Output'!$C:$C,$E170,'[1]Data Output'!$G:$G,$C170,'[1]Data Output'!$D:$D,$F170,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="170" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I170" s="13"/>
+      <c r="J170" s="13"/>
+      <c r="K170" s="13"/>
       <c r="M170" s="14"/>
     </row>
-    <row r="171" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I171" s="13" t="str">
-        <f>IF(AND($C171&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D171,'[1]Data Output'!$C:$C,$E171,'[1]Data Output'!$D:$D,$F171,'[1]Data Output'!$G:$G,$C171,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D171,'[1]Data Output'!$C:$C,$E171,'[1]Data Output'!$G:$G,$C171,'[1]Data Output'!$D:$D,$F171,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J171" s="13" t="str">
-        <f>IF(AND($C171&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D171,'[1]Data Output'!$C:$C,$E171,'[1]Data Output'!$D:$D,$F171,'[1]Data Output'!$G:$G,$C171,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D171,'[1]Data Output'!$C:$C,$E171,'[1]Data Output'!$G:$G,$C171,'[1]Data Output'!$D:$D,$F171,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K171" s="13" t="str">
-        <f>IF(AND($C171&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D171,'[1]Data Output'!$C:$C,$E171,'[1]Data Output'!$D:$D,$F171,'[1]Data Output'!$G:$G,$C171,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D171,'[1]Data Output'!$C:$C,$E171,'[1]Data Output'!$G:$G,$C171,'[1]Data Output'!$D:$D,$F171,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="171" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I171" s="13"/>
+      <c r="J171" s="13"/>
+      <c r="K171" s="13"/>
       <c r="M171" s="14"/>
     </row>
-    <row r="172" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I172" s="13" t="str">
-        <f>IF(AND($C172&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D172,'[1]Data Output'!$C:$C,$E172,'[1]Data Output'!$D:$D,$F172,'[1]Data Output'!$G:$G,$C172,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D172,'[1]Data Output'!$C:$C,$E172,'[1]Data Output'!$G:$G,$C172,'[1]Data Output'!$D:$D,$F172,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J172" s="13" t="str">
-        <f>IF(AND($C172&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D172,'[1]Data Output'!$C:$C,$E172,'[1]Data Output'!$D:$D,$F172,'[1]Data Output'!$G:$G,$C172,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D172,'[1]Data Output'!$C:$C,$E172,'[1]Data Output'!$G:$G,$C172,'[1]Data Output'!$D:$D,$F172,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K172" s="13" t="str">
-        <f>IF(AND($C172&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D172,'[1]Data Output'!$C:$C,$E172,'[1]Data Output'!$D:$D,$F172,'[1]Data Output'!$G:$G,$C172,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D172,'[1]Data Output'!$C:$C,$E172,'[1]Data Output'!$G:$G,$C172,'[1]Data Output'!$D:$D,$F172,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="172" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I172" s="13"/>
+      <c r="J172" s="13"/>
+      <c r="K172" s="13"/>
       <c r="M172" s="14"/>
     </row>
-    <row r="173" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I173" s="13" t="str">
-        <f>IF(AND($C173&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D173,'[1]Data Output'!$C:$C,$E173,'[1]Data Output'!$D:$D,$F173,'[1]Data Output'!$G:$G,$C173,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D173,'[1]Data Output'!$C:$C,$E173,'[1]Data Output'!$G:$G,$C173,'[1]Data Output'!$D:$D,$F173,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J173" s="13" t="str">
-        <f>IF(AND($C173&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D173,'[1]Data Output'!$C:$C,$E173,'[1]Data Output'!$D:$D,$F173,'[1]Data Output'!$G:$G,$C173,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D173,'[1]Data Output'!$C:$C,$E173,'[1]Data Output'!$G:$G,$C173,'[1]Data Output'!$D:$D,$F173,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K173" s="13" t="str">
-        <f>IF(AND($C173&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D173,'[1]Data Output'!$C:$C,$E173,'[1]Data Output'!$D:$D,$F173,'[1]Data Output'!$G:$G,$C173,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D173,'[1]Data Output'!$C:$C,$E173,'[1]Data Output'!$G:$G,$C173,'[1]Data Output'!$D:$D,$F173,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="173" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I173" s="13"/>
+      <c r="J173" s="13"/>
+      <c r="K173" s="13"/>
       <c r="M173" s="14"/>
     </row>
-    <row r="174" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I174" s="13" t="str">
-        <f>IF(AND($C174&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D174,'[1]Data Output'!$C:$C,$E174,'[1]Data Output'!$D:$D,$F174,'[1]Data Output'!$G:$G,$C174,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D174,'[1]Data Output'!$C:$C,$E174,'[1]Data Output'!$G:$G,$C174,'[1]Data Output'!$D:$D,$F174,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J174" s="13" t="str">
-        <f>IF(AND($C174&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D174,'[1]Data Output'!$C:$C,$E174,'[1]Data Output'!$D:$D,$F174,'[1]Data Output'!$G:$G,$C174,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D174,'[1]Data Output'!$C:$C,$E174,'[1]Data Output'!$G:$G,$C174,'[1]Data Output'!$D:$D,$F174,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K174" s="13" t="str">
-        <f>IF(AND($C174&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D174,'[1]Data Output'!$C:$C,$E174,'[1]Data Output'!$D:$D,$F174,'[1]Data Output'!$G:$G,$C174,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D174,'[1]Data Output'!$C:$C,$E174,'[1]Data Output'!$G:$G,$C174,'[1]Data Output'!$D:$D,$F174,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="174" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I174" s="13"/>
+      <c r="J174" s="13"/>
+      <c r="K174" s="13"/>
       <c r="M174" s="14"/>
     </row>
-    <row r="175" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I175" s="13" t="str">
-        <f>IF(AND($C175&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D175,'[1]Data Output'!$C:$C,$E175,'[1]Data Output'!$D:$D,$F175,'[1]Data Output'!$G:$G,$C175,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D175,'[1]Data Output'!$C:$C,$E175,'[1]Data Output'!$G:$G,$C175,'[1]Data Output'!$D:$D,$F175,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J175" s="13" t="str">
-        <f>IF(AND($C175&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D175,'[1]Data Output'!$C:$C,$E175,'[1]Data Output'!$D:$D,$F175,'[1]Data Output'!$G:$G,$C175,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D175,'[1]Data Output'!$C:$C,$E175,'[1]Data Output'!$G:$G,$C175,'[1]Data Output'!$D:$D,$F175,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K175" s="13" t="str">
-        <f>IF(AND($C175&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D175,'[1]Data Output'!$C:$C,$E175,'[1]Data Output'!$D:$D,$F175,'[1]Data Output'!$G:$G,$C175,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D175,'[1]Data Output'!$C:$C,$E175,'[1]Data Output'!$G:$G,$C175,'[1]Data Output'!$D:$D,$F175,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="175" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I175" s="13"/>
+      <c r="J175" s="13"/>
+      <c r="K175" s="13"/>
       <c r="M175" s="14"/>
     </row>
-    <row r="176" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I176" s="13" t="str">
-        <f>IF(AND($C176&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D176,'[1]Data Output'!$C:$C,$E176,'[1]Data Output'!$D:$D,$F176,'[1]Data Output'!$G:$G,$C176,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D176,'[1]Data Output'!$C:$C,$E176,'[1]Data Output'!$G:$G,$C176,'[1]Data Output'!$D:$D,$F176,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J176" s="13" t="str">
-        <f>IF(AND($C176&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D176,'[1]Data Output'!$C:$C,$E176,'[1]Data Output'!$D:$D,$F176,'[1]Data Output'!$G:$G,$C176,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D176,'[1]Data Output'!$C:$C,$E176,'[1]Data Output'!$G:$G,$C176,'[1]Data Output'!$D:$D,$F176,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K176" s="13" t="str">
-        <f>IF(AND($C176&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D176,'[1]Data Output'!$C:$C,$E176,'[1]Data Output'!$D:$D,$F176,'[1]Data Output'!$G:$G,$C176,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D176,'[1]Data Output'!$C:$C,$E176,'[1]Data Output'!$G:$G,$C176,'[1]Data Output'!$D:$D,$F176,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="176" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I176" s="13"/>
+      <c r="J176" s="13"/>
+      <c r="K176" s="13"/>
       <c r="M176" s="14"/>
     </row>
-    <row r="177" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I177" s="13" t="str">
-        <f>IF(AND($C177&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D177,'[1]Data Output'!$C:$C,$E177,'[1]Data Output'!$D:$D,$F177,'[1]Data Output'!$G:$G,$C177,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D177,'[1]Data Output'!$C:$C,$E177,'[1]Data Output'!$G:$G,$C177,'[1]Data Output'!$D:$D,$F177,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J177" s="13" t="str">
-        <f>IF(AND($C177&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D177,'[1]Data Output'!$C:$C,$E177,'[1]Data Output'!$D:$D,$F177,'[1]Data Output'!$G:$G,$C177,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D177,'[1]Data Output'!$C:$C,$E177,'[1]Data Output'!$G:$G,$C177,'[1]Data Output'!$D:$D,$F177,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K177" s="13" t="str">
-        <f>IF(AND($C177&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D177,'[1]Data Output'!$C:$C,$E177,'[1]Data Output'!$D:$D,$F177,'[1]Data Output'!$G:$G,$C177,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D177,'[1]Data Output'!$C:$C,$E177,'[1]Data Output'!$G:$G,$C177,'[1]Data Output'!$D:$D,$F177,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="177" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I177" s="13"/>
+      <c r="J177" s="13"/>
+      <c r="K177" s="13"/>
       <c r="M177" s="14"/>
     </row>
-    <row r="178" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I178" s="13" t="str">
-        <f>IF(AND($C178&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D178,'[1]Data Output'!$C:$C,$E178,'[1]Data Output'!$D:$D,$F178,'[1]Data Output'!$G:$G,$C178,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D178,'[1]Data Output'!$C:$C,$E178,'[1]Data Output'!$G:$G,$C178,'[1]Data Output'!$D:$D,$F178,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J178" s="13" t="str">
-        <f>IF(AND($C178&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D178,'[1]Data Output'!$C:$C,$E178,'[1]Data Output'!$D:$D,$F178,'[1]Data Output'!$G:$G,$C178,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D178,'[1]Data Output'!$C:$C,$E178,'[1]Data Output'!$G:$G,$C178,'[1]Data Output'!$D:$D,$F178,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K178" s="13" t="str">
-        <f>IF(AND($C178&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D178,'[1]Data Output'!$C:$C,$E178,'[1]Data Output'!$D:$D,$F178,'[1]Data Output'!$G:$G,$C178,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D178,'[1]Data Output'!$C:$C,$E178,'[1]Data Output'!$G:$G,$C178,'[1]Data Output'!$D:$D,$F178,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="178" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I178" s="13"/>
+      <c r="J178" s="13"/>
+      <c r="K178" s="13"/>
       <c r="M178" s="14"/>
     </row>
-    <row r="179" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I179" s="13" t="str">
-        <f>IF(AND($C179&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D179,'[1]Data Output'!$C:$C,$E179,'[1]Data Output'!$D:$D,$F179,'[1]Data Output'!$G:$G,$C179,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D179,'[1]Data Output'!$C:$C,$E179,'[1]Data Output'!$G:$G,$C179,'[1]Data Output'!$D:$D,$F179,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J179" s="13" t="str">
-        <f>IF(AND($C179&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D179,'[1]Data Output'!$C:$C,$E179,'[1]Data Output'!$D:$D,$F179,'[1]Data Output'!$G:$G,$C179,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D179,'[1]Data Output'!$C:$C,$E179,'[1]Data Output'!$G:$G,$C179,'[1]Data Output'!$D:$D,$F179,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K179" s="13" t="str">
-        <f>IF(AND($C179&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D179,'[1]Data Output'!$C:$C,$E179,'[1]Data Output'!$D:$D,$F179,'[1]Data Output'!$G:$G,$C179,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D179,'[1]Data Output'!$C:$C,$E179,'[1]Data Output'!$G:$G,$C179,'[1]Data Output'!$D:$D,$F179,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="179" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I179" s="13"/>
+      <c r="J179" s="13"/>
+      <c r="K179" s="13"/>
       <c r="M179" s="14"/>
     </row>
-    <row r="180" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I180" s="13" t="str">
-        <f>IF(AND($C180&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D180,'[1]Data Output'!$C:$C,$E180,'[1]Data Output'!$D:$D,$F180,'[1]Data Output'!$G:$G,$C180,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D180,'[1]Data Output'!$C:$C,$E180,'[1]Data Output'!$G:$G,$C180,'[1]Data Output'!$D:$D,$F180,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J180" s="13" t="str">
-        <f>IF(AND($C180&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D180,'[1]Data Output'!$C:$C,$E180,'[1]Data Output'!$D:$D,$F180,'[1]Data Output'!$G:$G,$C180,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D180,'[1]Data Output'!$C:$C,$E180,'[1]Data Output'!$G:$G,$C180,'[1]Data Output'!$D:$D,$F180,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K180" s="13" t="str">
-        <f>IF(AND($C180&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D180,'[1]Data Output'!$C:$C,$E180,'[1]Data Output'!$D:$D,$F180,'[1]Data Output'!$G:$G,$C180,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D180,'[1]Data Output'!$C:$C,$E180,'[1]Data Output'!$G:$G,$C180,'[1]Data Output'!$D:$D,$F180,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="180" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I180" s="13"/>
+      <c r="J180" s="13"/>
+      <c r="K180" s="13"/>
       <c r="M180" s="14"/>
     </row>
-    <row r="181" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I181" s="13" t="str">
-        <f>IF(AND($C181&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D181,'[1]Data Output'!$C:$C,$E181,'[1]Data Output'!$D:$D,$F181,'[1]Data Output'!$G:$G,$C181,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D181,'[1]Data Output'!$C:$C,$E181,'[1]Data Output'!$G:$G,$C181,'[1]Data Output'!$D:$D,$F181,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J181" s="13" t="str">
-        <f>IF(AND($C181&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D181,'[1]Data Output'!$C:$C,$E181,'[1]Data Output'!$D:$D,$F181,'[1]Data Output'!$G:$G,$C181,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D181,'[1]Data Output'!$C:$C,$E181,'[1]Data Output'!$G:$G,$C181,'[1]Data Output'!$D:$D,$F181,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K181" s="13" t="str">
-        <f>IF(AND($C181&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D181,'[1]Data Output'!$C:$C,$E181,'[1]Data Output'!$D:$D,$F181,'[1]Data Output'!$G:$G,$C181,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D181,'[1]Data Output'!$C:$C,$E181,'[1]Data Output'!$G:$G,$C181,'[1]Data Output'!$D:$D,$F181,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="181" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I181" s="13"/>
+      <c r="J181" s="13"/>
+      <c r="K181" s="13"/>
       <c r="M181" s="14"/>
     </row>
-    <row r="182" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I182" s="13" t="str">
-        <f>IF(AND($C182&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D182,'[1]Data Output'!$C:$C,$E182,'[1]Data Output'!$D:$D,$F182,'[1]Data Output'!$G:$G,$C182,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D182,'[1]Data Output'!$C:$C,$E182,'[1]Data Output'!$G:$G,$C182,'[1]Data Output'!$D:$D,$F182,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J182" s="13" t="str">
-        <f>IF(AND($C182&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D182,'[1]Data Output'!$C:$C,$E182,'[1]Data Output'!$D:$D,$F182,'[1]Data Output'!$G:$G,$C182,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D182,'[1]Data Output'!$C:$C,$E182,'[1]Data Output'!$G:$G,$C182,'[1]Data Output'!$D:$D,$F182,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K182" s="13" t="str">
-        <f>IF(AND($C182&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D182,'[1]Data Output'!$C:$C,$E182,'[1]Data Output'!$D:$D,$F182,'[1]Data Output'!$G:$G,$C182,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D182,'[1]Data Output'!$C:$C,$E182,'[1]Data Output'!$G:$G,$C182,'[1]Data Output'!$D:$D,$F182,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="182" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I182" s="13"/>
+      <c r="J182" s="13"/>
+      <c r="K182" s="13"/>
       <c r="M182" s="14"/>
     </row>
-    <row r="183" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I183" s="13" t="str">
-        <f>IF(AND($C183&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D183,'[1]Data Output'!$C:$C,$E183,'[1]Data Output'!$D:$D,$F183,'[1]Data Output'!$G:$G,$C183,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D183,'[1]Data Output'!$C:$C,$E183,'[1]Data Output'!$G:$G,$C183,'[1]Data Output'!$D:$D,$F183,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J183" s="13" t="str">
-        <f>IF(AND($C183&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D183,'[1]Data Output'!$C:$C,$E183,'[1]Data Output'!$D:$D,$F183,'[1]Data Output'!$G:$G,$C183,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D183,'[1]Data Output'!$C:$C,$E183,'[1]Data Output'!$G:$G,$C183,'[1]Data Output'!$D:$D,$F183,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K183" s="13" t="str">
-        <f>IF(AND($C183&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D183,'[1]Data Output'!$C:$C,$E183,'[1]Data Output'!$D:$D,$F183,'[1]Data Output'!$G:$G,$C183,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D183,'[1]Data Output'!$C:$C,$E183,'[1]Data Output'!$G:$G,$C183,'[1]Data Output'!$D:$D,$F183,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="183" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I183" s="13"/>
+      <c r="J183" s="13"/>
+      <c r="K183" s="13"/>
       <c r="M183" s="14"/>
     </row>
-    <row r="184" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I184" s="13" t="str">
-        <f>IF(AND($C184&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D184,'[1]Data Output'!$C:$C,$E184,'[1]Data Output'!$D:$D,$F184,'[1]Data Output'!$G:$G,$C184,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D184,'[1]Data Output'!$C:$C,$E184,'[1]Data Output'!$G:$G,$C184,'[1]Data Output'!$D:$D,$F184,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J184" s="13" t="str">
-        <f>IF(AND($C184&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D184,'[1]Data Output'!$C:$C,$E184,'[1]Data Output'!$D:$D,$F184,'[1]Data Output'!$G:$G,$C184,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D184,'[1]Data Output'!$C:$C,$E184,'[1]Data Output'!$G:$G,$C184,'[1]Data Output'!$D:$D,$F184,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K184" s="13" t="str">
-        <f>IF(AND($C184&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D184,'[1]Data Output'!$C:$C,$E184,'[1]Data Output'!$D:$D,$F184,'[1]Data Output'!$G:$G,$C184,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D184,'[1]Data Output'!$C:$C,$E184,'[1]Data Output'!$G:$G,$C184,'[1]Data Output'!$D:$D,$F184,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="184" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I184" s="13"/>
+      <c r="J184" s="13"/>
+      <c r="K184" s="13"/>
       <c r="M184" s="14"/>
     </row>
-    <row r="185" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I185" s="13" t="str">
-        <f>IF(AND($C185&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D185,'[1]Data Output'!$C:$C,$E185,'[1]Data Output'!$D:$D,$F185,'[1]Data Output'!$G:$G,$C185,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D185,'[1]Data Output'!$C:$C,$E185,'[1]Data Output'!$G:$G,$C185,'[1]Data Output'!$D:$D,$F185,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J185" s="13" t="str">
-        <f>IF(AND($C185&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D185,'[1]Data Output'!$C:$C,$E185,'[1]Data Output'!$D:$D,$F185,'[1]Data Output'!$G:$G,$C185,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D185,'[1]Data Output'!$C:$C,$E185,'[1]Data Output'!$G:$G,$C185,'[1]Data Output'!$D:$D,$F185,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K185" s="13" t="str">
-        <f>IF(AND($C185&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D185,'[1]Data Output'!$C:$C,$E185,'[1]Data Output'!$D:$D,$F185,'[1]Data Output'!$G:$G,$C185,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D185,'[1]Data Output'!$C:$C,$E185,'[1]Data Output'!$G:$G,$C185,'[1]Data Output'!$D:$D,$F185,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="185" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I185" s="13"/>
+      <c r="J185" s="13"/>
+      <c r="K185" s="13"/>
       <c r="M185" s="14"/>
     </row>
-    <row r="186" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I186" s="13" t="str">
-        <f>IF(AND($C186&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D186,'[1]Data Output'!$C:$C,$E186,'[1]Data Output'!$D:$D,$F186,'[1]Data Output'!$G:$G,$C186,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D186,'[1]Data Output'!$C:$C,$E186,'[1]Data Output'!$G:$G,$C186,'[1]Data Output'!$D:$D,$F186,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J186" s="13" t="str">
-        <f>IF(AND($C186&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D186,'[1]Data Output'!$C:$C,$E186,'[1]Data Output'!$D:$D,$F186,'[1]Data Output'!$G:$G,$C186,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D186,'[1]Data Output'!$C:$C,$E186,'[1]Data Output'!$G:$G,$C186,'[1]Data Output'!$D:$D,$F186,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K186" s="13" t="str">
-        <f>IF(AND($C186&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D186,'[1]Data Output'!$C:$C,$E186,'[1]Data Output'!$D:$D,$F186,'[1]Data Output'!$G:$G,$C186,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D186,'[1]Data Output'!$C:$C,$E186,'[1]Data Output'!$G:$G,$C186,'[1]Data Output'!$D:$D,$F186,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="186" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I186" s="13"/>
+      <c r="J186" s="13"/>
+      <c r="K186" s="13"/>
       <c r="M186" s="14"/>
     </row>
-    <row r="187" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I187" s="13" t="str">
-        <f>IF(AND($C187&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D187,'[1]Data Output'!$C:$C,$E187,'[1]Data Output'!$D:$D,$F187,'[1]Data Output'!$G:$G,$C187,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D187,'[1]Data Output'!$C:$C,$E187,'[1]Data Output'!$G:$G,$C187,'[1]Data Output'!$D:$D,$F187,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J187" s="13" t="str">
-        <f>IF(AND($C187&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D187,'[1]Data Output'!$C:$C,$E187,'[1]Data Output'!$D:$D,$F187,'[1]Data Output'!$G:$G,$C187,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D187,'[1]Data Output'!$C:$C,$E187,'[1]Data Output'!$G:$G,$C187,'[1]Data Output'!$D:$D,$F187,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K187" s="13" t="str">
-        <f>IF(AND($C187&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D187,'[1]Data Output'!$C:$C,$E187,'[1]Data Output'!$D:$D,$F187,'[1]Data Output'!$G:$G,$C187,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D187,'[1]Data Output'!$C:$C,$E187,'[1]Data Output'!$G:$G,$C187,'[1]Data Output'!$D:$D,$F187,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="187" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I187" s="13"/>
+      <c r="J187" s="13"/>
+      <c r="K187" s="13"/>
       <c r="M187" s="14"/>
     </row>
-    <row r="188" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I188" s="13" t="str">
-        <f>IF(AND($C188&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D188,'[1]Data Output'!$C:$C,$E188,'[1]Data Output'!$D:$D,$F188,'[1]Data Output'!$G:$G,$C188,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D188,'[1]Data Output'!$C:$C,$E188,'[1]Data Output'!$G:$G,$C188,'[1]Data Output'!$D:$D,$F188,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J188" s="13" t="str">
-        <f>IF(AND($C188&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D188,'[1]Data Output'!$C:$C,$E188,'[1]Data Output'!$D:$D,$F188,'[1]Data Output'!$G:$G,$C188,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D188,'[1]Data Output'!$C:$C,$E188,'[1]Data Output'!$G:$G,$C188,'[1]Data Output'!$D:$D,$F188,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K188" s="13" t="str">
-        <f>IF(AND($C188&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D188,'[1]Data Output'!$C:$C,$E188,'[1]Data Output'!$D:$D,$F188,'[1]Data Output'!$G:$G,$C188,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D188,'[1]Data Output'!$C:$C,$E188,'[1]Data Output'!$G:$G,$C188,'[1]Data Output'!$D:$D,$F188,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="188" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I188" s="13"/>
+      <c r="J188" s="13"/>
+      <c r="K188" s="13"/>
       <c r="M188" s="14"/>
     </row>
-    <row r="189" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I189" s="13" t="str">
-        <f>IF(AND($C189&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D189,'[1]Data Output'!$C:$C,$E189,'[1]Data Output'!$D:$D,$F189,'[1]Data Output'!$G:$G,$C189,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D189,'[1]Data Output'!$C:$C,$E189,'[1]Data Output'!$G:$G,$C189,'[1]Data Output'!$D:$D,$F189,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J189" s="13" t="str">
-        <f>IF(AND($C189&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D189,'[1]Data Output'!$C:$C,$E189,'[1]Data Output'!$D:$D,$F189,'[1]Data Output'!$G:$G,$C189,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D189,'[1]Data Output'!$C:$C,$E189,'[1]Data Output'!$G:$G,$C189,'[1]Data Output'!$D:$D,$F189,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K189" s="13" t="str">
-        <f>IF(AND($C189&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D189,'[1]Data Output'!$C:$C,$E189,'[1]Data Output'!$D:$D,$F189,'[1]Data Output'!$G:$G,$C189,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D189,'[1]Data Output'!$C:$C,$E189,'[1]Data Output'!$G:$G,$C189,'[1]Data Output'!$D:$D,$F189,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="189" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I189" s="13"/>
+      <c r="J189" s="13"/>
+      <c r="K189" s="13"/>
       <c r="M189" s="14"/>
     </row>
-    <row r="190" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I190" s="13" t="str">
-        <f>IF(AND($C190&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D190,'[1]Data Output'!$C:$C,$E190,'[1]Data Output'!$D:$D,$F190,'[1]Data Output'!$G:$G,$C190,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D190,'[1]Data Output'!$C:$C,$E190,'[1]Data Output'!$G:$G,$C190,'[1]Data Output'!$D:$D,$F190,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J190" s="13" t="str">
-        <f>IF(AND($C190&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D190,'[1]Data Output'!$C:$C,$E190,'[1]Data Output'!$D:$D,$F190,'[1]Data Output'!$G:$G,$C190,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D190,'[1]Data Output'!$C:$C,$E190,'[1]Data Output'!$G:$G,$C190,'[1]Data Output'!$D:$D,$F190,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K190" s="13" t="str">
-        <f>IF(AND($C190&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D190,'[1]Data Output'!$C:$C,$E190,'[1]Data Output'!$D:$D,$F190,'[1]Data Output'!$G:$G,$C190,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D190,'[1]Data Output'!$C:$C,$E190,'[1]Data Output'!$G:$G,$C190,'[1]Data Output'!$D:$D,$F190,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="190" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I190" s="13"/>
+      <c r="J190" s="13"/>
+      <c r="K190" s="13"/>
       <c r="M190" s="14"/>
     </row>
-    <row r="191" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I191" s="13" t="str">
-        <f>IF(AND($C191&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D191,'[1]Data Output'!$C:$C,$E191,'[1]Data Output'!$D:$D,$F191,'[1]Data Output'!$G:$G,$C191,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D191,'[1]Data Output'!$C:$C,$E191,'[1]Data Output'!$G:$G,$C191,'[1]Data Output'!$D:$D,$F191,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J191" s="13" t="str">
-        <f>IF(AND($C191&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D191,'[1]Data Output'!$C:$C,$E191,'[1]Data Output'!$D:$D,$F191,'[1]Data Output'!$G:$G,$C191,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D191,'[1]Data Output'!$C:$C,$E191,'[1]Data Output'!$G:$G,$C191,'[1]Data Output'!$D:$D,$F191,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K191" s="13" t="str">
-        <f>IF(AND($C191&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D191,'[1]Data Output'!$C:$C,$E191,'[1]Data Output'!$D:$D,$F191,'[1]Data Output'!$G:$G,$C191,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D191,'[1]Data Output'!$C:$C,$E191,'[1]Data Output'!$G:$G,$C191,'[1]Data Output'!$D:$D,$F191,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="191" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I191" s="13"/>
+      <c r="J191" s="13"/>
+      <c r="K191" s="13"/>
       <c r="M191" s="14"/>
     </row>
-    <row r="192" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I192" s="13" t="str">
-        <f>IF(AND($C192&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D192,'[1]Data Output'!$C:$C,$E192,'[1]Data Output'!$D:$D,$F192,'[1]Data Output'!$G:$G,$C192,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D192,'[1]Data Output'!$C:$C,$E192,'[1]Data Output'!$G:$G,$C192,'[1]Data Output'!$D:$D,$F192,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J192" s="13" t="str">
-        <f>IF(AND($C192&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D192,'[1]Data Output'!$C:$C,$E192,'[1]Data Output'!$D:$D,$F192,'[1]Data Output'!$G:$G,$C192,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D192,'[1]Data Output'!$C:$C,$E192,'[1]Data Output'!$G:$G,$C192,'[1]Data Output'!$D:$D,$F192,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K192" s="13" t="str">
-        <f>IF(AND($C192&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D192,'[1]Data Output'!$C:$C,$E192,'[1]Data Output'!$D:$D,$F192,'[1]Data Output'!$G:$G,$C192,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D192,'[1]Data Output'!$C:$C,$E192,'[1]Data Output'!$G:$G,$C192,'[1]Data Output'!$D:$D,$F192,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="192" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I192" s="13"/>
+      <c r="J192" s="13"/>
+      <c r="K192" s="13"/>
       <c r="M192" s="14"/>
     </row>
-    <row r="193" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I193" s="13" t="str">
-        <f>IF(AND($C193&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D193,'[1]Data Output'!$C:$C,$E193,'[1]Data Output'!$D:$D,$F193,'[1]Data Output'!$G:$G,$C193,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D193,'[1]Data Output'!$C:$C,$E193,'[1]Data Output'!$G:$G,$C193,'[1]Data Output'!$D:$D,$F193,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J193" s="13" t="str">
-        <f>IF(AND($C193&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D193,'[1]Data Output'!$C:$C,$E193,'[1]Data Output'!$D:$D,$F193,'[1]Data Output'!$G:$G,$C193,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D193,'[1]Data Output'!$C:$C,$E193,'[1]Data Output'!$G:$G,$C193,'[1]Data Output'!$D:$D,$F193,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K193" s="13" t="str">
-        <f>IF(AND($C193&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D193,'[1]Data Output'!$C:$C,$E193,'[1]Data Output'!$D:$D,$F193,'[1]Data Output'!$G:$G,$C193,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D193,'[1]Data Output'!$C:$C,$E193,'[1]Data Output'!$G:$G,$C193,'[1]Data Output'!$D:$D,$F193,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="193" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I193" s="13"/>
+      <c r="J193" s="13"/>
+      <c r="K193" s="13"/>
       <c r="M193" s="14"/>
     </row>
-    <row r="194" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I194" s="13" t="str">
-        <f>IF(AND($C194&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D194,'[1]Data Output'!$C:$C,$E194,'[1]Data Output'!$D:$D,$F194,'[1]Data Output'!$G:$G,$C194,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D194,'[1]Data Output'!$C:$C,$E194,'[1]Data Output'!$G:$G,$C194,'[1]Data Output'!$D:$D,$F194,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J194" s="13" t="str">
-        <f>IF(AND($C194&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D194,'[1]Data Output'!$C:$C,$E194,'[1]Data Output'!$D:$D,$F194,'[1]Data Output'!$G:$G,$C194,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D194,'[1]Data Output'!$C:$C,$E194,'[1]Data Output'!$G:$G,$C194,'[1]Data Output'!$D:$D,$F194,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K194" s="13" t="str">
-        <f>IF(AND($C194&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D194,'[1]Data Output'!$C:$C,$E194,'[1]Data Output'!$D:$D,$F194,'[1]Data Output'!$G:$G,$C194,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D194,'[1]Data Output'!$C:$C,$E194,'[1]Data Output'!$G:$G,$C194,'[1]Data Output'!$D:$D,$F194,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="194" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I194" s="13"/>
+      <c r="J194" s="13"/>
+      <c r="K194" s="13"/>
       <c r="M194" s="14"/>
     </row>
-    <row r="195" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I195" s="13" t="str">
-        <f>IF(AND($C195&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D195,'[1]Data Output'!$C:$C,$E195,'[1]Data Output'!$D:$D,$F195,'[1]Data Output'!$G:$G,$C195,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D195,'[1]Data Output'!$C:$C,$E195,'[1]Data Output'!$G:$G,$C195,'[1]Data Output'!$D:$D,$F195,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J195" s="13" t="str">
-        <f>IF(AND($C195&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D195,'[1]Data Output'!$C:$C,$E195,'[1]Data Output'!$D:$D,$F195,'[1]Data Output'!$G:$G,$C195,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D195,'[1]Data Output'!$C:$C,$E195,'[1]Data Output'!$G:$G,$C195,'[1]Data Output'!$D:$D,$F195,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K195" s="13" t="str">
-        <f>IF(AND($C195&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D195,'[1]Data Output'!$C:$C,$E195,'[1]Data Output'!$D:$D,$F195,'[1]Data Output'!$G:$G,$C195,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D195,'[1]Data Output'!$C:$C,$E195,'[1]Data Output'!$G:$G,$C195,'[1]Data Output'!$D:$D,$F195,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="195" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I195" s="13"/>
+      <c r="J195" s="13"/>
+      <c r="K195" s="13"/>
       <c r="M195" s="14"/>
     </row>
-    <row r="196" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I196" s="13" t="str">
-        <f>IF(AND($C196&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D196,'[1]Data Output'!$C:$C,$E196,'[1]Data Output'!$D:$D,$F196,'[1]Data Output'!$G:$G,$C196,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D196,'[1]Data Output'!$C:$C,$E196,'[1]Data Output'!$G:$G,$C196,'[1]Data Output'!$D:$D,$F196,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J196" s="13" t="str">
-        <f>IF(AND($C196&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D196,'[1]Data Output'!$C:$C,$E196,'[1]Data Output'!$D:$D,$F196,'[1]Data Output'!$G:$G,$C196,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D196,'[1]Data Output'!$C:$C,$E196,'[1]Data Output'!$G:$G,$C196,'[1]Data Output'!$D:$D,$F196,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K196" s="13" t="str">
-        <f>IF(AND($C196&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D196,'[1]Data Output'!$C:$C,$E196,'[1]Data Output'!$D:$D,$F196,'[1]Data Output'!$G:$G,$C196,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D196,'[1]Data Output'!$C:$C,$E196,'[1]Data Output'!$G:$G,$C196,'[1]Data Output'!$D:$D,$F196,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="196" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I196" s="13"/>
+      <c r="J196" s="13"/>
+      <c r="K196" s="13"/>
       <c r="M196" s="14"/>
     </row>
-    <row r="197" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I197" s="13" t="str">
-        <f>IF(AND($C197&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D197,'[1]Data Output'!$C:$C,$E197,'[1]Data Output'!$D:$D,$F197,'[1]Data Output'!$G:$G,$C197,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D197,'[1]Data Output'!$C:$C,$E197,'[1]Data Output'!$G:$G,$C197,'[1]Data Output'!$D:$D,$F197,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J197" s="13" t="str">
-        <f>IF(AND($C197&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D197,'[1]Data Output'!$C:$C,$E197,'[1]Data Output'!$D:$D,$F197,'[1]Data Output'!$G:$G,$C197,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D197,'[1]Data Output'!$C:$C,$E197,'[1]Data Output'!$G:$G,$C197,'[1]Data Output'!$D:$D,$F197,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K197" s="13" t="str">
-        <f>IF(AND($C197&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D197,'[1]Data Output'!$C:$C,$E197,'[1]Data Output'!$D:$D,$F197,'[1]Data Output'!$G:$G,$C197,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D197,'[1]Data Output'!$C:$C,$E197,'[1]Data Output'!$G:$G,$C197,'[1]Data Output'!$D:$D,$F197,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="197" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I197" s="13"/>
+      <c r="J197" s="13"/>
+      <c r="K197" s="13"/>
       <c r="M197" s="14"/>
     </row>
-    <row r="198" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I198" s="13" t="str">
-        <f>IF(AND($C198&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D198,'[1]Data Output'!$C:$C,$E198,'[1]Data Output'!$D:$D,$F198,'[1]Data Output'!$G:$G,$C198,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D198,'[1]Data Output'!$C:$C,$E198,'[1]Data Output'!$G:$G,$C198,'[1]Data Output'!$D:$D,$F198,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J198" s="13" t="str">
-        <f>IF(AND($C198&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D198,'[1]Data Output'!$C:$C,$E198,'[1]Data Output'!$D:$D,$F198,'[1]Data Output'!$G:$G,$C198,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D198,'[1]Data Output'!$C:$C,$E198,'[1]Data Output'!$G:$G,$C198,'[1]Data Output'!$D:$D,$F198,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K198" s="13" t="str">
-        <f>IF(AND($C198&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D198,'[1]Data Output'!$C:$C,$E198,'[1]Data Output'!$D:$D,$F198,'[1]Data Output'!$G:$G,$C198,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D198,'[1]Data Output'!$C:$C,$E198,'[1]Data Output'!$G:$G,$C198,'[1]Data Output'!$D:$D,$F198,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="198" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I198" s="13"/>
+      <c r="J198" s="13"/>
+      <c r="K198" s="13"/>
       <c r="M198" s="14"/>
     </row>
-    <row r="199" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I199" s="13" t="str">
-        <f>IF(AND($C199&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D199,'[1]Data Output'!$C:$C,$E199,'[1]Data Output'!$D:$D,$F199,'[1]Data Output'!$G:$G,$C199,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D199,'[1]Data Output'!$C:$C,$E199,'[1]Data Output'!$G:$G,$C199,'[1]Data Output'!$D:$D,$F199,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J199" s="13" t="str">
-        <f>IF(AND($C199&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D199,'[1]Data Output'!$C:$C,$E199,'[1]Data Output'!$D:$D,$F199,'[1]Data Output'!$G:$G,$C199,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D199,'[1]Data Output'!$C:$C,$E199,'[1]Data Output'!$G:$G,$C199,'[1]Data Output'!$D:$D,$F199,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K199" s="13" t="str">
-        <f>IF(AND($C199&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D199,'[1]Data Output'!$C:$C,$E199,'[1]Data Output'!$D:$D,$F199,'[1]Data Output'!$G:$G,$C199,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D199,'[1]Data Output'!$C:$C,$E199,'[1]Data Output'!$G:$G,$C199,'[1]Data Output'!$D:$D,$F199,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="199" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I199" s="13"/>
+      <c r="J199" s="13"/>
+      <c r="K199" s="13"/>
       <c r="M199" s="14"/>
     </row>
-    <row r="200" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I200" s="13" t="str">
-        <f>IF(AND($C200&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D200,'[1]Data Output'!$C:$C,$E200,'[1]Data Output'!$D:$D,$F200,'[1]Data Output'!$G:$G,$C200,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D200,'[1]Data Output'!$C:$C,$E200,'[1]Data Output'!$G:$G,$C200,'[1]Data Output'!$D:$D,$F200,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J200" s="13" t="str">
-        <f>IF(AND($C200&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D200,'[1]Data Output'!$C:$C,$E200,'[1]Data Output'!$D:$D,$F200,'[1]Data Output'!$G:$G,$C200,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D200,'[1]Data Output'!$C:$C,$E200,'[1]Data Output'!$G:$G,$C200,'[1]Data Output'!$D:$D,$F200,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K200" s="13" t="str">
-        <f>IF(AND($C200&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D200,'[1]Data Output'!$C:$C,$E200,'[1]Data Output'!$D:$D,$F200,'[1]Data Output'!$G:$G,$C200,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D200,'[1]Data Output'!$C:$C,$E200,'[1]Data Output'!$G:$G,$C200,'[1]Data Output'!$D:$D,$F200,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="200" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I200" s="13"/>
+      <c r="J200" s="13"/>
+      <c r="K200" s="13"/>
       <c r="M200" s="14"/>
     </row>
-    <row r="201" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I201" s="13" t="str">
-        <f>IF(AND($C201&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D201,'[1]Data Output'!$C:$C,$E201,'[1]Data Output'!$D:$D,$F201,'[1]Data Output'!$G:$G,$C201,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D201,'[1]Data Output'!$C:$C,$E201,'[1]Data Output'!$G:$G,$C201,'[1]Data Output'!$D:$D,$F201,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J201" s="13" t="str">
-        <f>IF(AND($C201&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D201,'[1]Data Output'!$C:$C,$E201,'[1]Data Output'!$D:$D,$F201,'[1]Data Output'!$G:$G,$C201,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D201,'[1]Data Output'!$C:$C,$E201,'[1]Data Output'!$G:$G,$C201,'[1]Data Output'!$D:$D,$F201,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K201" s="13" t="str">
-        <f>IF(AND($C201&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D201,'[1]Data Output'!$C:$C,$E201,'[1]Data Output'!$D:$D,$F201,'[1]Data Output'!$G:$G,$C201,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D201,'[1]Data Output'!$C:$C,$E201,'[1]Data Output'!$G:$G,$C201,'[1]Data Output'!$D:$D,$F201,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="201" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I201" s="13"/>
+      <c r="J201" s="13"/>
+      <c r="K201" s="13"/>
       <c r="M201" s="14"/>
     </row>
-    <row r="202" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I202" s="13" t="str">
-        <f>IF(AND($C202&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D202,'[1]Data Output'!$C:$C,$E202,'[1]Data Output'!$D:$D,$F202,'[1]Data Output'!$G:$G,$C202,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D202,'[1]Data Output'!$C:$C,$E202,'[1]Data Output'!$G:$G,$C202,'[1]Data Output'!$D:$D,$F202,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J202" s="13" t="str">
-        <f>IF(AND($C202&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D202,'[1]Data Output'!$C:$C,$E202,'[1]Data Output'!$D:$D,$F202,'[1]Data Output'!$G:$G,$C202,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D202,'[1]Data Output'!$C:$C,$E202,'[1]Data Output'!$G:$G,$C202,'[1]Data Output'!$D:$D,$F202,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K202" s="13" t="str">
-        <f>IF(AND($C202&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D202,'[1]Data Output'!$C:$C,$E202,'[1]Data Output'!$D:$D,$F202,'[1]Data Output'!$G:$G,$C202,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D202,'[1]Data Output'!$C:$C,$E202,'[1]Data Output'!$G:$G,$C202,'[1]Data Output'!$D:$D,$F202,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="202" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I202" s="13"/>
+      <c r="J202" s="13"/>
+      <c r="K202" s="13"/>
       <c r="M202" s="14"/>
     </row>
-    <row r="203" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I203" s="13" t="str">
-        <f>IF(AND($C203&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D203,'[1]Data Output'!$C:$C,$E203,'[1]Data Output'!$D:$D,$F203,'[1]Data Output'!$G:$G,$C203,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D203,'[1]Data Output'!$C:$C,$E203,'[1]Data Output'!$G:$G,$C203,'[1]Data Output'!$D:$D,$F203,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J203" s="13" t="str">
-        <f>IF(AND($C203&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D203,'[1]Data Output'!$C:$C,$E203,'[1]Data Output'!$D:$D,$F203,'[1]Data Output'!$G:$G,$C203,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D203,'[1]Data Output'!$C:$C,$E203,'[1]Data Output'!$G:$G,$C203,'[1]Data Output'!$D:$D,$F203,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K203" s="13" t="str">
-        <f>IF(AND($C203&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D203,'[1]Data Output'!$C:$C,$E203,'[1]Data Output'!$D:$D,$F203,'[1]Data Output'!$G:$G,$C203,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D203,'[1]Data Output'!$C:$C,$E203,'[1]Data Output'!$G:$G,$C203,'[1]Data Output'!$D:$D,$F203,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="203" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I203" s="13"/>
+      <c r="J203" s="13"/>
+      <c r="K203" s="13"/>
       <c r="M203" s="14"/>
     </row>
-    <row r="204" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I204" s="13" t="str">
-        <f>IF(AND($C204&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D204,'[1]Data Output'!$C:$C,$E204,'[1]Data Output'!$D:$D,$F204,'[1]Data Output'!$G:$G,$C204,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D204,'[1]Data Output'!$C:$C,$E204,'[1]Data Output'!$G:$G,$C204,'[1]Data Output'!$D:$D,$F204,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J204" s="13" t="str">
-        <f>IF(AND($C204&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D204,'[1]Data Output'!$C:$C,$E204,'[1]Data Output'!$D:$D,$F204,'[1]Data Output'!$G:$G,$C204,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D204,'[1]Data Output'!$C:$C,$E204,'[1]Data Output'!$G:$G,$C204,'[1]Data Output'!$D:$D,$F204,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K204" s="13" t="str">
-        <f>IF(AND($C204&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D204,'[1]Data Output'!$C:$C,$E204,'[1]Data Output'!$D:$D,$F204,'[1]Data Output'!$G:$G,$C204,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D204,'[1]Data Output'!$C:$C,$E204,'[1]Data Output'!$G:$G,$C204,'[1]Data Output'!$D:$D,$F204,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="204" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I204" s="13"/>
+      <c r="J204" s="13"/>
+      <c r="K204" s="13"/>
       <c r="M204" s="14"/>
     </row>
-    <row r="205" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C205" s="15"/>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
       <c r="F205" s="15"/>
       <c r="G205" s="15"/>
-      <c r="I205" s="13" t="str">
-        <f>IF(AND($C205&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D205,'[1]Data Output'!$C:$C,$E205,'[1]Data Output'!$D:$D,$F205,'[1]Data Output'!$G:$G,$C205,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D205,'[1]Data Output'!$C:$C,$E205,'[1]Data Output'!$G:$G,$C205,'[1]Data Output'!$D:$D,$F205,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J205" s="13" t="str">
-        <f>IF(AND($C205&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D205,'[1]Data Output'!$C:$C,$E205,'[1]Data Output'!$D:$D,$F205,'[1]Data Output'!$G:$G,$C205,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D205,'[1]Data Output'!$C:$C,$E205,'[1]Data Output'!$G:$G,$C205,'[1]Data Output'!$D:$D,$F205,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K205" s="13" t="str">
-        <f>IF(AND($C205&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D205,'[1]Data Output'!$C:$C,$E205,'[1]Data Output'!$D:$D,$F205,'[1]Data Output'!$G:$G,$C205,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D205,'[1]Data Output'!$C:$C,$E205,'[1]Data Output'!$G:$G,$C205,'[1]Data Output'!$D:$D,$F205,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+      <c r="I205" s="13"/>
+      <c r="J205" s="13"/>
+      <c r="K205" s="13"/>
       <c r="M205" s="14"/>
     </row>
-    <row r="206" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I206" s="13" t="str">
-        <f>IF(AND($C206&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D206,'[1]Data Output'!$C:$C,$E206,'[1]Data Output'!$D:$D,$F206,'[1]Data Output'!$G:$G,$C206,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D206,'[1]Data Output'!$C:$C,$E206,'[1]Data Output'!$G:$G,$C206,'[1]Data Output'!$D:$D,$F206,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J206" s="13" t="str">
-        <f>IF(AND($C206&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D206,'[1]Data Output'!$C:$C,$E206,'[1]Data Output'!$D:$D,$F206,'[1]Data Output'!$G:$G,$C206,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D206,'[1]Data Output'!$C:$C,$E206,'[1]Data Output'!$G:$G,$C206,'[1]Data Output'!$D:$D,$F206,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K206" s="13" t="str">
-        <f>IF(AND($C206&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D206,'[1]Data Output'!$C:$C,$E206,'[1]Data Output'!$D:$D,$F206,'[1]Data Output'!$G:$G,$C206,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D206,'[1]Data Output'!$C:$C,$E206,'[1]Data Output'!$G:$G,$C206,'[1]Data Output'!$D:$D,$F206,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="206" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I206" s="13"/>
+      <c r="J206" s="13"/>
+      <c r="K206" s="13"/>
       <c r="M206" s="14"/>
     </row>
-    <row r="207" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I207" s="13" t="str">
-        <f>IF(AND($C207&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D207,'[1]Data Output'!$C:$C,$E207,'[1]Data Output'!$D:$D,$F207,'[1]Data Output'!$G:$G,$C207,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D207,'[1]Data Output'!$C:$C,$E207,'[1]Data Output'!$G:$G,$C207,'[1]Data Output'!$D:$D,$F207,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J207" s="13" t="str">
-        <f>IF(AND($C207&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D207,'[1]Data Output'!$C:$C,$E207,'[1]Data Output'!$D:$D,$F207,'[1]Data Output'!$G:$G,$C207,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D207,'[1]Data Output'!$C:$C,$E207,'[1]Data Output'!$G:$G,$C207,'[1]Data Output'!$D:$D,$F207,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K207" s="13" t="str">
-        <f>IF(AND($C207&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D207,'[1]Data Output'!$C:$C,$E207,'[1]Data Output'!$D:$D,$F207,'[1]Data Output'!$G:$G,$C207,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D207,'[1]Data Output'!$C:$C,$E207,'[1]Data Output'!$G:$G,$C207,'[1]Data Output'!$D:$D,$F207,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="207" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I207" s="13"/>
+      <c r="J207" s="13"/>
+      <c r="K207" s="13"/>
       <c r="M207" s="14"/>
     </row>
-    <row r="208" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I208" s="13" t="str">
-        <f>IF(AND($C208&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D208,'[1]Data Output'!$C:$C,$E208,'[1]Data Output'!$D:$D,$F208,'[1]Data Output'!$G:$G,$C208,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D208,'[1]Data Output'!$C:$C,$E208,'[1]Data Output'!$G:$G,$C208,'[1]Data Output'!$D:$D,$F208,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J208" s="13" t="str">
-        <f>IF(AND($C208&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D208,'[1]Data Output'!$C:$C,$E208,'[1]Data Output'!$D:$D,$F208,'[1]Data Output'!$G:$G,$C208,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D208,'[1]Data Output'!$C:$C,$E208,'[1]Data Output'!$G:$G,$C208,'[1]Data Output'!$D:$D,$F208,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K208" s="13" t="str">
-        <f>IF(AND($C208&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D208,'[1]Data Output'!$C:$C,$E208,'[1]Data Output'!$D:$D,$F208,'[1]Data Output'!$G:$G,$C208,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D208,'[1]Data Output'!$C:$C,$E208,'[1]Data Output'!$G:$G,$C208,'[1]Data Output'!$D:$D,$F208,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="208" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I208" s="13"/>
+      <c r="J208" s="13"/>
+      <c r="K208" s="13"/>
       <c r="M208" s="14"/>
     </row>
-    <row r="209" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I209" s="13" t="str">
-        <f>IF(AND($C209&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D209,'[1]Data Output'!$C:$C,$E209,'[1]Data Output'!$D:$D,$F209,'[1]Data Output'!$G:$G,$C209,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D209,'[1]Data Output'!$C:$C,$E209,'[1]Data Output'!$G:$G,$C209,'[1]Data Output'!$D:$D,$F209,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J209" s="13" t="str">
-        <f>IF(AND($C209&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D209,'[1]Data Output'!$C:$C,$E209,'[1]Data Output'!$D:$D,$F209,'[1]Data Output'!$G:$G,$C209,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D209,'[1]Data Output'!$C:$C,$E209,'[1]Data Output'!$G:$G,$C209,'[1]Data Output'!$D:$D,$F209,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K209" s="13" t="str">
-        <f>IF(AND($C209&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D209,'[1]Data Output'!$C:$C,$E209,'[1]Data Output'!$D:$D,$F209,'[1]Data Output'!$G:$G,$C209,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D209,'[1]Data Output'!$C:$C,$E209,'[1]Data Output'!$G:$G,$C209,'[1]Data Output'!$D:$D,$F209,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="209" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I209" s="13"/>
+      <c r="J209" s="13"/>
+      <c r="K209" s="13"/>
       <c r="M209" s="14"/>
     </row>
-    <row r="210" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I210" s="13" t="str">
-        <f>IF(AND($C210&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D210,'[1]Data Output'!$C:$C,$E210,'[1]Data Output'!$D:$D,$F210,'[1]Data Output'!$G:$G,$C210,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D210,'[1]Data Output'!$C:$C,$E210,'[1]Data Output'!$G:$G,$C210,'[1]Data Output'!$D:$D,$F210,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J210" s="13" t="str">
-        <f>IF(AND($C210&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D210,'[1]Data Output'!$C:$C,$E210,'[1]Data Output'!$D:$D,$F210,'[1]Data Output'!$G:$G,$C210,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D210,'[1]Data Output'!$C:$C,$E210,'[1]Data Output'!$G:$G,$C210,'[1]Data Output'!$D:$D,$F210,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K210" s="13" t="str">
-        <f>IF(AND($C210&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D210,'[1]Data Output'!$C:$C,$E210,'[1]Data Output'!$D:$D,$F210,'[1]Data Output'!$G:$G,$C210,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D210,'[1]Data Output'!$C:$C,$E210,'[1]Data Output'!$G:$G,$C210,'[1]Data Output'!$D:$D,$F210,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="210" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I210" s="13"/>
+      <c r="J210" s="13"/>
+      <c r="K210" s="13"/>
       <c r="M210" s="14"/>
     </row>
-    <row r="211" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I211" s="13" t="str">
-        <f>IF(AND($C211&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D211,'[1]Data Output'!$C:$C,$E211,'[1]Data Output'!$D:$D,$F211,'[1]Data Output'!$G:$G,$C211,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D211,'[1]Data Output'!$C:$C,$E211,'[1]Data Output'!$G:$G,$C211,'[1]Data Output'!$D:$D,$F211,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J211" s="13" t="str">
-        <f>IF(AND($C211&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D211,'[1]Data Output'!$C:$C,$E211,'[1]Data Output'!$D:$D,$F211,'[1]Data Output'!$G:$G,$C211,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D211,'[1]Data Output'!$C:$C,$E211,'[1]Data Output'!$G:$G,$C211,'[1]Data Output'!$D:$D,$F211,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K211" s="13" t="str">
-        <f>IF(AND($C211&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D211,'[1]Data Output'!$C:$C,$E211,'[1]Data Output'!$D:$D,$F211,'[1]Data Output'!$G:$G,$C211,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D211,'[1]Data Output'!$C:$C,$E211,'[1]Data Output'!$G:$G,$C211,'[1]Data Output'!$D:$D,$F211,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="211" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I211" s="13"/>
+      <c r="J211" s="13"/>
+      <c r="K211" s="13"/>
       <c r="M211" s="14"/>
     </row>
-    <row r="212" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I212" s="13" t="str">
-        <f>IF(AND($C212&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D212,'[1]Data Output'!$C:$C,$E212,'[1]Data Output'!$D:$D,$F212,'[1]Data Output'!$G:$G,$C212,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D212,'[1]Data Output'!$C:$C,$E212,'[1]Data Output'!$G:$G,$C212,'[1]Data Output'!$D:$D,$F212,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J212" s="13" t="str">
-        <f>IF(AND($C212&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D212,'[1]Data Output'!$C:$C,$E212,'[1]Data Output'!$D:$D,$F212,'[1]Data Output'!$G:$G,$C212,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D212,'[1]Data Output'!$C:$C,$E212,'[1]Data Output'!$G:$G,$C212,'[1]Data Output'!$D:$D,$F212,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K212" s="13" t="str">
-        <f>IF(AND($C212&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D212,'[1]Data Output'!$C:$C,$E212,'[1]Data Output'!$D:$D,$F212,'[1]Data Output'!$G:$G,$C212,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D212,'[1]Data Output'!$C:$C,$E212,'[1]Data Output'!$G:$G,$C212,'[1]Data Output'!$D:$D,$F212,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="212" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I212" s="13"/>
+      <c r="J212" s="13"/>
+      <c r="K212" s="13"/>
       <c r="M212" s="14"/>
     </row>
-    <row r="213" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I213" s="13" t="str">
-        <f>IF(AND($C213&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D213,'[1]Data Output'!$C:$C,$E213,'[1]Data Output'!$D:$D,$F213,'[1]Data Output'!$G:$G,$C213,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D213,'[1]Data Output'!$C:$C,$E213,'[1]Data Output'!$G:$G,$C213,'[1]Data Output'!$D:$D,$F213,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J213" s="13" t="str">
-        <f>IF(AND($C213&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D213,'[1]Data Output'!$C:$C,$E213,'[1]Data Output'!$D:$D,$F213,'[1]Data Output'!$G:$G,$C213,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D213,'[1]Data Output'!$C:$C,$E213,'[1]Data Output'!$G:$G,$C213,'[1]Data Output'!$D:$D,$F213,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K213" s="13" t="str">
-        <f>IF(AND($C213&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D213,'[1]Data Output'!$C:$C,$E213,'[1]Data Output'!$D:$D,$F213,'[1]Data Output'!$G:$G,$C213,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D213,'[1]Data Output'!$C:$C,$E213,'[1]Data Output'!$G:$G,$C213,'[1]Data Output'!$D:$D,$F213,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="213" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I213" s="13"/>
+      <c r="J213" s="13"/>
+      <c r="K213" s="13"/>
       <c r="M213" s="14"/>
     </row>
-    <row r="214" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I214" s="13" t="str">
-        <f>IF(AND($C214&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D214,'[1]Data Output'!$C:$C,$E214,'[1]Data Output'!$D:$D,$F214,'[1]Data Output'!$G:$G,$C214,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D214,'[1]Data Output'!$C:$C,$E214,'[1]Data Output'!$G:$G,$C214,'[1]Data Output'!$D:$D,$F214,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J214" s="13" t="str">
-        <f>IF(AND($C214&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D214,'[1]Data Output'!$C:$C,$E214,'[1]Data Output'!$D:$D,$F214,'[1]Data Output'!$G:$G,$C214,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D214,'[1]Data Output'!$C:$C,$E214,'[1]Data Output'!$G:$G,$C214,'[1]Data Output'!$D:$D,$F214,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K214" s="13" t="str">
-        <f>IF(AND($C214&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D214,'[1]Data Output'!$C:$C,$E214,'[1]Data Output'!$D:$D,$F214,'[1]Data Output'!$G:$G,$C214,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D214,'[1]Data Output'!$C:$C,$E214,'[1]Data Output'!$G:$G,$C214,'[1]Data Output'!$D:$D,$F214,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="214" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I214" s="13"/>
+      <c r="J214" s="13"/>
+      <c r="K214" s="13"/>
       <c r="M214" s="14"/>
     </row>
-    <row r="215" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I215" s="13" t="str">
-        <f>IF(AND($C215&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D215,'[1]Data Output'!$C:$C,$E215,'[1]Data Output'!$D:$D,$F215,'[1]Data Output'!$G:$G,$C215,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D215,'[1]Data Output'!$C:$C,$E215,'[1]Data Output'!$G:$G,$C215,'[1]Data Output'!$D:$D,$F215,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J215" s="13" t="str">
-        <f>IF(AND($C215&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D215,'[1]Data Output'!$C:$C,$E215,'[1]Data Output'!$D:$D,$F215,'[1]Data Output'!$G:$G,$C215,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D215,'[1]Data Output'!$C:$C,$E215,'[1]Data Output'!$G:$G,$C215,'[1]Data Output'!$D:$D,$F215,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K215" s="13" t="str">
-        <f>IF(AND($C215&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D215,'[1]Data Output'!$C:$C,$E215,'[1]Data Output'!$D:$D,$F215,'[1]Data Output'!$G:$G,$C215,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D215,'[1]Data Output'!$C:$C,$E215,'[1]Data Output'!$G:$G,$C215,'[1]Data Output'!$D:$D,$F215,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="215" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I215" s="13"/>
+      <c r="J215" s="13"/>
+      <c r="K215" s="13"/>
       <c r="M215" s="14"/>
     </row>
-    <row r="216" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I216" s="13" t="str">
-        <f>IF(AND($C216&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D216,'[1]Data Output'!$C:$C,$E216,'[1]Data Output'!$D:$D,$F216,'[1]Data Output'!$G:$G,$C216,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D216,'[1]Data Output'!$C:$C,$E216,'[1]Data Output'!$G:$G,$C216,'[1]Data Output'!$D:$D,$F216,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J216" s="13" t="str">
-        <f>IF(AND($C216&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D216,'[1]Data Output'!$C:$C,$E216,'[1]Data Output'!$D:$D,$F216,'[1]Data Output'!$G:$G,$C216,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D216,'[1]Data Output'!$C:$C,$E216,'[1]Data Output'!$G:$G,$C216,'[1]Data Output'!$D:$D,$F216,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K216" s="13" t="str">
-        <f>IF(AND($C216&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D216,'[1]Data Output'!$C:$C,$E216,'[1]Data Output'!$D:$D,$F216,'[1]Data Output'!$G:$G,$C216,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D216,'[1]Data Output'!$C:$C,$E216,'[1]Data Output'!$G:$G,$C216,'[1]Data Output'!$D:$D,$F216,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="216" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I216" s="13"/>
+      <c r="J216" s="13"/>
+      <c r="K216" s="13"/>
       <c r="M216" s="14"/>
     </row>
-    <row r="217" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I217" s="13" t="str">
-        <f>IF(AND($C217&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D217,'[1]Data Output'!$C:$C,$E217,'[1]Data Output'!$D:$D,$F217,'[1]Data Output'!$G:$G,$C217,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D217,'[1]Data Output'!$C:$C,$E217,'[1]Data Output'!$G:$G,$C217,'[1]Data Output'!$D:$D,$F217,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J217" s="13" t="str">
-        <f>IF(AND($C217&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D217,'[1]Data Output'!$C:$C,$E217,'[1]Data Output'!$D:$D,$F217,'[1]Data Output'!$G:$G,$C217,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D217,'[1]Data Output'!$C:$C,$E217,'[1]Data Output'!$G:$G,$C217,'[1]Data Output'!$D:$D,$F217,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K217" s="13" t="str">
-        <f>IF(AND($C217&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D217,'[1]Data Output'!$C:$C,$E217,'[1]Data Output'!$D:$D,$F217,'[1]Data Output'!$G:$G,$C217,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D217,'[1]Data Output'!$C:$C,$E217,'[1]Data Output'!$G:$G,$C217,'[1]Data Output'!$D:$D,$F217,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="217" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I217" s="13"/>
+      <c r="J217" s="13"/>
+      <c r="K217" s="13"/>
       <c r="M217" s="14"/>
     </row>
-    <row r="218" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C218" s="15"/>
       <c r="G218" s="15"/>
-      <c r="I218" s="13" t="str">
-        <f>IF(AND($C218&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D218,'[1]Data Output'!$C:$C,$E218,'[1]Data Output'!$D:$D,$F218,'[1]Data Output'!$G:$G,$C218,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D218,'[1]Data Output'!$C:$C,$E218,'[1]Data Output'!$G:$G,$C218,'[1]Data Output'!$D:$D,$F218,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J218" s="13" t="str">
-        <f>IF(AND($C218&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D218,'[1]Data Output'!$C:$C,$E218,'[1]Data Output'!$D:$D,$F218,'[1]Data Output'!$G:$G,$C218,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D218,'[1]Data Output'!$C:$C,$E218,'[1]Data Output'!$G:$G,$C218,'[1]Data Output'!$D:$D,$F218,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K218" s="13" t="str">
-        <f>IF(AND($C218&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D218,'[1]Data Output'!$C:$C,$E218,'[1]Data Output'!$D:$D,$F218,'[1]Data Output'!$G:$G,$C218,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D218,'[1]Data Output'!$C:$C,$E218,'[1]Data Output'!$G:$G,$C218,'[1]Data Output'!$D:$D,$F218,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+      <c r="I218" s="13"/>
+      <c r="J218" s="13"/>
+      <c r="K218" s="13"/>
       <c r="M218" s="14"/>
     </row>
-    <row r="219" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I219" s="13" t="str">
-        <f>IF(AND($C219&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D219,'[1]Data Output'!$C:$C,$E219,'[1]Data Output'!$D:$D,$F219,'[1]Data Output'!$G:$G,$C219,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D219,'[1]Data Output'!$C:$C,$E219,'[1]Data Output'!$G:$G,$C219,'[1]Data Output'!$D:$D,$F219,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J219" s="13" t="str">
-        <f>IF(AND($C219&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D219,'[1]Data Output'!$C:$C,$E219,'[1]Data Output'!$D:$D,$F219,'[1]Data Output'!$G:$G,$C219,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D219,'[1]Data Output'!$C:$C,$E219,'[1]Data Output'!$G:$G,$C219,'[1]Data Output'!$D:$D,$F219,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K219" s="13" t="str">
-        <f>IF(AND($C219&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D219,'[1]Data Output'!$C:$C,$E219,'[1]Data Output'!$D:$D,$F219,'[1]Data Output'!$G:$G,$C219,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D219,'[1]Data Output'!$C:$C,$E219,'[1]Data Output'!$G:$G,$C219,'[1]Data Output'!$D:$D,$F219,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="219" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I219" s="13"/>
+      <c r="J219" s="13"/>
+      <c r="K219" s="13"/>
       <c r="M219" s="14"/>
     </row>
-    <row r="220" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I220" s="13" t="str">
-        <f>IF(AND($C220&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D220,'[1]Data Output'!$C:$C,$E220,'[1]Data Output'!$D:$D,$F220,'[1]Data Output'!$G:$G,$C220,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D220,'[1]Data Output'!$C:$C,$E220,'[1]Data Output'!$G:$G,$C220,'[1]Data Output'!$D:$D,$F220,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J220" s="13" t="str">
-        <f>IF(AND($C220&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D220,'[1]Data Output'!$C:$C,$E220,'[1]Data Output'!$D:$D,$F220,'[1]Data Output'!$G:$G,$C220,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D220,'[1]Data Output'!$C:$C,$E220,'[1]Data Output'!$G:$G,$C220,'[1]Data Output'!$D:$D,$F220,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K220" s="13" t="str">
-        <f>IF(AND($C220&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D220,'[1]Data Output'!$C:$C,$E220,'[1]Data Output'!$D:$D,$F220,'[1]Data Output'!$G:$G,$C220,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D220,'[1]Data Output'!$C:$C,$E220,'[1]Data Output'!$G:$G,$C220,'[1]Data Output'!$D:$D,$F220,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="220" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I220" s="13"/>
+      <c r="J220" s="13"/>
+      <c r="K220" s="13"/>
       <c r="M220" s="14"/>
     </row>
-    <row r="221" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I221" s="13" t="str">
-        <f>IF(AND($C221&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D221,'[1]Data Output'!$C:$C,$E221,'[1]Data Output'!$D:$D,$F221,'[1]Data Output'!$G:$G,$C221,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D221,'[1]Data Output'!$C:$C,$E221,'[1]Data Output'!$G:$G,$C221,'[1]Data Output'!$D:$D,$F221,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J221" s="13" t="str">
-        <f>IF(AND($C221&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D221,'[1]Data Output'!$C:$C,$E221,'[1]Data Output'!$D:$D,$F221,'[1]Data Output'!$G:$G,$C221,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D221,'[1]Data Output'!$C:$C,$E221,'[1]Data Output'!$G:$G,$C221,'[1]Data Output'!$D:$D,$F221,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K221" s="13" t="str">
-        <f>IF(AND($C221&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D221,'[1]Data Output'!$C:$C,$E221,'[1]Data Output'!$D:$D,$F221,'[1]Data Output'!$G:$G,$C221,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D221,'[1]Data Output'!$C:$C,$E221,'[1]Data Output'!$G:$G,$C221,'[1]Data Output'!$D:$D,$F221,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="221" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I221" s="13"/>
+      <c r="J221" s="13"/>
+      <c r="K221" s="13"/>
       <c r="M221" s="14"/>
     </row>
-    <row r="222" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I222" s="13" t="str">
-        <f>IF(AND($C222&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D222,'[1]Data Output'!$C:$C,$E222,'[1]Data Output'!$D:$D,$F222,'[1]Data Output'!$G:$G,$C222,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D222,'[1]Data Output'!$C:$C,$E222,'[1]Data Output'!$G:$G,$C222,'[1]Data Output'!$D:$D,$F222,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J222" s="13" t="str">
-        <f>IF(AND($C222&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D222,'[1]Data Output'!$C:$C,$E222,'[1]Data Output'!$D:$D,$F222,'[1]Data Output'!$G:$G,$C222,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D222,'[1]Data Output'!$C:$C,$E222,'[1]Data Output'!$G:$G,$C222,'[1]Data Output'!$D:$D,$F222,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K222" s="13" t="str">
-        <f>IF(AND($C222&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D222,'[1]Data Output'!$C:$C,$E222,'[1]Data Output'!$D:$D,$F222,'[1]Data Output'!$G:$G,$C222,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D222,'[1]Data Output'!$C:$C,$E222,'[1]Data Output'!$G:$G,$C222,'[1]Data Output'!$D:$D,$F222,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="222" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I222" s="13"/>
+      <c r="J222" s="13"/>
+      <c r="K222" s="13"/>
       <c r="M222" s="14"/>
     </row>
-    <row r="223" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C223" s="15"/>
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
       <c r="F223" s="15"/>
       <c r="G223" s="15"/>
-      <c r="I223" s="13" t="str">
-        <f>IF(AND($C223&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D223,'[1]Data Output'!$C:$C,$E223,'[1]Data Output'!$D:$D,$F223,'[1]Data Output'!$G:$G,$C223,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D223,'[1]Data Output'!$C:$C,$E223,'[1]Data Output'!$G:$G,$C223,'[1]Data Output'!$D:$D,$F223,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J223" s="13" t="str">
-        <f>IF(AND($C223&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D223,'[1]Data Output'!$C:$C,$E223,'[1]Data Output'!$D:$D,$F223,'[1]Data Output'!$G:$G,$C223,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D223,'[1]Data Output'!$C:$C,$E223,'[1]Data Output'!$G:$G,$C223,'[1]Data Output'!$D:$D,$F223,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K223" s="13" t="str">
-        <f>IF(AND($C223&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D223,'[1]Data Output'!$C:$C,$E223,'[1]Data Output'!$D:$D,$F223,'[1]Data Output'!$G:$G,$C223,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D223,'[1]Data Output'!$C:$C,$E223,'[1]Data Output'!$G:$G,$C223,'[1]Data Output'!$D:$D,$F223,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+      <c r="I223" s="13"/>
+      <c r="J223" s="13"/>
+      <c r="K223" s="13"/>
       <c r="M223" s="14"/>
     </row>
-    <row r="224" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I224" s="13" t="str">
-        <f>IF(AND($C224&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D224,'[1]Data Output'!$C:$C,$E224,'[1]Data Output'!$D:$D,$F224,'[1]Data Output'!$G:$G,$C224,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D224,'[1]Data Output'!$C:$C,$E224,'[1]Data Output'!$G:$G,$C224,'[1]Data Output'!$D:$D,$F224,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J224" s="13" t="str">
-        <f>IF(AND($C224&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D224,'[1]Data Output'!$C:$C,$E224,'[1]Data Output'!$D:$D,$F224,'[1]Data Output'!$G:$G,$C224,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D224,'[1]Data Output'!$C:$C,$E224,'[1]Data Output'!$G:$G,$C224,'[1]Data Output'!$D:$D,$F224,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K224" s="13" t="str">
-        <f>IF(AND($C224&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D224,'[1]Data Output'!$C:$C,$E224,'[1]Data Output'!$D:$D,$F224,'[1]Data Output'!$G:$G,$C224,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D224,'[1]Data Output'!$C:$C,$E224,'[1]Data Output'!$G:$G,$C224,'[1]Data Output'!$D:$D,$F224,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="224" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I224" s="13"/>
+      <c r="J224" s="13"/>
+      <c r="K224" s="13"/>
       <c r="M224" s="14"/>
     </row>
-    <row r="225" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I225" s="13" t="str">
-        <f>IF(AND($C225&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D225,'[1]Data Output'!$C:$C,$E225,'[1]Data Output'!$D:$D,$F225,'[1]Data Output'!$G:$G,$C225,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D225,'[1]Data Output'!$C:$C,$E225,'[1]Data Output'!$G:$G,$C225,'[1]Data Output'!$D:$D,$F225,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J225" s="13" t="str">
-        <f>IF(AND($C225&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D225,'[1]Data Output'!$C:$C,$E225,'[1]Data Output'!$D:$D,$F225,'[1]Data Output'!$G:$G,$C225,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D225,'[1]Data Output'!$C:$C,$E225,'[1]Data Output'!$G:$G,$C225,'[1]Data Output'!$D:$D,$F225,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K225" s="13" t="str">
-        <f>IF(AND($C225&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D225,'[1]Data Output'!$C:$C,$E225,'[1]Data Output'!$D:$D,$F225,'[1]Data Output'!$G:$G,$C225,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D225,'[1]Data Output'!$C:$C,$E225,'[1]Data Output'!$G:$G,$C225,'[1]Data Output'!$D:$D,$F225,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="225" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I225" s="13"/>
+      <c r="J225" s="13"/>
+      <c r="K225" s="13"/>
       <c r="M225" s="14"/>
     </row>
-    <row r="226" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I226" s="13" t="str">
-        <f>IF(AND($C226&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D226,'[1]Data Output'!$C:$C,$E226,'[1]Data Output'!$D:$D,$F226,'[1]Data Output'!$G:$G,$C226,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D226,'[1]Data Output'!$C:$C,$E226,'[1]Data Output'!$G:$G,$C226,'[1]Data Output'!$D:$D,$F226,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J226" s="13" t="str">
-        <f>IF(AND($C226&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D226,'[1]Data Output'!$C:$C,$E226,'[1]Data Output'!$D:$D,$F226,'[1]Data Output'!$G:$G,$C226,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D226,'[1]Data Output'!$C:$C,$E226,'[1]Data Output'!$G:$G,$C226,'[1]Data Output'!$D:$D,$F226,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K226" s="13" t="str">
-        <f>IF(AND($C226&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D226,'[1]Data Output'!$C:$C,$E226,'[1]Data Output'!$D:$D,$F226,'[1]Data Output'!$G:$G,$C226,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D226,'[1]Data Output'!$C:$C,$E226,'[1]Data Output'!$G:$G,$C226,'[1]Data Output'!$D:$D,$F226,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="226" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I226" s="13"/>
+      <c r="J226" s="13"/>
+      <c r="K226" s="13"/>
       <c r="M226" s="14"/>
     </row>
-    <row r="227" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I227" s="13" t="str">
-        <f>IF(AND($C227&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D227,'[1]Data Output'!$C:$C,$E227,'[1]Data Output'!$D:$D,$F227,'[1]Data Output'!$G:$G,$C227,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D227,'[1]Data Output'!$C:$C,$E227,'[1]Data Output'!$G:$G,$C227,'[1]Data Output'!$D:$D,$F227,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J227" s="13" t="str">
-        <f>IF(AND($C227&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D227,'[1]Data Output'!$C:$C,$E227,'[1]Data Output'!$D:$D,$F227,'[1]Data Output'!$G:$G,$C227,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D227,'[1]Data Output'!$C:$C,$E227,'[1]Data Output'!$G:$G,$C227,'[1]Data Output'!$D:$D,$F227,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K227" s="13" t="str">
-        <f>IF(AND($C227&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D227,'[1]Data Output'!$C:$C,$E227,'[1]Data Output'!$D:$D,$F227,'[1]Data Output'!$G:$G,$C227,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D227,'[1]Data Output'!$C:$C,$E227,'[1]Data Output'!$G:$G,$C227,'[1]Data Output'!$D:$D,$F227,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="227" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I227" s="13"/>
+      <c r="J227" s="13"/>
+      <c r="K227" s="13"/>
       <c r="M227" s="14"/>
     </row>
-    <row r="228" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I228" s="13" t="str">
-        <f>IF(AND($C228&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D228,'[1]Data Output'!$C:$C,$E228,'[1]Data Output'!$D:$D,$F228,'[1]Data Output'!$G:$G,$C228,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D228,'[1]Data Output'!$C:$C,$E228,'[1]Data Output'!$G:$G,$C228,'[1]Data Output'!$D:$D,$F228,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J228" s="13" t="str">
-        <f>IF(AND($C228&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D228,'[1]Data Output'!$C:$C,$E228,'[1]Data Output'!$D:$D,$F228,'[1]Data Output'!$G:$G,$C228,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D228,'[1]Data Output'!$C:$C,$E228,'[1]Data Output'!$G:$G,$C228,'[1]Data Output'!$D:$D,$F228,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K228" s="13" t="str">
-        <f>IF(AND($C228&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D228,'[1]Data Output'!$C:$C,$E228,'[1]Data Output'!$D:$D,$F228,'[1]Data Output'!$G:$G,$C228,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D228,'[1]Data Output'!$C:$C,$E228,'[1]Data Output'!$G:$G,$C228,'[1]Data Output'!$D:$D,$F228,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="228" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I228" s="13"/>
+      <c r="J228" s="13"/>
+      <c r="K228" s="13"/>
       <c r="M228" s="14"/>
     </row>
-    <row r="229" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I229" s="13" t="str">
-        <f>IF(AND($C229&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D229,'[1]Data Output'!$C:$C,$E229,'[1]Data Output'!$D:$D,$F229,'[1]Data Output'!$G:$G,$C229,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D229,'[1]Data Output'!$C:$C,$E229,'[1]Data Output'!$G:$G,$C229,'[1]Data Output'!$D:$D,$F229,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J229" s="13" t="str">
-        <f>IF(AND($C229&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D229,'[1]Data Output'!$C:$C,$E229,'[1]Data Output'!$D:$D,$F229,'[1]Data Output'!$G:$G,$C229,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D229,'[1]Data Output'!$C:$C,$E229,'[1]Data Output'!$G:$G,$C229,'[1]Data Output'!$D:$D,$F229,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K229" s="13" t="str">
-        <f>IF(AND($C229&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D229,'[1]Data Output'!$C:$C,$E229,'[1]Data Output'!$D:$D,$F229,'[1]Data Output'!$G:$G,$C229,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D229,'[1]Data Output'!$C:$C,$E229,'[1]Data Output'!$G:$G,$C229,'[1]Data Output'!$D:$D,$F229,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="229" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I229" s="13"/>
+      <c r="J229" s="13"/>
+      <c r="K229" s="13"/>
       <c r="M229" s="14"/>
     </row>
-    <row r="230" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I230" s="13" t="str">
-        <f>IF(AND($C230&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D230,'[1]Data Output'!$C:$C,$E230,'[1]Data Output'!$D:$D,$F230,'[1]Data Output'!$G:$G,$C230,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D230,'[1]Data Output'!$C:$C,$E230,'[1]Data Output'!$G:$G,$C230,'[1]Data Output'!$D:$D,$F230,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J230" s="13" t="str">
-        <f>IF(AND($C230&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D230,'[1]Data Output'!$C:$C,$E230,'[1]Data Output'!$D:$D,$F230,'[1]Data Output'!$G:$G,$C230,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D230,'[1]Data Output'!$C:$C,$E230,'[1]Data Output'!$G:$G,$C230,'[1]Data Output'!$D:$D,$F230,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K230" s="13" t="str">
-        <f>IF(AND($C230&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D230,'[1]Data Output'!$C:$C,$E230,'[1]Data Output'!$D:$D,$F230,'[1]Data Output'!$G:$G,$C230,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D230,'[1]Data Output'!$C:$C,$E230,'[1]Data Output'!$G:$G,$C230,'[1]Data Output'!$D:$D,$F230,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="230" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I230" s="13"/>
+      <c r="J230" s="13"/>
+      <c r="K230" s="13"/>
       <c r="M230" s="14"/>
     </row>
-    <row r="231" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I231" s="13" t="str">
-        <f>IF(AND($C231&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D231,'[1]Data Output'!$C:$C,$E231,'[1]Data Output'!$D:$D,$F231,'[1]Data Output'!$G:$G,$C231,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D231,'[1]Data Output'!$C:$C,$E231,'[1]Data Output'!$G:$G,$C231,'[1]Data Output'!$D:$D,$F231,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J231" s="13" t="str">
-        <f>IF(AND($C231&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D231,'[1]Data Output'!$C:$C,$E231,'[1]Data Output'!$D:$D,$F231,'[1]Data Output'!$G:$G,$C231,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D231,'[1]Data Output'!$C:$C,$E231,'[1]Data Output'!$G:$G,$C231,'[1]Data Output'!$D:$D,$F231,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K231" s="13" t="str">
-        <f>IF(AND($C231&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D231,'[1]Data Output'!$C:$C,$E231,'[1]Data Output'!$D:$D,$F231,'[1]Data Output'!$G:$G,$C231,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D231,'[1]Data Output'!$C:$C,$E231,'[1]Data Output'!$G:$G,$C231,'[1]Data Output'!$D:$D,$F231,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="231" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I231" s="13"/>
+      <c r="J231" s="13"/>
+      <c r="K231" s="13"/>
       <c r="M231" s="14"/>
     </row>
-    <row r="232" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I232" s="13" t="str">
-        <f>IF(AND($C232&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D232,'[1]Data Output'!$C:$C,$E232,'[1]Data Output'!$D:$D,$F232,'[1]Data Output'!$G:$G,$C232,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D232,'[1]Data Output'!$C:$C,$E232,'[1]Data Output'!$G:$G,$C232,'[1]Data Output'!$D:$D,$F232,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J232" s="13" t="str">
-        <f>IF(AND($C232&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D232,'[1]Data Output'!$C:$C,$E232,'[1]Data Output'!$D:$D,$F232,'[1]Data Output'!$G:$G,$C232,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D232,'[1]Data Output'!$C:$C,$E232,'[1]Data Output'!$G:$G,$C232,'[1]Data Output'!$D:$D,$F232,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K232" s="13" t="str">
-        <f>IF(AND($C232&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D232,'[1]Data Output'!$C:$C,$E232,'[1]Data Output'!$D:$D,$F232,'[1]Data Output'!$G:$G,$C232,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D232,'[1]Data Output'!$C:$C,$E232,'[1]Data Output'!$G:$G,$C232,'[1]Data Output'!$D:$D,$F232,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="232" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I232" s="13"/>
+      <c r="J232" s="13"/>
+      <c r="K232" s="13"/>
       <c r="M232" s="14"/>
     </row>
-    <row r="233" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C233" s="15"/>
       <c r="D233" s="15"/>
       <c r="E233" s="15"/>
       <c r="F233" s="15"/>
       <c r="G233" s="15"/>
-      <c r="I233" s="13" t="str">
-        <f>IF(AND($C233&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D233,'[1]Data Output'!$C:$C,$E233,'[1]Data Output'!$D:$D,$F233,'[1]Data Output'!$G:$G,$C233,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D233,'[1]Data Output'!$C:$C,$E233,'[1]Data Output'!$G:$G,$C233,'[1]Data Output'!$D:$D,$F233,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J233" s="13" t="str">
-        <f>IF(AND($C233&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D233,'[1]Data Output'!$C:$C,$E233,'[1]Data Output'!$D:$D,$F233,'[1]Data Output'!$G:$G,$C233,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D233,'[1]Data Output'!$C:$C,$E233,'[1]Data Output'!$G:$G,$C233,'[1]Data Output'!$D:$D,$F233,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K233" s="13" t="str">
-        <f>IF(AND($C233&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D233,'[1]Data Output'!$C:$C,$E233,'[1]Data Output'!$D:$D,$F233,'[1]Data Output'!$G:$G,$C233,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D233,'[1]Data Output'!$C:$C,$E233,'[1]Data Output'!$G:$G,$C233,'[1]Data Output'!$D:$D,$F233,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+      <c r="I233" s="13"/>
+      <c r="J233" s="13"/>
+      <c r="K233" s="13"/>
       <c r="M233" s="14"/>
     </row>
-    <row r="234" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I234" s="13" t="str">
-        <f>IF(AND($C234&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D234,'[1]Data Output'!$C:$C,$E234,'[1]Data Output'!$D:$D,$F234,'[1]Data Output'!$G:$G,$C234,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D234,'[1]Data Output'!$C:$C,$E234,'[1]Data Output'!$G:$G,$C234,'[1]Data Output'!$D:$D,$F234,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J234" s="13" t="str">
-        <f>IF(AND($C234&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D234,'[1]Data Output'!$C:$C,$E234,'[1]Data Output'!$D:$D,$F234,'[1]Data Output'!$G:$G,$C234,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D234,'[1]Data Output'!$C:$C,$E234,'[1]Data Output'!$G:$G,$C234,'[1]Data Output'!$D:$D,$F234,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K234" s="13" t="str">
-        <f>IF(AND($C234&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D234,'[1]Data Output'!$C:$C,$E234,'[1]Data Output'!$D:$D,$F234,'[1]Data Output'!$G:$G,$C234,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D234,'[1]Data Output'!$C:$C,$E234,'[1]Data Output'!$G:$G,$C234,'[1]Data Output'!$D:$D,$F234,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="234" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I234" s="13"/>
+      <c r="J234" s="13"/>
+      <c r="K234" s="13"/>
       <c r="M234" s="14"/>
     </row>
-    <row r="235" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I235" s="13" t="str">
-        <f>IF(AND($C235&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D235,'[1]Data Output'!$C:$C,$E235,'[1]Data Output'!$D:$D,$F235,'[1]Data Output'!$G:$G,$C235,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D235,'[1]Data Output'!$C:$C,$E235,'[1]Data Output'!$G:$G,$C235,'[1]Data Output'!$D:$D,$F235,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J235" s="13" t="str">
-        <f>IF(AND($C235&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D235,'[1]Data Output'!$C:$C,$E235,'[1]Data Output'!$D:$D,$F235,'[1]Data Output'!$G:$G,$C235,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D235,'[1]Data Output'!$C:$C,$E235,'[1]Data Output'!$G:$G,$C235,'[1]Data Output'!$D:$D,$F235,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K235" s="13" t="str">
-        <f>IF(AND($C235&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D235,'[1]Data Output'!$C:$C,$E235,'[1]Data Output'!$D:$D,$F235,'[1]Data Output'!$G:$G,$C235,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D235,'[1]Data Output'!$C:$C,$E235,'[1]Data Output'!$G:$G,$C235,'[1]Data Output'!$D:$D,$F235,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="235" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I235" s="13"/>
+      <c r="J235" s="13"/>
+      <c r="K235" s="13"/>
       <c r="M235" s="14"/>
     </row>
-    <row r="236" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I236" s="13" t="str">
-        <f>IF(AND($C236&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D236,'[1]Data Output'!$C:$C,$E236,'[1]Data Output'!$D:$D,$F236,'[1]Data Output'!$G:$G,$C236,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D236,'[1]Data Output'!$C:$C,$E236,'[1]Data Output'!$G:$G,$C236,'[1]Data Output'!$D:$D,$F236,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J236" s="13" t="str">
-        <f>IF(AND($C236&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D236,'[1]Data Output'!$C:$C,$E236,'[1]Data Output'!$D:$D,$F236,'[1]Data Output'!$G:$G,$C236,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D236,'[1]Data Output'!$C:$C,$E236,'[1]Data Output'!$G:$G,$C236,'[1]Data Output'!$D:$D,$F236,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K236" s="13" t="str">
-        <f>IF(AND($C236&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D236,'[1]Data Output'!$C:$C,$E236,'[1]Data Output'!$D:$D,$F236,'[1]Data Output'!$G:$G,$C236,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D236,'[1]Data Output'!$C:$C,$E236,'[1]Data Output'!$G:$G,$C236,'[1]Data Output'!$D:$D,$F236,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="236" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I236" s="13"/>
+      <c r="J236" s="13"/>
+      <c r="K236" s="13"/>
       <c r="M236" s="14"/>
     </row>
-    <row r="237" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I237" s="13" t="str">
-        <f>IF(AND($C237&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D237,'[1]Data Output'!$C:$C,$E237,'[1]Data Output'!$D:$D,$F237,'[1]Data Output'!$G:$G,$C237,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D237,'[1]Data Output'!$C:$C,$E237,'[1]Data Output'!$G:$G,$C237,'[1]Data Output'!$D:$D,$F237,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J237" s="13" t="str">
-        <f>IF(AND($C237&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D237,'[1]Data Output'!$C:$C,$E237,'[1]Data Output'!$D:$D,$F237,'[1]Data Output'!$G:$G,$C237,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D237,'[1]Data Output'!$C:$C,$E237,'[1]Data Output'!$G:$G,$C237,'[1]Data Output'!$D:$D,$F237,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K237" s="13" t="str">
-        <f>IF(AND($C237&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D237,'[1]Data Output'!$C:$C,$E237,'[1]Data Output'!$D:$D,$F237,'[1]Data Output'!$G:$G,$C237,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D237,'[1]Data Output'!$C:$C,$E237,'[1]Data Output'!$G:$G,$C237,'[1]Data Output'!$D:$D,$F237,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="237" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I237" s="13"/>
+      <c r="J237" s="13"/>
+      <c r="K237" s="13"/>
       <c r="M237" s="14"/>
     </row>
-    <row r="238" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I238" s="13" t="str">
-        <f>IF(AND($C238&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D238,'[1]Data Output'!$C:$C,$E238,'[1]Data Output'!$D:$D,$F238,'[1]Data Output'!$G:$G,$C238,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D238,'[1]Data Output'!$C:$C,$E238,'[1]Data Output'!$G:$G,$C238,'[1]Data Output'!$D:$D,$F238,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J238" s="13" t="str">
-        <f>IF(AND($C238&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D238,'[1]Data Output'!$C:$C,$E238,'[1]Data Output'!$D:$D,$F238,'[1]Data Output'!$G:$G,$C238,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D238,'[1]Data Output'!$C:$C,$E238,'[1]Data Output'!$G:$G,$C238,'[1]Data Output'!$D:$D,$F238,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K238" s="13" t="str">
-        <f>IF(AND($C238&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D238,'[1]Data Output'!$C:$C,$E238,'[1]Data Output'!$D:$D,$F238,'[1]Data Output'!$G:$G,$C238,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D238,'[1]Data Output'!$C:$C,$E238,'[1]Data Output'!$G:$G,$C238,'[1]Data Output'!$D:$D,$F238,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="238" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I238" s="13"/>
+      <c r="J238" s="13"/>
+      <c r="K238" s="13"/>
       <c r="M238" s="14"/>
     </row>
-    <row r="239" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I239" s="13" t="str">
-        <f>IF(AND($C239&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D239,'[1]Data Output'!$C:$C,$E239,'[1]Data Output'!$D:$D,$F239,'[1]Data Output'!$G:$G,$C239,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D239,'[1]Data Output'!$C:$C,$E239,'[1]Data Output'!$G:$G,$C239,'[1]Data Output'!$D:$D,$F239,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J239" s="13" t="str">
-        <f>IF(AND($C239&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D239,'[1]Data Output'!$C:$C,$E239,'[1]Data Output'!$D:$D,$F239,'[1]Data Output'!$G:$G,$C239,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D239,'[1]Data Output'!$C:$C,$E239,'[1]Data Output'!$G:$G,$C239,'[1]Data Output'!$D:$D,$F239,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K239" s="13" t="str">
-        <f>IF(AND($C239&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D239,'[1]Data Output'!$C:$C,$E239,'[1]Data Output'!$D:$D,$F239,'[1]Data Output'!$G:$G,$C239,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D239,'[1]Data Output'!$C:$C,$E239,'[1]Data Output'!$G:$G,$C239,'[1]Data Output'!$D:$D,$F239,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="239" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I239" s="13"/>
+      <c r="J239" s="13"/>
+      <c r="K239" s="13"/>
       <c r="M239" s="14"/>
     </row>
-    <row r="240" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I240" s="13" t="str">
-        <f>IF(AND($C240&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D240,'[1]Data Output'!$C:$C,$E240,'[1]Data Output'!$D:$D,$F240,'[1]Data Output'!$G:$G,$C240,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D240,'[1]Data Output'!$C:$C,$E240,'[1]Data Output'!$G:$G,$C240,'[1]Data Output'!$D:$D,$F240,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J240" s="13" t="str">
-        <f>IF(AND($C240&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D240,'[1]Data Output'!$C:$C,$E240,'[1]Data Output'!$D:$D,$F240,'[1]Data Output'!$G:$G,$C240,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D240,'[1]Data Output'!$C:$C,$E240,'[1]Data Output'!$G:$G,$C240,'[1]Data Output'!$D:$D,$F240,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K240" s="13" t="str">
-        <f>IF(AND($C240&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D240,'[1]Data Output'!$C:$C,$E240,'[1]Data Output'!$D:$D,$F240,'[1]Data Output'!$G:$G,$C240,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D240,'[1]Data Output'!$C:$C,$E240,'[1]Data Output'!$G:$G,$C240,'[1]Data Output'!$D:$D,$F240,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="240" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I240" s="13"/>
+      <c r="J240" s="13"/>
+      <c r="K240" s="13"/>
       <c r="M240" s="14"/>
     </row>
-    <row r="241" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I241" s="13" t="str">
-        <f>IF(AND($C241&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D241,'[1]Data Output'!$C:$C,$E241,'[1]Data Output'!$D:$D,$F241,'[1]Data Output'!$G:$G,$C241,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D241,'[1]Data Output'!$C:$C,$E241,'[1]Data Output'!$G:$G,$C241,'[1]Data Output'!$D:$D,$F241,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J241" s="13" t="str">
-        <f>IF(AND($C241&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D241,'[1]Data Output'!$C:$C,$E241,'[1]Data Output'!$D:$D,$F241,'[1]Data Output'!$G:$G,$C241,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D241,'[1]Data Output'!$C:$C,$E241,'[1]Data Output'!$G:$G,$C241,'[1]Data Output'!$D:$D,$F241,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K241" s="13" t="str">
-        <f>IF(AND($C241&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D241,'[1]Data Output'!$C:$C,$E241,'[1]Data Output'!$D:$D,$F241,'[1]Data Output'!$G:$G,$C241,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D241,'[1]Data Output'!$C:$C,$E241,'[1]Data Output'!$G:$G,$C241,'[1]Data Output'!$D:$D,$F241,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="241" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I241" s="13"/>
+      <c r="J241" s="13"/>
+      <c r="K241" s="13"/>
       <c r="M241" s="14"/>
     </row>
-    <row r="242" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I242" s="13" t="str">
-        <f>IF(AND($C242&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D242,'[1]Data Output'!$C:$C,$E242,'[1]Data Output'!$D:$D,$F242,'[1]Data Output'!$G:$G,$C242,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D242,'[1]Data Output'!$C:$C,$E242,'[1]Data Output'!$G:$G,$C242,'[1]Data Output'!$D:$D,$F242,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J242" s="13" t="str">
-        <f>IF(AND($C242&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D242,'[1]Data Output'!$C:$C,$E242,'[1]Data Output'!$D:$D,$F242,'[1]Data Output'!$G:$G,$C242,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D242,'[1]Data Output'!$C:$C,$E242,'[1]Data Output'!$G:$G,$C242,'[1]Data Output'!$D:$D,$F242,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K242" s="13" t="str">
-        <f>IF(AND($C242&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D242,'[1]Data Output'!$C:$C,$E242,'[1]Data Output'!$D:$D,$F242,'[1]Data Output'!$G:$G,$C242,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D242,'[1]Data Output'!$C:$C,$E242,'[1]Data Output'!$G:$G,$C242,'[1]Data Output'!$D:$D,$F242,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="242" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I242" s="13"/>
+      <c r="J242" s="13"/>
+      <c r="K242" s="13"/>
       <c r="M242" s="14"/>
     </row>
-    <row r="243" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I243" s="13" t="str">
-        <f>IF(AND($C243&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D243,'[1]Data Output'!$C:$C,$E243,'[1]Data Output'!$D:$D,$F243,'[1]Data Output'!$G:$G,$C243,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D243,'[1]Data Output'!$C:$C,$E243,'[1]Data Output'!$G:$G,$C243,'[1]Data Output'!$D:$D,$F243,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J243" s="13" t="str">
-        <f>IF(AND($C243&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D243,'[1]Data Output'!$C:$C,$E243,'[1]Data Output'!$D:$D,$F243,'[1]Data Output'!$G:$G,$C243,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D243,'[1]Data Output'!$C:$C,$E243,'[1]Data Output'!$G:$G,$C243,'[1]Data Output'!$D:$D,$F243,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K243" s="13" t="str">
-        <f>IF(AND($C243&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D243,'[1]Data Output'!$C:$C,$E243,'[1]Data Output'!$D:$D,$F243,'[1]Data Output'!$G:$G,$C243,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D243,'[1]Data Output'!$C:$C,$E243,'[1]Data Output'!$G:$G,$C243,'[1]Data Output'!$D:$D,$F243,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="243" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I243" s="13"/>
+      <c r="J243" s="13"/>
+      <c r="K243" s="13"/>
       <c r="M243" s="14"/>
     </row>
-    <row r="244" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I244" s="13" t="str">
-        <f>IF(AND($C244&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D244,'[1]Data Output'!$C:$C,$E244,'[1]Data Output'!$D:$D,$F244,'[1]Data Output'!$G:$G,$C244,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D244,'[1]Data Output'!$C:$C,$E244,'[1]Data Output'!$G:$G,$C244,'[1]Data Output'!$D:$D,$F244,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J244" s="13" t="str">
-        <f>IF(AND($C244&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D244,'[1]Data Output'!$C:$C,$E244,'[1]Data Output'!$D:$D,$F244,'[1]Data Output'!$G:$G,$C244,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D244,'[1]Data Output'!$C:$C,$E244,'[1]Data Output'!$G:$G,$C244,'[1]Data Output'!$D:$D,$F244,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K244" s="13" t="str">
-        <f>IF(AND($C244&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D244,'[1]Data Output'!$C:$C,$E244,'[1]Data Output'!$D:$D,$F244,'[1]Data Output'!$G:$G,$C244,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D244,'[1]Data Output'!$C:$C,$E244,'[1]Data Output'!$G:$G,$C244,'[1]Data Output'!$D:$D,$F244,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="244" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I244" s="13"/>
+      <c r="J244" s="13"/>
+      <c r="K244" s="13"/>
       <c r="M244" s="14"/>
     </row>
-    <row r="245" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I245" s="13" t="str">
-        <f>IF(AND($C245&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D245,'[1]Data Output'!$C:$C,$E245,'[1]Data Output'!$D:$D,$F245,'[1]Data Output'!$G:$G,$C245,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D245,'[1]Data Output'!$C:$C,$E245,'[1]Data Output'!$G:$G,$C245,'[1]Data Output'!$D:$D,$F245,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J245" s="13" t="str">
-        <f>IF(AND($C245&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D245,'[1]Data Output'!$C:$C,$E245,'[1]Data Output'!$D:$D,$F245,'[1]Data Output'!$G:$G,$C245,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D245,'[1]Data Output'!$C:$C,$E245,'[1]Data Output'!$G:$G,$C245,'[1]Data Output'!$D:$D,$F245,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K245" s="13" t="str">
-        <f>IF(AND($C245&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D245,'[1]Data Output'!$C:$C,$E245,'[1]Data Output'!$D:$D,$F245,'[1]Data Output'!$G:$G,$C245,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D245,'[1]Data Output'!$C:$C,$E245,'[1]Data Output'!$G:$G,$C245,'[1]Data Output'!$D:$D,$F245,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="245" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I245" s="13"/>
+      <c r="J245" s="13"/>
+      <c r="K245" s="13"/>
       <c r="M245" s="14"/>
     </row>
-    <row r="246" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I246" s="13" t="str">
-        <f>IF(AND($C246&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D246,'[1]Data Output'!$C:$C,$E246,'[1]Data Output'!$D:$D,$F246,'[1]Data Output'!$G:$G,$C246,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D246,'[1]Data Output'!$C:$C,$E246,'[1]Data Output'!$G:$G,$C246,'[1]Data Output'!$D:$D,$F246,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J246" s="13" t="str">
-        <f>IF(AND($C246&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D246,'[1]Data Output'!$C:$C,$E246,'[1]Data Output'!$D:$D,$F246,'[1]Data Output'!$G:$G,$C246,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D246,'[1]Data Output'!$C:$C,$E246,'[1]Data Output'!$G:$G,$C246,'[1]Data Output'!$D:$D,$F246,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K246" s="13" t="str">
-        <f>IF(AND($C246&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D246,'[1]Data Output'!$C:$C,$E246,'[1]Data Output'!$D:$D,$F246,'[1]Data Output'!$G:$G,$C246,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D246,'[1]Data Output'!$C:$C,$E246,'[1]Data Output'!$G:$G,$C246,'[1]Data Output'!$D:$D,$F246,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="246" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I246" s="13"/>
+      <c r="J246" s="13"/>
+      <c r="K246" s="13"/>
       <c r="M246" s="14"/>
     </row>
-    <row r="247" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I247" s="13" t="str">
-        <f>IF(AND($C247&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D247,'[1]Data Output'!$C:$C,$E247,'[1]Data Output'!$D:$D,$F247,'[1]Data Output'!$G:$G,$C247,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D247,'[1]Data Output'!$C:$C,$E247,'[1]Data Output'!$G:$G,$C247,'[1]Data Output'!$D:$D,$F247,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J247" s="13" t="str">
-        <f>IF(AND($C247&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D247,'[1]Data Output'!$C:$C,$E247,'[1]Data Output'!$D:$D,$F247,'[1]Data Output'!$G:$G,$C247,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D247,'[1]Data Output'!$C:$C,$E247,'[1]Data Output'!$G:$G,$C247,'[1]Data Output'!$D:$D,$F247,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K247" s="13" t="str">
-        <f>IF(AND($C247&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D247,'[1]Data Output'!$C:$C,$E247,'[1]Data Output'!$D:$D,$F247,'[1]Data Output'!$G:$G,$C247,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D247,'[1]Data Output'!$C:$C,$E247,'[1]Data Output'!$G:$G,$C247,'[1]Data Output'!$D:$D,$F247,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="247" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I247" s="13"/>
+      <c r="J247" s="13"/>
+      <c r="K247" s="13"/>
       <c r="M247" s="14"/>
     </row>
-    <row r="248" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I248" s="13" t="str">
-        <f>IF(AND($C248&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D248,'[1]Data Output'!$C:$C,$E248,'[1]Data Output'!$D:$D,$F248,'[1]Data Output'!$G:$G,$C248,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D248,'[1]Data Output'!$C:$C,$E248,'[1]Data Output'!$G:$G,$C248,'[1]Data Output'!$D:$D,$F248,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J248" s="13" t="str">
-        <f>IF(AND($C248&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D248,'[1]Data Output'!$C:$C,$E248,'[1]Data Output'!$D:$D,$F248,'[1]Data Output'!$G:$G,$C248,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D248,'[1]Data Output'!$C:$C,$E248,'[1]Data Output'!$G:$G,$C248,'[1]Data Output'!$D:$D,$F248,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K248" s="13" t="str">
-        <f>IF(AND($C248&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D248,'[1]Data Output'!$C:$C,$E248,'[1]Data Output'!$D:$D,$F248,'[1]Data Output'!$G:$G,$C248,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D248,'[1]Data Output'!$C:$C,$E248,'[1]Data Output'!$G:$G,$C248,'[1]Data Output'!$D:$D,$F248,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="248" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I248" s="13"/>
+      <c r="J248" s="13"/>
+      <c r="K248" s="13"/>
       <c r="M248" s="14"/>
     </row>
-    <row r="249" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I249" s="13" t="str">
-        <f>IF(AND($C249&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D249,'[1]Data Output'!$C:$C,$E249,'[1]Data Output'!$D:$D,$F249,'[1]Data Output'!$G:$G,$C249,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D249,'[1]Data Output'!$C:$C,$E249,'[1]Data Output'!$G:$G,$C249,'[1]Data Output'!$D:$D,$F249,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J249" s="13" t="str">
-        <f>IF(AND($C249&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D249,'[1]Data Output'!$C:$C,$E249,'[1]Data Output'!$D:$D,$F249,'[1]Data Output'!$G:$G,$C249,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D249,'[1]Data Output'!$C:$C,$E249,'[1]Data Output'!$G:$G,$C249,'[1]Data Output'!$D:$D,$F249,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K249" s="13" t="str">
-        <f>IF(AND($C249&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D249,'[1]Data Output'!$C:$C,$E249,'[1]Data Output'!$D:$D,$F249,'[1]Data Output'!$G:$G,$C249,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D249,'[1]Data Output'!$C:$C,$E249,'[1]Data Output'!$G:$G,$C249,'[1]Data Output'!$D:$D,$F249,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="249" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I249" s="13"/>
+      <c r="J249" s="13"/>
+      <c r="K249" s="13"/>
       <c r="M249" s="14"/>
     </row>
-    <row r="250" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I250" s="13" t="str">
-        <f>IF(AND($C250&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D250,'[1]Data Output'!$C:$C,$E250,'[1]Data Output'!$D:$D,$F250,'[1]Data Output'!$G:$G,$C250,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D250,'[1]Data Output'!$C:$C,$E250,'[1]Data Output'!$G:$G,$C250,'[1]Data Output'!$D:$D,$F250,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J250" s="13" t="str">
-        <f>IF(AND($C250&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D250,'[1]Data Output'!$C:$C,$E250,'[1]Data Output'!$D:$D,$F250,'[1]Data Output'!$G:$G,$C250,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D250,'[1]Data Output'!$C:$C,$E250,'[1]Data Output'!$G:$G,$C250,'[1]Data Output'!$D:$D,$F250,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K250" s="13" t="str">
-        <f>IF(AND($C250&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D250,'[1]Data Output'!$C:$C,$E250,'[1]Data Output'!$D:$D,$F250,'[1]Data Output'!$G:$G,$C250,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D250,'[1]Data Output'!$C:$C,$E250,'[1]Data Output'!$G:$G,$C250,'[1]Data Output'!$D:$D,$F250,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="250" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I250" s="13"/>
+      <c r="J250" s="13"/>
+      <c r="K250" s="13"/>
       <c r="M250" s="14"/>
     </row>
-    <row r="251" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I251" s="13" t="str">
-        <f>IF(AND($C251&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D251,'[1]Data Output'!$C:$C,$E251,'[1]Data Output'!$D:$D,$F251,'[1]Data Output'!$G:$G,$C251,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D251,'[1]Data Output'!$C:$C,$E251,'[1]Data Output'!$G:$G,$C251,'[1]Data Output'!$D:$D,$F251,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J251" s="13" t="str">
-        <f>IF(AND($C251&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D251,'[1]Data Output'!$C:$C,$E251,'[1]Data Output'!$D:$D,$F251,'[1]Data Output'!$G:$G,$C251,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D251,'[1]Data Output'!$C:$C,$E251,'[1]Data Output'!$G:$G,$C251,'[1]Data Output'!$D:$D,$F251,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K251" s="13" t="str">
-        <f>IF(AND($C251&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D251,'[1]Data Output'!$C:$C,$E251,'[1]Data Output'!$D:$D,$F251,'[1]Data Output'!$G:$G,$C251,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D251,'[1]Data Output'!$C:$C,$E251,'[1]Data Output'!$G:$G,$C251,'[1]Data Output'!$D:$D,$F251,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="251" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I251" s="13"/>
+      <c r="J251" s="13"/>
+      <c r="K251" s="13"/>
       <c r="M251" s="14"/>
     </row>
-    <row r="252" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I252" s="13" t="str">
-        <f>IF(AND($C252&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D252,'[1]Data Output'!$C:$C,$E252,'[1]Data Output'!$D:$D,$F252,'[1]Data Output'!$G:$G,$C252,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D252,'[1]Data Output'!$C:$C,$E252,'[1]Data Output'!$G:$G,$C252,'[1]Data Output'!$D:$D,$F252,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J252" s="13" t="str">
-        <f>IF(AND($C252&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D252,'[1]Data Output'!$C:$C,$E252,'[1]Data Output'!$D:$D,$F252,'[1]Data Output'!$G:$G,$C252,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D252,'[1]Data Output'!$C:$C,$E252,'[1]Data Output'!$G:$G,$C252,'[1]Data Output'!$D:$D,$F252,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K252" s="13" t="str">
-        <f>IF(AND($C252&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D252,'[1]Data Output'!$C:$C,$E252,'[1]Data Output'!$D:$D,$F252,'[1]Data Output'!$G:$G,$C252,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D252,'[1]Data Output'!$C:$C,$E252,'[1]Data Output'!$G:$G,$C252,'[1]Data Output'!$D:$D,$F252,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="252" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I252" s="13"/>
+      <c r="J252" s="13"/>
+      <c r="K252" s="13"/>
       <c r="M252" s="14"/>
     </row>
-    <row r="253" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I253" s="13" t="str">
-        <f>IF(AND($C253&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D253,'[1]Data Output'!$C:$C,$E253,'[1]Data Output'!$D:$D,$F253,'[1]Data Output'!$G:$G,$C253,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D253,'[1]Data Output'!$C:$C,$E253,'[1]Data Output'!$G:$G,$C253,'[1]Data Output'!$D:$D,$F253,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J253" s="13" t="str">
-        <f>IF(AND($C253&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D253,'[1]Data Output'!$C:$C,$E253,'[1]Data Output'!$D:$D,$F253,'[1]Data Output'!$G:$G,$C253,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D253,'[1]Data Output'!$C:$C,$E253,'[1]Data Output'!$G:$G,$C253,'[1]Data Output'!$D:$D,$F253,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K253" s="13" t="str">
-        <f>IF(AND($C253&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D253,'[1]Data Output'!$C:$C,$E253,'[1]Data Output'!$D:$D,$F253,'[1]Data Output'!$G:$G,$C253,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D253,'[1]Data Output'!$C:$C,$E253,'[1]Data Output'!$G:$G,$C253,'[1]Data Output'!$D:$D,$F253,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="253" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I253" s="13"/>
+      <c r="J253" s="13"/>
+      <c r="K253" s="13"/>
       <c r="M253" s="14"/>
     </row>
-    <row r="254" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I254" s="13" t="str">
-        <f>IF(AND($C254&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D254,'[1]Data Output'!$C:$C,$E254,'[1]Data Output'!$D:$D,$F254,'[1]Data Output'!$G:$G,$C254,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D254,'[1]Data Output'!$C:$C,$E254,'[1]Data Output'!$G:$G,$C254,'[1]Data Output'!$D:$D,$F254,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J254" s="13" t="str">
-        <f>IF(AND($C254&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D254,'[1]Data Output'!$C:$C,$E254,'[1]Data Output'!$D:$D,$F254,'[1]Data Output'!$G:$G,$C254,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D254,'[1]Data Output'!$C:$C,$E254,'[1]Data Output'!$G:$G,$C254,'[1]Data Output'!$D:$D,$F254,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K254" s="13" t="str">
-        <f>IF(AND($C254&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D254,'[1]Data Output'!$C:$C,$E254,'[1]Data Output'!$D:$D,$F254,'[1]Data Output'!$G:$G,$C254,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D254,'[1]Data Output'!$C:$C,$E254,'[1]Data Output'!$G:$G,$C254,'[1]Data Output'!$D:$D,$F254,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="254" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I254" s="13"/>
+      <c r="J254" s="13"/>
+      <c r="K254" s="13"/>
       <c r="M254" s="14"/>
     </row>
-    <row r="255" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I255" s="13" t="str">
-        <f>IF(AND($C255&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D255,'[1]Data Output'!$C:$C,$E255,'[1]Data Output'!$D:$D,$F255,'[1]Data Output'!$G:$G,$C255,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D255,'[1]Data Output'!$C:$C,$E255,'[1]Data Output'!$G:$G,$C255,'[1]Data Output'!$D:$D,$F255,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J255" s="13" t="str">
-        <f>IF(AND($C255&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D255,'[1]Data Output'!$C:$C,$E255,'[1]Data Output'!$D:$D,$F255,'[1]Data Output'!$G:$G,$C255,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D255,'[1]Data Output'!$C:$C,$E255,'[1]Data Output'!$G:$G,$C255,'[1]Data Output'!$D:$D,$F255,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K255" s="13" t="str">
-        <f>IF(AND($C255&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D255,'[1]Data Output'!$C:$C,$E255,'[1]Data Output'!$D:$D,$F255,'[1]Data Output'!$G:$G,$C255,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D255,'[1]Data Output'!$C:$C,$E255,'[1]Data Output'!$G:$G,$C255,'[1]Data Output'!$D:$D,$F255,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="255" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I255" s="13"/>
+      <c r="J255" s="13"/>
+      <c r="K255" s="13"/>
       <c r="M255" s="14"/>
     </row>
-    <row r="256" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I256" s="13" t="str">
-        <f>IF(AND($C256&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D256,'[1]Data Output'!$C:$C,$E256,'[1]Data Output'!$D:$D,$F256,'[1]Data Output'!$G:$G,$C256,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D256,'[1]Data Output'!$C:$C,$E256,'[1]Data Output'!$G:$G,$C256,'[1]Data Output'!$D:$D,$F256,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J256" s="13" t="str">
-        <f>IF(AND($C256&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D256,'[1]Data Output'!$C:$C,$E256,'[1]Data Output'!$D:$D,$F256,'[1]Data Output'!$G:$G,$C256,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D256,'[1]Data Output'!$C:$C,$E256,'[1]Data Output'!$G:$G,$C256,'[1]Data Output'!$D:$D,$F256,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K256" s="13" t="str">
-        <f>IF(AND($C256&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D256,'[1]Data Output'!$C:$C,$E256,'[1]Data Output'!$D:$D,$F256,'[1]Data Output'!$G:$G,$C256,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D256,'[1]Data Output'!$C:$C,$E256,'[1]Data Output'!$G:$G,$C256,'[1]Data Output'!$D:$D,$F256,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="256" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I256" s="13"/>
+      <c r="J256" s="13"/>
+      <c r="K256" s="13"/>
       <c r="M256" s="14"/>
     </row>
-    <row r="257" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I257" s="13" t="str">
-        <f>IF(AND($C257&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D257,'[1]Data Output'!$C:$C,$E257,'[1]Data Output'!$D:$D,$F257,'[1]Data Output'!$G:$G,$C257,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D257,'[1]Data Output'!$C:$C,$E257,'[1]Data Output'!$G:$G,$C257,'[1]Data Output'!$D:$D,$F257,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J257" s="13" t="str">
-        <f>IF(AND($C257&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D257,'[1]Data Output'!$C:$C,$E257,'[1]Data Output'!$D:$D,$F257,'[1]Data Output'!$G:$G,$C257,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D257,'[1]Data Output'!$C:$C,$E257,'[1]Data Output'!$G:$G,$C257,'[1]Data Output'!$D:$D,$F257,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K257" s="13" t="str">
-        <f>IF(AND($C257&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D257,'[1]Data Output'!$C:$C,$E257,'[1]Data Output'!$D:$D,$F257,'[1]Data Output'!$G:$G,$C257,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D257,'[1]Data Output'!$C:$C,$E257,'[1]Data Output'!$G:$G,$C257,'[1]Data Output'!$D:$D,$F257,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="257" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I257" s="13"/>
+      <c r="J257" s="13"/>
+      <c r="K257" s="13"/>
       <c r="M257" s="14"/>
     </row>
-    <row r="258" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I258" s="13" t="str">
-        <f>IF(AND($C258&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D258,'[1]Data Output'!$C:$C,$E258,'[1]Data Output'!$D:$D,$F258,'[1]Data Output'!$G:$G,$C258,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D258,'[1]Data Output'!$C:$C,$E258,'[1]Data Output'!$G:$G,$C258,'[1]Data Output'!$D:$D,$F258,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J258" s="13" t="str">
-        <f>IF(AND($C258&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D258,'[1]Data Output'!$C:$C,$E258,'[1]Data Output'!$D:$D,$F258,'[1]Data Output'!$G:$G,$C258,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D258,'[1]Data Output'!$C:$C,$E258,'[1]Data Output'!$G:$G,$C258,'[1]Data Output'!$D:$D,$F258,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K258" s="13" t="str">
-        <f>IF(AND($C258&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D258,'[1]Data Output'!$C:$C,$E258,'[1]Data Output'!$D:$D,$F258,'[1]Data Output'!$G:$G,$C258,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D258,'[1]Data Output'!$C:$C,$E258,'[1]Data Output'!$G:$G,$C258,'[1]Data Output'!$D:$D,$F258,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="258" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I258" s="13"/>
+      <c r="J258" s="13"/>
+      <c r="K258" s="13"/>
       <c r="M258" s="14"/>
     </row>
-    <row r="259" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I259" s="13" t="str">
-        <f>IF(AND($C259&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D259,'[1]Data Output'!$C:$C,$E259,'[1]Data Output'!$D:$D,$F259,'[1]Data Output'!$G:$G,$C259,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D259,'[1]Data Output'!$C:$C,$E259,'[1]Data Output'!$G:$G,$C259,'[1]Data Output'!$D:$D,$F259,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J259" s="13" t="str">
-        <f>IF(AND($C259&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D259,'[1]Data Output'!$C:$C,$E259,'[1]Data Output'!$D:$D,$F259,'[1]Data Output'!$G:$G,$C259,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D259,'[1]Data Output'!$C:$C,$E259,'[1]Data Output'!$G:$G,$C259,'[1]Data Output'!$D:$D,$F259,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K259" s="13" t="str">
-        <f>IF(AND($C259&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D259,'[1]Data Output'!$C:$C,$E259,'[1]Data Output'!$D:$D,$F259,'[1]Data Output'!$G:$G,$C259,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D259,'[1]Data Output'!$C:$C,$E259,'[1]Data Output'!$G:$G,$C259,'[1]Data Output'!$D:$D,$F259,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="259" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I259" s="13"/>
+      <c r="J259" s="13"/>
+      <c r="K259" s="13"/>
       <c r="M259" s="14"/>
     </row>
-    <row r="260" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I260" s="13" t="str">
-        <f>IF(AND($C260&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D260,'[1]Data Output'!$C:$C,$E260,'[1]Data Output'!$D:$D,$F260,'[1]Data Output'!$G:$G,$C260,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D260,'[1]Data Output'!$C:$C,$E260,'[1]Data Output'!$G:$G,$C260,'[1]Data Output'!$D:$D,$F260,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J260" s="13" t="str">
-        <f>IF(AND($C260&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D260,'[1]Data Output'!$C:$C,$E260,'[1]Data Output'!$D:$D,$F260,'[1]Data Output'!$G:$G,$C260,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D260,'[1]Data Output'!$C:$C,$E260,'[1]Data Output'!$G:$G,$C260,'[1]Data Output'!$D:$D,$F260,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K260" s="13" t="str">
-        <f>IF(AND($C260&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D260,'[1]Data Output'!$C:$C,$E260,'[1]Data Output'!$D:$D,$F260,'[1]Data Output'!$G:$G,$C260,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D260,'[1]Data Output'!$C:$C,$E260,'[1]Data Output'!$G:$G,$C260,'[1]Data Output'!$D:$D,$F260,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="260" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I260" s="13"/>
+      <c r="J260" s="13"/>
+      <c r="K260" s="13"/>
       <c r="M260" s="14"/>
     </row>
-    <row r="261" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I261" s="13" t="str">
-        <f>IF(AND($C261&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D261,'[1]Data Output'!$C:$C,$E261,'[1]Data Output'!$D:$D,$F261,'[1]Data Output'!$G:$G,$C261,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D261,'[1]Data Output'!$C:$C,$E261,'[1]Data Output'!$G:$G,$C261,'[1]Data Output'!$D:$D,$F261,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J261" s="13" t="str">
-        <f>IF(AND($C261&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D261,'[1]Data Output'!$C:$C,$E261,'[1]Data Output'!$D:$D,$F261,'[1]Data Output'!$G:$G,$C261,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D261,'[1]Data Output'!$C:$C,$E261,'[1]Data Output'!$G:$G,$C261,'[1]Data Output'!$D:$D,$F261,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K261" s="13" t="str">
-        <f>IF(AND($C261&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D261,'[1]Data Output'!$C:$C,$E261,'[1]Data Output'!$D:$D,$F261,'[1]Data Output'!$G:$G,$C261,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D261,'[1]Data Output'!$C:$C,$E261,'[1]Data Output'!$G:$G,$C261,'[1]Data Output'!$D:$D,$F261,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="261" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I261" s="13"/>
+      <c r="J261" s="13"/>
+      <c r="K261" s="13"/>
       <c r="M261" s="14"/>
     </row>
-    <row r="262" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I262" s="13" t="str">
-        <f>IF(AND($C262&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D262,'[1]Data Output'!$C:$C,$E262,'[1]Data Output'!$D:$D,$F262,'[1]Data Output'!$G:$G,$C262,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D262,'[1]Data Output'!$C:$C,$E262,'[1]Data Output'!$G:$G,$C262,'[1]Data Output'!$D:$D,$F262,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J262" s="13" t="str">
-        <f>IF(AND($C262&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D262,'[1]Data Output'!$C:$C,$E262,'[1]Data Output'!$D:$D,$F262,'[1]Data Output'!$G:$G,$C262,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D262,'[1]Data Output'!$C:$C,$E262,'[1]Data Output'!$G:$G,$C262,'[1]Data Output'!$D:$D,$F262,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K262" s="13" t="str">
-        <f>IF(AND($C262&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D262,'[1]Data Output'!$C:$C,$E262,'[1]Data Output'!$D:$D,$F262,'[1]Data Output'!$G:$G,$C262,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D262,'[1]Data Output'!$C:$C,$E262,'[1]Data Output'!$G:$G,$C262,'[1]Data Output'!$D:$D,$F262,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="262" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I262" s="13"/>
+      <c r="J262" s="13"/>
+      <c r="K262" s="13"/>
       <c r="M262" s="14"/>
     </row>
-    <row r="263" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I263" s="13" t="str">
-        <f>IF(AND($C263&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D263,'[1]Data Output'!$C:$C,$E263,'[1]Data Output'!$D:$D,$F263,'[1]Data Output'!$G:$G,$C263,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D263,'[1]Data Output'!$C:$C,$E263,'[1]Data Output'!$G:$G,$C263,'[1]Data Output'!$D:$D,$F263,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J263" s="13" t="str">
-        <f>IF(AND($C263&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D263,'[1]Data Output'!$C:$C,$E263,'[1]Data Output'!$D:$D,$F263,'[1]Data Output'!$G:$G,$C263,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D263,'[1]Data Output'!$C:$C,$E263,'[1]Data Output'!$G:$G,$C263,'[1]Data Output'!$D:$D,$F263,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K263" s="13" t="str">
-        <f>IF(AND($C263&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D263,'[1]Data Output'!$C:$C,$E263,'[1]Data Output'!$D:$D,$F263,'[1]Data Output'!$G:$G,$C263,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D263,'[1]Data Output'!$C:$C,$E263,'[1]Data Output'!$G:$G,$C263,'[1]Data Output'!$D:$D,$F263,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="263" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I263" s="13"/>
+      <c r="J263" s="13"/>
+      <c r="K263" s="13"/>
       <c r="M263" s="14"/>
     </row>
-    <row r="264" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I264" s="13" t="str">
-        <f>IF(AND($C264&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D264,'[1]Data Output'!$C:$C,$E264,'[1]Data Output'!$D:$D,$F264,'[1]Data Output'!$G:$G,$C264,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D264,'[1]Data Output'!$C:$C,$E264,'[1]Data Output'!$G:$G,$C264,'[1]Data Output'!$D:$D,$F264,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J264" s="13" t="str">
-        <f>IF(AND($C264&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D264,'[1]Data Output'!$C:$C,$E264,'[1]Data Output'!$D:$D,$F264,'[1]Data Output'!$G:$G,$C264,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D264,'[1]Data Output'!$C:$C,$E264,'[1]Data Output'!$G:$G,$C264,'[1]Data Output'!$D:$D,$F264,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K264" s="13" t="str">
-        <f>IF(AND($C264&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D264,'[1]Data Output'!$C:$C,$E264,'[1]Data Output'!$D:$D,$F264,'[1]Data Output'!$G:$G,$C264,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D264,'[1]Data Output'!$C:$C,$E264,'[1]Data Output'!$G:$G,$C264,'[1]Data Output'!$D:$D,$F264,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="264" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I264" s="13"/>
+      <c r="J264" s="13"/>
+      <c r="K264" s="13"/>
       <c r="M264" s="14"/>
     </row>
-    <row r="265" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I265" s="13" t="str">
-        <f>IF(AND($C265&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D265,'[1]Data Output'!$C:$C,$E265,'[1]Data Output'!$D:$D,$F265,'[1]Data Output'!$G:$G,$C265,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D265,'[1]Data Output'!$C:$C,$E265,'[1]Data Output'!$G:$G,$C265,'[1]Data Output'!$D:$D,$F265,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J265" s="13" t="str">
-        <f>IF(AND($C265&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D265,'[1]Data Output'!$C:$C,$E265,'[1]Data Output'!$D:$D,$F265,'[1]Data Output'!$G:$G,$C265,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D265,'[1]Data Output'!$C:$C,$E265,'[1]Data Output'!$G:$G,$C265,'[1]Data Output'!$D:$D,$F265,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K265" s="13" t="str">
-        <f>IF(AND($C265&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D265,'[1]Data Output'!$C:$C,$E265,'[1]Data Output'!$D:$D,$F265,'[1]Data Output'!$G:$G,$C265,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D265,'[1]Data Output'!$C:$C,$E265,'[1]Data Output'!$G:$G,$C265,'[1]Data Output'!$D:$D,$F265,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="265" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I265" s="13"/>
+      <c r="J265" s="13"/>
+      <c r="K265" s="13"/>
       <c r="M265" s="14"/>
     </row>
-    <row r="266" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I266" s="13" t="str">
-        <f>IF(AND($C266&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D266,'[1]Data Output'!$C:$C,$E266,'[1]Data Output'!$D:$D,$F266,'[1]Data Output'!$G:$G,$C266,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D266,'[1]Data Output'!$C:$C,$E266,'[1]Data Output'!$G:$G,$C266,'[1]Data Output'!$D:$D,$F266,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J266" s="13" t="str">
-        <f>IF(AND($C266&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D266,'[1]Data Output'!$C:$C,$E266,'[1]Data Output'!$D:$D,$F266,'[1]Data Output'!$G:$G,$C266,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D266,'[1]Data Output'!$C:$C,$E266,'[1]Data Output'!$G:$G,$C266,'[1]Data Output'!$D:$D,$F266,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K266" s="13" t="str">
-        <f>IF(AND($C266&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D266,'[1]Data Output'!$C:$C,$E266,'[1]Data Output'!$D:$D,$F266,'[1]Data Output'!$G:$G,$C266,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D266,'[1]Data Output'!$C:$C,$E266,'[1]Data Output'!$G:$G,$C266,'[1]Data Output'!$D:$D,$F266,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="266" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I266" s="13"/>
+      <c r="J266" s="13"/>
+      <c r="K266" s="13"/>
       <c r="M266" s="14"/>
     </row>
-    <row r="267" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I267" s="13" t="str">
-        <f>IF(AND($C267&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D267,'[1]Data Output'!$C:$C,$E267,'[1]Data Output'!$D:$D,$F267,'[1]Data Output'!$G:$G,$C267,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D267,'[1]Data Output'!$C:$C,$E267,'[1]Data Output'!$G:$G,$C267,'[1]Data Output'!$D:$D,$F267,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J267" s="13" t="str">
-        <f>IF(AND($C267&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D267,'[1]Data Output'!$C:$C,$E267,'[1]Data Output'!$D:$D,$F267,'[1]Data Output'!$G:$G,$C267,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D267,'[1]Data Output'!$C:$C,$E267,'[1]Data Output'!$G:$G,$C267,'[1]Data Output'!$D:$D,$F267,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K267" s="13" t="str">
-        <f>IF(AND($C267&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D267,'[1]Data Output'!$C:$C,$E267,'[1]Data Output'!$D:$D,$F267,'[1]Data Output'!$G:$G,$C267,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D267,'[1]Data Output'!$C:$C,$E267,'[1]Data Output'!$G:$G,$C267,'[1]Data Output'!$D:$D,$F267,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="267" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I267" s="13"/>
+      <c r="J267" s="13"/>
+      <c r="K267" s="13"/>
       <c r="M267" s="14"/>
     </row>
-    <row r="268" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I268" s="13" t="str">
-        <f>IF(AND($C268&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D268,'[1]Data Output'!$C:$C,$E268,'[1]Data Output'!$D:$D,$F268,'[1]Data Output'!$G:$G,$C268,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D268,'[1]Data Output'!$C:$C,$E268,'[1]Data Output'!$G:$G,$C268,'[1]Data Output'!$D:$D,$F268,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J268" s="13" t="str">
-        <f>IF(AND($C268&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D268,'[1]Data Output'!$C:$C,$E268,'[1]Data Output'!$D:$D,$F268,'[1]Data Output'!$G:$G,$C268,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D268,'[1]Data Output'!$C:$C,$E268,'[1]Data Output'!$G:$G,$C268,'[1]Data Output'!$D:$D,$F268,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K268" s="13" t="str">
-        <f>IF(AND($C268&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D268,'[1]Data Output'!$C:$C,$E268,'[1]Data Output'!$D:$D,$F268,'[1]Data Output'!$G:$G,$C268,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D268,'[1]Data Output'!$C:$C,$E268,'[1]Data Output'!$G:$G,$C268,'[1]Data Output'!$D:$D,$F268,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="268" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I268" s="13"/>
+      <c r="J268" s="13"/>
+      <c r="K268" s="13"/>
       <c r="M268" s="14"/>
     </row>
-    <row r="269" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I269" s="13" t="str">
-        <f>IF(AND($C269&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D269,'[1]Data Output'!$C:$C,$E269,'[1]Data Output'!$D:$D,$F269,'[1]Data Output'!$G:$G,$C269,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D269,'[1]Data Output'!$C:$C,$E269,'[1]Data Output'!$G:$G,$C269,'[1]Data Output'!$D:$D,$F269,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J269" s="13" t="str">
-        <f>IF(AND($C269&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D269,'[1]Data Output'!$C:$C,$E269,'[1]Data Output'!$D:$D,$F269,'[1]Data Output'!$G:$G,$C269,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D269,'[1]Data Output'!$C:$C,$E269,'[1]Data Output'!$G:$G,$C269,'[1]Data Output'!$D:$D,$F269,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K269" s="13" t="str">
-        <f>IF(AND($C269&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D269,'[1]Data Output'!$C:$C,$E269,'[1]Data Output'!$D:$D,$F269,'[1]Data Output'!$G:$G,$C269,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D269,'[1]Data Output'!$C:$C,$E269,'[1]Data Output'!$G:$G,$C269,'[1]Data Output'!$D:$D,$F269,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="269" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I269" s="13"/>
+      <c r="J269" s="13"/>
+      <c r="K269" s="13"/>
       <c r="M269" s="14"/>
     </row>
-    <row r="270" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I270" s="13" t="str">
-        <f>IF(AND($C270&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D270,'[1]Data Output'!$C:$C,$E270,'[1]Data Output'!$D:$D,$F270,'[1]Data Output'!$G:$G,$C270,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D270,'[1]Data Output'!$C:$C,$E270,'[1]Data Output'!$G:$G,$C270,'[1]Data Output'!$D:$D,$F270,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J270" s="13" t="str">
-        <f>IF(AND($C270&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D270,'[1]Data Output'!$C:$C,$E270,'[1]Data Output'!$D:$D,$F270,'[1]Data Output'!$G:$G,$C270,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D270,'[1]Data Output'!$C:$C,$E270,'[1]Data Output'!$G:$G,$C270,'[1]Data Output'!$D:$D,$F270,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K270" s="13" t="str">
-        <f>IF(AND($C270&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D270,'[1]Data Output'!$C:$C,$E270,'[1]Data Output'!$D:$D,$F270,'[1]Data Output'!$G:$G,$C270,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D270,'[1]Data Output'!$C:$C,$E270,'[1]Data Output'!$G:$G,$C270,'[1]Data Output'!$D:$D,$F270,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="270" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I270" s="13"/>
+      <c r="J270" s="13"/>
+      <c r="K270" s="13"/>
       <c r="M270" s="14"/>
     </row>
-    <row r="271" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I271" s="13" t="str">
-        <f>IF(AND($C271&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D271,'[1]Data Output'!$C:$C,$E271,'[1]Data Output'!$D:$D,$F271,'[1]Data Output'!$G:$G,$C271,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D271,'[1]Data Output'!$C:$C,$E271,'[1]Data Output'!$G:$G,$C271,'[1]Data Output'!$D:$D,$F271,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J271" s="13" t="str">
-        <f>IF(AND($C271&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D271,'[1]Data Output'!$C:$C,$E271,'[1]Data Output'!$D:$D,$F271,'[1]Data Output'!$G:$G,$C271,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D271,'[1]Data Output'!$C:$C,$E271,'[1]Data Output'!$G:$G,$C271,'[1]Data Output'!$D:$D,$F271,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K271" s="13" t="str">
-        <f>IF(AND($C271&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D271,'[1]Data Output'!$C:$C,$E271,'[1]Data Output'!$D:$D,$F271,'[1]Data Output'!$G:$G,$C271,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D271,'[1]Data Output'!$C:$C,$E271,'[1]Data Output'!$G:$G,$C271,'[1]Data Output'!$D:$D,$F271,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="271" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I271" s="13"/>
+      <c r="J271" s="13"/>
+      <c r="K271" s="13"/>
       <c r="M271" s="14"/>
     </row>
-    <row r="272" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I272" s="13" t="str">
-        <f>IF(AND($C272&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D272,'[1]Data Output'!$C:$C,$E272,'[1]Data Output'!$D:$D,$F272,'[1]Data Output'!$G:$G,$C272,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D272,'[1]Data Output'!$C:$C,$E272,'[1]Data Output'!$G:$G,$C272,'[1]Data Output'!$D:$D,$F272,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J272" s="13" t="str">
-        <f>IF(AND($C272&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D272,'[1]Data Output'!$C:$C,$E272,'[1]Data Output'!$D:$D,$F272,'[1]Data Output'!$G:$G,$C272,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D272,'[1]Data Output'!$C:$C,$E272,'[1]Data Output'!$G:$G,$C272,'[1]Data Output'!$D:$D,$F272,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K272" s="13" t="str">
-        <f>IF(AND($C272&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D272,'[1]Data Output'!$C:$C,$E272,'[1]Data Output'!$D:$D,$F272,'[1]Data Output'!$G:$G,$C272,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D272,'[1]Data Output'!$C:$C,$E272,'[1]Data Output'!$G:$G,$C272,'[1]Data Output'!$D:$D,$F272,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="272" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I272" s="13"/>
+      <c r="J272" s="13"/>
+      <c r="K272" s="13"/>
       <c r="M272" s="14"/>
     </row>
-    <row r="273" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I273" s="13" t="str">
-        <f>IF(AND($C273&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D273,'[1]Data Output'!$C:$C,$E273,'[1]Data Output'!$D:$D,$F273,'[1]Data Output'!$G:$G,$C273,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D273,'[1]Data Output'!$C:$C,$E273,'[1]Data Output'!$G:$G,$C273,'[1]Data Output'!$D:$D,$F273,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J273" s="13" t="str">
-        <f>IF(AND($C273&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D273,'[1]Data Output'!$C:$C,$E273,'[1]Data Output'!$D:$D,$F273,'[1]Data Output'!$G:$G,$C273,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D273,'[1]Data Output'!$C:$C,$E273,'[1]Data Output'!$G:$G,$C273,'[1]Data Output'!$D:$D,$F273,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K273" s="13" t="str">
-        <f>IF(AND($C273&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D273,'[1]Data Output'!$C:$C,$E273,'[1]Data Output'!$D:$D,$F273,'[1]Data Output'!$G:$G,$C273,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D273,'[1]Data Output'!$C:$C,$E273,'[1]Data Output'!$G:$G,$C273,'[1]Data Output'!$D:$D,$F273,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="273" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I273" s="13"/>
+      <c r="J273" s="13"/>
+      <c r="K273" s="13"/>
       <c r="M273" s="14"/>
     </row>
-    <row r="274" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I274" s="13" t="str">
-        <f>IF(AND($C274&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D274,'[1]Data Output'!$C:$C,$E274,'[1]Data Output'!$D:$D,$F274,'[1]Data Output'!$G:$G,$C274,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D274,'[1]Data Output'!$C:$C,$E274,'[1]Data Output'!$G:$G,$C274,'[1]Data Output'!$D:$D,$F274,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J274" s="13" t="str">
-        <f>IF(AND($C274&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D274,'[1]Data Output'!$C:$C,$E274,'[1]Data Output'!$D:$D,$F274,'[1]Data Output'!$G:$G,$C274,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D274,'[1]Data Output'!$C:$C,$E274,'[1]Data Output'!$G:$G,$C274,'[1]Data Output'!$D:$D,$F274,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K274" s="13" t="str">
-        <f>IF(AND($C274&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D274,'[1]Data Output'!$C:$C,$E274,'[1]Data Output'!$D:$D,$F274,'[1]Data Output'!$G:$G,$C274,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D274,'[1]Data Output'!$C:$C,$E274,'[1]Data Output'!$G:$G,$C274,'[1]Data Output'!$D:$D,$F274,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="274" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I274" s="13"/>
+      <c r="J274" s="13"/>
+      <c r="K274" s="13"/>
       <c r="M274" s="14"/>
     </row>
-    <row r="275" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I275" s="13" t="str">
-        <f>IF(AND($C275&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D275,'[1]Data Output'!$C:$C,$E275,'[1]Data Output'!$D:$D,$F275,'[1]Data Output'!$G:$G,$C275,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D275,'[1]Data Output'!$C:$C,$E275,'[1]Data Output'!$G:$G,$C275,'[1]Data Output'!$D:$D,$F275,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J275" s="13" t="str">
-        <f>IF(AND($C275&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D275,'[1]Data Output'!$C:$C,$E275,'[1]Data Output'!$D:$D,$F275,'[1]Data Output'!$G:$G,$C275,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D275,'[1]Data Output'!$C:$C,$E275,'[1]Data Output'!$G:$G,$C275,'[1]Data Output'!$D:$D,$F275,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K275" s="13" t="str">
-        <f>IF(AND($C275&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D275,'[1]Data Output'!$C:$C,$E275,'[1]Data Output'!$D:$D,$F275,'[1]Data Output'!$G:$G,$C275,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D275,'[1]Data Output'!$C:$C,$E275,'[1]Data Output'!$G:$G,$C275,'[1]Data Output'!$D:$D,$F275,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="275" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I275" s="13"/>
+      <c r="J275" s="13"/>
+      <c r="K275" s="13"/>
       <c r="M275" s="14"/>
     </row>
-    <row r="276" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I276" s="13" t="str">
-        <f>IF(AND($C276&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D276,'[1]Data Output'!$C:$C,$E276,'[1]Data Output'!$D:$D,$F276,'[1]Data Output'!$G:$G,$C276,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D276,'[1]Data Output'!$C:$C,$E276,'[1]Data Output'!$G:$G,$C276,'[1]Data Output'!$D:$D,$F276,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J276" s="13" t="str">
-        <f>IF(AND($C276&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D276,'[1]Data Output'!$C:$C,$E276,'[1]Data Output'!$D:$D,$F276,'[1]Data Output'!$G:$G,$C276,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D276,'[1]Data Output'!$C:$C,$E276,'[1]Data Output'!$G:$G,$C276,'[1]Data Output'!$D:$D,$F276,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K276" s="13" t="str">
-        <f>IF(AND($C276&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D276,'[1]Data Output'!$C:$C,$E276,'[1]Data Output'!$D:$D,$F276,'[1]Data Output'!$G:$G,$C276,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D276,'[1]Data Output'!$C:$C,$E276,'[1]Data Output'!$G:$G,$C276,'[1]Data Output'!$D:$D,$F276,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="276" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I276" s="13"/>
+      <c r="J276" s="13"/>
+      <c r="K276" s="13"/>
       <c r="M276" s="14"/>
     </row>
-    <row r="277" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I277" s="13" t="str">
-        <f>IF(AND($C277&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D277,'[1]Data Output'!$C:$C,$E277,'[1]Data Output'!$D:$D,$F277,'[1]Data Output'!$G:$G,$C277,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D277,'[1]Data Output'!$C:$C,$E277,'[1]Data Output'!$G:$G,$C277,'[1]Data Output'!$D:$D,$F277,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J277" s="13" t="str">
-        <f>IF(AND($C277&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D277,'[1]Data Output'!$C:$C,$E277,'[1]Data Output'!$D:$D,$F277,'[1]Data Output'!$G:$G,$C277,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D277,'[1]Data Output'!$C:$C,$E277,'[1]Data Output'!$G:$G,$C277,'[1]Data Output'!$D:$D,$F277,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K277" s="13" t="str">
-        <f>IF(AND($C277&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D277,'[1]Data Output'!$C:$C,$E277,'[1]Data Output'!$D:$D,$F277,'[1]Data Output'!$G:$G,$C277,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D277,'[1]Data Output'!$C:$C,$E277,'[1]Data Output'!$G:$G,$C277,'[1]Data Output'!$D:$D,$F277,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="277" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I277" s="13"/>
+      <c r="J277" s="13"/>
+      <c r="K277" s="13"/>
       <c r="M277" s="14"/>
     </row>
-    <row r="278" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I278" s="13" t="str">
-        <f>IF(AND($C278&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D278,'[1]Data Output'!$C:$C,$E278,'[1]Data Output'!$D:$D,$F278,'[1]Data Output'!$G:$G,$C278,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D278,'[1]Data Output'!$C:$C,$E278,'[1]Data Output'!$G:$G,$C278,'[1]Data Output'!$D:$D,$F278,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J278" s="13" t="str">
-        <f>IF(AND($C278&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D278,'[1]Data Output'!$C:$C,$E278,'[1]Data Output'!$D:$D,$F278,'[1]Data Output'!$G:$G,$C278,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D278,'[1]Data Output'!$C:$C,$E278,'[1]Data Output'!$G:$G,$C278,'[1]Data Output'!$D:$D,$F278,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K278" s="13" t="str">
-        <f>IF(AND($C278&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D278,'[1]Data Output'!$C:$C,$E278,'[1]Data Output'!$D:$D,$F278,'[1]Data Output'!$G:$G,$C278,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D278,'[1]Data Output'!$C:$C,$E278,'[1]Data Output'!$G:$G,$C278,'[1]Data Output'!$D:$D,$F278,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="278" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I278" s="13"/>
+      <c r="J278" s="13"/>
+      <c r="K278" s="13"/>
       <c r="M278" s="14"/>
     </row>
-    <row r="279" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I279" s="13" t="str">
-        <f>IF(AND($C279&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D279,'[1]Data Output'!$C:$C,$E279,'[1]Data Output'!$D:$D,$F279,'[1]Data Output'!$G:$G,$C279,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D279,'[1]Data Output'!$C:$C,$E279,'[1]Data Output'!$G:$G,$C279,'[1]Data Output'!$D:$D,$F279,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J279" s="13" t="str">
-        <f>IF(AND($C279&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D279,'[1]Data Output'!$C:$C,$E279,'[1]Data Output'!$D:$D,$F279,'[1]Data Output'!$G:$G,$C279,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D279,'[1]Data Output'!$C:$C,$E279,'[1]Data Output'!$G:$G,$C279,'[1]Data Output'!$D:$D,$F279,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K279" s="13" t="str">
-        <f>IF(AND($C279&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D279,'[1]Data Output'!$C:$C,$E279,'[1]Data Output'!$D:$D,$F279,'[1]Data Output'!$G:$G,$C279,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D279,'[1]Data Output'!$C:$C,$E279,'[1]Data Output'!$G:$G,$C279,'[1]Data Output'!$D:$D,$F279,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="279" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I279" s="13"/>
+      <c r="J279" s="13"/>
+      <c r="K279" s="13"/>
       <c r="M279" s="14"/>
     </row>
-    <row r="280" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I280" s="13" t="str">
-        <f>IF(AND($C280&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D280,'[1]Data Output'!$C:$C,$E280,'[1]Data Output'!$D:$D,$F280,'[1]Data Output'!$G:$G,$C280,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D280,'[1]Data Output'!$C:$C,$E280,'[1]Data Output'!$G:$G,$C280,'[1]Data Output'!$D:$D,$F280,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J280" s="13" t="str">
-        <f>IF(AND($C280&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D280,'[1]Data Output'!$C:$C,$E280,'[1]Data Output'!$D:$D,$F280,'[1]Data Output'!$G:$G,$C280,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D280,'[1]Data Output'!$C:$C,$E280,'[1]Data Output'!$G:$G,$C280,'[1]Data Output'!$D:$D,$F280,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K280" s="13" t="str">
-        <f>IF(AND($C280&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D280,'[1]Data Output'!$C:$C,$E280,'[1]Data Output'!$D:$D,$F280,'[1]Data Output'!$G:$G,$C280,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D280,'[1]Data Output'!$C:$C,$E280,'[1]Data Output'!$G:$G,$C280,'[1]Data Output'!$D:$D,$F280,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="280" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I280" s="13"/>
+      <c r="J280" s="13"/>
+      <c r="K280" s="13"/>
       <c r="M280" s="14"/>
     </row>
-    <row r="281" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I281" s="13" t="str">
-        <f>IF(AND($C281&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D281,'[1]Data Output'!$C:$C,$E281,'[1]Data Output'!$D:$D,$F281,'[1]Data Output'!$G:$G,$C281,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D281,'[1]Data Output'!$C:$C,$E281,'[1]Data Output'!$G:$G,$C281,'[1]Data Output'!$D:$D,$F281,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J281" s="13" t="str">
-        <f>IF(AND($C281&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D281,'[1]Data Output'!$C:$C,$E281,'[1]Data Output'!$D:$D,$F281,'[1]Data Output'!$G:$G,$C281,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D281,'[1]Data Output'!$C:$C,$E281,'[1]Data Output'!$G:$G,$C281,'[1]Data Output'!$D:$D,$F281,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K281" s="13" t="str">
-        <f>IF(AND($C281&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D281,'[1]Data Output'!$C:$C,$E281,'[1]Data Output'!$D:$D,$F281,'[1]Data Output'!$G:$G,$C281,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D281,'[1]Data Output'!$C:$C,$E281,'[1]Data Output'!$G:$G,$C281,'[1]Data Output'!$D:$D,$F281,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="281" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I281" s="13"/>
+      <c r="J281" s="13"/>
+      <c r="K281" s="13"/>
       <c r="M281" s="14"/>
     </row>
-    <row r="282" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I282" s="13" t="str">
-        <f>IF(AND($C282&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D282,'[1]Data Output'!$C:$C,$E282,'[1]Data Output'!$D:$D,$F282,'[1]Data Output'!$G:$G,$C282,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D282,'[1]Data Output'!$C:$C,$E282,'[1]Data Output'!$G:$G,$C282,'[1]Data Output'!$D:$D,$F282,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J282" s="13" t="str">
-        <f>IF(AND($C282&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D282,'[1]Data Output'!$C:$C,$E282,'[1]Data Output'!$D:$D,$F282,'[1]Data Output'!$G:$G,$C282,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D282,'[1]Data Output'!$C:$C,$E282,'[1]Data Output'!$G:$G,$C282,'[1]Data Output'!$D:$D,$F282,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K282" s="13" t="str">
-        <f>IF(AND($C282&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D282,'[1]Data Output'!$C:$C,$E282,'[1]Data Output'!$D:$D,$F282,'[1]Data Output'!$G:$G,$C282,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D282,'[1]Data Output'!$C:$C,$E282,'[1]Data Output'!$G:$G,$C282,'[1]Data Output'!$D:$D,$F282,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="282" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I282" s="13"/>
+      <c r="J282" s="13"/>
+      <c r="K282" s="13"/>
       <c r="M282" s="14"/>
     </row>
-    <row r="283" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I283" s="13" t="str">
-        <f>IF(AND($C283&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D283,'[1]Data Output'!$C:$C,$E283,'[1]Data Output'!$D:$D,$F283,'[1]Data Output'!$G:$G,$C283,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D283,'[1]Data Output'!$C:$C,$E283,'[1]Data Output'!$G:$G,$C283,'[1]Data Output'!$D:$D,$F283,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J283" s="13" t="str">
-        <f>IF(AND($C283&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D283,'[1]Data Output'!$C:$C,$E283,'[1]Data Output'!$D:$D,$F283,'[1]Data Output'!$G:$G,$C283,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D283,'[1]Data Output'!$C:$C,$E283,'[1]Data Output'!$G:$G,$C283,'[1]Data Output'!$D:$D,$F283,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K283" s="13" t="str">
-        <f>IF(AND($C283&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D283,'[1]Data Output'!$C:$C,$E283,'[1]Data Output'!$D:$D,$F283,'[1]Data Output'!$G:$G,$C283,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D283,'[1]Data Output'!$C:$C,$E283,'[1]Data Output'!$G:$G,$C283,'[1]Data Output'!$D:$D,$F283,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="283" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I283" s="13"/>
+      <c r="J283" s="13"/>
+      <c r="K283" s="13"/>
       <c r="M283" s="14"/>
     </row>
-    <row r="284" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I284" s="13" t="str">
-        <f>IF(AND($C284&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D284,'[1]Data Output'!$C:$C,$E284,'[1]Data Output'!$D:$D,$F284,'[1]Data Output'!$G:$G,$C284,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D284,'[1]Data Output'!$C:$C,$E284,'[1]Data Output'!$G:$G,$C284,'[1]Data Output'!$D:$D,$F284,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J284" s="13" t="str">
-        <f>IF(AND($C284&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D284,'[1]Data Output'!$C:$C,$E284,'[1]Data Output'!$D:$D,$F284,'[1]Data Output'!$G:$G,$C284,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D284,'[1]Data Output'!$C:$C,$E284,'[1]Data Output'!$G:$G,$C284,'[1]Data Output'!$D:$D,$F284,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K284" s="13" t="str">
-        <f>IF(AND($C284&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D284,'[1]Data Output'!$C:$C,$E284,'[1]Data Output'!$D:$D,$F284,'[1]Data Output'!$G:$G,$C284,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D284,'[1]Data Output'!$C:$C,$E284,'[1]Data Output'!$G:$G,$C284,'[1]Data Output'!$D:$D,$F284,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="284" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I284" s="13"/>
+      <c r="J284" s="13"/>
+      <c r="K284" s="13"/>
       <c r="M284" s="14"/>
     </row>
-    <row r="285" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I285" s="13" t="str">
-        <f>IF(AND($C285&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D285,'[1]Data Output'!$C:$C,$E285,'[1]Data Output'!$D:$D,$F285,'[1]Data Output'!$G:$G,$C285,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D285,'[1]Data Output'!$C:$C,$E285,'[1]Data Output'!$G:$G,$C285,'[1]Data Output'!$D:$D,$F285,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J285" s="13" t="str">
-        <f>IF(AND($C285&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D285,'[1]Data Output'!$C:$C,$E285,'[1]Data Output'!$D:$D,$F285,'[1]Data Output'!$G:$G,$C285,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D285,'[1]Data Output'!$C:$C,$E285,'[1]Data Output'!$G:$G,$C285,'[1]Data Output'!$D:$D,$F285,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K285" s="13" t="str">
-        <f>IF(AND($C285&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D285,'[1]Data Output'!$C:$C,$E285,'[1]Data Output'!$D:$D,$F285,'[1]Data Output'!$G:$G,$C285,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D285,'[1]Data Output'!$C:$C,$E285,'[1]Data Output'!$G:$G,$C285,'[1]Data Output'!$D:$D,$F285,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="285" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I285" s="13"/>
+      <c r="J285" s="13"/>
+      <c r="K285" s="13"/>
       <c r="M285" s="14"/>
     </row>
-    <row r="286" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I286" s="13" t="str">
-        <f>IF(AND($C286&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D286,'[1]Data Output'!$C:$C,$E286,'[1]Data Output'!$D:$D,$F286,'[1]Data Output'!$G:$G,$C286,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D286,'[1]Data Output'!$C:$C,$E286,'[1]Data Output'!$G:$G,$C286,'[1]Data Output'!$D:$D,$F286,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J286" s="13" t="str">
-        <f>IF(AND($C286&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D286,'[1]Data Output'!$C:$C,$E286,'[1]Data Output'!$D:$D,$F286,'[1]Data Output'!$G:$G,$C286,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D286,'[1]Data Output'!$C:$C,$E286,'[1]Data Output'!$G:$G,$C286,'[1]Data Output'!$D:$D,$F286,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K286" s="13" t="str">
-        <f>IF(AND($C286&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D286,'[1]Data Output'!$C:$C,$E286,'[1]Data Output'!$D:$D,$F286,'[1]Data Output'!$G:$G,$C286,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D286,'[1]Data Output'!$C:$C,$E286,'[1]Data Output'!$G:$G,$C286,'[1]Data Output'!$D:$D,$F286,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="286" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I286" s="13"/>
+      <c r="J286" s="13"/>
+      <c r="K286" s="13"/>
       <c r="M286" s="14"/>
     </row>
-    <row r="287" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I287" s="13" t="str">
-        <f>IF(AND($C287&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D287,'[1]Data Output'!$C:$C,$E287,'[1]Data Output'!$D:$D,$F287,'[1]Data Output'!$G:$G,$C287,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D287,'[1]Data Output'!$C:$C,$E287,'[1]Data Output'!$G:$G,$C287,'[1]Data Output'!$D:$D,$F287,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J287" s="13" t="str">
-        <f>IF(AND($C287&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D287,'[1]Data Output'!$C:$C,$E287,'[1]Data Output'!$D:$D,$F287,'[1]Data Output'!$G:$G,$C287,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D287,'[1]Data Output'!$C:$C,$E287,'[1]Data Output'!$G:$G,$C287,'[1]Data Output'!$D:$D,$F287,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K287" s="13" t="str">
-        <f>IF(AND($C287&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D287,'[1]Data Output'!$C:$C,$E287,'[1]Data Output'!$D:$D,$F287,'[1]Data Output'!$G:$G,$C287,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D287,'[1]Data Output'!$C:$C,$E287,'[1]Data Output'!$G:$G,$C287,'[1]Data Output'!$D:$D,$F287,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="287" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I287" s="13"/>
+      <c r="J287" s="13"/>
+      <c r="K287" s="13"/>
       <c r="M287" s="14"/>
     </row>
-    <row r="288" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I288" s="13" t="str">
-        <f>IF(AND($C288&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D288,'[1]Data Output'!$C:$C,$E288,'[1]Data Output'!$D:$D,$F288,'[1]Data Output'!$G:$G,$C288,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D288,'[1]Data Output'!$C:$C,$E288,'[1]Data Output'!$G:$G,$C288,'[1]Data Output'!$D:$D,$F288,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J288" s="13" t="str">
-        <f>IF(AND($C288&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D288,'[1]Data Output'!$C:$C,$E288,'[1]Data Output'!$D:$D,$F288,'[1]Data Output'!$G:$G,$C288,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D288,'[1]Data Output'!$C:$C,$E288,'[1]Data Output'!$G:$G,$C288,'[1]Data Output'!$D:$D,$F288,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K288" s="13" t="str">
-        <f>IF(AND($C288&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D288,'[1]Data Output'!$C:$C,$E288,'[1]Data Output'!$D:$D,$F288,'[1]Data Output'!$G:$G,$C288,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D288,'[1]Data Output'!$C:$C,$E288,'[1]Data Output'!$G:$G,$C288,'[1]Data Output'!$D:$D,$F288,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="288" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I288" s="13"/>
+      <c r="J288" s="13"/>
+      <c r="K288" s="13"/>
       <c r="M288" s="14"/>
     </row>
-    <row r="289" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I289" s="13" t="str">
-        <f>IF(AND($C289&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D289,'[1]Data Output'!$C:$C,$E289,'[1]Data Output'!$D:$D,$F289,'[1]Data Output'!$G:$G,$C289,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D289,'[1]Data Output'!$C:$C,$E289,'[1]Data Output'!$G:$G,$C289,'[1]Data Output'!$D:$D,$F289,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J289" s="13" t="str">
-        <f>IF(AND($C289&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D289,'[1]Data Output'!$C:$C,$E289,'[1]Data Output'!$D:$D,$F289,'[1]Data Output'!$G:$G,$C289,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D289,'[1]Data Output'!$C:$C,$E289,'[1]Data Output'!$G:$G,$C289,'[1]Data Output'!$D:$D,$F289,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K289" s="13" t="str">
-        <f>IF(AND($C289&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D289,'[1]Data Output'!$C:$C,$E289,'[1]Data Output'!$D:$D,$F289,'[1]Data Output'!$G:$G,$C289,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D289,'[1]Data Output'!$C:$C,$E289,'[1]Data Output'!$G:$G,$C289,'[1]Data Output'!$D:$D,$F289,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="289" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I289" s="13"/>
+      <c r="J289" s="13"/>
+      <c r="K289" s="13"/>
       <c r="M289" s="14"/>
     </row>
-    <row r="290" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I290" s="13" t="str">
-        <f>IF(AND($C290&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D290,'[1]Data Output'!$C:$C,$E290,'[1]Data Output'!$D:$D,$F290,'[1]Data Output'!$G:$G,$C290,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D290,'[1]Data Output'!$C:$C,$E290,'[1]Data Output'!$G:$G,$C290,'[1]Data Output'!$D:$D,$F290,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J290" s="13" t="str">
-        <f>IF(AND($C290&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D290,'[1]Data Output'!$C:$C,$E290,'[1]Data Output'!$D:$D,$F290,'[1]Data Output'!$G:$G,$C290,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D290,'[1]Data Output'!$C:$C,$E290,'[1]Data Output'!$G:$G,$C290,'[1]Data Output'!$D:$D,$F290,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K290" s="13" t="str">
-        <f>IF(AND($C290&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D290,'[1]Data Output'!$C:$C,$E290,'[1]Data Output'!$D:$D,$F290,'[1]Data Output'!$G:$G,$C290,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D290,'[1]Data Output'!$C:$C,$E290,'[1]Data Output'!$G:$G,$C290,'[1]Data Output'!$D:$D,$F290,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="290" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I290" s="13"/>
+      <c r="J290" s="13"/>
+      <c r="K290" s="13"/>
       <c r="M290" s="14"/>
     </row>
-    <row r="291" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I291" s="13" t="str">
-        <f>IF(AND($C291&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D291,'[1]Data Output'!$C:$C,$E291,'[1]Data Output'!$D:$D,$F291,'[1]Data Output'!$G:$G,$C291,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D291,'[1]Data Output'!$C:$C,$E291,'[1]Data Output'!$G:$G,$C291,'[1]Data Output'!$D:$D,$F291,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J291" s="13" t="str">
-        <f>IF(AND($C291&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D291,'[1]Data Output'!$C:$C,$E291,'[1]Data Output'!$D:$D,$F291,'[1]Data Output'!$G:$G,$C291,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D291,'[1]Data Output'!$C:$C,$E291,'[1]Data Output'!$G:$G,$C291,'[1]Data Output'!$D:$D,$F291,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K291" s="13" t="str">
-        <f>IF(AND($C291&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D291,'[1]Data Output'!$C:$C,$E291,'[1]Data Output'!$D:$D,$F291,'[1]Data Output'!$G:$G,$C291,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D291,'[1]Data Output'!$C:$C,$E291,'[1]Data Output'!$G:$G,$C291,'[1]Data Output'!$D:$D,$F291,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="291" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I291" s="13"/>
+      <c r="J291" s="13"/>
+      <c r="K291" s="13"/>
       <c r="M291" s="14"/>
     </row>
-    <row r="292" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I292" s="13" t="str">
-        <f>IF(AND($C292&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D292,'[1]Data Output'!$C:$C,$E292,'[1]Data Output'!$D:$D,$F292,'[1]Data Output'!$G:$G,$C292,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D292,'[1]Data Output'!$C:$C,$E292,'[1]Data Output'!$G:$G,$C292,'[1]Data Output'!$D:$D,$F292,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J292" s="13" t="str">
-        <f>IF(AND($C292&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D292,'[1]Data Output'!$C:$C,$E292,'[1]Data Output'!$D:$D,$F292,'[1]Data Output'!$G:$G,$C292,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D292,'[1]Data Output'!$C:$C,$E292,'[1]Data Output'!$G:$G,$C292,'[1]Data Output'!$D:$D,$F292,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K292" s="13" t="str">
-        <f>IF(AND($C292&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D292,'[1]Data Output'!$C:$C,$E292,'[1]Data Output'!$D:$D,$F292,'[1]Data Output'!$G:$G,$C292,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D292,'[1]Data Output'!$C:$C,$E292,'[1]Data Output'!$G:$G,$C292,'[1]Data Output'!$D:$D,$F292,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="292" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I292" s="13"/>
+      <c r="J292" s="13"/>
+      <c r="K292" s="13"/>
       <c r="M292" s="14"/>
     </row>
-    <row r="293" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I293" s="13" t="str">
-        <f>IF(AND($C293&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D293,'[1]Data Output'!$C:$C,$E293,'[1]Data Output'!$D:$D,$F293,'[1]Data Output'!$G:$G,$C293,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D293,'[1]Data Output'!$C:$C,$E293,'[1]Data Output'!$G:$G,$C293,'[1]Data Output'!$D:$D,$F293,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J293" s="13" t="str">
-        <f>IF(AND($C293&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D293,'[1]Data Output'!$C:$C,$E293,'[1]Data Output'!$D:$D,$F293,'[1]Data Output'!$G:$G,$C293,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D293,'[1]Data Output'!$C:$C,$E293,'[1]Data Output'!$G:$G,$C293,'[1]Data Output'!$D:$D,$F293,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K293" s="13" t="str">
-        <f>IF(AND($C293&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D293,'[1]Data Output'!$C:$C,$E293,'[1]Data Output'!$D:$D,$F293,'[1]Data Output'!$G:$G,$C293,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D293,'[1]Data Output'!$C:$C,$E293,'[1]Data Output'!$G:$G,$C293,'[1]Data Output'!$D:$D,$F293,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="293" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I293" s="13"/>
+      <c r="J293" s="13"/>
+      <c r="K293" s="13"/>
       <c r="M293" s="14"/>
     </row>
-    <row r="294" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I294" s="13" t="str">
-        <f>IF(AND($C294&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D294,'[1]Data Output'!$C:$C,$E294,'[1]Data Output'!$D:$D,$F294,'[1]Data Output'!$G:$G,$C294,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D294,'[1]Data Output'!$C:$C,$E294,'[1]Data Output'!$G:$G,$C294,'[1]Data Output'!$D:$D,$F294,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J294" s="13" t="str">
-        <f>IF(AND($C294&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D294,'[1]Data Output'!$C:$C,$E294,'[1]Data Output'!$D:$D,$F294,'[1]Data Output'!$G:$G,$C294,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D294,'[1]Data Output'!$C:$C,$E294,'[1]Data Output'!$G:$G,$C294,'[1]Data Output'!$D:$D,$F294,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K294" s="13" t="str">
-        <f>IF(AND($C294&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D294,'[1]Data Output'!$C:$C,$E294,'[1]Data Output'!$D:$D,$F294,'[1]Data Output'!$G:$G,$C294,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D294,'[1]Data Output'!$C:$C,$E294,'[1]Data Output'!$G:$G,$C294,'[1]Data Output'!$D:$D,$F294,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="294" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I294" s="13"/>
+      <c r="J294" s="13"/>
+      <c r="K294" s="13"/>
       <c r="M294" s="14"/>
     </row>
-    <row r="295" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I295" s="13" t="str">
-        <f>IF(AND($C295&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D295,'[1]Data Output'!$C:$C,$E295,'[1]Data Output'!$D:$D,$F295,'[1]Data Output'!$G:$G,$C295,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D295,'[1]Data Output'!$C:$C,$E295,'[1]Data Output'!$G:$G,$C295,'[1]Data Output'!$D:$D,$F295,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J295" s="13" t="str">
-        <f>IF(AND($C295&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D295,'[1]Data Output'!$C:$C,$E295,'[1]Data Output'!$D:$D,$F295,'[1]Data Output'!$G:$G,$C295,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D295,'[1]Data Output'!$C:$C,$E295,'[1]Data Output'!$G:$G,$C295,'[1]Data Output'!$D:$D,$F295,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K295" s="13" t="str">
-        <f>IF(AND($C295&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D295,'[1]Data Output'!$C:$C,$E295,'[1]Data Output'!$D:$D,$F295,'[1]Data Output'!$G:$G,$C295,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D295,'[1]Data Output'!$C:$C,$E295,'[1]Data Output'!$G:$G,$C295,'[1]Data Output'!$D:$D,$F295,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="295" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I295" s="13"/>
+      <c r="J295" s="13"/>
+      <c r="K295" s="13"/>
       <c r="M295" s="14"/>
     </row>
-    <row r="296" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I296" s="13" t="str">
-        <f>IF(AND($C296&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D296,'[1]Data Output'!$C:$C,$E296,'[1]Data Output'!$D:$D,$F296,'[1]Data Output'!$G:$G,$C296,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D296,'[1]Data Output'!$C:$C,$E296,'[1]Data Output'!$G:$G,$C296,'[1]Data Output'!$D:$D,$F296,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J296" s="13" t="str">
-        <f>IF(AND($C296&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D296,'[1]Data Output'!$C:$C,$E296,'[1]Data Output'!$D:$D,$F296,'[1]Data Output'!$G:$G,$C296,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D296,'[1]Data Output'!$C:$C,$E296,'[1]Data Output'!$G:$G,$C296,'[1]Data Output'!$D:$D,$F296,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K296" s="13" t="str">
-        <f>IF(AND($C296&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D296,'[1]Data Output'!$C:$C,$E296,'[1]Data Output'!$D:$D,$F296,'[1]Data Output'!$G:$G,$C296,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D296,'[1]Data Output'!$C:$C,$E296,'[1]Data Output'!$G:$G,$C296,'[1]Data Output'!$D:$D,$F296,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="296" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I296" s="13"/>
+      <c r="J296" s="13"/>
+      <c r="K296" s="13"/>
       <c r="M296" s="14"/>
     </row>
-    <row r="297" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I297" s="13" t="str">
-        <f>IF(AND($C297&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D297,'[1]Data Output'!$C:$C,$E297,'[1]Data Output'!$D:$D,$F297,'[1]Data Output'!$G:$G,$C297,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D297,'[1]Data Output'!$C:$C,$E297,'[1]Data Output'!$G:$G,$C297,'[1]Data Output'!$D:$D,$F297,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J297" s="13" t="str">
-        <f>IF(AND($C297&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D297,'[1]Data Output'!$C:$C,$E297,'[1]Data Output'!$D:$D,$F297,'[1]Data Output'!$G:$G,$C297,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D297,'[1]Data Output'!$C:$C,$E297,'[1]Data Output'!$G:$G,$C297,'[1]Data Output'!$D:$D,$F297,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K297" s="13" t="str">
-        <f>IF(AND($C297&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D297,'[1]Data Output'!$C:$C,$E297,'[1]Data Output'!$D:$D,$F297,'[1]Data Output'!$G:$G,$C297,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D297,'[1]Data Output'!$C:$C,$E297,'[1]Data Output'!$G:$G,$C297,'[1]Data Output'!$D:$D,$F297,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="297" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I297" s="13"/>
+      <c r="J297" s="13"/>
+      <c r="K297" s="13"/>
       <c r="M297" s="14"/>
     </row>
-    <row r="298" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I298" s="13" t="str">
-        <f>IF(AND($C298&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D298,'[1]Data Output'!$C:$C,$E298,'[1]Data Output'!$D:$D,$F298,'[1]Data Output'!$G:$G,$C298,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D298,'[1]Data Output'!$C:$C,$E298,'[1]Data Output'!$G:$G,$C298,'[1]Data Output'!$D:$D,$F298,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J298" s="13" t="str">
-        <f>IF(AND($C298&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D298,'[1]Data Output'!$C:$C,$E298,'[1]Data Output'!$D:$D,$F298,'[1]Data Output'!$G:$G,$C298,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D298,'[1]Data Output'!$C:$C,$E298,'[1]Data Output'!$G:$G,$C298,'[1]Data Output'!$D:$D,$F298,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K298" s="13" t="str">
-        <f>IF(AND($C298&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D298,'[1]Data Output'!$C:$C,$E298,'[1]Data Output'!$D:$D,$F298,'[1]Data Output'!$G:$G,$C298,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D298,'[1]Data Output'!$C:$C,$E298,'[1]Data Output'!$G:$G,$C298,'[1]Data Output'!$D:$D,$F298,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="298" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I298" s="13"/>
+      <c r="J298" s="13"/>
+      <c r="K298" s="13"/>
       <c r="M298" s="14"/>
     </row>
-    <row r="299" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I299" s="13" t="str">
-        <f>IF(AND($C299&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D299,'[1]Data Output'!$C:$C,$E299,'[1]Data Output'!$D:$D,$F299,'[1]Data Output'!$G:$G,$C299,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D299,'[1]Data Output'!$C:$C,$E299,'[1]Data Output'!$G:$G,$C299,'[1]Data Output'!$D:$D,$F299,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J299" s="13" t="str">
-        <f>IF(AND($C299&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D299,'[1]Data Output'!$C:$C,$E299,'[1]Data Output'!$D:$D,$F299,'[1]Data Output'!$G:$G,$C299,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D299,'[1]Data Output'!$C:$C,$E299,'[1]Data Output'!$G:$G,$C299,'[1]Data Output'!$D:$D,$F299,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K299" s="13" t="str">
-        <f>IF(AND($C299&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D299,'[1]Data Output'!$C:$C,$E299,'[1]Data Output'!$D:$D,$F299,'[1]Data Output'!$G:$G,$C299,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D299,'[1]Data Output'!$C:$C,$E299,'[1]Data Output'!$G:$G,$C299,'[1]Data Output'!$D:$D,$F299,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="299" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I299" s="13"/>
+      <c r="J299" s="13"/>
+      <c r="K299" s="13"/>
       <c r="M299" s="14"/>
     </row>
-    <row r="300" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I300" s="13" t="str">
-        <f>IF(AND($C300&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D300,'[1]Data Output'!$C:$C,$E300,'[1]Data Output'!$D:$D,$F300,'[1]Data Output'!$G:$G,$C300,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D300,'[1]Data Output'!$C:$C,$E300,'[1]Data Output'!$G:$G,$C300,'[1]Data Output'!$D:$D,$F300,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J300" s="13" t="str">
-        <f>IF(AND($C300&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D300,'[1]Data Output'!$C:$C,$E300,'[1]Data Output'!$D:$D,$F300,'[1]Data Output'!$G:$G,$C300,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D300,'[1]Data Output'!$C:$C,$E300,'[1]Data Output'!$G:$G,$C300,'[1]Data Output'!$D:$D,$F300,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K300" s="13" t="str">
-        <f>IF(AND($C300&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D300,'[1]Data Output'!$C:$C,$E300,'[1]Data Output'!$D:$D,$F300,'[1]Data Output'!$G:$G,$C300,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D300,'[1]Data Output'!$C:$C,$E300,'[1]Data Output'!$G:$G,$C300,'[1]Data Output'!$D:$D,$F300,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="300" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I300" s="13"/>
+      <c r="J300" s="13"/>
+      <c r="K300" s="13"/>
       <c r="M300" s="14"/>
     </row>
-    <row r="301" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I301" s="13" t="str">
-        <f>IF(AND($C301&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D301,'[1]Data Output'!$C:$C,$E301,'[1]Data Output'!$D:$D,$F301,'[1]Data Output'!$G:$G,$C301,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D301,'[1]Data Output'!$C:$C,$E301,'[1]Data Output'!$G:$G,$C301,'[1]Data Output'!$D:$D,$F301,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J301" s="13" t="str">
-        <f>IF(AND($C301&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D301,'[1]Data Output'!$C:$C,$E301,'[1]Data Output'!$D:$D,$F301,'[1]Data Output'!$G:$G,$C301,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D301,'[1]Data Output'!$C:$C,$E301,'[1]Data Output'!$G:$G,$C301,'[1]Data Output'!$D:$D,$F301,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K301" s="13" t="str">
-        <f>IF(AND($C301&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D301,'[1]Data Output'!$C:$C,$E301,'[1]Data Output'!$D:$D,$F301,'[1]Data Output'!$G:$G,$C301,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D301,'[1]Data Output'!$C:$C,$E301,'[1]Data Output'!$G:$G,$C301,'[1]Data Output'!$D:$D,$F301,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="301" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I301" s="13"/>
+      <c r="J301" s="13"/>
+      <c r="K301" s="13"/>
       <c r="M301" s="14"/>
     </row>
-    <row r="302" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I302" s="13" t="str">
-        <f>IF(AND($C302&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D302,'[1]Data Output'!$C:$C,$E302,'[1]Data Output'!$D:$D,$F302,'[1]Data Output'!$G:$G,$C302,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D302,'[1]Data Output'!$C:$C,$E302,'[1]Data Output'!$G:$G,$C302,'[1]Data Output'!$D:$D,$F302,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J302" s="13" t="str">
-        <f>IF(AND($C302&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D302,'[1]Data Output'!$C:$C,$E302,'[1]Data Output'!$D:$D,$F302,'[1]Data Output'!$G:$G,$C302,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D302,'[1]Data Output'!$C:$C,$E302,'[1]Data Output'!$G:$G,$C302,'[1]Data Output'!$D:$D,$F302,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K302" s="13" t="str">
-        <f>IF(AND($C302&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D302,'[1]Data Output'!$C:$C,$E302,'[1]Data Output'!$D:$D,$F302,'[1]Data Output'!$G:$G,$C302,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D302,'[1]Data Output'!$C:$C,$E302,'[1]Data Output'!$G:$G,$C302,'[1]Data Output'!$D:$D,$F302,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="302" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I302" s="13"/>
+      <c r="J302" s="13"/>
+      <c r="K302" s="13"/>
       <c r="M302" s="14"/>
     </row>
-    <row r="303" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I303" s="13" t="str">
-        <f>IF(AND($C303&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D303,'[1]Data Output'!$C:$C,$E303,'[1]Data Output'!$D:$D,$F303,'[1]Data Output'!$G:$G,$C303,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D303,'[1]Data Output'!$C:$C,$E303,'[1]Data Output'!$G:$G,$C303,'[1]Data Output'!$D:$D,$F303,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J303" s="13" t="str">
-        <f>IF(AND($C303&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D303,'[1]Data Output'!$C:$C,$E303,'[1]Data Output'!$D:$D,$F303,'[1]Data Output'!$G:$G,$C303,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D303,'[1]Data Output'!$C:$C,$E303,'[1]Data Output'!$G:$G,$C303,'[1]Data Output'!$D:$D,$F303,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K303" s="13" t="str">
-        <f>IF(AND($C303&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D303,'[1]Data Output'!$C:$C,$E303,'[1]Data Output'!$D:$D,$F303,'[1]Data Output'!$G:$G,$C303,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D303,'[1]Data Output'!$C:$C,$E303,'[1]Data Output'!$G:$G,$C303,'[1]Data Output'!$D:$D,$F303,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="303" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I303" s="13"/>
+      <c r="J303" s="13"/>
+      <c r="K303" s="13"/>
       <c r="M303" s="14"/>
     </row>
-    <row r="304" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I304" s="13" t="str">
-        <f>IF(AND($C304&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D304,'[1]Data Output'!$C:$C,$E304,'[1]Data Output'!$D:$D,$F304,'[1]Data Output'!$G:$G,$C304,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D304,'[1]Data Output'!$C:$C,$E304,'[1]Data Output'!$G:$G,$C304,'[1]Data Output'!$D:$D,$F304,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J304" s="13" t="str">
-        <f>IF(AND($C304&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D304,'[1]Data Output'!$C:$C,$E304,'[1]Data Output'!$D:$D,$F304,'[1]Data Output'!$G:$G,$C304,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D304,'[1]Data Output'!$C:$C,$E304,'[1]Data Output'!$G:$G,$C304,'[1]Data Output'!$D:$D,$F304,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K304" s="13" t="str">
-        <f>IF(AND($C304&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D304,'[1]Data Output'!$C:$C,$E304,'[1]Data Output'!$D:$D,$F304,'[1]Data Output'!$G:$G,$C304,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D304,'[1]Data Output'!$C:$C,$E304,'[1]Data Output'!$G:$G,$C304,'[1]Data Output'!$D:$D,$F304,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="304" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I304" s="13"/>
+      <c r="J304" s="13"/>
+      <c r="K304" s="13"/>
       <c r="M304" s="14"/>
     </row>
-    <row r="305" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I305" s="13" t="str">
-        <f>IF(AND($C305&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D305,'[1]Data Output'!$C:$C,$E305,'[1]Data Output'!$D:$D,$F305,'[1]Data Output'!$G:$G,$C305,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D305,'[1]Data Output'!$C:$C,$E305,'[1]Data Output'!$G:$G,$C305,'[1]Data Output'!$D:$D,$F305,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J305" s="13" t="str">
-        <f>IF(AND($C305&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D305,'[1]Data Output'!$C:$C,$E305,'[1]Data Output'!$D:$D,$F305,'[1]Data Output'!$G:$G,$C305,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D305,'[1]Data Output'!$C:$C,$E305,'[1]Data Output'!$G:$G,$C305,'[1]Data Output'!$D:$D,$F305,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K305" s="13" t="str">
-        <f>IF(AND($C305&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D305,'[1]Data Output'!$C:$C,$E305,'[1]Data Output'!$D:$D,$F305,'[1]Data Output'!$G:$G,$C305,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D305,'[1]Data Output'!$C:$C,$E305,'[1]Data Output'!$G:$G,$C305,'[1]Data Output'!$D:$D,$F305,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="305" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I305" s="13"/>
+      <c r="J305" s="13"/>
+      <c r="K305" s="13"/>
       <c r="M305" s="14"/>
     </row>
-    <row r="306" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I306" s="13" t="str">
-        <f>IF(AND($C306&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D306,'[1]Data Output'!$C:$C,$E306,'[1]Data Output'!$D:$D,$F306,'[1]Data Output'!$G:$G,$C306,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D306,'[1]Data Output'!$C:$C,$E306,'[1]Data Output'!$G:$G,$C306,'[1]Data Output'!$D:$D,$F306,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J306" s="13" t="str">
-        <f>IF(AND($C306&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D306,'[1]Data Output'!$C:$C,$E306,'[1]Data Output'!$D:$D,$F306,'[1]Data Output'!$G:$G,$C306,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D306,'[1]Data Output'!$C:$C,$E306,'[1]Data Output'!$G:$G,$C306,'[1]Data Output'!$D:$D,$F306,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K306" s="13" t="str">
-        <f>IF(AND($C306&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D306,'[1]Data Output'!$C:$C,$E306,'[1]Data Output'!$D:$D,$F306,'[1]Data Output'!$G:$G,$C306,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D306,'[1]Data Output'!$C:$C,$E306,'[1]Data Output'!$G:$G,$C306,'[1]Data Output'!$D:$D,$F306,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="306" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I306" s="13"/>
+      <c r="J306" s="13"/>
+      <c r="K306" s="13"/>
       <c r="M306" s="14"/>
     </row>
-    <row r="307" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I307" s="13" t="str">
-        <f>IF(AND($C307&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D307,'[1]Data Output'!$C:$C,$E307,'[1]Data Output'!$D:$D,$F307,'[1]Data Output'!$G:$G,$C307,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D307,'[1]Data Output'!$C:$C,$E307,'[1]Data Output'!$G:$G,$C307,'[1]Data Output'!$D:$D,$F307,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J307" s="13" t="str">
-        <f>IF(AND($C307&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D307,'[1]Data Output'!$C:$C,$E307,'[1]Data Output'!$D:$D,$F307,'[1]Data Output'!$G:$G,$C307,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D307,'[1]Data Output'!$C:$C,$E307,'[1]Data Output'!$G:$G,$C307,'[1]Data Output'!$D:$D,$F307,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K307" s="13" t="str">
-        <f>IF(AND($C307&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D307,'[1]Data Output'!$C:$C,$E307,'[1]Data Output'!$D:$D,$F307,'[1]Data Output'!$G:$G,$C307,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D307,'[1]Data Output'!$C:$C,$E307,'[1]Data Output'!$G:$G,$C307,'[1]Data Output'!$D:$D,$F307,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="307" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I307" s="13"/>
+      <c r="J307" s="13"/>
+      <c r="K307" s="13"/>
       <c r="M307" s="14"/>
     </row>
-    <row r="308" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I308" s="13" t="str">
-        <f>IF(AND($C308&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D308,'[1]Data Output'!$C:$C,$E308,'[1]Data Output'!$D:$D,$F308,'[1]Data Output'!$G:$G,$C308,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D308,'[1]Data Output'!$C:$C,$E308,'[1]Data Output'!$G:$G,$C308,'[1]Data Output'!$D:$D,$F308,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J308" s="13" t="str">
-        <f>IF(AND($C308&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D308,'[1]Data Output'!$C:$C,$E308,'[1]Data Output'!$D:$D,$F308,'[1]Data Output'!$G:$G,$C308,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D308,'[1]Data Output'!$C:$C,$E308,'[1]Data Output'!$G:$G,$C308,'[1]Data Output'!$D:$D,$F308,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K308" s="13" t="str">
-        <f>IF(AND($C308&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D308,'[1]Data Output'!$C:$C,$E308,'[1]Data Output'!$D:$D,$F308,'[1]Data Output'!$G:$G,$C308,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D308,'[1]Data Output'!$C:$C,$E308,'[1]Data Output'!$G:$G,$C308,'[1]Data Output'!$D:$D,$F308,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="308" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I308" s="13"/>
+      <c r="J308" s="13"/>
+      <c r="K308" s="13"/>
       <c r="M308" s="14"/>
     </row>
-    <row r="309" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I309" s="13" t="str">
-        <f>IF(AND($C309&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D309,'[1]Data Output'!$C:$C,$E309,'[1]Data Output'!$D:$D,$F309,'[1]Data Output'!$G:$G,$C309,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D309,'[1]Data Output'!$C:$C,$E309,'[1]Data Output'!$G:$G,$C309,'[1]Data Output'!$D:$D,$F309,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J309" s="13" t="str">
-        <f>IF(AND($C309&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D309,'[1]Data Output'!$C:$C,$E309,'[1]Data Output'!$D:$D,$F309,'[1]Data Output'!$G:$G,$C309,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D309,'[1]Data Output'!$C:$C,$E309,'[1]Data Output'!$G:$G,$C309,'[1]Data Output'!$D:$D,$F309,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K309" s="13" t="str">
-        <f>IF(AND($C309&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D309,'[1]Data Output'!$C:$C,$E309,'[1]Data Output'!$D:$D,$F309,'[1]Data Output'!$G:$G,$C309,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D309,'[1]Data Output'!$C:$C,$E309,'[1]Data Output'!$G:$G,$C309,'[1]Data Output'!$D:$D,$F309,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="309" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I309" s="13"/>
+      <c r="J309" s="13"/>
+      <c r="K309" s="13"/>
       <c r="M309" s="14"/>
     </row>
-    <row r="310" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I310" s="13" t="str">
-        <f>IF(AND($C310&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D310,'[1]Data Output'!$C:$C,$E310,'[1]Data Output'!$D:$D,$F310,'[1]Data Output'!$G:$G,$C310,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D310,'[1]Data Output'!$C:$C,$E310,'[1]Data Output'!$G:$G,$C310,'[1]Data Output'!$D:$D,$F310,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J310" s="13" t="str">
-        <f>IF(AND($C310&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D310,'[1]Data Output'!$C:$C,$E310,'[1]Data Output'!$D:$D,$F310,'[1]Data Output'!$G:$G,$C310,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D310,'[1]Data Output'!$C:$C,$E310,'[1]Data Output'!$G:$G,$C310,'[1]Data Output'!$D:$D,$F310,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K310" s="13" t="str">
-        <f>IF(AND($C310&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D310,'[1]Data Output'!$C:$C,$E310,'[1]Data Output'!$D:$D,$F310,'[1]Data Output'!$G:$G,$C310,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D310,'[1]Data Output'!$C:$C,$E310,'[1]Data Output'!$G:$G,$C310,'[1]Data Output'!$D:$D,$F310,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="310" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I310" s="13"/>
+      <c r="J310" s="13"/>
+      <c r="K310" s="13"/>
       <c r="M310" s="14"/>
     </row>
-    <row r="311" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I311" s="13" t="str">
-        <f>IF(AND($C311&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D311,'[1]Data Output'!$C:$C,$E311,'[1]Data Output'!$D:$D,$F311,'[1]Data Output'!$G:$G,$C311,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D311,'[1]Data Output'!$C:$C,$E311,'[1]Data Output'!$G:$G,$C311,'[1]Data Output'!$D:$D,$F311,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J311" s="13" t="str">
-        <f>IF(AND($C311&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D311,'[1]Data Output'!$C:$C,$E311,'[1]Data Output'!$D:$D,$F311,'[1]Data Output'!$G:$G,$C311,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D311,'[1]Data Output'!$C:$C,$E311,'[1]Data Output'!$G:$G,$C311,'[1]Data Output'!$D:$D,$F311,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K311" s="13" t="str">
-        <f>IF(AND($C311&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D311,'[1]Data Output'!$C:$C,$E311,'[1]Data Output'!$D:$D,$F311,'[1]Data Output'!$G:$G,$C311,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D311,'[1]Data Output'!$C:$C,$E311,'[1]Data Output'!$G:$G,$C311,'[1]Data Output'!$D:$D,$F311,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="311" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I311" s="13"/>
+      <c r="J311" s="13"/>
+      <c r="K311" s="13"/>
       <c r="M311" s="14"/>
     </row>
-    <row r="312" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I312" s="13" t="str">
-        <f>IF(AND($C312&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D312,'[1]Data Output'!$C:$C,$E312,'[1]Data Output'!$D:$D,$F312,'[1]Data Output'!$G:$G,$C312,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D312,'[1]Data Output'!$C:$C,$E312,'[1]Data Output'!$G:$G,$C312,'[1]Data Output'!$D:$D,$F312,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J312" s="13" t="str">
-        <f>IF(AND($C312&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D312,'[1]Data Output'!$C:$C,$E312,'[1]Data Output'!$D:$D,$F312,'[1]Data Output'!$G:$G,$C312,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D312,'[1]Data Output'!$C:$C,$E312,'[1]Data Output'!$G:$G,$C312,'[1]Data Output'!$D:$D,$F312,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K312" s="13" t="str">
-        <f>IF(AND($C312&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D312,'[1]Data Output'!$C:$C,$E312,'[1]Data Output'!$D:$D,$F312,'[1]Data Output'!$G:$G,$C312,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D312,'[1]Data Output'!$C:$C,$E312,'[1]Data Output'!$G:$G,$C312,'[1]Data Output'!$D:$D,$F312,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="312" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I312" s="13"/>
+      <c r="J312" s="13"/>
+      <c r="K312" s="13"/>
       <c r="M312" s="14"/>
     </row>
-    <row r="313" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I313" s="13" t="str">
-        <f>IF(AND($C313&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D313,'[1]Data Output'!$C:$C,$E313,'[1]Data Output'!$D:$D,$F313,'[1]Data Output'!$G:$G,$C313,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D313,'[1]Data Output'!$C:$C,$E313,'[1]Data Output'!$G:$G,$C313,'[1]Data Output'!$D:$D,$F313,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J313" s="13" t="str">
-        <f>IF(AND($C313&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D313,'[1]Data Output'!$C:$C,$E313,'[1]Data Output'!$D:$D,$F313,'[1]Data Output'!$G:$G,$C313,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D313,'[1]Data Output'!$C:$C,$E313,'[1]Data Output'!$G:$G,$C313,'[1]Data Output'!$D:$D,$F313,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K313" s="13" t="str">
-        <f>IF(AND($C313&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D313,'[1]Data Output'!$C:$C,$E313,'[1]Data Output'!$D:$D,$F313,'[1]Data Output'!$G:$G,$C313,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D313,'[1]Data Output'!$C:$C,$E313,'[1]Data Output'!$G:$G,$C313,'[1]Data Output'!$D:$D,$F313,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="313" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I313" s="13"/>
+      <c r="J313" s="13"/>
+      <c r="K313" s="13"/>
       <c r="M313" s="14"/>
     </row>
-    <row r="314" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I314" s="13" t="str">
-        <f>IF(AND($C314&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D314,'[1]Data Output'!$C:$C,$E314,'[1]Data Output'!$D:$D,$F314,'[1]Data Output'!$G:$G,$C314,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D314,'[1]Data Output'!$C:$C,$E314,'[1]Data Output'!$G:$G,$C314,'[1]Data Output'!$D:$D,$F314,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J314" s="13" t="str">
-        <f>IF(AND($C314&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D314,'[1]Data Output'!$C:$C,$E314,'[1]Data Output'!$D:$D,$F314,'[1]Data Output'!$G:$G,$C314,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D314,'[1]Data Output'!$C:$C,$E314,'[1]Data Output'!$G:$G,$C314,'[1]Data Output'!$D:$D,$F314,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K314" s="13" t="str">
-        <f>IF(AND($C314&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D314,'[1]Data Output'!$C:$C,$E314,'[1]Data Output'!$D:$D,$F314,'[1]Data Output'!$G:$G,$C314,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D314,'[1]Data Output'!$C:$C,$E314,'[1]Data Output'!$G:$G,$C314,'[1]Data Output'!$D:$D,$F314,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="314" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I314" s="13"/>
+      <c r="J314" s="13"/>
+      <c r="K314" s="13"/>
       <c r="M314" s="14"/>
     </row>
-    <row r="315" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I315" s="13" t="str">
-        <f>IF(AND($C315&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D315,'[1]Data Output'!$C:$C,$E315,'[1]Data Output'!$D:$D,$F315,'[1]Data Output'!$G:$G,$C315,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D315,'[1]Data Output'!$C:$C,$E315,'[1]Data Output'!$G:$G,$C315,'[1]Data Output'!$D:$D,$F315,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J315" s="13" t="str">
-        <f>IF(AND($C315&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D315,'[1]Data Output'!$C:$C,$E315,'[1]Data Output'!$D:$D,$F315,'[1]Data Output'!$G:$G,$C315,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D315,'[1]Data Output'!$C:$C,$E315,'[1]Data Output'!$G:$G,$C315,'[1]Data Output'!$D:$D,$F315,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K315" s="13" t="str">
-        <f>IF(AND($C315&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D315,'[1]Data Output'!$C:$C,$E315,'[1]Data Output'!$D:$D,$F315,'[1]Data Output'!$G:$G,$C315,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D315,'[1]Data Output'!$C:$C,$E315,'[1]Data Output'!$G:$G,$C315,'[1]Data Output'!$D:$D,$F315,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="315" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I315" s="13"/>
+      <c r="J315" s="13"/>
+      <c r="K315" s="13"/>
       <c r="M315" s="14"/>
     </row>
-    <row r="316" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I316" s="13" t="str">
-        <f>IF(AND($C316&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D316,'[1]Data Output'!$C:$C,$E316,'[1]Data Output'!$D:$D,$F316,'[1]Data Output'!$G:$G,$C316,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D316,'[1]Data Output'!$C:$C,$E316,'[1]Data Output'!$G:$G,$C316,'[1]Data Output'!$D:$D,$F316,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J316" s="13" t="str">
-        <f>IF(AND($C316&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D316,'[1]Data Output'!$C:$C,$E316,'[1]Data Output'!$D:$D,$F316,'[1]Data Output'!$G:$G,$C316,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D316,'[1]Data Output'!$C:$C,$E316,'[1]Data Output'!$G:$G,$C316,'[1]Data Output'!$D:$D,$F316,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K316" s="13" t="str">
-        <f>IF(AND($C316&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D316,'[1]Data Output'!$C:$C,$E316,'[1]Data Output'!$D:$D,$F316,'[1]Data Output'!$G:$G,$C316,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D316,'[1]Data Output'!$C:$C,$E316,'[1]Data Output'!$G:$G,$C316,'[1]Data Output'!$D:$D,$F316,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="316" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I316" s="13"/>
+      <c r="J316" s="13"/>
+      <c r="K316" s="13"/>
       <c r="M316" s="14"/>
     </row>
-    <row r="317" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I317" s="13" t="str">
-        <f>IF(AND($C317&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D317,'[1]Data Output'!$C:$C,$E317,'[1]Data Output'!$D:$D,$F317,'[1]Data Output'!$G:$G,$C317,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D317,'[1]Data Output'!$C:$C,$E317,'[1]Data Output'!$G:$G,$C317,'[1]Data Output'!$D:$D,$F317,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J317" s="13" t="str">
-        <f>IF(AND($C317&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D317,'[1]Data Output'!$C:$C,$E317,'[1]Data Output'!$D:$D,$F317,'[1]Data Output'!$G:$G,$C317,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D317,'[1]Data Output'!$C:$C,$E317,'[1]Data Output'!$G:$G,$C317,'[1]Data Output'!$D:$D,$F317,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K317" s="13" t="str">
-        <f>IF(AND($C317&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D317,'[1]Data Output'!$C:$C,$E317,'[1]Data Output'!$D:$D,$F317,'[1]Data Output'!$G:$G,$C317,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D317,'[1]Data Output'!$C:$C,$E317,'[1]Data Output'!$G:$G,$C317,'[1]Data Output'!$D:$D,$F317,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="317" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I317" s="13"/>
+      <c r="J317" s="13"/>
+      <c r="K317" s="13"/>
       <c r="M317" s="14"/>
     </row>
-    <row r="318" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I318" s="13" t="str">
-        <f>IF(AND($C318&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D318,'[1]Data Output'!$C:$C,$E318,'[1]Data Output'!$D:$D,$F318,'[1]Data Output'!$G:$G,$C318,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D318,'[1]Data Output'!$C:$C,$E318,'[1]Data Output'!$G:$G,$C318,'[1]Data Output'!$D:$D,$F318,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J318" s="13" t="str">
-        <f>IF(AND($C318&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D318,'[1]Data Output'!$C:$C,$E318,'[1]Data Output'!$D:$D,$F318,'[1]Data Output'!$G:$G,$C318,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D318,'[1]Data Output'!$C:$C,$E318,'[1]Data Output'!$G:$G,$C318,'[1]Data Output'!$D:$D,$F318,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K318" s="13" t="str">
-        <f>IF(AND($C318&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D318,'[1]Data Output'!$C:$C,$E318,'[1]Data Output'!$D:$D,$F318,'[1]Data Output'!$G:$G,$C318,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D318,'[1]Data Output'!$C:$C,$E318,'[1]Data Output'!$G:$G,$C318,'[1]Data Output'!$D:$D,$F318,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="318" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I318" s="13"/>
+      <c r="J318" s="13"/>
+      <c r="K318" s="13"/>
       <c r="M318" s="14"/>
     </row>
-    <row r="319" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I319" s="13" t="str">
-        <f>IF(AND($C319&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D319,'[1]Data Output'!$C:$C,$E319,'[1]Data Output'!$D:$D,$F319,'[1]Data Output'!$G:$G,$C319,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D319,'[1]Data Output'!$C:$C,$E319,'[1]Data Output'!$G:$G,$C319,'[1]Data Output'!$D:$D,$F319,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J319" s="13" t="str">
-        <f>IF(AND($C319&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D319,'[1]Data Output'!$C:$C,$E319,'[1]Data Output'!$D:$D,$F319,'[1]Data Output'!$G:$G,$C319,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D319,'[1]Data Output'!$C:$C,$E319,'[1]Data Output'!$G:$G,$C319,'[1]Data Output'!$D:$D,$F319,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K319" s="13" t="str">
-        <f>IF(AND($C319&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D319,'[1]Data Output'!$C:$C,$E319,'[1]Data Output'!$D:$D,$F319,'[1]Data Output'!$G:$G,$C319,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D319,'[1]Data Output'!$C:$C,$E319,'[1]Data Output'!$G:$G,$C319,'[1]Data Output'!$D:$D,$F319,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="319" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I319" s="13"/>
+      <c r="J319" s="13"/>
+      <c r="K319" s="13"/>
       <c r="M319" s="14"/>
     </row>
-    <row r="320" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I320" s="13" t="str">
-        <f>IF(AND($C320&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D320,'[1]Data Output'!$C:$C,$E320,'[1]Data Output'!$D:$D,$F320,'[1]Data Output'!$G:$G,$C320,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D320,'[1]Data Output'!$C:$C,$E320,'[1]Data Output'!$G:$G,$C320,'[1]Data Output'!$D:$D,$F320,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J320" s="13" t="str">
-        <f>IF(AND($C320&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D320,'[1]Data Output'!$C:$C,$E320,'[1]Data Output'!$D:$D,$F320,'[1]Data Output'!$G:$G,$C320,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D320,'[1]Data Output'!$C:$C,$E320,'[1]Data Output'!$G:$G,$C320,'[1]Data Output'!$D:$D,$F320,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K320" s="13" t="str">
-        <f>IF(AND($C320&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D320,'[1]Data Output'!$C:$C,$E320,'[1]Data Output'!$D:$D,$F320,'[1]Data Output'!$G:$G,$C320,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D320,'[1]Data Output'!$C:$C,$E320,'[1]Data Output'!$G:$G,$C320,'[1]Data Output'!$D:$D,$F320,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="320" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I320" s="13"/>
+      <c r="J320" s="13"/>
+      <c r="K320" s="13"/>
       <c r="M320" s="14"/>
     </row>
-    <row r="321" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I321" s="13" t="str">
-        <f>IF(AND($C321&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D321,'[1]Data Output'!$C:$C,$E321,'[1]Data Output'!$D:$D,$F321,'[1]Data Output'!$G:$G,$C321,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D321,'[1]Data Output'!$C:$C,$E321,'[1]Data Output'!$G:$G,$C321,'[1]Data Output'!$D:$D,$F321,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J321" s="13" t="str">
-        <f>IF(AND($C321&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D321,'[1]Data Output'!$C:$C,$E321,'[1]Data Output'!$D:$D,$F321,'[1]Data Output'!$G:$G,$C321,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D321,'[1]Data Output'!$C:$C,$E321,'[1]Data Output'!$G:$G,$C321,'[1]Data Output'!$D:$D,$F321,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K321" s="13" t="str">
-        <f>IF(AND($C321&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D321,'[1]Data Output'!$C:$C,$E321,'[1]Data Output'!$D:$D,$F321,'[1]Data Output'!$G:$G,$C321,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D321,'[1]Data Output'!$C:$C,$E321,'[1]Data Output'!$G:$G,$C321,'[1]Data Output'!$D:$D,$F321,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="321" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I321" s="13"/>
+      <c r="J321" s="13"/>
+      <c r="K321" s="13"/>
       <c r="M321" s="14"/>
     </row>
-    <row r="322" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I322" s="13" t="str">
-        <f>IF(AND($C322&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D322,'[1]Data Output'!$C:$C,$E322,'[1]Data Output'!$D:$D,$F322,'[1]Data Output'!$G:$G,$C322,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D322,'[1]Data Output'!$C:$C,$E322,'[1]Data Output'!$G:$G,$C322,'[1]Data Output'!$D:$D,$F322,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J322" s="13" t="str">
-        <f>IF(AND($C322&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D322,'[1]Data Output'!$C:$C,$E322,'[1]Data Output'!$D:$D,$F322,'[1]Data Output'!$G:$G,$C322,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D322,'[1]Data Output'!$C:$C,$E322,'[1]Data Output'!$G:$G,$C322,'[1]Data Output'!$D:$D,$F322,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K322" s="13" t="str">
-        <f>IF(AND($C322&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D322,'[1]Data Output'!$C:$C,$E322,'[1]Data Output'!$D:$D,$F322,'[1]Data Output'!$G:$G,$C322,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D322,'[1]Data Output'!$C:$C,$E322,'[1]Data Output'!$G:$G,$C322,'[1]Data Output'!$D:$D,$F322,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="322" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I322" s="13"/>
+      <c r="J322" s="13"/>
+      <c r="K322" s="13"/>
       <c r="M322" s="14"/>
     </row>
-    <row r="323" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I323" s="13" t="str">
-        <f>IF(AND($C323&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D323,'[1]Data Output'!$C:$C,$E323,'[1]Data Output'!$D:$D,$F323,'[1]Data Output'!$G:$G,$C323,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D323,'[1]Data Output'!$C:$C,$E323,'[1]Data Output'!$G:$G,$C323,'[1]Data Output'!$D:$D,$F323,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J323" s="13" t="str">
-        <f>IF(AND($C323&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D323,'[1]Data Output'!$C:$C,$E323,'[1]Data Output'!$D:$D,$F323,'[1]Data Output'!$G:$G,$C323,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D323,'[1]Data Output'!$C:$C,$E323,'[1]Data Output'!$G:$G,$C323,'[1]Data Output'!$D:$D,$F323,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K323" s="13" t="str">
-        <f>IF(AND($C323&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D323,'[1]Data Output'!$C:$C,$E323,'[1]Data Output'!$D:$D,$F323,'[1]Data Output'!$G:$G,$C323,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D323,'[1]Data Output'!$C:$C,$E323,'[1]Data Output'!$G:$G,$C323,'[1]Data Output'!$D:$D,$F323,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="323" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I323" s="13"/>
+      <c r="J323" s="13"/>
+      <c r="K323" s="13"/>
       <c r="M323" s="14"/>
     </row>
-    <row r="324" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I324" s="13" t="str">
-        <f>IF(AND($C324&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D324,'[1]Data Output'!$C:$C,$E324,'[1]Data Output'!$D:$D,$F324,'[1]Data Output'!$G:$G,$C324,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D324,'[1]Data Output'!$C:$C,$E324,'[1]Data Output'!$G:$G,$C324,'[1]Data Output'!$D:$D,$F324,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J324" s="13" t="str">
-        <f>IF(AND($C324&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D324,'[1]Data Output'!$C:$C,$E324,'[1]Data Output'!$D:$D,$F324,'[1]Data Output'!$G:$G,$C324,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D324,'[1]Data Output'!$C:$C,$E324,'[1]Data Output'!$G:$G,$C324,'[1]Data Output'!$D:$D,$F324,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K324" s="13" t="str">
-        <f>IF(AND($C324&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D324,'[1]Data Output'!$C:$C,$E324,'[1]Data Output'!$D:$D,$F324,'[1]Data Output'!$G:$G,$C324,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D324,'[1]Data Output'!$C:$C,$E324,'[1]Data Output'!$G:$G,$C324,'[1]Data Output'!$D:$D,$F324,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="324" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I324" s="13"/>
+      <c r="J324" s="13"/>
+      <c r="K324" s="13"/>
       <c r="M324" s="14"/>
     </row>
-    <row r="325" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I325" s="13" t="str">
-        <f>IF(AND($C325&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D325,'[1]Data Output'!$C:$C,$E325,'[1]Data Output'!$D:$D,$F325,'[1]Data Output'!$G:$G,$C325,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D325,'[1]Data Output'!$C:$C,$E325,'[1]Data Output'!$G:$G,$C325,'[1]Data Output'!$D:$D,$F325,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J325" s="13" t="str">
-        <f>IF(AND($C325&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D325,'[1]Data Output'!$C:$C,$E325,'[1]Data Output'!$D:$D,$F325,'[1]Data Output'!$G:$G,$C325,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D325,'[1]Data Output'!$C:$C,$E325,'[1]Data Output'!$G:$G,$C325,'[1]Data Output'!$D:$D,$F325,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K325" s="13" t="str">
-        <f>IF(AND($C325&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D325,'[1]Data Output'!$C:$C,$E325,'[1]Data Output'!$D:$D,$F325,'[1]Data Output'!$G:$G,$C325,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D325,'[1]Data Output'!$C:$C,$E325,'[1]Data Output'!$G:$G,$C325,'[1]Data Output'!$D:$D,$F325,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="325" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I325" s="13"/>
+      <c r="J325" s="13"/>
+      <c r="K325" s="13"/>
       <c r="M325" s="14"/>
     </row>
-    <row r="326" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I326" s="13" t="str">
-        <f>IF(AND($C326&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D326,'[1]Data Output'!$C:$C,$E326,'[1]Data Output'!$D:$D,$F326,'[1]Data Output'!$G:$G,$C326,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D326,'[1]Data Output'!$C:$C,$E326,'[1]Data Output'!$G:$G,$C326,'[1]Data Output'!$D:$D,$F326,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J326" s="13" t="str">
-        <f>IF(AND($C326&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D326,'[1]Data Output'!$C:$C,$E326,'[1]Data Output'!$D:$D,$F326,'[1]Data Output'!$G:$G,$C326,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D326,'[1]Data Output'!$C:$C,$E326,'[1]Data Output'!$G:$G,$C326,'[1]Data Output'!$D:$D,$F326,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K326" s="13" t="str">
-        <f>IF(AND($C326&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D326,'[1]Data Output'!$C:$C,$E326,'[1]Data Output'!$D:$D,$F326,'[1]Data Output'!$G:$G,$C326,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D326,'[1]Data Output'!$C:$C,$E326,'[1]Data Output'!$G:$G,$C326,'[1]Data Output'!$D:$D,$F326,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="326" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I326" s="13"/>
+      <c r="J326" s="13"/>
+      <c r="K326" s="13"/>
       <c r="M326" s="14"/>
     </row>
-    <row r="327" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I327" s="13" t="str">
-        <f>IF(AND($C327&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D327,'[1]Data Output'!$C:$C,$E327,'[1]Data Output'!$D:$D,$F327,'[1]Data Output'!$G:$G,$C327,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D327,'[1]Data Output'!$C:$C,$E327,'[1]Data Output'!$G:$G,$C327,'[1]Data Output'!$D:$D,$F327,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J327" s="13" t="str">
-        <f>IF(AND($C327&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D327,'[1]Data Output'!$C:$C,$E327,'[1]Data Output'!$D:$D,$F327,'[1]Data Output'!$G:$G,$C327,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D327,'[1]Data Output'!$C:$C,$E327,'[1]Data Output'!$G:$G,$C327,'[1]Data Output'!$D:$D,$F327,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K327" s="13" t="str">
-        <f>IF(AND($C327&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D327,'[1]Data Output'!$C:$C,$E327,'[1]Data Output'!$D:$D,$F327,'[1]Data Output'!$G:$G,$C327,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D327,'[1]Data Output'!$C:$C,$E327,'[1]Data Output'!$G:$G,$C327,'[1]Data Output'!$D:$D,$F327,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="327" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I327" s="13"/>
+      <c r="J327" s="13"/>
+      <c r="K327" s="13"/>
       <c r="M327" s="14"/>
     </row>
-    <row r="328" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I328" s="13" t="str">
-        <f>IF(AND($C328&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D328,'[1]Data Output'!$C:$C,$E328,'[1]Data Output'!$D:$D,$F328,'[1]Data Output'!$G:$G,$C328,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D328,'[1]Data Output'!$C:$C,$E328,'[1]Data Output'!$G:$G,$C328,'[1]Data Output'!$D:$D,$F328,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J328" s="13" t="str">
-        <f>IF(AND($C328&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D328,'[1]Data Output'!$C:$C,$E328,'[1]Data Output'!$D:$D,$F328,'[1]Data Output'!$G:$G,$C328,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D328,'[1]Data Output'!$C:$C,$E328,'[1]Data Output'!$G:$G,$C328,'[1]Data Output'!$D:$D,$F328,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K328" s="13" t="str">
-        <f>IF(AND($C328&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D328,'[1]Data Output'!$C:$C,$E328,'[1]Data Output'!$D:$D,$F328,'[1]Data Output'!$G:$G,$C328,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D328,'[1]Data Output'!$C:$C,$E328,'[1]Data Output'!$G:$G,$C328,'[1]Data Output'!$D:$D,$F328,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="328" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I328" s="13"/>
+      <c r="J328" s="13"/>
+      <c r="K328" s="13"/>
       <c r="M328" s="14"/>
     </row>
-    <row r="329" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I329" s="13" t="str">
-        <f>IF(AND($C329&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D329,'[1]Data Output'!$C:$C,$E329,'[1]Data Output'!$D:$D,$F329,'[1]Data Output'!$G:$G,$C329,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D329,'[1]Data Output'!$C:$C,$E329,'[1]Data Output'!$G:$G,$C329,'[1]Data Output'!$D:$D,$F329,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J329" s="13" t="str">
-        <f>IF(AND($C329&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D329,'[1]Data Output'!$C:$C,$E329,'[1]Data Output'!$D:$D,$F329,'[1]Data Output'!$G:$G,$C329,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D329,'[1]Data Output'!$C:$C,$E329,'[1]Data Output'!$G:$G,$C329,'[1]Data Output'!$D:$D,$F329,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K329" s="13" t="str">
-        <f>IF(AND($C329&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D329,'[1]Data Output'!$C:$C,$E329,'[1]Data Output'!$D:$D,$F329,'[1]Data Output'!$G:$G,$C329,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D329,'[1]Data Output'!$C:$C,$E329,'[1]Data Output'!$G:$G,$C329,'[1]Data Output'!$D:$D,$F329,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="329" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I329" s="13"/>
+      <c r="J329" s="13"/>
+      <c r="K329" s="13"/>
       <c r="M329" s="14"/>
     </row>
-    <row r="330" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I330" s="13" t="str">
-        <f>IF(AND($C330&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D330,'[1]Data Output'!$C:$C,$E330,'[1]Data Output'!$D:$D,$F330,'[1]Data Output'!$G:$G,$C330,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D330,'[1]Data Output'!$C:$C,$E330,'[1]Data Output'!$G:$G,$C330,'[1]Data Output'!$D:$D,$F330,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J330" s="13" t="str">
-        <f>IF(AND($C330&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D330,'[1]Data Output'!$C:$C,$E330,'[1]Data Output'!$D:$D,$F330,'[1]Data Output'!$G:$G,$C330,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D330,'[1]Data Output'!$C:$C,$E330,'[1]Data Output'!$G:$G,$C330,'[1]Data Output'!$D:$D,$F330,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K330" s="13" t="str">
-        <f>IF(AND($C330&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D330,'[1]Data Output'!$C:$C,$E330,'[1]Data Output'!$D:$D,$F330,'[1]Data Output'!$G:$G,$C330,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D330,'[1]Data Output'!$C:$C,$E330,'[1]Data Output'!$G:$G,$C330,'[1]Data Output'!$D:$D,$F330,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="330" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I330" s="13"/>
+      <c r="J330" s="13"/>
+      <c r="K330" s="13"/>
       <c r="M330" s="14"/>
     </row>
-    <row r="331" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I331" s="13" t="str">
-        <f>IF(AND($C331&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D331,'[1]Data Output'!$C:$C,$E331,'[1]Data Output'!$D:$D,$F331,'[1]Data Output'!$G:$G,$C331,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D331,'[1]Data Output'!$C:$C,$E331,'[1]Data Output'!$G:$G,$C331,'[1]Data Output'!$D:$D,$F331,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J331" s="13" t="str">
-        <f>IF(AND($C331&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D331,'[1]Data Output'!$C:$C,$E331,'[1]Data Output'!$D:$D,$F331,'[1]Data Output'!$G:$G,$C331,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D331,'[1]Data Output'!$C:$C,$E331,'[1]Data Output'!$G:$G,$C331,'[1]Data Output'!$D:$D,$F331,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K331" s="13" t="str">
-        <f>IF(AND($C331&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D331,'[1]Data Output'!$C:$C,$E331,'[1]Data Output'!$D:$D,$F331,'[1]Data Output'!$G:$G,$C331,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D331,'[1]Data Output'!$C:$C,$E331,'[1]Data Output'!$G:$G,$C331,'[1]Data Output'!$D:$D,$F331,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="331" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I331" s="13"/>
+      <c r="J331" s="13"/>
+      <c r="K331" s="13"/>
       <c r="M331" s="14"/>
     </row>
-    <row r="332" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I332" s="13" t="str">
-        <f>IF(AND($C332&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D332,'[1]Data Output'!$C:$C,$E332,'[1]Data Output'!$D:$D,$F332,'[1]Data Output'!$G:$G,$C332,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D332,'[1]Data Output'!$C:$C,$E332,'[1]Data Output'!$G:$G,$C332,'[1]Data Output'!$D:$D,$F332,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J332" s="13" t="str">
-        <f>IF(AND($C332&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D332,'[1]Data Output'!$C:$C,$E332,'[1]Data Output'!$D:$D,$F332,'[1]Data Output'!$G:$G,$C332,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D332,'[1]Data Output'!$C:$C,$E332,'[1]Data Output'!$G:$G,$C332,'[1]Data Output'!$D:$D,$F332,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K332" s="13" t="str">
-        <f>IF(AND($C332&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D332,'[1]Data Output'!$C:$C,$E332,'[1]Data Output'!$D:$D,$F332,'[1]Data Output'!$G:$G,$C332,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D332,'[1]Data Output'!$C:$C,$E332,'[1]Data Output'!$G:$G,$C332,'[1]Data Output'!$D:$D,$F332,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="332" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I332" s="13"/>
+      <c r="J332" s="13"/>
+      <c r="K332" s="13"/>
       <c r="M332" s="14"/>
     </row>
-    <row r="333" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I333" s="13" t="str">
-        <f>IF(AND($C333&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D333,'[1]Data Output'!$C:$C,$E333,'[1]Data Output'!$D:$D,$F333,'[1]Data Output'!$G:$G,$C333,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D333,'[1]Data Output'!$C:$C,$E333,'[1]Data Output'!$G:$G,$C333,'[1]Data Output'!$D:$D,$F333,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J333" s="13" t="str">
-        <f>IF(AND($C333&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D333,'[1]Data Output'!$C:$C,$E333,'[1]Data Output'!$D:$D,$F333,'[1]Data Output'!$G:$G,$C333,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D333,'[1]Data Output'!$C:$C,$E333,'[1]Data Output'!$G:$G,$C333,'[1]Data Output'!$D:$D,$F333,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K333" s="13" t="str">
-        <f>IF(AND($C333&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D333,'[1]Data Output'!$C:$C,$E333,'[1]Data Output'!$D:$D,$F333,'[1]Data Output'!$G:$G,$C333,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D333,'[1]Data Output'!$C:$C,$E333,'[1]Data Output'!$G:$G,$C333,'[1]Data Output'!$D:$D,$F333,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="333" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I333" s="13"/>
+      <c r="J333" s="13"/>
+      <c r="K333" s="13"/>
       <c r="M333" s="14"/>
     </row>
-    <row r="334" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I334" s="13" t="str">
-        <f>IF(AND($C334&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D334,'[1]Data Output'!$C:$C,$E334,'[1]Data Output'!$D:$D,$F334,'[1]Data Output'!$G:$G,$C334,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D334,'[1]Data Output'!$C:$C,$E334,'[1]Data Output'!$G:$G,$C334,'[1]Data Output'!$D:$D,$F334,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J334" s="13" t="str">
-        <f>IF(AND($C334&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D334,'[1]Data Output'!$C:$C,$E334,'[1]Data Output'!$D:$D,$F334,'[1]Data Output'!$G:$G,$C334,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D334,'[1]Data Output'!$C:$C,$E334,'[1]Data Output'!$G:$G,$C334,'[1]Data Output'!$D:$D,$F334,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K334" s="13" t="str">
-        <f>IF(AND($C334&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D334,'[1]Data Output'!$C:$C,$E334,'[1]Data Output'!$D:$D,$F334,'[1]Data Output'!$G:$G,$C334,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D334,'[1]Data Output'!$C:$C,$E334,'[1]Data Output'!$G:$G,$C334,'[1]Data Output'!$D:$D,$F334,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="334" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I334" s="13"/>
+      <c r="J334" s="13"/>
+      <c r="K334" s="13"/>
       <c r="M334" s="14"/>
     </row>
-    <row r="335" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I335" s="13" t="str">
-        <f>IF(AND($C335&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D335,'[1]Data Output'!$C:$C,$E335,'[1]Data Output'!$D:$D,$F335,'[1]Data Output'!$G:$G,$C335,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D335,'[1]Data Output'!$C:$C,$E335,'[1]Data Output'!$G:$G,$C335,'[1]Data Output'!$D:$D,$F335,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J335" s="13" t="str">
-        <f>IF(AND($C335&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D335,'[1]Data Output'!$C:$C,$E335,'[1]Data Output'!$D:$D,$F335,'[1]Data Output'!$G:$G,$C335,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D335,'[1]Data Output'!$C:$C,$E335,'[1]Data Output'!$G:$G,$C335,'[1]Data Output'!$D:$D,$F335,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K335" s="13" t="str">
-        <f>IF(AND($C335&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D335,'[1]Data Output'!$C:$C,$E335,'[1]Data Output'!$D:$D,$F335,'[1]Data Output'!$G:$G,$C335,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D335,'[1]Data Output'!$C:$C,$E335,'[1]Data Output'!$G:$G,$C335,'[1]Data Output'!$D:$D,$F335,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="335" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I335" s="13"/>
+      <c r="J335" s="13"/>
+      <c r="K335" s="13"/>
       <c r="M335" s="14"/>
     </row>
-    <row r="336" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I336" s="13" t="str">
-        <f>IF(AND($C336&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D336,'[1]Data Output'!$C:$C,$E336,'[1]Data Output'!$D:$D,$F336,'[1]Data Output'!$G:$G,$C336,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D336,'[1]Data Output'!$C:$C,$E336,'[1]Data Output'!$G:$G,$C336,'[1]Data Output'!$D:$D,$F336,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J336" s="13" t="str">
-        <f>IF(AND($C336&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D336,'[1]Data Output'!$C:$C,$E336,'[1]Data Output'!$D:$D,$F336,'[1]Data Output'!$G:$G,$C336,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D336,'[1]Data Output'!$C:$C,$E336,'[1]Data Output'!$G:$G,$C336,'[1]Data Output'!$D:$D,$F336,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K336" s="13" t="str">
-        <f>IF(AND($C336&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D336,'[1]Data Output'!$C:$C,$E336,'[1]Data Output'!$D:$D,$F336,'[1]Data Output'!$G:$G,$C336,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D336,'[1]Data Output'!$C:$C,$E336,'[1]Data Output'!$G:$G,$C336,'[1]Data Output'!$D:$D,$F336,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="336" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I336" s="13"/>
+      <c r="J336" s="13"/>
+      <c r="K336" s="13"/>
       <c r="M336" s="14"/>
     </row>
-    <row r="337" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I337" s="13" t="str">
-        <f>IF(AND($C337&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D337,'[1]Data Output'!$C:$C,$E337,'[1]Data Output'!$D:$D,$F337,'[1]Data Output'!$G:$G,$C337,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D337,'[1]Data Output'!$C:$C,$E337,'[1]Data Output'!$G:$G,$C337,'[1]Data Output'!$D:$D,$F337,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J337" s="13" t="str">
-        <f>IF(AND($C337&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D337,'[1]Data Output'!$C:$C,$E337,'[1]Data Output'!$D:$D,$F337,'[1]Data Output'!$G:$G,$C337,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D337,'[1]Data Output'!$C:$C,$E337,'[1]Data Output'!$G:$G,$C337,'[1]Data Output'!$D:$D,$F337,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K337" s="13" t="str">
-        <f>IF(AND($C337&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D337,'[1]Data Output'!$C:$C,$E337,'[1]Data Output'!$D:$D,$F337,'[1]Data Output'!$G:$G,$C337,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D337,'[1]Data Output'!$C:$C,$E337,'[1]Data Output'!$G:$G,$C337,'[1]Data Output'!$D:$D,$F337,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="337" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I337" s="13"/>
+      <c r="J337" s="13"/>
+      <c r="K337" s="13"/>
       <c r="M337" s="14"/>
     </row>
-    <row r="338" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I338" s="13" t="str">
-        <f>IF(AND($C338&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D338,'[1]Data Output'!$C:$C,$E338,'[1]Data Output'!$D:$D,$F338,'[1]Data Output'!$G:$G,$C338,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D338,'[1]Data Output'!$C:$C,$E338,'[1]Data Output'!$G:$G,$C338,'[1]Data Output'!$D:$D,$F338,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J338" s="13" t="str">
-        <f>IF(AND($C338&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D338,'[1]Data Output'!$C:$C,$E338,'[1]Data Output'!$D:$D,$F338,'[1]Data Output'!$G:$G,$C338,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D338,'[1]Data Output'!$C:$C,$E338,'[1]Data Output'!$G:$G,$C338,'[1]Data Output'!$D:$D,$F338,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K338" s="13" t="str">
-        <f>IF(AND($C338&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D338,'[1]Data Output'!$C:$C,$E338,'[1]Data Output'!$D:$D,$F338,'[1]Data Output'!$G:$G,$C338,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D338,'[1]Data Output'!$C:$C,$E338,'[1]Data Output'!$G:$G,$C338,'[1]Data Output'!$D:$D,$F338,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="338" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I338" s="13"/>
+      <c r="J338" s="13"/>
+      <c r="K338" s="13"/>
       <c r="M338" s="14"/>
     </row>
-    <row r="339" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I339" s="13" t="str">
-        <f>IF(AND($C339&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D339,'[1]Data Output'!$C:$C,$E339,'[1]Data Output'!$D:$D,$F339,'[1]Data Output'!$G:$G,$C339,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D339,'[1]Data Output'!$C:$C,$E339,'[1]Data Output'!$G:$G,$C339,'[1]Data Output'!$D:$D,$F339,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J339" s="13" t="str">
-        <f>IF(AND($C339&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D339,'[1]Data Output'!$C:$C,$E339,'[1]Data Output'!$D:$D,$F339,'[1]Data Output'!$G:$G,$C339,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D339,'[1]Data Output'!$C:$C,$E339,'[1]Data Output'!$G:$G,$C339,'[1]Data Output'!$D:$D,$F339,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K339" s="13" t="str">
-        <f>IF(AND($C339&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D339,'[1]Data Output'!$C:$C,$E339,'[1]Data Output'!$D:$D,$F339,'[1]Data Output'!$G:$G,$C339,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D339,'[1]Data Output'!$C:$C,$E339,'[1]Data Output'!$G:$G,$C339,'[1]Data Output'!$D:$D,$F339,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="339" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I339" s="13"/>
+      <c r="J339" s="13"/>
+      <c r="K339" s="13"/>
       <c r="M339" s="14"/>
     </row>
-    <row r="340" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I340" s="13" t="str">
-        <f>IF(AND($C340&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D340,'[1]Data Output'!$C:$C,$E340,'[1]Data Output'!$D:$D,$F340,'[1]Data Output'!$G:$G,$C340,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D340,'[1]Data Output'!$C:$C,$E340,'[1]Data Output'!$G:$G,$C340,'[1]Data Output'!$D:$D,$F340,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J340" s="13" t="str">
-        <f>IF(AND($C340&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D340,'[1]Data Output'!$C:$C,$E340,'[1]Data Output'!$D:$D,$F340,'[1]Data Output'!$G:$G,$C340,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D340,'[1]Data Output'!$C:$C,$E340,'[1]Data Output'!$G:$G,$C340,'[1]Data Output'!$D:$D,$F340,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K340" s="13" t="str">
-        <f>IF(AND($C340&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D340,'[1]Data Output'!$C:$C,$E340,'[1]Data Output'!$D:$D,$F340,'[1]Data Output'!$G:$G,$C340,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D340,'[1]Data Output'!$C:$C,$E340,'[1]Data Output'!$G:$G,$C340,'[1]Data Output'!$D:$D,$F340,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="340" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I340" s="13"/>
+      <c r="J340" s="13"/>
+      <c r="K340" s="13"/>
       <c r="M340" s="14"/>
     </row>
-    <row r="341" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I341" s="13" t="str">
-        <f>IF(AND($C341&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D341,'[1]Data Output'!$C:$C,$E341,'[1]Data Output'!$D:$D,$F341,'[1]Data Output'!$G:$G,$C341,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D341,'[1]Data Output'!$C:$C,$E341,'[1]Data Output'!$G:$G,$C341,'[1]Data Output'!$D:$D,$F341,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J341" s="13" t="str">
-        <f>IF(AND($C341&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D341,'[1]Data Output'!$C:$C,$E341,'[1]Data Output'!$D:$D,$F341,'[1]Data Output'!$G:$G,$C341,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D341,'[1]Data Output'!$C:$C,$E341,'[1]Data Output'!$G:$G,$C341,'[1]Data Output'!$D:$D,$F341,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K341" s="13" t="str">
-        <f>IF(AND($C341&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D341,'[1]Data Output'!$C:$C,$E341,'[1]Data Output'!$D:$D,$F341,'[1]Data Output'!$G:$G,$C341,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D341,'[1]Data Output'!$C:$C,$E341,'[1]Data Output'!$G:$G,$C341,'[1]Data Output'!$D:$D,$F341,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="341" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I341" s="13"/>
+      <c r="J341" s="13"/>
+      <c r="K341" s="13"/>
       <c r="M341" s="14"/>
     </row>
-    <row r="342" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I342" s="13" t="str">
-        <f>IF(AND($C342&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D342,'[1]Data Output'!$C:$C,$E342,'[1]Data Output'!$D:$D,$F342,'[1]Data Output'!$G:$G,$C342,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D342,'[1]Data Output'!$C:$C,$E342,'[1]Data Output'!$G:$G,$C342,'[1]Data Output'!$D:$D,$F342,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J342" s="13" t="str">
-        <f>IF(AND($C342&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D342,'[1]Data Output'!$C:$C,$E342,'[1]Data Output'!$D:$D,$F342,'[1]Data Output'!$G:$G,$C342,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D342,'[1]Data Output'!$C:$C,$E342,'[1]Data Output'!$G:$G,$C342,'[1]Data Output'!$D:$D,$F342,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K342" s="13" t="str">
-        <f>IF(AND($C342&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D342,'[1]Data Output'!$C:$C,$E342,'[1]Data Output'!$D:$D,$F342,'[1]Data Output'!$G:$G,$C342,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D342,'[1]Data Output'!$C:$C,$E342,'[1]Data Output'!$G:$G,$C342,'[1]Data Output'!$D:$D,$F342,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="342" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I342" s="13"/>
+      <c r="J342" s="13"/>
+      <c r="K342" s="13"/>
       <c r="M342" s="14"/>
     </row>
-    <row r="343" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I343" s="13" t="str">
-        <f>IF(AND($C343&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D343,'[1]Data Output'!$C:$C,$E343,'[1]Data Output'!$D:$D,$F343,'[1]Data Output'!$G:$G,$C343,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D343,'[1]Data Output'!$C:$C,$E343,'[1]Data Output'!$G:$G,$C343,'[1]Data Output'!$D:$D,$F343,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J343" s="13" t="str">
-        <f>IF(AND($C343&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D343,'[1]Data Output'!$C:$C,$E343,'[1]Data Output'!$D:$D,$F343,'[1]Data Output'!$G:$G,$C343,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D343,'[1]Data Output'!$C:$C,$E343,'[1]Data Output'!$G:$G,$C343,'[1]Data Output'!$D:$D,$F343,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K343" s="13" t="str">
-        <f>IF(AND($C343&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D343,'[1]Data Output'!$C:$C,$E343,'[1]Data Output'!$D:$D,$F343,'[1]Data Output'!$G:$G,$C343,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D343,'[1]Data Output'!$C:$C,$E343,'[1]Data Output'!$G:$G,$C343,'[1]Data Output'!$D:$D,$F343,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="343" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I343" s="13"/>
+      <c r="J343" s="13"/>
+      <c r="K343" s="13"/>
       <c r="M343" s="14"/>
     </row>
-    <row r="344" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I344" s="13" t="str">
-        <f>IF(AND($C344&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D344,'[1]Data Output'!$C:$C,$E344,'[1]Data Output'!$D:$D,$F344,'[1]Data Output'!$G:$G,$C344,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D344,'[1]Data Output'!$C:$C,$E344,'[1]Data Output'!$G:$G,$C344,'[1]Data Output'!$D:$D,$F344,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J344" s="13" t="str">
-        <f>IF(AND($C344&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D344,'[1]Data Output'!$C:$C,$E344,'[1]Data Output'!$D:$D,$F344,'[1]Data Output'!$G:$G,$C344,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D344,'[1]Data Output'!$C:$C,$E344,'[1]Data Output'!$G:$G,$C344,'[1]Data Output'!$D:$D,$F344,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K344" s="13" t="str">
-        <f>IF(AND($C344&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D344,'[1]Data Output'!$C:$C,$E344,'[1]Data Output'!$D:$D,$F344,'[1]Data Output'!$G:$G,$C344,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D344,'[1]Data Output'!$C:$C,$E344,'[1]Data Output'!$G:$G,$C344,'[1]Data Output'!$D:$D,$F344,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="344" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I344" s="13"/>
+      <c r="J344" s="13"/>
+      <c r="K344" s="13"/>
       <c r="M344" s="14"/>
     </row>
-    <row r="345" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I345" s="13" t="str">
-        <f>IF(AND($C345&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D345,'[1]Data Output'!$C:$C,$E345,'[1]Data Output'!$D:$D,$F345,'[1]Data Output'!$G:$G,$C345,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D345,'[1]Data Output'!$C:$C,$E345,'[1]Data Output'!$G:$G,$C345,'[1]Data Output'!$D:$D,$F345,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J345" s="13" t="str">
-        <f>IF(AND($C345&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D345,'[1]Data Output'!$C:$C,$E345,'[1]Data Output'!$D:$D,$F345,'[1]Data Output'!$G:$G,$C345,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D345,'[1]Data Output'!$C:$C,$E345,'[1]Data Output'!$G:$G,$C345,'[1]Data Output'!$D:$D,$F345,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K345" s="13" t="str">
-        <f>IF(AND($C345&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D345,'[1]Data Output'!$C:$C,$E345,'[1]Data Output'!$D:$D,$F345,'[1]Data Output'!$G:$G,$C345,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D345,'[1]Data Output'!$C:$C,$E345,'[1]Data Output'!$G:$G,$C345,'[1]Data Output'!$D:$D,$F345,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="345" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I345" s="13"/>
+      <c r="J345" s="13"/>
+      <c r="K345" s="13"/>
       <c r="M345" s="14"/>
     </row>
-    <row r="346" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I346" s="13" t="str">
-        <f>IF(AND($C346&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D346,'[1]Data Output'!$C:$C,$E346,'[1]Data Output'!$D:$D,$F346,'[1]Data Output'!$G:$G,$C346,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D346,'[1]Data Output'!$C:$C,$E346,'[1]Data Output'!$G:$G,$C346,'[1]Data Output'!$D:$D,$F346,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J346" s="13" t="str">
-        <f>IF(AND($C346&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D346,'[1]Data Output'!$C:$C,$E346,'[1]Data Output'!$D:$D,$F346,'[1]Data Output'!$G:$G,$C346,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D346,'[1]Data Output'!$C:$C,$E346,'[1]Data Output'!$G:$G,$C346,'[1]Data Output'!$D:$D,$F346,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K346" s="13" t="str">
-        <f>IF(AND($C346&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D346,'[1]Data Output'!$C:$C,$E346,'[1]Data Output'!$D:$D,$F346,'[1]Data Output'!$G:$G,$C346,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D346,'[1]Data Output'!$C:$C,$E346,'[1]Data Output'!$G:$G,$C346,'[1]Data Output'!$D:$D,$F346,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="346" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I346" s="13"/>
+      <c r="J346" s="13"/>
+      <c r="K346" s="13"/>
       <c r="M346" s="14"/>
     </row>
-    <row r="347" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I347" s="13" t="str">
-        <f>IF(AND($C347&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D347,'[1]Data Output'!$C:$C,$E347,'[1]Data Output'!$D:$D,$F347,'[1]Data Output'!$G:$G,$C347,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D347,'[1]Data Output'!$C:$C,$E347,'[1]Data Output'!$G:$G,$C347,'[1]Data Output'!$D:$D,$F347,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J347" s="13" t="str">
-        <f>IF(AND($C347&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D347,'[1]Data Output'!$C:$C,$E347,'[1]Data Output'!$D:$D,$F347,'[1]Data Output'!$G:$G,$C347,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D347,'[1]Data Output'!$C:$C,$E347,'[1]Data Output'!$G:$G,$C347,'[1]Data Output'!$D:$D,$F347,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K347" s="13" t="str">
-        <f>IF(AND($C347&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D347,'[1]Data Output'!$C:$C,$E347,'[1]Data Output'!$D:$D,$F347,'[1]Data Output'!$G:$G,$C347,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D347,'[1]Data Output'!$C:$C,$E347,'[1]Data Output'!$G:$G,$C347,'[1]Data Output'!$D:$D,$F347,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="347" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I347" s="13"/>
+      <c r="J347" s="13"/>
+      <c r="K347" s="13"/>
       <c r="M347" s="14"/>
     </row>
-    <row r="348" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I348" s="13" t="str">
-        <f>IF(AND($C348&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D348,'[1]Data Output'!$C:$C,$E348,'[1]Data Output'!$D:$D,$F348,'[1]Data Output'!$G:$G,$C348,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D348,'[1]Data Output'!$C:$C,$E348,'[1]Data Output'!$G:$G,$C348,'[1]Data Output'!$D:$D,$F348,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J348" s="13" t="str">
-        <f>IF(AND($C348&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D348,'[1]Data Output'!$C:$C,$E348,'[1]Data Output'!$D:$D,$F348,'[1]Data Output'!$G:$G,$C348,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D348,'[1]Data Output'!$C:$C,$E348,'[1]Data Output'!$G:$G,$C348,'[1]Data Output'!$D:$D,$F348,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K348" s="13" t="str">
-        <f>IF(AND($C348&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D348,'[1]Data Output'!$C:$C,$E348,'[1]Data Output'!$D:$D,$F348,'[1]Data Output'!$G:$G,$C348,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D348,'[1]Data Output'!$C:$C,$E348,'[1]Data Output'!$G:$G,$C348,'[1]Data Output'!$D:$D,$F348,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="348" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I348" s="13"/>
+      <c r="J348" s="13"/>
+      <c r="K348" s="13"/>
       <c r="M348" s="14"/>
     </row>
-    <row r="349" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I349" s="13" t="str">
-        <f>IF(AND($C349&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D349,'[1]Data Output'!$C:$C,$E349,'[1]Data Output'!$D:$D,$F349,'[1]Data Output'!$G:$G,$C349,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D349,'[1]Data Output'!$C:$C,$E349,'[1]Data Output'!$G:$G,$C349,'[1]Data Output'!$D:$D,$F349,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J349" s="13" t="str">
-        <f>IF(AND($C349&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D349,'[1]Data Output'!$C:$C,$E349,'[1]Data Output'!$D:$D,$F349,'[1]Data Output'!$G:$G,$C349,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D349,'[1]Data Output'!$C:$C,$E349,'[1]Data Output'!$G:$G,$C349,'[1]Data Output'!$D:$D,$F349,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K349" s="13" t="str">
-        <f>IF(AND($C349&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D349,'[1]Data Output'!$C:$C,$E349,'[1]Data Output'!$D:$D,$F349,'[1]Data Output'!$G:$G,$C349,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D349,'[1]Data Output'!$C:$C,$E349,'[1]Data Output'!$G:$G,$C349,'[1]Data Output'!$D:$D,$F349,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="349" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I349" s="13"/>
+      <c r="J349" s="13"/>
+      <c r="K349" s="13"/>
       <c r="M349" s="14"/>
     </row>
-    <row r="350" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I350" s="13" t="str">
-        <f>IF(AND($C350&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D350,'[1]Data Output'!$C:$C,$E350,'[1]Data Output'!$D:$D,$F350,'[1]Data Output'!$G:$G,$C350,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D350,'[1]Data Output'!$C:$C,$E350,'[1]Data Output'!$G:$G,$C350,'[1]Data Output'!$D:$D,$F350,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J350" s="13" t="str">
-        <f>IF(AND($C350&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D350,'[1]Data Output'!$C:$C,$E350,'[1]Data Output'!$D:$D,$F350,'[1]Data Output'!$G:$G,$C350,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D350,'[1]Data Output'!$C:$C,$E350,'[1]Data Output'!$G:$G,$C350,'[1]Data Output'!$D:$D,$F350,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K350" s="13" t="str">
-        <f>IF(AND($C350&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D350,'[1]Data Output'!$C:$C,$E350,'[1]Data Output'!$D:$D,$F350,'[1]Data Output'!$G:$G,$C350,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D350,'[1]Data Output'!$C:$C,$E350,'[1]Data Output'!$G:$G,$C350,'[1]Data Output'!$D:$D,$F350,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="350" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I350" s="13"/>
+      <c r="J350" s="13"/>
+      <c r="K350" s="13"/>
       <c r="M350" s="14"/>
     </row>
-    <row r="351" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I351" s="13" t="str">
-        <f>IF(AND($C351&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D351,'[1]Data Output'!$C:$C,$E351,'[1]Data Output'!$D:$D,$F351,'[1]Data Output'!$G:$G,$C351,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D351,'[1]Data Output'!$C:$C,$E351,'[1]Data Output'!$G:$G,$C351,'[1]Data Output'!$D:$D,$F351,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J351" s="13" t="str">
-        <f>IF(AND($C351&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D351,'[1]Data Output'!$C:$C,$E351,'[1]Data Output'!$D:$D,$F351,'[1]Data Output'!$G:$G,$C351,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D351,'[1]Data Output'!$C:$C,$E351,'[1]Data Output'!$G:$G,$C351,'[1]Data Output'!$D:$D,$F351,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K351" s="13" t="str">
-        <f>IF(AND($C351&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D351,'[1]Data Output'!$C:$C,$E351,'[1]Data Output'!$D:$D,$F351,'[1]Data Output'!$G:$G,$C351,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D351,'[1]Data Output'!$C:$C,$E351,'[1]Data Output'!$G:$G,$C351,'[1]Data Output'!$D:$D,$F351,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="351" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I351" s="13"/>
+      <c r="J351" s="13"/>
+      <c r="K351" s="13"/>
       <c r="M351" s="14"/>
     </row>
-    <row r="352" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I352" s="13" t="str">
-        <f>IF(AND($C352&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D352,'[1]Data Output'!$C:$C,$E352,'[1]Data Output'!$D:$D,$F352,'[1]Data Output'!$G:$G,$C352,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D352,'[1]Data Output'!$C:$C,$E352,'[1]Data Output'!$G:$G,$C352,'[1]Data Output'!$D:$D,$F352,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J352" s="13" t="str">
-        <f>IF(AND($C352&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D352,'[1]Data Output'!$C:$C,$E352,'[1]Data Output'!$D:$D,$F352,'[1]Data Output'!$G:$G,$C352,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D352,'[1]Data Output'!$C:$C,$E352,'[1]Data Output'!$G:$G,$C352,'[1]Data Output'!$D:$D,$F352,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K352" s="13" t="str">
-        <f>IF(AND($C352&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D352,'[1]Data Output'!$C:$C,$E352,'[1]Data Output'!$D:$D,$F352,'[1]Data Output'!$G:$G,$C352,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D352,'[1]Data Output'!$C:$C,$E352,'[1]Data Output'!$G:$G,$C352,'[1]Data Output'!$D:$D,$F352,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="352" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I352" s="13"/>
+      <c r="J352" s="13"/>
+      <c r="K352" s="13"/>
       <c r="M352" s="14"/>
     </row>
-    <row r="353" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I353" s="13" t="str">
-        <f>IF(AND($C353&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D353,'[1]Data Output'!$C:$C,$E353,'[1]Data Output'!$D:$D,$F353,'[1]Data Output'!$G:$G,$C353,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D353,'[1]Data Output'!$C:$C,$E353,'[1]Data Output'!$G:$G,$C353,'[1]Data Output'!$D:$D,$F353,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J353" s="13" t="str">
-        <f>IF(AND($C353&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D353,'[1]Data Output'!$C:$C,$E353,'[1]Data Output'!$D:$D,$F353,'[1]Data Output'!$G:$G,$C353,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D353,'[1]Data Output'!$C:$C,$E353,'[1]Data Output'!$G:$G,$C353,'[1]Data Output'!$D:$D,$F353,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K353" s="13" t="str">
-        <f>IF(AND($C353&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D353,'[1]Data Output'!$C:$C,$E353,'[1]Data Output'!$D:$D,$F353,'[1]Data Output'!$G:$G,$C353,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D353,'[1]Data Output'!$C:$C,$E353,'[1]Data Output'!$G:$G,$C353,'[1]Data Output'!$D:$D,$F353,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="353" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I353" s="13"/>
+      <c r="J353" s="13"/>
+      <c r="K353" s="13"/>
       <c r="M353" s="14"/>
     </row>
-    <row r="354" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I354" s="13" t="str">
-        <f>IF(AND($C354&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D354,'[1]Data Output'!$C:$C,$E354,'[1]Data Output'!$D:$D,$F354,'[1]Data Output'!$G:$G,$C354,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D354,'[1]Data Output'!$C:$C,$E354,'[1]Data Output'!$G:$G,$C354,'[1]Data Output'!$D:$D,$F354,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J354" s="13" t="str">
-        <f>IF(AND($C354&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D354,'[1]Data Output'!$C:$C,$E354,'[1]Data Output'!$D:$D,$F354,'[1]Data Output'!$G:$G,$C354,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D354,'[1]Data Output'!$C:$C,$E354,'[1]Data Output'!$G:$G,$C354,'[1]Data Output'!$D:$D,$F354,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K354" s="13" t="str">
-        <f>IF(AND($C354&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D354,'[1]Data Output'!$C:$C,$E354,'[1]Data Output'!$D:$D,$F354,'[1]Data Output'!$G:$G,$C354,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D354,'[1]Data Output'!$C:$C,$E354,'[1]Data Output'!$G:$G,$C354,'[1]Data Output'!$D:$D,$F354,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="354" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I354" s="13"/>
+      <c r="J354" s="13"/>
+      <c r="K354" s="13"/>
       <c r="M354" s="14"/>
     </row>
-    <row r="355" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I355" s="13" t="str">
-        <f>IF(AND($C355&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D355,'[1]Data Output'!$C:$C,$E355,'[1]Data Output'!$D:$D,$F355,'[1]Data Output'!$G:$G,$C355,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D355,'[1]Data Output'!$C:$C,$E355,'[1]Data Output'!$G:$G,$C355,'[1]Data Output'!$D:$D,$F355,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J355" s="13" t="str">
-        <f>IF(AND($C355&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D355,'[1]Data Output'!$C:$C,$E355,'[1]Data Output'!$D:$D,$F355,'[1]Data Output'!$G:$G,$C355,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D355,'[1]Data Output'!$C:$C,$E355,'[1]Data Output'!$G:$G,$C355,'[1]Data Output'!$D:$D,$F355,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K355" s="13" t="str">
-        <f>IF(AND($C355&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D355,'[1]Data Output'!$C:$C,$E355,'[1]Data Output'!$D:$D,$F355,'[1]Data Output'!$G:$G,$C355,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D355,'[1]Data Output'!$C:$C,$E355,'[1]Data Output'!$G:$G,$C355,'[1]Data Output'!$D:$D,$F355,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="355" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I355" s="13"/>
+      <c r="J355" s="13"/>
+      <c r="K355" s="13"/>
       <c r="M355" s="14"/>
     </row>
-    <row r="356" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I356" s="13" t="str">
-        <f>IF(AND($C356&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D356,'[1]Data Output'!$C:$C,$E356,'[1]Data Output'!$D:$D,$F356,'[1]Data Output'!$G:$G,$C356,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D356,'[1]Data Output'!$C:$C,$E356,'[1]Data Output'!$G:$G,$C356,'[1]Data Output'!$D:$D,$F356,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J356" s="13" t="str">
-        <f>IF(AND($C356&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D356,'[1]Data Output'!$C:$C,$E356,'[1]Data Output'!$D:$D,$F356,'[1]Data Output'!$G:$G,$C356,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D356,'[1]Data Output'!$C:$C,$E356,'[1]Data Output'!$G:$G,$C356,'[1]Data Output'!$D:$D,$F356,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K356" s="13" t="str">
-        <f>IF(AND($C356&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D356,'[1]Data Output'!$C:$C,$E356,'[1]Data Output'!$D:$D,$F356,'[1]Data Output'!$G:$G,$C356,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D356,'[1]Data Output'!$C:$C,$E356,'[1]Data Output'!$G:$G,$C356,'[1]Data Output'!$D:$D,$F356,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="356" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I356" s="13"/>
+      <c r="J356" s="13"/>
+      <c r="K356" s="13"/>
       <c r="M356" s="14"/>
     </row>
-    <row r="357" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I357" s="13" t="str">
-        <f>IF(AND($C357&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D357,'[1]Data Output'!$C:$C,$E357,'[1]Data Output'!$D:$D,$F357,'[1]Data Output'!$G:$G,$C357,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D357,'[1]Data Output'!$C:$C,$E357,'[1]Data Output'!$G:$G,$C357,'[1]Data Output'!$D:$D,$F357,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J357" s="13" t="str">
-        <f>IF(AND($C357&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D357,'[1]Data Output'!$C:$C,$E357,'[1]Data Output'!$D:$D,$F357,'[1]Data Output'!$G:$G,$C357,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D357,'[1]Data Output'!$C:$C,$E357,'[1]Data Output'!$G:$G,$C357,'[1]Data Output'!$D:$D,$F357,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K357" s="13" t="str">
-        <f>IF(AND($C357&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D357,'[1]Data Output'!$C:$C,$E357,'[1]Data Output'!$D:$D,$F357,'[1]Data Output'!$G:$G,$C357,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D357,'[1]Data Output'!$C:$C,$E357,'[1]Data Output'!$G:$G,$C357,'[1]Data Output'!$D:$D,$F357,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="357" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I357" s="13"/>
+      <c r="J357" s="13"/>
+      <c r="K357" s="13"/>
       <c r="M357" s="14"/>
     </row>
-    <row r="358" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I358" s="13" t="str">
-        <f>IF(AND($C358&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D358,'[1]Data Output'!$C:$C,$E358,'[1]Data Output'!$D:$D,$F358,'[1]Data Output'!$G:$G,$C358,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D358,'[1]Data Output'!$C:$C,$E358,'[1]Data Output'!$G:$G,$C358,'[1]Data Output'!$D:$D,$F358,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J358" s="13" t="str">
-        <f>IF(AND($C358&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D358,'[1]Data Output'!$C:$C,$E358,'[1]Data Output'!$D:$D,$F358,'[1]Data Output'!$G:$G,$C358,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D358,'[1]Data Output'!$C:$C,$E358,'[1]Data Output'!$G:$G,$C358,'[1]Data Output'!$D:$D,$F358,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K358" s="13" t="str">
-        <f>IF(AND($C358&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D358,'[1]Data Output'!$C:$C,$E358,'[1]Data Output'!$D:$D,$F358,'[1]Data Output'!$G:$G,$C358,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D358,'[1]Data Output'!$C:$C,$E358,'[1]Data Output'!$G:$G,$C358,'[1]Data Output'!$D:$D,$F358,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="358" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I358" s="13"/>
+      <c r="J358" s="13"/>
+      <c r="K358" s="13"/>
       <c r="M358" s="14"/>
     </row>
-    <row r="359" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I359" s="13" t="str">
-        <f>IF(AND($C359&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D359,'[1]Data Output'!$C:$C,$E359,'[1]Data Output'!$D:$D,$F359,'[1]Data Output'!$G:$G,$C359,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D359,'[1]Data Output'!$C:$C,$E359,'[1]Data Output'!$G:$G,$C359,'[1]Data Output'!$D:$D,$F359,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J359" s="13" t="str">
-        <f>IF(AND($C359&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D359,'[1]Data Output'!$C:$C,$E359,'[1]Data Output'!$D:$D,$F359,'[1]Data Output'!$G:$G,$C359,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D359,'[1]Data Output'!$C:$C,$E359,'[1]Data Output'!$G:$G,$C359,'[1]Data Output'!$D:$D,$F359,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K359" s="13" t="str">
-        <f>IF(AND($C359&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D359,'[1]Data Output'!$C:$C,$E359,'[1]Data Output'!$D:$D,$F359,'[1]Data Output'!$G:$G,$C359,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D359,'[1]Data Output'!$C:$C,$E359,'[1]Data Output'!$G:$G,$C359,'[1]Data Output'!$D:$D,$F359,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="359" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I359" s="13"/>
+      <c r="J359" s="13"/>
+      <c r="K359" s="13"/>
       <c r="M359" s="14"/>
     </row>
-    <row r="360" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I360" s="13" t="str">
-        <f>IF(AND($C360&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D360,'[1]Data Output'!$C:$C,$E360,'[1]Data Output'!$D:$D,$F360,'[1]Data Output'!$G:$G,$C360,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D360,'[1]Data Output'!$C:$C,$E360,'[1]Data Output'!$G:$G,$C360,'[1]Data Output'!$D:$D,$F360,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J360" s="13" t="str">
-        <f>IF(AND($C360&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D360,'[1]Data Output'!$C:$C,$E360,'[1]Data Output'!$D:$D,$F360,'[1]Data Output'!$G:$G,$C360,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D360,'[1]Data Output'!$C:$C,$E360,'[1]Data Output'!$G:$G,$C360,'[1]Data Output'!$D:$D,$F360,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K360" s="13" t="str">
-        <f>IF(AND($C360&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D360,'[1]Data Output'!$C:$C,$E360,'[1]Data Output'!$D:$D,$F360,'[1]Data Output'!$G:$G,$C360,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D360,'[1]Data Output'!$C:$C,$E360,'[1]Data Output'!$G:$G,$C360,'[1]Data Output'!$D:$D,$F360,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="360" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I360" s="13"/>
+      <c r="J360" s="13"/>
+      <c r="K360" s="13"/>
       <c r="M360" s="14"/>
     </row>
-    <row r="361" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I361" s="13" t="str">
-        <f>IF(AND($C361&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D361,'[1]Data Output'!$C:$C,$E361,'[1]Data Output'!$D:$D,$F361,'[1]Data Output'!$G:$G,$C361,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D361,'[1]Data Output'!$C:$C,$E361,'[1]Data Output'!$G:$G,$C361,'[1]Data Output'!$D:$D,$F361,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J361" s="13" t="str">
-        <f>IF(AND($C361&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D361,'[1]Data Output'!$C:$C,$E361,'[1]Data Output'!$D:$D,$F361,'[1]Data Output'!$G:$G,$C361,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D361,'[1]Data Output'!$C:$C,$E361,'[1]Data Output'!$G:$G,$C361,'[1]Data Output'!$D:$D,$F361,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K361" s="13" t="str">
-        <f>IF(AND($C361&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D361,'[1]Data Output'!$C:$C,$E361,'[1]Data Output'!$D:$D,$F361,'[1]Data Output'!$G:$G,$C361,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D361,'[1]Data Output'!$C:$C,$E361,'[1]Data Output'!$G:$G,$C361,'[1]Data Output'!$D:$D,$F361,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="361" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I361" s="13"/>
+      <c r="J361" s="13"/>
+      <c r="K361" s="13"/>
       <c r="M361" s="14"/>
     </row>
-    <row r="362" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I362" s="13" t="str">
-        <f>IF(AND($C362&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D362,'[1]Data Output'!$C:$C,$E362,'[1]Data Output'!$D:$D,$F362,'[1]Data Output'!$G:$G,$C362,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D362,'[1]Data Output'!$C:$C,$E362,'[1]Data Output'!$G:$G,$C362,'[1]Data Output'!$D:$D,$F362,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J362" s="13" t="str">
-        <f>IF(AND($C362&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D362,'[1]Data Output'!$C:$C,$E362,'[1]Data Output'!$D:$D,$F362,'[1]Data Output'!$G:$G,$C362,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D362,'[1]Data Output'!$C:$C,$E362,'[1]Data Output'!$G:$G,$C362,'[1]Data Output'!$D:$D,$F362,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K362" s="13" t="str">
-        <f>IF(AND($C362&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D362,'[1]Data Output'!$C:$C,$E362,'[1]Data Output'!$D:$D,$F362,'[1]Data Output'!$G:$G,$C362,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D362,'[1]Data Output'!$C:$C,$E362,'[1]Data Output'!$G:$G,$C362,'[1]Data Output'!$D:$D,$F362,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="362" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I362" s="13"/>
+      <c r="J362" s="13"/>
+      <c r="K362" s="13"/>
       <c r="M362" s="14"/>
     </row>
-    <row r="363" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I363" s="13" t="str">
-        <f>IF(AND($C363&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D363,'[1]Data Output'!$C:$C,$E363,'[1]Data Output'!$D:$D,$F363,'[1]Data Output'!$G:$G,$C363,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D363,'[1]Data Output'!$C:$C,$E363,'[1]Data Output'!$G:$G,$C363,'[1]Data Output'!$D:$D,$F363,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J363" s="13" t="str">
-        <f>IF(AND($C363&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D363,'[1]Data Output'!$C:$C,$E363,'[1]Data Output'!$D:$D,$F363,'[1]Data Output'!$G:$G,$C363,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D363,'[1]Data Output'!$C:$C,$E363,'[1]Data Output'!$G:$G,$C363,'[1]Data Output'!$D:$D,$F363,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K363" s="13" t="str">
-        <f>IF(AND($C363&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D363,'[1]Data Output'!$C:$C,$E363,'[1]Data Output'!$D:$D,$F363,'[1]Data Output'!$G:$G,$C363,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D363,'[1]Data Output'!$C:$C,$E363,'[1]Data Output'!$G:$G,$C363,'[1]Data Output'!$D:$D,$F363,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="363" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I363" s="13"/>
+      <c r="J363" s="13"/>
+      <c r="K363" s="13"/>
       <c r="M363" s="14"/>
     </row>
-    <row r="364" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I364" s="13" t="str">
-        <f>IF(AND($C364&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D364,'[1]Data Output'!$C:$C,$E364,'[1]Data Output'!$D:$D,$F364,'[1]Data Output'!$G:$G,$C364,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D364,'[1]Data Output'!$C:$C,$E364,'[1]Data Output'!$G:$G,$C364,'[1]Data Output'!$D:$D,$F364,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J364" s="13" t="str">
-        <f>IF(AND($C364&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D364,'[1]Data Output'!$C:$C,$E364,'[1]Data Output'!$D:$D,$F364,'[1]Data Output'!$G:$G,$C364,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D364,'[1]Data Output'!$C:$C,$E364,'[1]Data Output'!$G:$G,$C364,'[1]Data Output'!$D:$D,$F364,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K364" s="13" t="str">
-        <f>IF(AND($C364&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D364,'[1]Data Output'!$C:$C,$E364,'[1]Data Output'!$D:$D,$F364,'[1]Data Output'!$G:$G,$C364,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D364,'[1]Data Output'!$C:$C,$E364,'[1]Data Output'!$G:$G,$C364,'[1]Data Output'!$D:$D,$F364,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="364" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I364" s="13"/>
+      <c r="J364" s="13"/>
+      <c r="K364" s="13"/>
       <c r="M364" s="14"/>
     </row>
-    <row r="365" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I365" s="13" t="str">
-        <f>IF(AND($C365&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D365,'[1]Data Output'!$C:$C,$E365,'[1]Data Output'!$D:$D,$F365,'[1]Data Output'!$G:$G,$C365,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D365,'[1]Data Output'!$C:$C,$E365,'[1]Data Output'!$G:$G,$C365,'[1]Data Output'!$D:$D,$F365,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J365" s="13" t="str">
-        <f>IF(AND($C365&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D365,'[1]Data Output'!$C:$C,$E365,'[1]Data Output'!$D:$D,$F365,'[1]Data Output'!$G:$G,$C365,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D365,'[1]Data Output'!$C:$C,$E365,'[1]Data Output'!$G:$G,$C365,'[1]Data Output'!$D:$D,$F365,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K365" s="13" t="str">
-        <f>IF(AND($C365&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D365,'[1]Data Output'!$C:$C,$E365,'[1]Data Output'!$D:$D,$F365,'[1]Data Output'!$G:$G,$C365,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D365,'[1]Data Output'!$C:$C,$E365,'[1]Data Output'!$G:$G,$C365,'[1]Data Output'!$D:$D,$F365,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="365" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I365" s="13"/>
+      <c r="J365" s="13"/>
+      <c r="K365" s="13"/>
       <c r="M365" s="14"/>
     </row>
-    <row r="366" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I366" s="13" t="str">
-        <f>IF(AND($C366&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D366,'[1]Data Output'!$C:$C,$E366,'[1]Data Output'!$D:$D,$F366,'[1]Data Output'!$G:$G,$C366,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D366,'[1]Data Output'!$C:$C,$E366,'[1]Data Output'!$G:$G,$C366,'[1]Data Output'!$D:$D,$F366,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J366" s="13" t="str">
-        <f>IF(AND($C366&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D366,'[1]Data Output'!$C:$C,$E366,'[1]Data Output'!$D:$D,$F366,'[1]Data Output'!$G:$G,$C366,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D366,'[1]Data Output'!$C:$C,$E366,'[1]Data Output'!$G:$G,$C366,'[1]Data Output'!$D:$D,$F366,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K366" s="13" t="str">
-        <f>IF(AND($C366&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D366,'[1]Data Output'!$C:$C,$E366,'[1]Data Output'!$D:$D,$F366,'[1]Data Output'!$G:$G,$C366,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D366,'[1]Data Output'!$C:$C,$E366,'[1]Data Output'!$G:$G,$C366,'[1]Data Output'!$D:$D,$F366,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="366" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I366" s="13"/>
+      <c r="J366" s="13"/>
+      <c r="K366" s="13"/>
       <c r="M366" s="14"/>
     </row>
-    <row r="367" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I367" s="13" t="str">
-        <f>IF(AND($C367&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D367,'[1]Data Output'!$C:$C,$E367,'[1]Data Output'!$D:$D,$F367,'[1]Data Output'!$G:$G,$C367,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D367,'[1]Data Output'!$C:$C,$E367,'[1]Data Output'!$G:$G,$C367,'[1]Data Output'!$D:$D,$F367,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J367" s="13" t="str">
-        <f>IF(AND($C367&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D367,'[1]Data Output'!$C:$C,$E367,'[1]Data Output'!$D:$D,$F367,'[1]Data Output'!$G:$G,$C367,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D367,'[1]Data Output'!$C:$C,$E367,'[1]Data Output'!$G:$G,$C367,'[1]Data Output'!$D:$D,$F367,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K367" s="13" t="str">
-        <f>IF(AND($C367&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D367,'[1]Data Output'!$C:$C,$E367,'[1]Data Output'!$D:$D,$F367,'[1]Data Output'!$G:$G,$C367,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D367,'[1]Data Output'!$C:$C,$E367,'[1]Data Output'!$G:$G,$C367,'[1]Data Output'!$D:$D,$F367,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="367" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I367" s="13"/>
+      <c r="J367" s="13"/>
+      <c r="K367" s="13"/>
       <c r="M367" s="14"/>
     </row>
-    <row r="368" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I368" s="13" t="str">
-        <f>IF(AND($C368&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D368,'[1]Data Output'!$C:$C,$E368,'[1]Data Output'!$D:$D,$F368,'[1]Data Output'!$G:$G,$C368,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D368,'[1]Data Output'!$C:$C,$E368,'[1]Data Output'!$G:$G,$C368,'[1]Data Output'!$D:$D,$F368,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J368" s="13" t="str">
-        <f>IF(AND($C368&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D368,'[1]Data Output'!$C:$C,$E368,'[1]Data Output'!$D:$D,$F368,'[1]Data Output'!$G:$G,$C368,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D368,'[1]Data Output'!$C:$C,$E368,'[1]Data Output'!$G:$G,$C368,'[1]Data Output'!$D:$D,$F368,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K368" s="13" t="str">
-        <f>IF(AND($C368&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D368,'[1]Data Output'!$C:$C,$E368,'[1]Data Output'!$D:$D,$F368,'[1]Data Output'!$G:$G,$C368,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D368,'[1]Data Output'!$C:$C,$E368,'[1]Data Output'!$G:$G,$C368,'[1]Data Output'!$D:$D,$F368,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="368" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I368" s="13"/>
+      <c r="J368" s="13"/>
+      <c r="K368" s="13"/>
       <c r="M368" s="14"/>
     </row>
-    <row r="369" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I369" s="13" t="str">
-        <f>IF(AND($C369&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D369,'[1]Data Output'!$C:$C,$E369,'[1]Data Output'!$D:$D,$F369,'[1]Data Output'!$G:$G,$C369,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D369,'[1]Data Output'!$C:$C,$E369,'[1]Data Output'!$G:$G,$C369,'[1]Data Output'!$D:$D,$F369,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J369" s="13" t="str">
-        <f>IF(AND($C369&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D369,'[1]Data Output'!$C:$C,$E369,'[1]Data Output'!$D:$D,$F369,'[1]Data Output'!$G:$G,$C369,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D369,'[1]Data Output'!$C:$C,$E369,'[1]Data Output'!$G:$G,$C369,'[1]Data Output'!$D:$D,$F369,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K369" s="13" t="str">
-        <f>IF(AND($C369&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D369,'[1]Data Output'!$C:$C,$E369,'[1]Data Output'!$D:$D,$F369,'[1]Data Output'!$G:$G,$C369,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D369,'[1]Data Output'!$C:$C,$E369,'[1]Data Output'!$G:$G,$C369,'[1]Data Output'!$D:$D,$F369,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="369" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I369" s="13"/>
+      <c r="J369" s="13"/>
+      <c r="K369" s="13"/>
       <c r="M369" s="14"/>
     </row>
-    <row r="370" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I370" s="13" t="str">
-        <f>IF(AND($C370&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D370,'[1]Data Output'!$C:$C,$E370,'[1]Data Output'!$D:$D,$F370,'[1]Data Output'!$G:$G,$C370,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D370,'[1]Data Output'!$C:$C,$E370,'[1]Data Output'!$G:$G,$C370,'[1]Data Output'!$D:$D,$F370,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J370" s="13" t="str">
-        <f>IF(AND($C370&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D370,'[1]Data Output'!$C:$C,$E370,'[1]Data Output'!$D:$D,$F370,'[1]Data Output'!$G:$G,$C370,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D370,'[1]Data Output'!$C:$C,$E370,'[1]Data Output'!$G:$G,$C370,'[1]Data Output'!$D:$D,$F370,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K370" s="13" t="str">
-        <f>IF(AND($C370&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D370,'[1]Data Output'!$C:$C,$E370,'[1]Data Output'!$D:$D,$F370,'[1]Data Output'!$G:$G,$C370,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D370,'[1]Data Output'!$C:$C,$E370,'[1]Data Output'!$G:$G,$C370,'[1]Data Output'!$D:$D,$F370,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="370" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I370" s="13"/>
+      <c r="J370" s="13"/>
+      <c r="K370" s="13"/>
       <c r="M370" s="14"/>
     </row>
-    <row r="371" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I371" s="13" t="str">
-        <f>IF(AND($C371&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D371,'[1]Data Output'!$C:$C,$E371,'[1]Data Output'!$D:$D,$F371,'[1]Data Output'!$G:$G,$C371,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D371,'[1]Data Output'!$C:$C,$E371,'[1]Data Output'!$G:$G,$C371,'[1]Data Output'!$D:$D,$F371,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J371" s="13" t="str">
-        <f>IF(AND($C371&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D371,'[1]Data Output'!$C:$C,$E371,'[1]Data Output'!$D:$D,$F371,'[1]Data Output'!$G:$G,$C371,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D371,'[1]Data Output'!$C:$C,$E371,'[1]Data Output'!$G:$G,$C371,'[1]Data Output'!$D:$D,$F371,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K371" s="13" t="str">
-        <f>IF(AND($C371&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D371,'[1]Data Output'!$C:$C,$E371,'[1]Data Output'!$D:$D,$F371,'[1]Data Output'!$G:$G,$C371,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D371,'[1]Data Output'!$C:$C,$E371,'[1]Data Output'!$G:$G,$C371,'[1]Data Output'!$D:$D,$F371,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="371" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I371" s="13"/>
+      <c r="J371" s="13"/>
+      <c r="K371" s="13"/>
       <c r="M371" s="14"/>
     </row>
-    <row r="372" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I372" s="13" t="str">
-        <f>IF(AND($C372&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D372,'[1]Data Output'!$C:$C,$E372,'[1]Data Output'!$D:$D,$F372,'[1]Data Output'!$G:$G,$C372,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D372,'[1]Data Output'!$C:$C,$E372,'[1]Data Output'!$G:$G,$C372,'[1]Data Output'!$D:$D,$F372,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J372" s="13" t="str">
-        <f>IF(AND($C372&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D372,'[1]Data Output'!$C:$C,$E372,'[1]Data Output'!$D:$D,$F372,'[1]Data Output'!$G:$G,$C372,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D372,'[1]Data Output'!$C:$C,$E372,'[1]Data Output'!$G:$G,$C372,'[1]Data Output'!$D:$D,$F372,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K372" s="13" t="str">
-        <f>IF(AND($C372&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D372,'[1]Data Output'!$C:$C,$E372,'[1]Data Output'!$D:$D,$F372,'[1]Data Output'!$G:$G,$C372,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D372,'[1]Data Output'!$C:$C,$E372,'[1]Data Output'!$G:$G,$C372,'[1]Data Output'!$D:$D,$F372,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="372" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I372" s="13"/>
+      <c r="J372" s="13"/>
+      <c r="K372" s="13"/>
       <c r="M372" s="14"/>
     </row>
-    <row r="373" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I373" s="13" t="str">
-        <f>IF(AND($C373&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D373,'[1]Data Output'!$C:$C,$E373,'[1]Data Output'!$D:$D,$F373,'[1]Data Output'!$G:$G,$C373,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D373,'[1]Data Output'!$C:$C,$E373,'[1]Data Output'!$G:$G,$C373,'[1]Data Output'!$D:$D,$F373,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J373" s="13" t="str">
-        <f>IF(AND($C373&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D373,'[1]Data Output'!$C:$C,$E373,'[1]Data Output'!$D:$D,$F373,'[1]Data Output'!$G:$G,$C373,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D373,'[1]Data Output'!$C:$C,$E373,'[1]Data Output'!$G:$G,$C373,'[1]Data Output'!$D:$D,$F373,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K373" s="13" t="str">
-        <f>IF(AND($C373&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D373,'[1]Data Output'!$C:$C,$E373,'[1]Data Output'!$D:$D,$F373,'[1]Data Output'!$G:$G,$C373,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D373,'[1]Data Output'!$C:$C,$E373,'[1]Data Output'!$G:$G,$C373,'[1]Data Output'!$D:$D,$F373,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="373" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I373" s="13"/>
+      <c r="J373" s="13"/>
+      <c r="K373" s="13"/>
       <c r="M373" s="14"/>
     </row>
-    <row r="374" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I374" s="13" t="str">
-        <f>IF(AND($C374&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D374,'[1]Data Output'!$C:$C,$E374,'[1]Data Output'!$D:$D,$F374,'[1]Data Output'!$G:$G,$C374,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D374,'[1]Data Output'!$C:$C,$E374,'[1]Data Output'!$G:$G,$C374,'[1]Data Output'!$D:$D,$F374,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J374" s="13" t="str">
-        <f>IF(AND($C374&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D374,'[1]Data Output'!$C:$C,$E374,'[1]Data Output'!$D:$D,$F374,'[1]Data Output'!$G:$G,$C374,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D374,'[1]Data Output'!$C:$C,$E374,'[1]Data Output'!$G:$G,$C374,'[1]Data Output'!$D:$D,$F374,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K374" s="13" t="str">
-        <f>IF(AND($C374&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D374,'[1]Data Output'!$C:$C,$E374,'[1]Data Output'!$D:$D,$F374,'[1]Data Output'!$G:$G,$C374,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D374,'[1]Data Output'!$C:$C,$E374,'[1]Data Output'!$G:$G,$C374,'[1]Data Output'!$D:$D,$F374,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="374" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I374" s="13"/>
+      <c r="J374" s="13"/>
+      <c r="K374" s="13"/>
       <c r="M374" s="14"/>
     </row>
-    <row r="375" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I375" s="13" t="str">
-        <f>IF(AND($C375&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D375,'[1]Data Output'!$C:$C,$E375,'[1]Data Output'!$D:$D,$F375,'[1]Data Output'!$G:$G,$C375,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D375,'[1]Data Output'!$C:$C,$E375,'[1]Data Output'!$G:$G,$C375,'[1]Data Output'!$D:$D,$F375,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J375" s="13" t="str">
-        <f>IF(AND($C375&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D375,'[1]Data Output'!$C:$C,$E375,'[1]Data Output'!$D:$D,$F375,'[1]Data Output'!$G:$G,$C375,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D375,'[1]Data Output'!$C:$C,$E375,'[1]Data Output'!$G:$G,$C375,'[1]Data Output'!$D:$D,$F375,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K375" s="13" t="str">
-        <f>IF(AND($C375&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D375,'[1]Data Output'!$C:$C,$E375,'[1]Data Output'!$D:$D,$F375,'[1]Data Output'!$G:$G,$C375,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D375,'[1]Data Output'!$C:$C,$E375,'[1]Data Output'!$G:$G,$C375,'[1]Data Output'!$D:$D,$F375,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="375" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I375" s="13"/>
+      <c r="J375" s="13"/>
+      <c r="K375" s="13"/>
       <c r="M375" s="14"/>
     </row>
-    <row r="376" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I376" s="13" t="str">
-        <f>IF(AND($C376&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D376,'[1]Data Output'!$C:$C,$E376,'[1]Data Output'!$D:$D,$F376,'[1]Data Output'!$G:$G,$C376,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D376,'[1]Data Output'!$C:$C,$E376,'[1]Data Output'!$G:$G,$C376,'[1]Data Output'!$D:$D,$F376,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J376" s="13" t="str">
-        <f>IF(AND($C376&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D376,'[1]Data Output'!$C:$C,$E376,'[1]Data Output'!$D:$D,$F376,'[1]Data Output'!$G:$G,$C376,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D376,'[1]Data Output'!$C:$C,$E376,'[1]Data Output'!$G:$G,$C376,'[1]Data Output'!$D:$D,$F376,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K376" s="13" t="str">
-        <f>IF(AND($C376&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D376,'[1]Data Output'!$C:$C,$E376,'[1]Data Output'!$D:$D,$F376,'[1]Data Output'!$G:$G,$C376,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D376,'[1]Data Output'!$C:$C,$E376,'[1]Data Output'!$G:$G,$C376,'[1]Data Output'!$D:$D,$F376,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="376" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I376" s="13"/>
+      <c r="J376" s="13"/>
+      <c r="K376" s="13"/>
       <c r="M376" s="14"/>
     </row>
-    <row r="377" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I377" s="13" t="str">
-        <f>IF(AND($C377&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D377,'[1]Data Output'!$C:$C,$E377,'[1]Data Output'!$D:$D,$F377,'[1]Data Output'!$G:$G,$C377,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D377,'[1]Data Output'!$C:$C,$E377,'[1]Data Output'!$G:$G,$C377,'[1]Data Output'!$D:$D,$F377,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J377" s="13" t="str">
-        <f>IF(AND($C377&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D377,'[1]Data Output'!$C:$C,$E377,'[1]Data Output'!$D:$D,$F377,'[1]Data Output'!$G:$G,$C377,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D377,'[1]Data Output'!$C:$C,$E377,'[1]Data Output'!$G:$G,$C377,'[1]Data Output'!$D:$D,$F377,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K377" s="13" t="str">
-        <f>IF(AND($C377&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D377,'[1]Data Output'!$C:$C,$E377,'[1]Data Output'!$D:$D,$F377,'[1]Data Output'!$G:$G,$C377,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D377,'[1]Data Output'!$C:$C,$E377,'[1]Data Output'!$G:$G,$C377,'[1]Data Output'!$D:$D,$F377,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="377" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I377" s="13"/>
+      <c r="J377" s="13"/>
+      <c r="K377" s="13"/>
       <c r="M377" s="14"/>
     </row>
-    <row r="378" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I378" s="13" t="str">
-        <f>IF(AND($C378&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D378,'[1]Data Output'!$C:$C,$E378,'[1]Data Output'!$D:$D,$F378,'[1]Data Output'!$G:$G,$C378,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D378,'[1]Data Output'!$C:$C,$E378,'[1]Data Output'!$G:$G,$C378,'[1]Data Output'!$D:$D,$F378,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J378" s="13" t="str">
-        <f>IF(AND($C378&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D378,'[1]Data Output'!$C:$C,$E378,'[1]Data Output'!$D:$D,$F378,'[1]Data Output'!$G:$G,$C378,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D378,'[1]Data Output'!$C:$C,$E378,'[1]Data Output'!$G:$G,$C378,'[1]Data Output'!$D:$D,$F378,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K378" s="13" t="str">
-        <f>IF(AND($C378&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D378,'[1]Data Output'!$C:$C,$E378,'[1]Data Output'!$D:$D,$F378,'[1]Data Output'!$G:$G,$C378,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D378,'[1]Data Output'!$C:$C,$E378,'[1]Data Output'!$G:$G,$C378,'[1]Data Output'!$D:$D,$F378,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="378" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I378" s="13"/>
+      <c r="J378" s="13"/>
+      <c r="K378" s="13"/>
       <c r="M378" s="14"/>
     </row>
-    <row r="379" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I379" s="13" t="str">
-        <f>IF(AND($C379&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D379,'[1]Data Output'!$C:$C,$E379,'[1]Data Output'!$D:$D,$F379,'[1]Data Output'!$G:$G,$C379,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D379,'[1]Data Output'!$C:$C,$E379,'[1]Data Output'!$G:$G,$C379,'[1]Data Output'!$D:$D,$F379,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J379" s="13" t="str">
-        <f>IF(AND($C379&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D379,'[1]Data Output'!$C:$C,$E379,'[1]Data Output'!$D:$D,$F379,'[1]Data Output'!$G:$G,$C379,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D379,'[1]Data Output'!$C:$C,$E379,'[1]Data Output'!$G:$G,$C379,'[1]Data Output'!$D:$D,$F379,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K379" s="13" t="str">
-        <f>IF(AND($C379&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D379,'[1]Data Output'!$C:$C,$E379,'[1]Data Output'!$D:$D,$F379,'[1]Data Output'!$G:$G,$C379,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D379,'[1]Data Output'!$C:$C,$E379,'[1]Data Output'!$G:$G,$C379,'[1]Data Output'!$D:$D,$F379,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="379" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I379" s="13"/>
+      <c r="J379" s="13"/>
+      <c r="K379" s="13"/>
       <c r="M379" s="14"/>
     </row>
-    <row r="380" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I380" s="13" t="str">
-        <f>IF(AND($C380&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D380,'[1]Data Output'!$C:$C,$E380,'[1]Data Output'!$D:$D,$F380,'[1]Data Output'!$G:$G,$C380,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D380,'[1]Data Output'!$C:$C,$E380,'[1]Data Output'!$G:$G,$C380,'[1]Data Output'!$D:$D,$F380,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J380" s="13" t="str">
-        <f>IF(AND($C380&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D380,'[1]Data Output'!$C:$C,$E380,'[1]Data Output'!$D:$D,$F380,'[1]Data Output'!$G:$G,$C380,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D380,'[1]Data Output'!$C:$C,$E380,'[1]Data Output'!$G:$G,$C380,'[1]Data Output'!$D:$D,$F380,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K380" s="13" t="str">
-        <f>IF(AND($C380&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D380,'[1]Data Output'!$C:$C,$E380,'[1]Data Output'!$D:$D,$F380,'[1]Data Output'!$G:$G,$C380,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D380,'[1]Data Output'!$C:$C,$E380,'[1]Data Output'!$G:$G,$C380,'[1]Data Output'!$D:$D,$F380,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="380" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I380" s="13"/>
+      <c r="J380" s="13"/>
+      <c r="K380" s="13"/>
       <c r="M380" s="14"/>
     </row>
-    <row r="381" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I381" s="13" t="str">
-        <f>IF(AND($C381&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D381,'[1]Data Output'!$C:$C,$E381,'[1]Data Output'!$D:$D,$F381,'[1]Data Output'!$G:$G,$C381,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D381,'[1]Data Output'!$C:$C,$E381,'[1]Data Output'!$G:$G,$C381,'[1]Data Output'!$D:$D,$F381,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J381" s="13" t="str">
-        <f>IF(AND($C381&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D381,'[1]Data Output'!$C:$C,$E381,'[1]Data Output'!$D:$D,$F381,'[1]Data Output'!$G:$G,$C381,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D381,'[1]Data Output'!$C:$C,$E381,'[1]Data Output'!$G:$G,$C381,'[1]Data Output'!$D:$D,$F381,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K381" s="13" t="str">
-        <f>IF(AND($C381&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D381,'[1]Data Output'!$C:$C,$E381,'[1]Data Output'!$D:$D,$F381,'[1]Data Output'!$G:$G,$C381,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D381,'[1]Data Output'!$C:$C,$E381,'[1]Data Output'!$G:$G,$C381,'[1]Data Output'!$D:$D,$F381,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="381" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I381" s="13"/>
+      <c r="J381" s="13"/>
+      <c r="K381" s="13"/>
       <c r="M381" s="14"/>
     </row>
-    <row r="382" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I382" s="13" t="str">
-        <f>IF(AND($C382&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D382,'[1]Data Output'!$C:$C,$E382,'[1]Data Output'!$D:$D,$F382,'[1]Data Output'!$G:$G,$C382,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D382,'[1]Data Output'!$C:$C,$E382,'[1]Data Output'!$G:$G,$C382,'[1]Data Output'!$D:$D,$F382,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J382" s="13" t="str">
-        <f>IF(AND($C382&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D382,'[1]Data Output'!$C:$C,$E382,'[1]Data Output'!$D:$D,$F382,'[1]Data Output'!$G:$G,$C382,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D382,'[1]Data Output'!$C:$C,$E382,'[1]Data Output'!$G:$G,$C382,'[1]Data Output'!$D:$D,$F382,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K382" s="13" t="str">
-        <f>IF(AND($C382&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D382,'[1]Data Output'!$C:$C,$E382,'[1]Data Output'!$D:$D,$F382,'[1]Data Output'!$G:$G,$C382,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D382,'[1]Data Output'!$C:$C,$E382,'[1]Data Output'!$G:$G,$C382,'[1]Data Output'!$D:$D,$F382,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="382" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I382" s="13"/>
+      <c r="J382" s="13"/>
+      <c r="K382" s="13"/>
       <c r="M382" s="14"/>
     </row>
-    <row r="383" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I383" s="13" t="str">
-        <f>IF(AND($C383&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D383,'[1]Data Output'!$C:$C,$E383,'[1]Data Output'!$D:$D,$F383,'[1]Data Output'!$G:$G,$C383,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D383,'[1]Data Output'!$C:$C,$E383,'[1]Data Output'!$G:$G,$C383,'[1]Data Output'!$D:$D,$F383,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J383" s="13" t="str">
-        <f>IF(AND($C383&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D383,'[1]Data Output'!$C:$C,$E383,'[1]Data Output'!$D:$D,$F383,'[1]Data Output'!$G:$G,$C383,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D383,'[1]Data Output'!$C:$C,$E383,'[1]Data Output'!$G:$G,$C383,'[1]Data Output'!$D:$D,$F383,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K383" s="13" t="str">
-        <f>IF(AND($C383&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D383,'[1]Data Output'!$C:$C,$E383,'[1]Data Output'!$D:$D,$F383,'[1]Data Output'!$G:$G,$C383,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D383,'[1]Data Output'!$C:$C,$E383,'[1]Data Output'!$G:$G,$C383,'[1]Data Output'!$D:$D,$F383,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="383" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I383" s="13"/>
+      <c r="J383" s="13"/>
+      <c r="K383" s="13"/>
       <c r="M383" s="14"/>
     </row>
-    <row r="384" spans="9:13" x14ac:dyDescent="0.35">
-      <c r="I384" s="13" t="str">
-        <f>IF(AND($C384&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D384,'[1]Data Output'!$C:$C,$E384,'[1]Data Output'!$D:$D,$F384,'[1]Data Output'!$G:$G,$C384,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D384,'[1]Data Output'!$C:$C,$E384,'[1]Data Output'!$G:$G,$C384,'[1]Data Output'!$D:$D,$F384,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J384" s="13" t="str">
-        <f>IF(AND($C384&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D384,'[1]Data Output'!$C:$C,$E384,'[1]Data Output'!$D:$D,$F384,'[1]Data Output'!$G:$G,$C384,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D384,'[1]Data Output'!$C:$C,$E384,'[1]Data Output'!$G:$G,$C384,'[1]Data Output'!$D:$D,$F384,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K384" s="13" t="str">
-        <f>IF(AND($C384&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D384,'[1]Data Output'!$C:$C,$E384,'[1]Data Output'!$D:$D,$F384,'[1]Data Output'!$G:$G,$C384,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D384,'[1]Data Output'!$C:$C,$E384,'[1]Data Output'!$G:$G,$C384,'[1]Data Output'!$D:$D,$F384,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="384" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I384" s="13"/>
+      <c r="J384" s="13"/>
+      <c r="K384" s="13"/>
       <c r="M384" s="14"/>
     </row>
-    <row r="385" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I385" s="13" t="str">
-        <f>IF(AND($C385&lt;&gt;"",I$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(I$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(I$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D385,'[1]Data Output'!$C:$C,$E385,'[1]Data Output'!$D:$D,$F385,'[1]Data Output'!$G:$G,$C385,'[1]Data Output'!$Y:$Y,I$8),""),IF(DAY(I$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D385,'[1]Data Output'!$C:$C,$E385,'[1]Data Output'!$G:$G,$C385,'[1]Data Output'!$D:$D,$F385,'[1]Data Output'!$Y:$Y,I$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="J385" s="13" t="str">
-        <f>IF(AND($C385&lt;&gt;"",J$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(J$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(J$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D385,'[1]Data Output'!$C:$C,$E385,'[1]Data Output'!$D:$D,$F385,'[1]Data Output'!$G:$G,$C385,'[1]Data Output'!$Y:$Y,J$8),""),IF(DAY(J$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D385,'[1]Data Output'!$C:$C,$E385,'[1]Data Output'!$G:$G,$C385,'[1]Data Output'!$D:$D,$F385,'[1]Data Output'!$Y:$Y,J$8),"")),"")</f>
-        <v/>
-      </c>
-      <c r="K385" s="13" t="str">
-        <f>IF(AND($C385&lt;&gt;"",K$8&lt;&gt;""),IF(DAY($C$4)=15,IF(AND(DAY(K$8)&lt;=DAY($C$4),MONTH($I$8)=MONTH(K$8)),SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D385,'[1]Data Output'!$C:$C,$E385,'[1]Data Output'!$D:$D,$F385,'[1]Data Output'!$G:$G,$C385,'[1]Data Output'!$Y:$Y,K$8),""),IF(DAY(K$8)+4&gt;15,SUMIFS('[1]Data Output'!$AK:$AK,'[1]Data Output'!$B:$B,$D385,'[1]Data Output'!$C:$C,$E385,'[1]Data Output'!$G:$G,$C385,'[1]Data Output'!$D:$D,$F385,'[1]Data Output'!$Y:$Y,K$8),"")),"")</f>
-        <v/>
-      </c>
+    <row r="385" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I385" s="13"/>
+      <c r="J385" s="13"/>
+      <c r="K385" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="C8:K351"/>
@@ -68121,15 +62270,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>53340</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1822450</xdr:colOff>
+                    <xdr:colOff>1821180</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>146050</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
